--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kimyongrok\EZcareT\보라매SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kim-yongrok/Github_Blog/EZcareT/보라매SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7644FE-DD21-4A90-BDA5-0E5F0C963CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176B4272-EE5D-1D4F-88A5-14EE2F7EC678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="30" windowWidth="16440" windowHeight="28320" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17660" activeTab="1" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="was" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="1169">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3312,9 +3312,6 @@
     <t>RELI_TYP</t>
   </si>
   <si>
-    <t>종교구분</t>
-  </si>
-  <si>
     <t>HOLT_NO</t>
   </si>
   <si>
@@ -3331,9 +3328,6 @@
   </si>
   <si>
     <t>INORD_CD</t>
-  </si>
-  <si>
-    <t>예외환자코드</t>
   </si>
   <si>
     <t>CASHRCP_RCPCARD</t>
@@ -3716,6 +3710,15 @@
 ;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>컬럼명</t>
+  </si>
+  <si>
+    <t>타입</t>
+  </si>
+  <si>
+    <t>명칭</t>
+  </si>
 </sst>
 </file>
 
@@ -3725,7 +3728,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3733,14 +3736,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -3748,14 +3751,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -4213,7 +4216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4421,6 +4424,75 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4430,67 +4502,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4580,54 +4625,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4643,7 +4643,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4961,56 +4961,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
     <col min="7" max="7" width="9" style="17"/>
-    <col min="8" max="8" width="15.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="48.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="64.375" customWidth="1"/>
-    <col min="11" max="11" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="48.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="64.33203125" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="69" t="s">
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="J1" s="69" t="s">
+      <c r="J1" s="92" t="s">
         <v>354</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="92" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
       <c r="D2" s="4">
         <v>240711</v>
       </c>
@@ -5023,16 +5023,16 @@
       <c r="G2" s="4">
         <v>240725</v>
       </c>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="75" t="s">
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -5061,9 +5061,9 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="76"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="95"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -5084,9 +5084,9 @@
       <c r="J4" s="8"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="95"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -5107,90 +5107,90 @@
       <c r="J5" s="8"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="74" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="95"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="81" t="s">
+      <c r="F6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="83" t="s">
+      <c r="H6" s="79" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="86" t="s">
+      <c r="J6" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="84"/>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="95"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="72"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="84"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="84"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="95"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="72"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="85"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="95"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="73"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="78"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="95"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="6">
         <v>240718</v>
       </c>
@@ -5202,9 +5202,9 @@
       </c>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="95"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -5225,22 +5225,22 @@
       <c r="J11" s="8"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="74" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="95"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="81" t="s">
+      <c r="F12" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="81" t="s">
+      <c r="G12" s="85" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="19" t="s">
@@ -5254,15 +5254,15 @@
       </c>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="74">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="95"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="77">
         <v>240718</v>
       </c>
       <c r="I13" s="8" t="s">
@@ -5271,30 +5271,30 @@
       <c r="J13" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="K13" s="71" t="s">
+      <c r="K13" s="94" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="73"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="95"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="78"/>
       <c r="I14" s="8" t="s">
         <v>97</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="73"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="K14" s="78"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="95"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -5315,9 +5315,9 @@
       <c r="J15" s="8"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="95"/>
+      <c r="B16" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -5340,9 +5340,9 @@
       <c r="J16" s="8"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="95"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -5363,9 +5363,9 @@
       <c r="J17" s="8"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="95"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -5386,53 +5386,53 @@
       <c r="J18" s="8"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="74" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="95"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="81" t="s">
+      <c r="D19" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="74" t="s">
+      <c r="E19" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="G19" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="83" t="s">
+      <c r="H19" s="79" t="s">
         <v>86</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="86" t="s">
+      <c r="J19" s="74" t="s">
         <v>57</v>
       </c>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="85"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="95"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="80"/>
       <c r="I20" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J20" s="88"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="95"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -5453,9 +5453,9 @@
       <c r="J21" s="8"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="95"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -5476,9 +5476,9 @@
       <c r="J22" s="8"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="95"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -5499,9 +5499,9 @@
       <c r="J23" s="8"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="95"/>
+      <c r="B24" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -5524,9 +5524,9 @@
       <c r="J24" s="8"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="95"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -5547,9 +5547,9 @@
       <c r="J25" s="8"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="95"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -5570,9 +5570,9 @@
       <c r="J26" s="8"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+    <row r="27" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A27" s="95"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -5601,9 +5601,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="95"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -5624,9 +5624,9 @@
       <c r="J28" s="8"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="95"/>
+      <c r="B29" s="89"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="J29" s="8"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="95"/>
+      <c r="B30" s="89"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -5670,9 +5670,9 @@
       <c r="J30" s="8"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="95"/>
+      <c r="B31" s="89" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -5695,9 +5695,9 @@
       <c r="J31" s="8"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="95"/>
+      <c r="B32" s="89"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -5718,9 +5718,9 @@
       <c r="J32" s="8"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="95"/>
+      <c r="B33" s="89"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -5741,9 +5741,9 @@
       <c r="J33" s="8"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
+    <row r="34" spans="1:11" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="95"/>
+      <c r="B34" s="89"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -5772,9 +5772,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="95"/>
+      <c r="B35" s="89"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -5795,9 +5795,9 @@
       <c r="J35" s="8"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-      <c r="B36" s="76"/>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="95"/>
+      <c r="B36" s="89"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -5818,9 +5818,9 @@
       <c r="J36" s="8"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="95"/>
+      <c r="B37" s="89"/>
       <c r="C37" s="3" t="s">
         <v>36</v>
       </c>
@@ -5841,11 +5841,11 @@
       <c r="J37" s="8"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="79" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="89" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -5866,9 +5866,9 @@
       <c r="J38" s="8"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="79"/>
-      <c r="B39" s="76"/>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="90"/>
+      <c r="B39" s="89"/>
       <c r="C39" s="3" t="s">
         <v>43</v>
       </c>
@@ -5893,9 +5893,9 @@
       </c>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="79"/>
-      <c r="B40" s="76"/>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="90"/>
+      <c r="B40" s="89"/>
       <c r="C40" s="3" t="s">
         <v>44</v>
       </c>
@@ -5914,9 +5914,9 @@
       <c r="J40" s="8"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="79"/>
-      <c r="B41" s="76" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="90"/>
+      <c r="B41" s="89" t="s">
         <v>18</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -5937,9 +5937,9 @@
       <c r="J41" s="8"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="79"/>
-      <c r="B42" s="76"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="90"/>
+      <c r="B42" s="89"/>
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
@@ -5958,9 +5958,9 @@
       <c r="J42" s="8"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="79"/>
-      <c r="B43" s="76"/>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="90"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="3" t="s">
         <v>47</v>
       </c>
@@ -5979,9 +5979,9 @@
       <c r="J43" s="8"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="79"/>
-      <c r="B44" s="76" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="90"/>
+      <c r="B44" s="89" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -6002,9 +6002,9 @@
       <c r="J44" s="8"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="76"/>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="90"/>
+      <c r="B45" s="89"/>
       <c r="C45" s="3" t="s">
         <v>49</v>
       </c>
@@ -6023,9 +6023,9 @@
       <c r="J45" s="8"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="79"/>
-      <c r="B46" s="76"/>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="90"/>
+      <c r="B46" s="89"/>
       <c r="C46" s="3" t="s">
         <v>48</v>
       </c>
@@ -6044,9 +6044,9 @@
       <c r="J46" s="8"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="79"/>
-      <c r="B47" s="76" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="90"/>
+      <c r="B47" s="89" t="s">
         <v>30</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -6067,9 +6067,9 @@
       <c r="J47" s="8"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="79"/>
-      <c r="B48" s="76"/>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="90"/>
+      <c r="B48" s="89"/>
       <c r="C48" s="3" t="s">
         <v>52</v>
       </c>
@@ -6088,9 +6088,9 @@
       <c r="J48" s="8"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="79"/>
-      <c r="B49" s="76"/>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="90"/>
+      <c r="B49" s="89"/>
       <c r="C49" s="3" t="s">
         <v>53</v>
       </c>
@@ -6109,163 +6109,163 @@
       <c r="J49" s="8"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="80" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="76" t="s">
+      <c r="B50" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="74" t="s">
+      <c r="D50" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="74" t="s">
+      <c r="E50" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="81" t="s">
+      <c r="F50" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="90" t="s">
+      <c r="G50" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="H50" s="74">
+      <c r="H50" s="77">
         <v>240722</v>
       </c>
       <c r="I50" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="J50" s="86" t="s">
+      <c r="J50" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="K50" s="74"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="91"/>
-      <c r="H51" s="72"/>
+      <c r="K50" s="77"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="91"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="82"/>
+      <c r="H51" s="84"/>
       <c r="I51" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J51" s="87"/>
-      <c r="K51" s="72"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="80"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="89"/>
-      <c r="G52" s="91"/>
-      <c r="H52" s="72"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="84"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="91"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="84"/>
       <c r="I52" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="J52" s="87"/>
-      <c r="K52" s="72"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="80"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="82"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="73"/>
+      <c r="J52" s="75"/>
+      <c r="K52" s="84"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="91"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="78"/>
+      <c r="D53" s="78"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="83"/>
+      <c r="H53" s="78"/>
       <c r="I53" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J53" s="88"/>
-      <c r="K53" s="73"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="74" t="s">
+      <c r="J53" s="76"/>
+      <c r="K53" s="78"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="91"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="74" t="s">
+      <c r="E54" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="81" t="s">
+      <c r="F54" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="90" t="s">
+      <c r="G54" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="H54" s="83" t="s">
+      <c r="H54" s="79" t="s">
         <v>87</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="J54" s="86" t="s">
+      <c r="J54" s="74" t="s">
         <v>85</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="80"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="89"/>
-      <c r="G55" s="91"/>
-      <c r="H55" s="84"/>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="91"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="82"/>
+      <c r="H55" s="88"/>
       <c r="I55" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J55" s="87"/>
+      <c r="J55" s="75"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="84"/>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="91"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="86"/>
+      <c r="G56" s="82"/>
+      <c r="H56" s="88"/>
       <c r="I56" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J56" s="87"/>
+      <c r="J56" s="75"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="82"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="85"/>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="91"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="78"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="83"/>
+      <c r="H57" s="80"/>
       <c r="I57" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="J57" s="88"/>
+      <c r="J57" s="76"/>
       <c r="K57" s="2"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="80"/>
-      <c r="B58" s="76"/>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="91"/>
+      <c r="B58" s="89"/>
       <c r="C58" s="3" t="s">
         <v>67</v>
       </c>
@@ -6286,9 +6286,9 @@
       <c r="J58" s="8"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="80"/>
-      <c r="B59" s="76"/>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="91"/>
+      <c r="B59" s="89"/>
       <c r="C59" s="3" t="s">
         <v>68</v>
       </c>
@@ -6309,9 +6309,9 @@
       <c r="J59" s="8"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="80"/>
-      <c r="B60" s="76" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="91"/>
+      <c r="B60" s="89" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -6334,53 +6334,53 @@
       <c r="J60" s="8"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
-      <c r="B61" s="76"/>
-      <c r="C61" s="74" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="91"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="74" t="s">
+      <c r="D61" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="74" t="s">
+      <c r="E61" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="74" t="s">
+      <c r="F61" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="90" t="s">
+      <c r="G61" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="H61" s="83" t="s">
+      <c r="H61" s="79" t="s">
         <v>87</v>
       </c>
       <c r="I61" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="J61" s="86" t="s">
+      <c r="J61" s="74" t="s">
         <v>85</v>
       </c>
       <c r="K61" s="2"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="80"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="92"/>
-      <c r="H62" s="85"/>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="91"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="78"/>
+      <c r="D62" s="78"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="83"/>
+      <c r="H62" s="80"/>
       <c r="I62" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J62" s="88"/>
+      <c r="J62" s="76"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="80"/>
-      <c r="B63" s="76"/>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="91"/>
+      <c r="B63" s="89"/>
       <c r="C63" s="3" t="s">
         <v>72</v>
       </c>
@@ -6401,9 +6401,9 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
-      <c r="B64" s="76"/>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="91"/>
+      <c r="B64" s="89"/>
       <c r="C64" s="3" t="s">
         <v>73</v>
       </c>
@@ -6424,9 +6424,9 @@
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
-      <c r="B65" s="76" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="91"/>
+      <c r="B65" s="89" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -6449,9 +6449,9 @@
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="80"/>
-      <c r="B66" s="76"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="91"/>
+      <c r="B66" s="89"/>
       <c r="C66" s="3" t="s">
         <v>75</v>
       </c>
@@ -6478,9 +6478,9 @@
       </c>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="80"/>
-      <c r="B67" s="76"/>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="91"/>
+      <c r="B67" s="89"/>
       <c r="C67" s="3" t="s">
         <v>76</v>
       </c>
@@ -6501,9 +6501,9 @@
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="80"/>
-      <c r="B68" s="76"/>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="91"/>
+      <c r="B68" s="89"/>
       <c r="C68" s="3" t="s">
         <v>77</v>
       </c>
@@ -6524,9 +6524,9 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
-      <c r="B69" s="76" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="91"/>
+      <c r="B69" s="89" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -6549,9 +6549,9 @@
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
-      <c r="B70" s="76"/>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="91"/>
+      <c r="B70" s="89"/>
       <c r="C70" s="3" t="s">
         <v>80</v>
       </c>
@@ -6578,9 +6578,9 @@
       </c>
       <c r="K70" s="2"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="80"/>
-      <c r="B71" s="76"/>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="91"/>
+      <c r="B71" s="89"/>
       <c r="C71" s="3" t="s">
         <v>81</v>
       </c>
@@ -6601,9 +6601,9 @@
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="76"/>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="91"/>
+      <c r="B72" s="89"/>
       <c r="C72" s="3" t="s">
         <v>82</v>
       </c>
@@ -6626,41 +6626,22 @@
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="K6:K9"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="K50:K53"/>
+    <mergeCell ref="A3:A37"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
     <mergeCell ref="A38:A49"/>
     <mergeCell ref="A50:A72"/>
@@ -6677,22 +6658,41 @@
     <mergeCell ref="B60:B64"/>
     <mergeCell ref="B65:B68"/>
     <mergeCell ref="B69:B72"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="K6:K9"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="K50:K53"/>
-    <mergeCell ref="A3:A37"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="J50:J53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="J54:J57"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="H61:H62"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="E54:E57"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6702,97 +6702,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B100B-E3DE-4E19-A3FF-31A6CE0566A4}">
-  <dimension ref="A1:R258"/>
+  <dimension ref="A1:R189"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.25" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="22.125" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="26.125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
     <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
-    <col min="9" max="9" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="37.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
     <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="27.875" customWidth="1"/>
-    <col min="14" max="14" width="16.375" customWidth="1"/>
-    <col min="15" max="15" width="42.25" customWidth="1"/>
-    <col min="16" max="16" width="25.625" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
-    <col min="18" max="18" width="27.375" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="42.1640625" customWidth="1"/>
+    <col min="16" max="16" width="25.6640625" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
         <v>800</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="104" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="118" t="s">
         <v>799</v>
       </c>
-      <c r="E1" s="105"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="101" t="s">
+      <c r="E1" s="119"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="115" t="s">
         <v>801</v>
       </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="97" t="s">
+      <c r="H1" s="116"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="111" t="s">
         <v>803</v>
       </c>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="107" t="s">
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="121" t="s">
         <v>802</v>
       </c>
-      <c r="N1" s="108"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="100"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="N1" s="122"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="114"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="124" t="s">
         <v>813</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="117" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="131" t="s">
         <v>576</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="114" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="128" t="s">
         <v>503</v>
       </c>
-      <c r="H2" s="115"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="119" t="s">
+      <c r="H2" s="129"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="133" t="s">
         <v>643</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="93" t="s">
+      <c r="K2" s="124"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="107" t="s">
         <v>798</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="111" t="s">
+      <c r="N2" s="108"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="125" t="s">
         <v>349</v>
       </c>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="113"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="Q2" s="126"/>
+      <c r="R2" s="127"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>238</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="66" t="s">
         <v>810</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>141</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33" t="s">
         <v>812</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
         <v>147</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>149</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>151</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
         <v>154</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>157</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>159</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
         <v>805</v>
       </c>
@@ -7464,7 +7464,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="s">
         <v>163</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="62" t="s">
         <v>809</v>
       </c>
@@ -7576,7 +7576,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
         <v>351</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="28" t="s">
         <v>169</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="28" t="s">
         <v>351</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>172</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="20" t="s">
         <v>175</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="20" t="s">
         <v>177</v>
       </c>
@@ -7912,7 +7912,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="20" t="s">
         <v>179</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>181</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="28" t="s">
         <v>352</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="20" t="s">
         <v>350</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
         <v>184</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="20" t="s">
         <v>186</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="20" t="s">
         <v>188</v>
       </c>
@@ -8304,7 +8304,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="20" t="s">
         <v>190</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="20" t="s">
         <v>193</v>
       </c>
@@ -8416,7 +8416,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
         <v>195</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
         <v>198</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
         <v>201</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
         <v>203</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="20" t="s">
         <v>206</v>
       </c>
@@ -8696,7 +8696,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
         <v>208</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
         <v>211</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20" t="s">
         <v>213</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20" t="s">
         <v>215</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="20" t="s">
         <v>217</v>
       </c>
@@ -8976,7 +8976,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
         <v>220</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
         <v>222</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
         <v>224</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
         <v>226</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
         <v>228</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="20" t="s">
         <v>230</v>
       </c>
@@ -9312,7 +9312,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="20" t="s">
         <v>232</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>234</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>236</v>
       </c>
@@ -9471,7 +9471,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D51" s="20" t="s">
         <v>232</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D52" s="20" t="s">
         <v>230</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="20" t="s">
         <v>234</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D54" s="20" t="s">
         <v>236</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D55" s="20" t="s">
         <v>569</v>
       </c>
@@ -9661,7 +9661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D56" s="20" t="s">
         <v>571</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D57" s="22" t="s">
         <v>574</v>
       </c>
@@ -9737,7 +9737,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G58" s="20" t="s">
         <v>454</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G59" s="20" t="s">
         <v>456</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G60" s="20" t="s">
         <v>458</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="20" t="s">
         <v>460</v>
       </c>
@@ -9853,7 +9853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G62" s="20" t="s">
         <v>462</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G63" s="20" t="s">
         <v>464</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G64" s="20" t="s">
         <v>466</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G65" s="20" t="s">
         <v>468</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="66" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G66" s="20" t="s">
         <v>470</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="7:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="7:18" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G67" s="20" t="s">
         <v>472</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="68" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G68" s="20" t="s">
         <v>474</v>
       </c>
@@ -10047,7 +10047,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="69" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G69" s="20" t="s">
         <v>476</v>
       </c>
@@ -10067,7 +10067,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="70" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G70" s="20" t="s">
         <v>478</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="71" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G71" s="20" t="s">
         <v>480</v>
       </c>
@@ -10107,7 +10107,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="72" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G72" s="20" t="s">
         <v>482</v>
       </c>
@@ -10127,7 +10127,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="73" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G73" s="20" t="s">
         <v>484</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="74" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G74" s="20" t="s">
         <v>486</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="75" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G75" s="20" t="s">
         <v>488</v>
       </c>
@@ -10187,7 +10187,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="76" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G76" s="20" t="s">
         <v>490</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="77" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G77" s="20" t="s">
         <v>492</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="78" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G78" s="20" t="s">
         <v>220</v>
       </c>
@@ -10247,7 +10247,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="79" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G79" s="20" t="s">
         <v>215</v>
       </c>
@@ -10267,7 +10267,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="80" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="7:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G80" s="20" t="s">
         <v>217</v>
       </c>
@@ -10287,7 +10287,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="81" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G81" s="20" t="s">
         <v>224</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="82" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G82" s="20" t="s">
         <v>222</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="83" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G83" s="20" t="s">
         <v>226</v>
       </c>
@@ -10347,7 +10347,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="84" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G84" s="20" t="s">
         <v>228</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="85" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G85" s="20" t="s">
         <v>232</v>
       </c>
@@ -10387,7 +10387,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="86" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G86" s="20" t="s">
         <v>230</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="87" spans="7:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="7:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G87" s="20" t="s">
         <v>234</v>
       </c>
@@ -10427,7 +10427,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="88" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G88" s="20" t="s">
         <v>236</v>
       </c>
@@ -10438,7 +10438,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="89" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G89" s="20" t="s">
         <v>494</v>
       </c>
@@ -10449,7 +10449,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="90" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G90" s="20" t="s">
         <v>496</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="91" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G91" s="20" t="s">
         <v>498</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="92" spans="7:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="7:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G92" s="22" t="s">
         <v>500</v>
       </c>
@@ -10482,76 +10482,109 @@
         <v>501</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="124" t="s">
+    <row r="109" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="98" t="s">
         <v>845</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="134"/>
-      <c r="D110" s="124" t="s">
+      <c r="B110" s="99"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="98" t="s">
         <v>847</v>
       </c>
-      <c r="E110" s="125"/>
-      <c r="F110" s="126"/>
-      <c r="G110" s="123" t="s">
-        <v>1115</v>
-      </c>
-      <c r="H110" s="123"/>
-      <c r="I110" s="123"/>
-      <c r="J110" s="124" t="s">
-        <v>1131</v>
-      </c>
-      <c r="K110" s="125"/>
-      <c r="L110" s="126"/>
-      <c r="M110" s="131" t="s">
-        <v>1163</v>
-      </c>
-      <c r="N110" s="125"/>
-      <c r="O110" s="126"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="127" t="s">
+      <c r="E110" s="99"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="98" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H110" s="99"/>
+      <c r="I110" s="100"/>
+      <c r="J110" s="103" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K110" s="99"/>
+      <c r="L110" s="100"/>
+      <c r="M110" s="98" t="s">
+        <v>1161</v>
+      </c>
+      <c r="N110" s="99"/>
+      <c r="O110" s="100"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="101" t="s">
         <v>846</v>
       </c>
-      <c r="B111" s="76"/>
-      <c r="C111" s="135"/>
-      <c r="D111" s="127" t="s">
+      <c r="B111" s="89"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="101" t="s">
         <v>848</v>
       </c>
-      <c r="E111" s="76"/>
-      <c r="F111" s="128"/>
-      <c r="G111" s="123" t="s">
-        <v>1114</v>
-      </c>
-      <c r="H111" s="123"/>
-      <c r="I111" s="123"/>
-      <c r="J111" s="127" t="s">
-        <v>1132</v>
-      </c>
-      <c r="K111" s="76"/>
-      <c r="L111" s="128"/>
-      <c r="M111" s="132" t="s">
-        <v>1164</v>
-      </c>
-      <c r="N111" s="76"/>
-      <c r="O111" s="128"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="129"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="129"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="130"/>
-      <c r="J112" s="129"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="130"/>
-      <c r="M112" s="133"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="130"/>
-    </row>
-    <row r="113" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E111" s="89"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="101" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H111" s="89"/>
+      <c r="I111" s="102"/>
+      <c r="J111" s="104" t="s">
+        <v>1130</v>
+      </c>
+      <c r="K111" s="89"/>
+      <c r="L111" s="102"/>
+      <c r="M111" s="101" t="s">
+        <v>1162</v>
+      </c>
+      <c r="N111" s="89"/>
+      <c r="O111" s="102"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="70" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C112" s="73" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F112" s="73" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G112" s="70" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I112" s="71" t="s">
+        <v>1168</v>
+      </c>
+      <c r="J112" s="72" t="s">
+        <v>1166</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L112" s="73" t="s">
+        <v>1168</v>
+      </c>
+      <c r="M112" s="70" t="s">
+        <v>1166</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>1167</v>
+      </c>
+      <c r="O112" s="71" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="20" t="s">
         <v>144</v>
       </c>
@@ -10567,29 +10600,29 @@
       <c r="E113" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="F113" s="21" t="s">
+      <c r="F113" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="G113" s="122" t="s">
+      <c r="G113" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="H113" s="122" t="s">
+      <c r="H113" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I113" s="122" t="s">
+      <c r="I113" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="J113" s="20" t="s">
-        <v>1116</v>
+      <c r="J113" s="26" t="s">
+        <v>1114</v>
       </c>
       <c r="K113" s="13" t="s">
         <v>191</v>
       </c>
       <c r="L113" s="21" t="s">
-        <v>1117</v>
-      </c>
-      <c r="M113" s="26" t="s">
-        <v>1133</v>
+        <v>1115</v>
+      </c>
+      <c r="M113" s="20" t="s">
+        <v>1131</v>
       </c>
       <c r="N113" s="13" t="s">
         <v>204</v>
@@ -10598,7 +10631,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="20" t="s">
         <v>815</v>
       </c>
@@ -10614,38 +10647,38 @@
       <c r="E114" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F114" s="21" t="s">
+      <c r="F114" s="18" t="s">
         <v>849</v>
       </c>
-      <c r="G114" s="122" t="s">
+      <c r="G114" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="H114" s="122" t="s">
+      <c r="H114" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I114" s="122" t="s">
+      <c r="I114" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="J114" s="20" t="s">
-        <v>1118</v>
+      <c r="J114" s="26" t="s">
+        <v>1116</v>
       </c>
       <c r="K114" s="13" t="s">
         <v>173</v>
       </c>
       <c r="L114" s="21" t="s">
-        <v>1119</v>
-      </c>
-      <c r="M114" s="26" t="s">
-        <v>1134</v>
+        <v>1117</v>
+      </c>
+      <c r="M114" s="20" t="s">
+        <v>1132</v>
       </c>
       <c r="N114" s="13" t="s">
         <v>218</v>
       </c>
       <c r="O114" s="21" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="20" t="s">
         <v>816</v>
       </c>
@@ -10661,38 +10694,38 @@
       <c r="E115" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F115" s="21" t="s">
+      <c r="F115" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="G115" s="122" t="s">
+      <c r="G115" s="20" t="s">
         <v>991</v>
       </c>
-      <c r="H115" s="122" t="s">
+      <c r="H115" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="I115" s="122" t="s">
+      <c r="I115" s="21" t="s">
         <v>992</v>
       </c>
-      <c r="J115" s="20" t="s">
-        <v>1120</v>
+      <c r="J115" s="26" t="s">
+        <v>1118</v>
       </c>
       <c r="K115" s="13" t="s">
         <v>832</v>
       </c>
       <c r="L115" s="21" t="s">
-        <v>1121</v>
-      </c>
-      <c r="M115" s="26" t="s">
-        <v>1136</v>
+        <v>1119</v>
+      </c>
+      <c r="M115" s="20" t="s">
+        <v>1134</v>
       </c>
       <c r="N115" s="13" t="s">
         <v>142</v>
       </c>
       <c r="O115" s="21" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="20" t="s">
         <v>817</v>
       </c>
@@ -10708,19 +10741,19 @@
       <c r="E116" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F116" s="21" t="s">
+      <c r="F116" s="18" t="s">
         <v>851</v>
       </c>
-      <c r="G116" s="122" t="s">
+      <c r="G116" s="20" t="s">
         <v>993</v>
       </c>
-      <c r="H116" s="122" t="s">
+      <c r="H116" s="13" t="s">
         <v>994</v>
       </c>
-      <c r="I116" s="122" t="s">
+      <c r="I116" s="21" t="s">
         <v>995</v>
       </c>
-      <c r="J116" s="20" t="s">
+      <c r="J116" s="26" t="s">
         <v>317</v>
       </c>
       <c r="K116" s="13" t="s">
@@ -10729,17 +10762,17 @@
       <c r="L116" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="M116" s="26" t="s">
-        <v>1138</v>
+      <c r="M116" s="20" t="s">
+        <v>1136</v>
       </c>
       <c r="N116" s="13" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="O116" s="21" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="20" t="s">
         <v>818</v>
       </c>
@@ -10755,38 +10788,38 @@
       <c r="E117" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="F117" s="21" t="s">
+      <c r="F117" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="G117" s="122" t="s">
+      <c r="G117" s="20" t="s">
         <v>996</v>
       </c>
-      <c r="H117" s="122" t="s">
+      <c r="H117" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I117" s="122" t="s">
+      <c r="I117" s="21" t="s">
         <v>997</v>
       </c>
-      <c r="J117" s="20" t="s">
+      <c r="J117" s="26" t="s">
         <v>700</v>
       </c>
       <c r="K117" s="13" t="s">
         <v>767</v>
       </c>
       <c r="L117" s="21" t="s">
-        <v>1122</v>
-      </c>
-      <c r="M117" s="26" t="s">
-        <v>1140</v>
+        <v>1120</v>
+      </c>
+      <c r="M117" s="20" t="s">
+        <v>1138</v>
       </c>
       <c r="N117" s="13" t="s">
         <v>152</v>
       </c>
       <c r="O117" s="21" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="20" t="s">
         <v>820</v>
       </c>
@@ -10802,38 +10835,38 @@
       <c r="E118" s="13" t="s">
         <v>853</v>
       </c>
-      <c r="F118" s="21" t="s">
+      <c r="F118" s="18" t="s">
         <v>855</v>
       </c>
-      <c r="G118" s="122" t="s">
+      <c r="G118" s="20" t="s">
         <v>998</v>
       </c>
-      <c r="H118" s="122" t="s">
+      <c r="H118" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I118" s="122" t="s">
+      <c r="I118" s="21" t="s">
         <v>999</v>
       </c>
-      <c r="J118" s="20" t="s">
-        <v>1123</v>
+      <c r="J118" s="26" t="s">
+        <v>1121</v>
       </c>
       <c r="K118" s="13" t="s">
         <v>152</v>
       </c>
       <c r="L118" s="21" t="s">
-        <v>1124</v>
-      </c>
-      <c r="M118" s="26" t="s">
-        <v>1142</v>
+        <v>1122</v>
+      </c>
+      <c r="M118" s="20" t="s">
+        <v>1140</v>
       </c>
       <c r="N118" s="13" t="s">
         <v>572</v>
       </c>
       <c r="O118" s="21" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="20" t="s">
         <v>822</v>
       </c>
@@ -10849,28 +10882,28 @@
       <c r="E119" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F119" s="21" t="s">
+      <c r="F119" s="18" t="s">
         <v>857</v>
       </c>
-      <c r="G119" s="122" t="s">
+      <c r="G119" s="20" t="s">
         <v>1000</v>
       </c>
-      <c r="H119" s="122" t="s">
+      <c r="H119" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I119" s="122" t="s">
+      <c r="I119" s="21" t="s">
         <v>1001</v>
       </c>
-      <c r="J119" s="20" t="s">
-        <v>1125</v>
+      <c r="J119" s="26" t="s">
+        <v>1123</v>
       </c>
       <c r="K119" s="13" t="s">
         <v>142</v>
       </c>
       <c r="L119" s="21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="M119" s="26" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M119" s="20" t="s">
         <v>850</v>
       </c>
       <c r="N119" s="13" t="s">
@@ -10880,7 +10913,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="20" t="s">
         <v>824</v>
       </c>
@@ -10896,38 +10929,38 @@
       <c r="E120" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F120" s="21" t="s">
+      <c r="F120" s="18" t="s">
         <v>859</v>
       </c>
-      <c r="G120" s="122" t="s">
+      <c r="G120" s="20" t="s">
         <v>1002</v>
       </c>
-      <c r="H120" s="122" t="s">
+      <c r="H120" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I120" s="122" t="s">
+      <c r="I120" s="21" t="s">
         <v>1003</v>
       </c>
-      <c r="J120" s="20" t="s">
-        <v>1127</v>
+      <c r="J120" s="26" t="s">
+        <v>1125</v>
       </c>
       <c r="K120" s="13" t="s">
         <v>173</v>
       </c>
       <c r="L120" s="21" t="s">
-        <v>1128</v>
-      </c>
-      <c r="M120" s="26" t="s">
-        <v>1144</v>
+        <v>1126</v>
+      </c>
+      <c r="M120" s="20" t="s">
+        <v>1142</v>
       </c>
       <c r="N120" s="13" t="s">
         <v>990</v>
       </c>
       <c r="O120" s="21" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="20" t="s">
         <v>825</v>
       </c>
@@ -10943,38 +10976,38 @@
       <c r="E121" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F121" s="21" t="s">
+      <c r="F121" s="18" t="s">
         <v>861</v>
       </c>
-      <c r="G121" s="122" t="s">
+      <c r="G121" s="20" t="s">
         <v>951</v>
       </c>
-      <c r="H121" s="122" t="s">
+      <c r="H121" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I121" s="122" t="s">
+      <c r="I121" s="21" t="s">
         <v>952</v>
       </c>
-      <c r="J121" s="20" t="s">
-        <v>1129</v>
+      <c r="J121" s="26" t="s">
+        <v>1127</v>
       </c>
       <c r="K121" s="13" t="s">
         <v>173</v>
       </c>
       <c r="L121" s="21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="M121" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="M121" s="20" t="s">
         <v>172</v>
       </c>
       <c r="N121" s="13" t="s">
         <v>136</v>
       </c>
       <c r="O121" s="21" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
         <v>827</v>
       </c>
@@ -10990,38 +11023,38 @@
       <c r="E122" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F122" s="21" t="s">
+      <c r="F122" s="18" t="s">
         <v>863</v>
       </c>
-      <c r="G122" s="122" t="s">
+      <c r="G122" s="20" t="s">
         <v>1004</v>
       </c>
-      <c r="H122" s="122" t="s">
+      <c r="H122" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I122" s="122" t="s">
+      <c r="I122" s="21" t="s">
         <v>1005</v>
       </c>
-      <c r="J122" s="22" t="s">
-        <v>1130</v>
+      <c r="J122" s="27" t="s">
+        <v>1128</v>
       </c>
       <c r="K122" s="23" t="s">
         <v>630</v>
       </c>
       <c r="L122" s="24" t="s">
-        <v>1130</v>
-      </c>
-      <c r="M122" s="26" t="s">
-        <v>1147</v>
+        <v>1128</v>
+      </c>
+      <c r="M122" s="20" t="s">
+        <v>1145</v>
       </c>
       <c r="N122" s="13" t="s">
         <v>136</v>
       </c>
       <c r="O122" s="21" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="20" t="s">
         <v>829</v>
       </c>
@@ -11037,29 +11070,29 @@
       <c r="E123" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F123" s="21" t="s">
+      <c r="F123" s="18" t="s">
         <v>865</v>
       </c>
-      <c r="G123" s="122" t="s">
+      <c r="G123" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="H123" s="122" t="s">
+      <c r="H123" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I123" s="122" t="s">
+      <c r="I123" s="21" t="s">
         <v>1007</v>
       </c>
       <c r="M123" s="20" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="N123" s="13" t="s">
         <v>136</v>
       </c>
       <c r="O123" s="21" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="20" t="s">
         <v>831</v>
       </c>
@@ -11075,29 +11108,29 @@
       <c r="E124" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F124" s="21" t="s">
+      <c r="F124" s="18" t="s">
         <v>867</v>
       </c>
-      <c r="G124" s="122" t="s">
+      <c r="G124" s="20" t="s">
         <v>1008</v>
       </c>
-      <c r="H124" s="122" t="s">
+      <c r="H124" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I124" s="122" t="s">
+      <c r="I124" s="21" t="s">
         <v>1009</v>
       </c>
       <c r="M124" s="20" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="N124" s="13" t="s">
         <v>264</v>
       </c>
       <c r="O124" s="21" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="20" t="s">
         <v>833</v>
       </c>
@@ -11113,29 +11146,29 @@
       <c r="E125" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F125" s="21" t="s">
+      <c r="F125" s="18" t="s">
         <v>869</v>
       </c>
-      <c r="G125" s="122" t="s">
+      <c r="G125" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="H125" s="122" t="s">
+      <c r="H125" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I125" s="122" t="s">
+      <c r="I125" s="21" t="s">
         <v>174</v>
       </c>
       <c r="M125" s="20" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="N125" s="13" t="s">
         <v>264</v>
       </c>
       <c r="O125" s="21" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="20" t="s">
         <v>835</v>
       </c>
@@ -11151,29 +11184,29 @@
       <c r="E126" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F126" s="21" t="s">
+      <c r="F126" s="18" t="s">
         <v>871</v>
       </c>
-      <c r="G126" s="122" t="s">
+      <c r="G126" s="20" t="s">
         <v>1010</v>
       </c>
-      <c r="H126" s="122" t="s">
+      <c r="H126" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I126" s="122" t="s">
+      <c r="I126" s="21" t="s">
         <v>1011</v>
       </c>
       <c r="M126" s="20" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="N126" s="13" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="O126" s="21" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="20" t="s">
         <v>837</v>
       </c>
@@ -11189,16 +11222,16 @@
       <c r="E127" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F127" s="21" t="s">
+      <c r="F127" s="18" t="s">
         <v>873</v>
       </c>
-      <c r="G127" s="122" t="s">
+      <c r="G127" s="20" t="s">
         <v>1012</v>
       </c>
-      <c r="H127" s="122" t="s">
+      <c r="H127" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I127" s="122" t="s">
+      <c r="I127" s="21" t="s">
         <v>176</v>
       </c>
       <c r="M127" s="20" t="s">
@@ -11211,7 +11244,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="20" t="s">
         <v>839</v>
       </c>
@@ -11227,29 +11260,29 @@
       <c r="E128" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F128" s="21" t="s">
+      <c r="F128" s="18" t="s">
         <v>875</v>
       </c>
-      <c r="G128" s="122" t="s">
+      <c r="G128" s="20" t="s">
         <v>1013</v>
       </c>
-      <c r="H128" s="122" t="s">
+      <c r="H128" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I128" s="122" t="s">
+      <c r="I128" s="21" t="s">
         <v>180</v>
       </c>
       <c r="M128" s="20" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="N128" s="13" t="s">
         <v>630</v>
       </c>
       <c r="O128" s="21" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="20" t="s">
         <v>841</v>
       </c>
@@ -11265,29 +11298,29 @@
       <c r="E129" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F129" s="21" t="s">
+      <c r="F129" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="G129" s="122" t="s">
+      <c r="G129" s="20" t="s">
         <v>1014</v>
       </c>
-      <c r="H129" s="122" t="s">
+      <c r="H129" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="I129" s="122" t="s">
+      <c r="I129" s="21" t="s">
         <v>192</v>
       </c>
       <c r="M129" s="20" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="N129" s="13" t="s">
         <v>990</v>
       </c>
       <c r="O129" s="21" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="22" t="s">
         <v>843</v>
       </c>
@@ -11303,45 +11336,45 @@
       <c r="E130" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F130" s="21" t="s">
+      <c r="F130" s="18" t="s">
         <v>879</v>
       </c>
-      <c r="G130" s="122" t="s">
+      <c r="G130" s="20" t="s">
         <v>1015</v>
       </c>
-      <c r="H130" s="122" t="s">
+      <c r="H130" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="I130" s="122" t="s">
+      <c r="I130" s="21" t="s">
         <v>1016</v>
       </c>
       <c r="M130" s="20" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="N130" s="13" t="s">
         <v>630</v>
       </c>
       <c r="O130" s="21" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D131" s="20" t="s">
         <v>880</v>
       </c>
       <c r="E131" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F131" s="21" t="s">
+      <c r="F131" s="18" t="s">
         <v>881</v>
       </c>
-      <c r="G131" s="122" t="s">
+      <c r="G131" s="20" t="s">
         <v>1017</v>
       </c>
-      <c r="H131" s="122" t="s">
+      <c r="H131" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="I131" s="122" t="s">
+      <c r="I131" s="21" t="s">
         <v>1018</v>
       </c>
       <c r="M131" s="20" t="s">
@@ -11354,23 +11387,23 @@
         <v>318</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D132" s="20" t="s">
         <v>882</v>
       </c>
       <c r="E132" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F132" s="21" t="s">
+      <c r="F132" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="G132" s="122" t="s">
+      <c r="G132" s="20" t="s">
         <v>1019</v>
       </c>
-      <c r="H132" s="122" t="s">
+      <c r="H132" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I132" s="122" t="s">
+      <c r="I132" s="21" t="s">
         <v>1020</v>
       </c>
       <c r="M132" s="20" t="s">
@@ -11383,23 +11416,23 @@
         <v>834</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D133" s="20" t="s">
         <v>884</v>
       </c>
       <c r="E133" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F133" s="21" t="s">
+      <c r="F133" s="18" t="s">
         <v>885</v>
       </c>
-      <c r="G133" s="122" t="s">
+      <c r="G133" s="20" t="s">
         <v>1021</v>
       </c>
-      <c r="H133" s="122" t="s">
+      <c r="H133" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I133" s="122" t="s">
+      <c r="I133" s="21" t="s">
         <v>1022</v>
       </c>
       <c r="M133" s="20" t="s">
@@ -11412,1016 +11445,1016 @@
         <v>836</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D134" s="20" t="s">
         <v>886</v>
       </c>
       <c r="E134" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F134" s="21" t="s">
+      <c r="F134" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="G134" s="122" t="s">
+      <c r="G134" s="20" t="s">
         <v>1023</v>
       </c>
-      <c r="H134" s="122" t="s">
+      <c r="H134" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I134" s="122" t="s">
+      <c r="I134" s="21" t="s">
         <v>1024</v>
       </c>
       <c r="M134" s="22" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="N134" s="23" t="s">
         <v>152</v>
       </c>
       <c r="O134" s="24" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D135" s="20" t="s">
         <v>888</v>
       </c>
       <c r="E135" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F135" s="21" t="s">
+      <c r="F135" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="G135" s="122" t="s">
+      <c r="G135" s="20" t="s">
         <v>1025</v>
       </c>
-      <c r="H135" s="122" t="s">
+      <c r="H135" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I135" s="122" t="s">
+      <c r="I135" s="21" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D136" s="20" t="s">
         <v>890</v>
       </c>
       <c r="E136" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F136" s="21" t="s">
+      <c r="F136" s="18" t="s">
         <v>891</v>
       </c>
-      <c r="G136" s="122" t="s">
+      <c r="G136" s="20" t="s">
         <v>1027</v>
       </c>
-      <c r="H136" s="122" t="s">
+      <c r="H136" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I136" s="122" t="s">
+      <c r="I136" s="21" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D137" s="20" t="s">
         <v>892</v>
       </c>
       <c r="E137" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F137" s="21" t="s">
+      <c r="F137" s="18" t="s">
         <v>893</v>
       </c>
-      <c r="G137" s="122" t="s">
+      <c r="G137" s="20" t="s">
         <v>1028</v>
       </c>
-      <c r="H137" s="122" t="s">
+      <c r="H137" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="I137" s="122" t="s">
+      <c r="I137" s="21" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D138" s="20" t="s">
         <v>894</v>
       </c>
       <c r="E138" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F138" s="21" t="s">
+      <c r="F138" s="18" t="s">
         <v>895</v>
       </c>
-      <c r="G138" s="122" t="s">
+      <c r="G138" s="20" t="s">
         <v>1030</v>
       </c>
-      <c r="H138" s="122" t="s">
+      <c r="H138" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I138" s="122" t="s">
+      <c r="I138" s="21" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D139" s="20" t="s">
         <v>317</v>
       </c>
       <c r="E139" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F139" s="21" t="s">
+      <c r="F139" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="G139" s="122" t="s">
+      <c r="G139" s="20" t="s">
         <v>1032</v>
       </c>
-      <c r="H139" s="122" t="s">
+      <c r="H139" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I139" s="122" t="s">
+      <c r="I139" s="21" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D140" s="20" t="s">
         <v>896</v>
       </c>
       <c r="E140" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F140" s="21" t="s">
+      <c r="F140" s="18" t="s">
         <v>897</v>
       </c>
-      <c r="G140" s="122" t="s">
+      <c r="G140" s="20" t="s">
         <v>1034</v>
       </c>
-      <c r="H140" s="122" t="s">
+      <c r="H140" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I140" s="122" t="s">
+      <c r="I140" s="21" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D141" s="20" t="s">
         <v>898</v>
       </c>
       <c r="E141" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="F141" s="21" t="s">
+      <c r="F141" s="18" t="s">
         <v>899</v>
       </c>
-      <c r="G141" s="122" t="s">
+      <c r="G141" s="20" t="s">
         <v>1036</v>
       </c>
-      <c r="H141" s="122" t="s">
+      <c r="H141" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I141" s="122" t="s">
+      <c r="I141" s="21" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D142" s="20" t="s">
         <v>900</v>
       </c>
       <c r="E142" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F142" s="21" t="s">
+      <c r="F142" s="18" t="s">
         <v>901</v>
       </c>
-      <c r="G142" s="122" t="s">
+      <c r="G142" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="H142" s="122" t="s">
+      <c r="H142" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I142" s="122" t="s">
+      <c r="I142" s="21" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D143" s="20" t="s">
         <v>902</v>
       </c>
       <c r="E143" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F143" s="21" t="s">
+      <c r="F143" s="18" t="s">
         <v>903</v>
       </c>
-      <c r="G143" s="122" t="s">
+      <c r="G143" s="20" t="s">
         <v>835</v>
       </c>
-      <c r="H143" s="122" t="s">
+      <c r="H143" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I143" s="122" t="s">
+      <c r="I143" s="21" t="s">
         <v>1039</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D144" s="20" t="s">
         <v>904</v>
       </c>
       <c r="E144" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F144" s="21" t="s">
+      <c r="F144" s="18" t="s">
         <v>905</v>
       </c>
-      <c r="G144" s="122" t="s">
+      <c r="G144" s="20" t="s">
         <v>1040</v>
       </c>
-      <c r="H144" s="122" t="s">
+      <c r="H144" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I144" s="122" t="s">
+      <c r="I144" s="21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D145" s="20" t="s">
         <v>906</v>
       </c>
       <c r="E145" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F145" s="21" t="s">
+      <c r="F145" s="18" t="s">
         <v>907</v>
       </c>
-      <c r="G145" s="122" t="s">
+      <c r="G145" s="20" t="s">
         <v>1041</v>
       </c>
-      <c r="H145" s="122" t="s">
+      <c r="H145" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I145" s="122" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="146" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I145" s="21" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="146" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D146" s="20" t="s">
         <v>908</v>
       </c>
       <c r="E146" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F146" s="21" t="s">
+      <c r="F146" s="18" t="s">
         <v>909</v>
       </c>
-      <c r="G146" s="122" t="s">
+      <c r="G146" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="H146" s="122" t="s">
+      <c r="H146" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="I146" s="122" t="s">
+      <c r="I146" s="21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="147" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D147" s="20" t="s">
         <v>910</v>
       </c>
       <c r="E147" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F147" s="18" t="s">
         <v>911</v>
       </c>
-      <c r="G147" s="122" t="s">
+      <c r="G147" s="20" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H147" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="I147" s="21" t="s">
         <v>1043</v>
       </c>
-      <c r="H147" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="I147" s="122" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="148" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D148" s="20" t="s">
         <v>912</v>
       </c>
       <c r="E148" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F148" s="21" t="s">
+      <c r="F148" s="18" t="s">
         <v>913</v>
       </c>
-      <c r="G148" s="122" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H148" s="122" t="s">
+      <c r="G148" s="20" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H148" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I148" s="122" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I148" s="21" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="149" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D149" s="20" t="s">
         <v>914</v>
       </c>
       <c r="E149" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F149" s="21" t="s">
+      <c r="F149" s="18" t="s">
         <v>915</v>
       </c>
-      <c r="G149" s="122" t="s">
+      <c r="G149" s="20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H149" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="I149" s="21" t="s">
         <v>1046</v>
       </c>
-      <c r="H149" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I149" s="122" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="150" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D150" s="20" t="s">
         <v>916</v>
       </c>
       <c r="E150" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F150" s="21" t="s">
+      <c r="F150" s="18" t="s">
         <v>917</v>
       </c>
-      <c r="G150" s="122" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H150" s="122" t="s">
+      <c r="G150" s="20" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H150" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I150" s="122" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="151" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I150" s="21" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="151" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D151" s="20" t="s">
         <v>918</v>
       </c>
       <c r="E151" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F151" s="21" t="s">
+      <c r="F151" s="18" t="s">
         <v>919</v>
       </c>
-      <c r="G151" s="122" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H151" s="122" t="s">
+      <c r="G151" s="20" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H151" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I151" s="122" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I151" s="21" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="152" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D152" s="20" t="s">
         <v>920</v>
       </c>
       <c r="E152" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F152" s="21" t="s">
+      <c r="F152" s="18" t="s">
         <v>921</v>
       </c>
-      <c r="G152" s="122" t="s">
+      <c r="G152" s="20" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H152" s="13" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I152" s="21" t="s">
         <v>1052</v>
       </c>
-      <c r="H152" s="122" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I152" s="122" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="153" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D153" s="20" t="s">
         <v>922</v>
       </c>
       <c r="E153" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F153" s="21" t="s">
+      <c r="F153" s="18" t="s">
         <v>923</v>
       </c>
-      <c r="G153" s="122" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H153" s="122" t="s">
+      <c r="G153" s="20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H153" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I153" s="122" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="154" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I153" s="21" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="154" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D154" s="20" t="s">
         <v>924</v>
       </c>
       <c r="E154" s="13" t="s">
         <v>832</v>
       </c>
-      <c r="F154" s="21" t="s">
+      <c r="F154" s="18" t="s">
         <v>925</v>
       </c>
-      <c r="G154" s="122" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H154" s="122" t="s">
+      <c r="G154" s="20" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H154" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I154" s="122" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="155" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I154" s="21" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="155" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D155" s="20" t="s">
         <v>926</v>
       </c>
       <c r="E155" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F155" s="21" t="s">
+      <c r="F155" s="18" t="s">
         <v>927</v>
       </c>
-      <c r="G155" s="122" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H155" s="122" t="s">
+      <c r="G155" s="20" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H155" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I155" s="122" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="156" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I155" s="21" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="156" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D156" s="20" t="s">
         <v>928</v>
       </c>
       <c r="E156" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F156" s="21" t="s">
+      <c r="F156" s="18" t="s">
         <v>929</v>
       </c>
-      <c r="G156" s="122" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H156" s="122" t="s">
+      <c r="G156" s="20" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H156" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I156" s="122" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I156" s="21" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="157" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D157" s="20" t="s">
         <v>930</v>
       </c>
       <c r="E157" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F157" s="21" t="s">
+      <c r="F157" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="G157" s="122" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H157" s="122" t="s">
+      <c r="G157" s="20" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H157" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I157" s="122" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="158" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I157" s="21" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="158" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D158" s="20" t="s">
         <v>932</v>
       </c>
       <c r="E158" s="13" t="s">
         <v>933</v>
       </c>
-      <c r="F158" s="21" t="s">
+      <c r="F158" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="G158" s="122" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H158" s="122" t="s">
+      <c r="G158" s="20" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H158" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I158" s="122" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I158" s="21" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="159" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D159" s="20" t="s">
         <v>934</v>
       </c>
       <c r="E159" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F159" s="21" t="s">
+      <c r="F159" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="G159" s="122" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H159" s="122" t="s">
+      <c r="G159" s="20" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H159" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I159" s="122" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="160" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I159" s="21" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="160" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D160" s="20" t="s">
         <v>936</v>
       </c>
       <c r="E160" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F160" s="21" t="s">
+      <c r="F160" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="G160" s="122" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H160" s="122" t="s">
+      <c r="G160" s="20" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H160" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I160" s="122" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="161" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I160" s="21" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="161" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D161" s="20" t="s">
         <v>937</v>
       </c>
       <c r="E161" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F161" s="21" t="s">
+      <c r="F161" s="18" t="s">
         <v>938</v>
       </c>
-      <c r="G161" s="122" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H161" s="122" t="s">
+      <c r="G161" s="20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="H161" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I161" s="122" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="162" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I161" s="21" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="162" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D162" s="20" t="s">
         <v>939</v>
       </c>
       <c r="E162" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F162" s="21" t="s">
+      <c r="F162" s="18" t="s">
         <v>940</v>
       </c>
-      <c r="G162" s="122" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H162" s="122" t="s">
+      <c r="G162" s="20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="H162" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="I162" s="122" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="163" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I162" s="21" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="163" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D163" s="20" t="s">
         <v>941</v>
       </c>
       <c r="E163" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F163" s="21" t="s">
+      <c r="F163" s="18" t="s">
         <v>942</v>
       </c>
-      <c r="G163" s="122" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H163" s="122" t="s">
+      <c r="G163" s="20" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H163" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I163" s="122" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="164" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I163" s="21" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="164" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D164" s="20" t="s">
         <v>833</v>
       </c>
       <c r="E164" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F164" s="21" t="s">
+      <c r="F164" s="18" t="s">
         <v>943</v>
       </c>
-      <c r="G164" s="122" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H164" s="122" t="s">
+      <c r="G164" s="20" t="s">
+        <v>1075</v>
+      </c>
+      <c r="H164" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I164" s="122" t="s">
+      <c r="I164" s="21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="165" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D165" s="20" t="s">
         <v>835</v>
       </c>
       <c r="E165" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F165" s="21" t="s">
+      <c r="F165" s="18" t="s">
         <v>944</v>
       </c>
-      <c r="G165" s="122" t="s">
+      <c r="G165" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="H165" s="122" t="s">
+      <c r="H165" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I165" s="122" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="166" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I165" s="21" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="166" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D166" s="20" t="s">
         <v>945</v>
       </c>
       <c r="E166" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F166" s="21" t="s">
+      <c r="F166" s="18" t="s">
         <v>946</v>
       </c>
-      <c r="G166" s="122" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H166" s="122" t="s">
+      <c r="G166" s="20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H166" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I166" s="122" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="167" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I166" s="21" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="167" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D167" s="20" t="s">
         <v>947</v>
       </c>
       <c r="E167" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F167" s="21" t="s">
+      <c r="F167" s="18" t="s">
         <v>948</v>
       </c>
-      <c r="G167" s="122" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H167" s="122" t="s">
+      <c r="G167" s="20" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H167" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I167" s="122" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="168" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I167" s="21" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="168" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D168" s="20" t="s">
         <v>949</v>
       </c>
       <c r="E168" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F168" s="21" t="s">
+      <c r="F168" s="18" t="s">
         <v>950</v>
       </c>
-      <c r="G168" s="122" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H168" s="122" t="s">
+      <c r="G168" s="20" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H168" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I168" s="122" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="169" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I168" s="21" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="169" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D169" s="20" t="s">
         <v>951</v>
       </c>
       <c r="E169" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F169" s="21" t="s">
+      <c r="F169" s="18" t="s">
         <v>952</v>
       </c>
-      <c r="G169" s="122" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H169" s="122" t="s">
+      <c r="G169" s="20" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H169" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I169" s="122" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="170" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I169" s="21" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="170" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D170" s="20" t="s">
         <v>953</v>
       </c>
       <c r="E170" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F170" s="21" t="s">
+      <c r="F170" s="18" t="s">
         <v>954</v>
       </c>
-      <c r="G170" s="122" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H170" s="122" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I170" s="122" t="s">
+      <c r="G170" s="20" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H170" s="13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I170" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="171" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D171" s="20" t="s">
         <v>955</v>
       </c>
       <c r="E171" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="F171" s="21" t="s">
+      <c r="F171" s="18" t="s">
         <v>956</v>
       </c>
-      <c r="G171" s="122" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H171" s="122" t="s">
+      <c r="G171" s="20" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H171" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I171" s="122" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="172" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I171" s="21" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="172" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D172" s="20" t="s">
         <v>957</v>
       </c>
       <c r="E172" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F172" s="21" t="s">
+      <c r="F172" s="18" t="s">
         <v>959</v>
       </c>
-      <c r="G172" s="122" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H172" s="122" t="s">
+      <c r="G172" s="20" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H172" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="I172" s="122" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="173" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I172" s="21" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="173" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D173" s="20" t="s">
         <v>960</v>
       </c>
       <c r="E173" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F173" s="21" t="s">
+      <c r="F173" s="18" t="s">
         <v>961</v>
       </c>
-      <c r="G173" s="122" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H173" s="122" t="s">
+      <c r="G173" s="20" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H173" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I173" s="122" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="174" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I173" s="21" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="174" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D174" s="20" t="s">
         <v>962</v>
       </c>
       <c r="E174" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F174" s="21" t="s">
+      <c r="F174" s="18" t="s">
         <v>963</v>
       </c>
-      <c r="G174" s="122" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H174" s="122" t="s">
+      <c r="G174" s="20" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H174" s="13" t="s">
         <v>990</v>
       </c>
-      <c r="I174" s="122" t="s">
+      <c r="I174" s="21" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="175" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D175" s="20" t="s">
         <v>964</v>
       </c>
       <c r="E175" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F175" s="21" t="s">
+      <c r="F175" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="G175" s="122" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H175" s="122" t="s">
+      <c r="G175" s="20" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H175" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I175" s="122" t="s">
+      <c r="I175" s="21" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="176" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D176" s="20" t="s">
         <v>966</v>
       </c>
       <c r="E176" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F176" s="21" t="s">
+      <c r="F176" s="18" t="s">
         <v>967</v>
       </c>
-      <c r="G176" s="122" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H176" s="122" t="s">
+      <c r="G176" s="20" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H176" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I176" s="122" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="177" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I176" s="21" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="177" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D177" s="20" t="s">
         <v>968</v>
       </c>
       <c r="E177" s="13" t="s">
         <v>958</v>
       </c>
-      <c r="F177" s="21" t="s">
+      <c r="F177" s="18" t="s">
         <v>969</v>
       </c>
-      <c r="G177" s="122" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H177" s="122" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I177" s="122" t="s">
+      <c r="G177" s="20" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H177" s="13" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I177" s="21" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D178" s="20" t="s">
         <v>970</v>
       </c>
       <c r="E178" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="F178" s="21" t="s">
+      <c r="F178" s="18" t="s">
         <v>971</v>
       </c>
-      <c r="G178" s="122" t="s">
+      <c r="G178" s="20" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H178" s="13" t="s">
+        <v>1100</v>
+      </c>
+      <c r="I178" s="21" t="s">
         <v>1101</v>
       </c>
-      <c r="H178" s="122" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I178" s="122" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="179" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D179" s="20" t="s">
         <v>972</v>
       </c>
       <c r="E179" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F179" s="21" t="s">
+      <c r="F179" s="18" t="s">
         <v>973</v>
       </c>
-      <c r="G179" s="122" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H179" s="122" t="s">
+      <c r="G179" s="20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H179" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I179" s="122" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="180" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I179" s="21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="180" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D180" s="20" t="s">
         <v>974</v>
       </c>
       <c r="E180" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F180" s="21" t="s">
+      <c r="F180" s="18" t="s">
         <v>975</v>
       </c>
-      <c r="G180" s="122" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H180" s="122" t="s">
+      <c r="G180" s="20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H180" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="I180" s="122" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="181" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I180" s="21" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="181" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D181" s="20" t="s">
         <v>976</v>
       </c>
       <c r="E181" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F181" s="21" t="s">
+      <c r="F181" s="18" t="s">
         <v>977</v>
       </c>
-      <c r="G181" s="122" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H181" s="122" t="s">
+      <c r="G181" s="20" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H181" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="I181" s="122" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="182" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I181" s="21" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="182" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D182" s="20" t="s">
         <v>978</v>
       </c>
       <c r="E182" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F182" s="21" t="s">
+      <c r="F182" s="18" t="s">
         <v>979</v>
       </c>
-      <c r="G182" s="122" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H182" s="122" t="s">
+      <c r="G182" s="20" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H182" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="I182" s="122" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="183" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I182" s="21" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="183" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D183" s="20" t="s">
         <v>980</v>
       </c>
       <c r="E183" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F183" s="21" t="s">
+      <c r="F183" s="18" t="s">
         <v>981</v>
       </c>
-      <c r="G183" s="122" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H183" s="122" t="s">
+      <c r="G183" s="22" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H183" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="I183" s="122" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="184" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I183" s="24" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="184" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D184" s="20" t="s">
         <v>982</v>
       </c>
@@ -12432,7 +12465,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="185" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D185" s="20" t="s">
         <v>984</v>
       </c>
@@ -12443,7 +12476,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="186" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D186" s="20" t="s">
         <v>986</v>
       </c>
@@ -12454,7 +12487,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="187" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="4:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D187" s="22" t="s">
         <v>988</v>
       </c>
@@ -12465,800 +12498,10 @@
         <v>989</v>
       </c>
     </row>
-    <row r="188" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G188" s="122" t="s">
-        <v>144</v>
-      </c>
-      <c r="H188" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="I188" s="122" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="189" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G189" s="122" t="s">
-        <v>245</v>
-      </c>
-      <c r="H189" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I189" s="122" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="190" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G190" s="122" t="s">
-        <v>991</v>
-      </c>
-      <c r="H190" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="I190" s="122" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="191" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G191" s="122" t="s">
-        <v>993</v>
-      </c>
-      <c r="H191" s="122" t="s">
-        <v>994</v>
-      </c>
-      <c r="I191" s="122" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="192" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="G192" s="122" t="s">
-        <v>996</v>
-      </c>
-      <c r="H192" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I192" s="122" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="193" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G193" s="122" t="s">
-        <v>998</v>
-      </c>
-      <c r="H193" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I193" s="122" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="194" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G194" s="122" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H194" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I194" s="122" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="195" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G195" s="122" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H195" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I195" s="122" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="196" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G196" s="122" t="s">
-        <v>951</v>
-      </c>
-      <c r="H196" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I196" s="122" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="197" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G197" s="122" t="s">
-        <v>1004</v>
-      </c>
-      <c r="H197" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I197" s="122" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="198" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G198" s="122" t="s">
-        <v>1006</v>
-      </c>
-      <c r="H198" s="122" t="s">
-        <v>209</v>
-      </c>
-      <c r="I198" s="122" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="199" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G199" s="122" t="s">
-        <v>1008</v>
-      </c>
-      <c r="H199" s="122" t="s">
-        <v>209</v>
-      </c>
-      <c r="I199" s="122" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="200" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G200" s="122" t="s">
-        <v>172</v>
-      </c>
-      <c r="H200" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I200" s="122" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="201" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G201" s="122" t="s">
-        <v>1010</v>
-      </c>
-      <c r="H201" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I201" s="122" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="202" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G202" s="122" t="s">
-        <v>1012</v>
-      </c>
-      <c r="H202" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I202" s="122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="203" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G203" s="122" t="s">
-        <v>1013</v>
-      </c>
-      <c r="H203" s="122" t="s">
-        <v>142</v>
-      </c>
-      <c r="I203" s="122" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="204" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G204" s="122" t="s">
-        <v>1014</v>
-      </c>
-      <c r="H204" s="122" t="s">
-        <v>191</v>
-      </c>
-      <c r="I204" s="122" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="205" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G205" s="122" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H205" s="122" t="s">
-        <v>264</v>
-      </c>
-      <c r="I205" s="122" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="206" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G206" s="122" t="s">
-        <v>1017</v>
-      </c>
-      <c r="H206" s="122" t="s">
-        <v>630</v>
-      </c>
-      <c r="I206" s="122" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="207" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G207" s="122" t="s">
-        <v>1019</v>
-      </c>
-      <c r="H207" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="I207" s="122" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="208" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G208" s="122" t="s">
-        <v>1021</v>
-      </c>
-      <c r="H208" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="I208" s="122" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="209" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G209" s="122" t="s">
-        <v>1023</v>
-      </c>
-      <c r="H209" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="I209" s="122" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="210" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G210" s="122" t="s">
-        <v>1025</v>
-      </c>
-      <c r="H210" s="122" t="s">
-        <v>204</v>
-      </c>
-      <c r="I210" s="122" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="211" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G211" s="122" t="s">
-        <v>1027</v>
-      </c>
-      <c r="H211" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I211" s="122" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="212" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G212" s="122" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H212" s="122" t="s">
-        <v>264</v>
-      </c>
-      <c r="I212" s="122" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="213" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G213" s="122" t="s">
-        <v>1030</v>
-      </c>
-      <c r="H213" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="I213" s="122" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="214" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G214" s="122" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H214" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="I214" s="122" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="215" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G215" s="122" t="s">
-        <v>1034</v>
-      </c>
-      <c r="H215" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I215" s="122" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="216" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G216" s="122" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H216" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="I216" s="122" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="217" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G217" s="122" t="s">
-        <v>833</v>
-      </c>
-      <c r="H217" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I217" s="122" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="218" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G218" s="122" t="s">
-        <v>835</v>
-      </c>
-      <c r="H218" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="I218" s="122" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="219" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G219" s="122" t="s">
-        <v>1040</v>
-      </c>
-      <c r="H219" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I219" s="122" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="220" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G220" s="122" t="s">
-        <v>1041</v>
-      </c>
-      <c r="H220" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I220" s="122" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="221" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G221" s="122" t="s">
-        <v>319</v>
-      </c>
-      <c r="H221" s="122" t="s">
-        <v>320</v>
-      </c>
-      <c r="I221" s="122" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="222" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G222" s="122" t="s">
-        <v>1043</v>
-      </c>
-      <c r="H222" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="I222" s="122" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="223" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G223" s="122" t="s">
-        <v>1045</v>
-      </c>
-      <c r="H223" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="I223" s="122" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="224" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G224" s="122" t="s">
-        <v>1046</v>
-      </c>
-      <c r="H224" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I224" s="122" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="225" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G225" s="122" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H225" s="122" t="s">
-        <v>161</v>
-      </c>
-      <c r="I225" s="122" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="226" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G226" s="122" t="s">
-        <v>1050</v>
-      </c>
-      <c r="H226" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I226" s="122" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="227" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G227" s="122" t="s">
-        <v>1052</v>
-      </c>
-      <c r="H227" s="122" t="s">
-        <v>1053</v>
-      </c>
-      <c r="I227" s="122" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="228" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G228" s="122" t="s">
-        <v>1055</v>
-      </c>
-      <c r="H228" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I228" s="122" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="229" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G229" s="122" t="s">
-        <v>1057</v>
-      </c>
-      <c r="H229" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I229" s="122" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="230" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G230" s="122" t="s">
-        <v>1059</v>
-      </c>
-      <c r="H230" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I230" s="122" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="231" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G231" s="122" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H231" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I231" s="122" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="232" spans="7:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="G232" s="122" t="s">
-        <v>1063</v>
-      </c>
-      <c r="H232" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="I232" s="122" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="233" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G233" s="122" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H233" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I233" s="122" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="234" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G234" s="122" t="s">
-        <v>1067</v>
-      </c>
-      <c r="H234" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="I234" s="122" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="235" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G235" s="122" t="s">
-        <v>1069</v>
-      </c>
-      <c r="H235" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I235" s="122" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="236" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G236" s="122" t="s">
-        <v>1071</v>
-      </c>
-      <c r="H236" s="122" t="s">
-        <v>218</v>
-      </c>
-      <c r="I236" s="122" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="237" spans="7:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="G237" s="122" t="s">
-        <v>1073</v>
-      </c>
-      <c r="H237" s="122" t="s">
-        <v>155</v>
-      </c>
-      <c r="I237" s="122" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="238" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G238" s="122" t="s">
-        <v>1075</v>
-      </c>
-      <c r="H238" s="122" t="s">
-        <v>136</v>
-      </c>
-      <c r="I238" s="122" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="239" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G239" s="122" t="s">
-        <v>1077</v>
-      </c>
-      <c r="H239" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I239" s="122" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="240" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G240" s="122" t="s">
-        <v>345</v>
-      </c>
-      <c r="H240" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I240" s="122" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="241" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G241" s="122" t="s">
-        <v>1079</v>
-      </c>
-      <c r="H241" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I241" s="122" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="242" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G242" s="122" t="s">
-        <v>1081</v>
-      </c>
-      <c r="H242" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I242" s="122" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="243" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G243" s="122" t="s">
-        <v>1083</v>
-      </c>
-      <c r="H243" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I243" s="122" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="244" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G244" s="122" t="s">
-        <v>1085</v>
-      </c>
-      <c r="H244" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I244" s="122" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="245" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G245" s="122" t="s">
-        <v>1087</v>
-      </c>
-      <c r="H245" s="122" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I245" s="122" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="246" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G246" s="122" t="s">
-        <v>1089</v>
-      </c>
-      <c r="H246" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I246" s="122" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="247" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G247" s="122" t="s">
-        <v>1091</v>
-      </c>
-      <c r="H247" s="122" t="s">
-        <v>630</v>
-      </c>
-      <c r="I247" s="122" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="248" spans="7:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="G248" s="122" t="s">
-        <v>1093</v>
-      </c>
-      <c r="H248" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I248" s="122" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="249" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G249" s="122" t="s">
-        <v>1095</v>
-      </c>
-      <c r="H249" s="122" t="s">
-        <v>990</v>
-      </c>
-      <c r="I249" s="122" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="250" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G250" s="122" t="s">
-        <v>1096</v>
-      </c>
-      <c r="H250" s="122" t="s">
-        <v>173</v>
-      </c>
-      <c r="I250" s="122" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="251" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G251" s="122" t="s">
-        <v>1097</v>
-      </c>
-      <c r="H251" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I251" s="122" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="252" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G252" s="122" t="s">
-        <v>1099</v>
-      </c>
-      <c r="H252" s="122" t="s">
-        <v>1100</v>
-      </c>
-      <c r="I252" s="122" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="253" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G253" s="122" t="s">
-        <v>1101</v>
-      </c>
-      <c r="H253" s="122" t="s">
-        <v>1102</v>
-      </c>
-      <c r="I253" s="122" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="254" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G254" s="122" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H254" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I254" s="122" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="255" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G255" s="122" t="s">
-        <v>1106</v>
-      </c>
-      <c r="H255" s="122" t="s">
-        <v>152</v>
-      </c>
-      <c r="I255" s="122" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="256" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G256" s="122" t="s">
-        <v>1108</v>
-      </c>
-      <c r="H256" s="122" t="s">
-        <v>264</v>
-      </c>
-      <c r="I256" s="122" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="257" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G257" s="122" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H257" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I257" s="122" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="258" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G258" s="122" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H258" s="122" t="s">
-        <v>166</v>
-      </c>
-      <c r="I258" s="122">
-        <f>K258</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="188" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="4:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J110:L110"/>
-    <mergeCell ref="J111:L111"/>
-    <mergeCell ref="M110:O110"/>
-    <mergeCell ref="M111:O111"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="G110:I110"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="P1:R1"/>
@@ -13271,6 +12514,16 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J110:L110"/>
+    <mergeCell ref="J111:L111"/>
+    <mergeCell ref="M110:O110"/>
+    <mergeCell ref="M111:O111"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="G110:I110"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13283,14 +12536,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.75" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
-        <v>1167</v>
+    <row r="1" spans="1:1" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A1" s="69" t="s">
+        <v>1165</v>
       </c>
     </row>
   </sheetData>
@@ -13307,25 +12560,25 @@
       <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="32" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
-    <col min="5" max="5" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="5" max="5" width="33.1640625" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="2.375" customWidth="1"/>
+    <col min="7" max="7" width="28.83203125" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
     <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="10" max="10" width="2.75" customWidth="1"/>
-    <col min="11" max="11" width="2.375" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="19.625" customWidth="1"/>
-    <col min="14" max="14" width="35.125" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" customWidth="1"/>
+    <col min="11" max="11" width="2.33203125" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>131</v>
       </c>
@@ -13357,20 +12610,20 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="89" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="89" t="s">
         <v>121</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -13385,12 +12638,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="89"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
@@ -13403,15 +12656,15 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="74" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="74" t="s">
+      <c r="F4" s="77" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -13425,13 +12678,13 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
@@ -13443,59 +12696,59 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="76" t="s">
+    <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76" t="s">
+      <c r="H6" s="89"/>
+      <c r="I6" s="89" t="s">
         <v>113</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
       <c r="L6" s="2" t="s">
         <v>119</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N6" s="120" t="s">
+      <c r="N6" s="134" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="76"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
       <c r="L7" s="2" t="s">
         <v>116</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N7" s="121"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
+      <c r="N7" s="135"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="3" t="s">
         <v>114</v>
       </c>
@@ -13509,12 +12762,12 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="72"/>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="84"/>
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
@@ -13527,12 +12780,12 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="73"/>
+      <c r="E10" s="78"/>
       <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
@@ -13547,6 +12800,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="D2:D9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="H6:H7"/>
@@ -13555,11 +12813,6 @@
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8002CCE3-3720-4A0C-BB02-F1CD62966497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FD4383-B871-4A3E-9AF4-BD41BFD233AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29415" yWindow="9465" windowWidth="14760" windowHeight="13935" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
+    <workbookView xWindow="29490" yWindow="2130" windowWidth="14760" windowHeight="15585" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="was" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1478">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4586,6 +4586,112 @@
   </si>
   <si>
     <t>삽입용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MedicalReferMng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servuce</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.MAIN.DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.IM.DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.PM.DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.MAIN.DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.BIZ</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.MAIN.BIZ</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.IM.BIZ</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.PM.BIZ</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.MAIN.BIZ</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.DTO</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.MAIN.DTO</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.IM.DTO</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.PM.DTO</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.MAIN.DTO</t>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.MAIN.UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AC.PM.UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.IM.UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.AI.MAIN.UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIS.PA.CORE.UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4872,7 +4978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -5271,13 +5377,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5701,9 +5820,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5725,183 +5841,351 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5917,167 +6201,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6420,88 +6551,94 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="9" width="8.875" style="1"/>
-    <col min="10" max="10" width="26.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="48.125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="64.375" customWidth="1"/>
-    <col min="13" max="13" width="51.875" customWidth="1"/>
+    <col min="7" max="11" width="8.875" style="1"/>
+    <col min="12" max="12" width="26.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="48.125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="64.375" customWidth="1"/>
+    <col min="15" max="15" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="196" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="194" t="s">
+      <c r="B1" s="169" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="198" t="s">
+      <c r="D1" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="198"/>
-      <c r="F1" s="198"/>
-      <c r="G1" s="198"/>
-      <c r="H1" s="198"/>
-      <c r="I1" s="198"/>
-      <c r="J1" s="182" t="s">
+      <c r="E1" s="173"/>
+      <c r="F1" s="173"/>
+      <c r="G1" s="173"/>
+      <c r="H1" s="173"/>
+      <c r="I1" s="173"/>
+      <c r="J1" s="173"/>
+      <c r="K1" s="173"/>
+      <c r="L1" s="179" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="182" t="s">
+      <c r="M1" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="182" t="s">
+      <c r="N1" s="179" t="s">
         <v>351</v>
       </c>
-      <c r="M1" s="186" t="s">
+      <c r="O1" s="155" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="197"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="147">
+    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="172"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="146">
         <v>240711</v>
       </c>
-      <c r="E2" s="147">
+      <c r="E2" s="146">
         <v>240719</v>
       </c>
-      <c r="F2" s="147">
+      <c r="F2" s="146">
         <v>240724</v>
       </c>
-      <c r="G2" s="147">
+      <c r="G2" s="146">
         <v>240725</v>
       </c>
-      <c r="H2" s="147">
+      <c r="H2" s="146">
         <v>240726</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="146">
+        <v>240729</v>
+      </c>
+      <c r="J2" s="146"/>
+      <c r="K2" s="146" t="s">
         <v>1448</v>
       </c>
-      <c r="J2" s="183"/>
-      <c r="K2" s="183"/>
-      <c r="L2" s="183"/>
-      <c r="M2" s="187"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="191" t="s">
+      <c r="L2" s="180"/>
+      <c r="M2" s="180"/>
+      <c r="N2" s="180"/>
+      <c r="O2" s="156"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="185" t="s">
+      <c r="B3" s="166" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -6513,30 +6650,32 @@
       <c r="E3" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="55">
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="55">
         <v>240723</v>
       </c>
-      <c r="K3" s="137" t="s">
+      <c r="M3" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="137" t="s">
+      <c r="N3" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="145"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="192"/>
-      <c r="B4" s="174"/>
+      <c r="O3" s="144"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="164"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6555,15 +6694,19 @@
       <c r="H4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="138"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="192"/>
-      <c r="B5" s="174"/>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="138"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="164"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6583,121 +6726,133 @@
         <v>8</v>
       </c>
       <c r="I5" s="12"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="138"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="192"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="160" t="s">
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="138"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="164"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="160" t="s">
+      <c r="E6" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="165" t="s">
+      <c r="G6" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="165" t="s">
+      <c r="H6" s="152" t="s">
         <v>8</v>
       </c>
       <c r="I6" s="51"/>
-      <c r="J6" s="172" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L6" s="157" t="s">
+      <c r="N6" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="M6" s="188" t="s">
+      <c r="O6" s="157" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="192"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="164"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="166"/>
-      <c r="H7" s="166"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="164"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="153"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="153"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
       <c r="I7" s="52"/>
-      <c r="J7" s="184"/>
-      <c r="K7" s="7" t="s">
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L7" s="158"/>
-      <c r="M7" s="149"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="192"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="158"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="164"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
       <c r="I8" s="52"/>
-      <c r="J8" s="184"/>
-      <c r="K8" s="7" t="s">
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="L8" s="158"/>
-      <c r="M8" s="149"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="192"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="166"/>
-      <c r="H9" s="166"/>
+      <c r="N8" s="187"/>
+      <c r="O8" s="158"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="164"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
       <c r="I9" s="52"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="185"/>
+      <c r="M9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L9" s="159"/>
-      <c r="M9" s="150"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="192"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
+      <c r="N9" s="188"/>
+      <c r="O9" s="159"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="164"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
       <c r="I10" s="53"/>
-      <c r="J10" s="5">
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="5">
         <v>240718</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="N10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="138"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="192"/>
-      <c r="B11" s="174"/>
+      <c r="O10" s="138"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="164"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -6717,91 +6872,99 @@
         <v>8</v>
       </c>
       <c r="I11" s="12"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="138"/>
-    </row>
-    <row r="12" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="192"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="160" t="s">
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="138"/>
+    </row>
+    <row r="12" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="164"/>
+      <c r="B12" s="167"/>
+      <c r="C12" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="160" t="s">
+      <c r="D12" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="160" t="s">
+      <c r="E12" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="165" t="s">
+      <c r="F12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="165" t="s">
+      <c r="G12" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="152" t="s">
         <v>8</v>
       </c>
       <c r="I12" s="51"/>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="N12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="O12" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="192"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="164"/>
-      <c r="D13" s="164"/>
-      <c r="E13" s="164"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="164"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
       <c r="I13" s="52"/>
-      <c r="J13" s="160">
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="181">
         <v>240718</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="N13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="M13" s="188" t="s">
+      <c r="O13" s="157" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="192"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="164"/>
+      <c r="B14" s="167"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="154"/>
       <c r="I14" s="53"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="N14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="150"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="192"/>
-      <c r="B15" s="174"/>
+      <c r="O14" s="159"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="164"/>
+      <c r="B15" s="167"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -6820,15 +6983,19 @@
       <c r="H15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="138"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="192"/>
-      <c r="B16" s="174" t="s">
+      <c r="I15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="138"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="164"/>
+      <c r="B16" s="167" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -6849,15 +7016,19 @@
       <c r="H16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="138"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="192"/>
-      <c r="B17" s="174"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="138"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="164"/>
+      <c r="B17" s="167"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -6876,15 +7047,19 @@
       <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="138"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="192"/>
-      <c r="B18" s="174"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="138"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="164"/>
+      <c r="B18" s="167"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -6903,65 +7078,75 @@
       <c r="H18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="138"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="192"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="160" t="s">
+      <c r="K18" s="12"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="138"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="164"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="165" t="s">
+      <c r="D19" s="152" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="160" t="s">
+      <c r="E19" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="160" t="s">
+      <c r="F19" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="160" t="s">
+      <c r="G19" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="160" t="s">
+      <c r="H19" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="172" t="s">
+      <c r="I19" s="181" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="150"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="L19" s="157" t="s">
+      <c r="N19" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="M19" s="138"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="192"/>
-      <c r="B20" s="174"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="167"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="7" t="s">
+      <c r="O19" s="138"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="164"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="182"/>
+      <c r="H20" s="182"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="185"/>
+      <c r="M20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L20" s="159"/>
-      <c r="M20" s="138"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="192"/>
-      <c r="B21" s="174"/>
+      <c r="N20" s="188"/>
+      <c r="O20" s="138"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="164"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -6980,15 +7165,19 @@
       <c r="H21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="138"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="192"/>
-      <c r="B22" s="174"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="138"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="164"/>
+      <c r="B22" s="167"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -7007,15 +7196,19 @@
       <c r="H22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J22" s="3"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="138"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="192"/>
-      <c r="B23" s="174"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="138"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="164"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7034,15 +7227,19 @@
       <c r="H23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J23" s="3"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="138"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="192"/>
-      <c r="B24" s="174" t="s">
+      <c r="K23" s="12"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="138"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="164"/>
+      <c r="B24" s="167" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7060,16 +7257,22 @@
       <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
+      <c r="H24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J24" s="3"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="138"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="192"/>
-      <c r="B25" s="174"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="138"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="164"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7085,16 +7288,22 @@
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="138"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="192"/>
-      <c r="B26" s="174"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="138"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="164"/>
+      <c r="B26" s="167"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7110,16 +7319,22 @@
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J26" s="3"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="138"/>
-    </row>
-    <row r="27" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="192"/>
-      <c r="B27" s="174"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="138"/>
+    </row>
+    <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="164"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7138,23 +7353,27 @@
       <c r="H27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="10" t="s">
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="M27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L27" s="7" t="s">
+      <c r="N27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M27" s="16" t="s">
+      <c r="O27" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="192"/>
-      <c r="B28" s="174"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="164"/>
+      <c r="B28" s="167"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7170,16 +7389,22 @@
       <c r="G28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J28" s="3"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="138"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="192"/>
-      <c r="B29" s="174"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="138"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="164"/>
+      <c r="B29" s="167"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -7195,16 +7420,22 @@
       <c r="G29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J29" s="3"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="138"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="192"/>
-      <c r="B30" s="174"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="138"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="164"/>
+      <c r="B30" s="167"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7220,16 +7451,22 @@
       <c r="G30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J30" s="3"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="138"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="192"/>
-      <c r="B31" s="174" t="s">
+      <c r="K30" s="12"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="138"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="164"/>
+      <c r="B31" s="167" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7247,16 +7484,22 @@
       <c r="G31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="138"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="192"/>
-      <c r="B32" s="174"/>
+      <c r="H31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="138"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="164"/>
+      <c r="B32" s="167"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -7275,15 +7518,19 @@
       <c r="H32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J32" s="3"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="138"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="192"/>
-      <c r="B33" s="174"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="138"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="164"/>
+      <c r="B33" s="167"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -7302,15 +7549,19 @@
       <c r="H33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J33" s="3"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="138"/>
-    </row>
-    <row r="34" spans="1:13" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="192"/>
-      <c r="B34" s="174"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="138"/>
+    </row>
+    <row r="34" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="164"/>
+      <c r="B34" s="167"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -7329,23 +7580,27 @@
       <c r="H34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I34" s="12"/>
-      <c r="J34" s="10" t="s">
+      <c r="I34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="3"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="M34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="N34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M34" s="16" t="s">
+      <c r="O34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="192"/>
-      <c r="B35" s="174"/>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="164"/>
+      <c r="B35" s="167"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -7364,15 +7619,19 @@
       <c r="H35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J35" s="3"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="138"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="192"/>
-      <c r="B36" s="174"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="138"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="164"/>
+      <c r="B36" s="167"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -7391,15 +7650,19 @@
       <c r="H36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J36" s="3"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="138"/>
-    </row>
-    <row r="37" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="193"/>
-      <c r="B37" s="175"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="138"/>
+    </row>
+    <row r="37" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="165"/>
+      <c r="B37" s="168"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
       </c>
@@ -7418,17 +7681,21 @@
       <c r="H37" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="146"/>
+      <c r="I37" s="139" t="s">
+        <v>12</v>
+      </c>
       <c r="J37" s="139"/>
-      <c r="K37" s="140"/>
-      <c r="L37" s="140"/>
-      <c r="M37" s="142"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="176" t="s">
+      <c r="K37" s="145"/>
+      <c r="L37" s="139"/>
+      <c r="M37" s="140"/>
+      <c r="N37" s="140"/>
+      <c r="O37" s="141"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="185" t="s">
+      <c r="B38" s="166" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -7440,82 +7707,88 @@
       <c r="E38" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="143" t="s">
+      <c r="F38" s="142" t="s">
         <v>8</v>
       </c>
       <c r="G38" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="144"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="137"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="145"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="177"/>
-      <c r="B39" s="174"/>
-      <c r="C39" s="3" t="s">
+      <c r="H38" s="143" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I38" s="143" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="137"/>
+      <c r="N38" s="137"/>
+      <c r="O38" s="144"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="175"/>
+      <c r="B39" s="167"/>
+      <c r="C39" s="181" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="3">
+      <c r="H39" s="196" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I39" s="196" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J39" s="51"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="3">
         <v>240723</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="M39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L39" s="7" t="s">
+      <c r="N39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M39" s="138"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="177"/>
-      <c r="B40" s="174"/>
-      <c r="C40" s="3" t="s">
+      <c r="O39" s="138"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="175"/>
+      <c r="B40" s="167"/>
+      <c r="C40" s="182"/>
+      <c r="D40" s="182"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="182"/>
+      <c r="H40" s="195"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="53"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="10">
+        <v>240729</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>1450</v>
+      </c>
+      <c r="N40" s="7"/>
+      <c r="O40" s="138"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="175"/>
+      <c r="B41" s="167"/>
+      <c r="C41" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="138"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="177"/>
-      <c r="B41" s="174" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>54</v>
@@ -7523,24 +7796,32 @@
       <c r="E41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
+      <c r="F41" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="3"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="138"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="177"/>
-      <c r="B42" s="174"/>
+      <c r="H41" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>1449</v>
+      </c>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="138"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="175"/>
+      <c r="B42" s="167" t="s">
+        <v>18</v>
+      </c>
       <c r="C42" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>54</v>
@@ -7554,18 +7835,24 @@
       <c r="G42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H42" s="3"/>
-      <c r="I42" s="12"/>
+      <c r="H42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J42" s="3"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="138"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="177"/>
-      <c r="B43" s="174"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="138"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="175"/>
+      <c r="B43" s="167"/>
       <c r="C43" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>54</v>
@@ -7579,20 +7866,24 @@
       <c r="G43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H43" s="3"/>
-      <c r="I43" s="12"/>
+      <c r="H43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J43" s="3"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="138"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="177"/>
-      <c r="B44" s="174" t="s">
-        <v>20</v>
-      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="138"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="175"/>
+      <c r="B44" s="167"/>
       <c r="C44" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>54</v>
@@ -7606,18 +7897,26 @@
       <c r="G44" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H44" s="3"/>
-      <c r="I44" s="12"/>
+      <c r="H44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J44" s="3"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="138"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="177"/>
-      <c r="B45" s="174"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="138"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="175"/>
+      <c r="B45" s="167" t="s">
+        <v>20</v>
+      </c>
       <c r="C45" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>54</v>
@@ -7631,18 +7930,24 @@
       <c r="G45" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H45" s="3"/>
-      <c r="I45" s="12"/>
+      <c r="H45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J45" s="3"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="138"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="177"/>
-      <c r="B46" s="174"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="138"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="175"/>
+      <c r="B46" s="167"/>
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>54</v>
@@ -7656,20 +7961,24 @@
       <c r="G46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="12"/>
+      <c r="H46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J46" s="3"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="138"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="177"/>
-      <c r="B47" s="174" t="s">
-        <v>30</v>
-      </c>
+      <c r="K46" s="12"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="138"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="175"/>
+      <c r="B47" s="167"/>
       <c r="C47" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>54</v>
@@ -7683,18 +7992,26 @@
       <c r="G47" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="12"/>
+      <c r="H47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J47" s="3"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="138"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="177"/>
-      <c r="B48" s="174"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="138"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="175"/>
+      <c r="B48" s="167" t="s">
+        <v>30</v>
+      </c>
       <c r="C48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>54</v>
@@ -7708,242 +8025,278 @@
       <c r="G48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="12"/>
+      <c r="H48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J48" s="3"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="138"/>
-    </row>
-    <row r="49" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="178"/>
-      <c r="B49" s="175"/>
-      <c r="C49" s="139" t="s">
+      <c r="K48" s="12"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="138"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="175"/>
+      <c r="B49" s="167"/>
+      <c r="C49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="138"/>
+    </row>
+    <row r="50" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="176"/>
+      <c r="B50" s="168"/>
+      <c r="C50" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="139" t="s">
+      <c r="D50" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="139" t="s">
+      <c r="E50" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="139" t="s">
+      <c r="F50" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="G49" s="139" t="s">
+      <c r="G50" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="H49" s="139"/>
-      <c r="I49" s="146"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="142"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="179" t="s">
+      <c r="H50" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="139"/>
+      <c r="K50" s="145"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="141"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="185" t="s">
+      <c r="B51" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="169" t="s">
+      <c r="C51" s="190" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="169" t="s">
+      <c r="D51" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="169" t="s">
+      <c r="E51" s="190" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="171" t="s">
+      <c r="F51" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="153" t="s">
+      <c r="G51" s="193" t="s">
         <v>133</v>
       </c>
-      <c r="H50" s="153" t="s">
+      <c r="H51" s="193" t="s">
         <v>12</v>
       </c>
-      <c r="I50" s="153"/>
-      <c r="J50" s="169">
+      <c r="I51" s="193" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="148"/>
+      <c r="K51" s="193"/>
+      <c r="L51" s="190">
         <v>240722</v>
       </c>
-      <c r="K50" s="137" t="s">
+      <c r="M51" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="L50" s="170" t="s">
+      <c r="N51" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="M50" s="189"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="180"/>
-      <c r="B51" s="174"/>
-      <c r="C51" s="164"/>
-      <c r="D51" s="164"/>
-      <c r="E51" s="164"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="164"/>
-      <c r="K51" s="7" t="s">
+      <c r="O51" s="160"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="178"/>
+      <c r="B52" s="167"/>
+      <c r="C52" s="189"/>
+      <c r="D52" s="189"/>
+      <c r="E52" s="189"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="194"/>
+      <c r="I52" s="194"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="194"/>
+      <c r="L52" s="189"/>
+      <c r="M52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L51" s="158"/>
-      <c r="M51" s="190"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A52" s="180"/>
-      <c r="B52" s="174"/>
-      <c r="C52" s="164"/>
-      <c r="D52" s="164"/>
-      <c r="E52" s="164"/>
-      <c r="F52" s="166"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="164"/>
-      <c r="K52" s="7" t="s">
+      <c r="N52" s="187"/>
+      <c r="O52" s="161"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="178"/>
+      <c r="B53" s="167"/>
+      <c r="C53" s="189"/>
+      <c r="D53" s="189"/>
+      <c r="E53" s="189"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="194"/>
+      <c r="H53" s="194"/>
+      <c r="I53" s="194"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="194"/>
+      <c r="L53" s="189"/>
+      <c r="M53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L52" s="158"/>
-      <c r="M52" s="190"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="180"/>
-      <c r="B53" s="174"/>
-      <c r="C53" s="161"/>
-      <c r="D53" s="161"/>
-      <c r="E53" s="161"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="161"/>
-      <c r="K53" s="7" t="s">
+      <c r="N53" s="187"/>
+      <c r="O53" s="161"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="178"/>
+      <c r="B54" s="167"/>
+      <c r="C54" s="182"/>
+      <c r="D54" s="182"/>
+      <c r="E54" s="182"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="195"/>
+      <c r="H54" s="195"/>
+      <c r="I54" s="195"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L53" s="159"/>
-      <c r="M53" s="152"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="180"/>
-      <c r="B54" s="174"/>
-      <c r="C54" s="160" t="s">
+      <c r="N54" s="188"/>
+      <c r="O54" s="162"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="178"/>
+      <c r="B55" s="167"/>
+      <c r="C55" s="181" t="s">
         <v>66</v>
       </c>
-      <c r="D54" s="160" t="s">
+      <c r="D55" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="160" t="s">
+      <c r="E55" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F54" s="165" t="s">
+      <c r="F55" s="152" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="156" t="s">
+      <c r="G55" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="H54" s="156" t="s">
+      <c r="H55" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="I54" s="156"/>
-      <c r="J54" s="162" t="s">
+      <c r="I55" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="51"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="197" t="s">
         <v>1443</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="M55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L54" s="157" t="s">
+      <c r="N55" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="M54" s="148"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="180"/>
-      <c r="B55" s="174"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="7" t="s">
+      <c r="O55" s="200"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="178"/>
+      <c r="B56" s="167"/>
+      <c r="C56" s="189"/>
+      <c r="D56" s="189"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="194"/>
+      <c r="H56" s="194"/>
+      <c r="I56" s="194"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="194"/>
+      <c r="L56" s="199"/>
+      <c r="M56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="L55" s="158"/>
-      <c r="M55" s="149"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="180"/>
-      <c r="B56" s="174"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="168"/>
-      <c r="K56" s="7" t="s">
+      <c r="N56" s="187"/>
+      <c r="O56" s="158"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="178"/>
+      <c r="B57" s="167"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="189"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="194"/>
+      <c r="H57" s="194"/>
+      <c r="I57" s="194"/>
+      <c r="J57" s="52"/>
+      <c r="K57" s="194"/>
+      <c r="L57" s="199"/>
+      <c r="M57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L56" s="158"/>
-      <c r="M56" s="149"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="180"/>
-      <c r="B57" s="174"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="163"/>
-      <c r="K57" s="7" t="s">
+      <c r="N57" s="187"/>
+      <c r="O57" s="158"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="178"/>
+      <c r="B58" s="167"/>
+      <c r="C58" s="182"/>
+      <c r="D58" s="182"/>
+      <c r="E58" s="182"/>
+      <c r="F58" s="154"/>
+      <c r="G58" s="195"/>
+      <c r="H58" s="195"/>
+      <c r="I58" s="195"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="195"/>
+      <c r="L58" s="198"/>
+      <c r="M58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L57" s="159"/>
-      <c r="M57" s="150"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="180"/>
-      <c r="B58" s="174"/>
-      <c r="C58" s="3" t="s">
+      <c r="N58" s="188"/>
+      <c r="O58" s="159"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="178"/>
+      <c r="B59" s="167"/>
+      <c r="C59" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="138"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="180"/>
-      <c r="B59" s="174"/>
-      <c r="C59" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>54</v>
@@ -7960,19 +8313,21 @@
       <c r="H59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="12"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="138"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="180"/>
-      <c r="B60" s="174" t="s">
-        <v>19</v>
-      </c>
+      <c r="I59" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="138"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="178"/>
+      <c r="B60" s="167"/>
       <c r="C60" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>54</v>
@@ -7980,8 +8335,8 @@
       <c r="E60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
+      <c r="F60" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G60" s="12" t="s">
         <v>133</v>
@@ -7989,94 +8344,110 @@
       <c r="H60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="138"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="180"/>
-      <c r="B61" s="174"/>
-      <c r="C61" s="160" t="s">
+      <c r="I60" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="138"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="178"/>
+      <c r="B61" s="167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="138"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="178"/>
+      <c r="B62" s="167"/>
+      <c r="C62" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="D61" s="160" t="s">
+      <c r="D62" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="E61" s="160" t="s">
+      <c r="E62" s="181" t="s">
         <v>54</v>
       </c>
-      <c r="F61" s="160" t="s">
+      <c r="F62" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="G61" s="156" t="s">
+      <c r="G62" s="196" t="s">
         <v>133</v>
       </c>
-      <c r="H61" s="156" t="s">
+      <c r="H62" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="I61" s="156"/>
-      <c r="J61" s="162" t="s">
+      <c r="I62" s="196" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="51"/>
+      <c r="K62" s="196"/>
+      <c r="L62" s="197" t="s">
         <v>1444</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="M62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L61" s="157" t="s">
+      <c r="N62" s="186" t="s">
         <v>85</v>
       </c>
-      <c r="M61" s="151"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="180"/>
-      <c r="B62" s="174"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="155"/>
-      <c r="H62" s="155"/>
-      <c r="I62" s="155"/>
-      <c r="J62" s="163"/>
-      <c r="K62" s="7" t="s">
+      <c r="O62" s="201"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="178"/>
+      <c r="B63" s="167"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="182"/>
+      <c r="E63" s="182"/>
+      <c r="F63" s="182"/>
+      <c r="G63" s="195"/>
+      <c r="H63" s="195"/>
+      <c r="I63" s="195"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="195"/>
+      <c r="L63" s="198"/>
+      <c r="M63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L62" s="159"/>
-      <c r="M62" s="152"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="180"/>
-      <c r="B63" s="174"/>
-      <c r="C63" s="3" t="s">
+      <c r="N63" s="188"/>
+      <c r="O63" s="162"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="178"/>
+      <c r="B64" s="167"/>
+      <c r="C64" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="138"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="180"/>
-      <c r="B64" s="174"/>
-      <c r="C64" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>54</v>
@@ -8093,19 +8464,21 @@
       <c r="H64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I64" s="3"/>
+      <c r="I64" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J64" s="3"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="138"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A65" s="180"/>
-      <c r="B65" s="174" t="s">
-        <v>78</v>
-      </c>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="138"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="178"/>
+      <c r="B65" s="167"/>
       <c r="C65" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>54</v>
@@ -8122,17 +8495,23 @@
       <c r="H65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J65" s="3"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="138"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" s="180"/>
-      <c r="B66" s="174"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="138"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="178"/>
+      <c r="B66" s="167" t="s">
+        <v>78</v>
+      </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>54</v>
@@ -8149,23 +8528,21 @@
       <c r="H66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="3"/>
-      <c r="J66" s="136" t="s">
-        <v>1443</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L66" s="2" t="s">
-        <v>1447</v>
-      </c>
-      <c r="M66" s="138"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A67" s="180"/>
-      <c r="B67" s="174"/>
+      <c r="I66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="138"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="178"/>
+      <c r="B67" s="167"/>
       <c r="C67" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>54</v>
@@ -8182,17 +8559,27 @@
       <c r="H67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I67" s="3"/>
+      <c r="I67" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J67" s="3"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="138"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A68" s="180"/>
-      <c r="B68" s="174"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="136" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M67" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="O67" s="138"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="178"/>
+      <c r="B68" s="167"/>
       <c r="C68" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>54</v>
@@ -8209,19 +8596,21 @@
       <c r="H68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I68" s="3"/>
+      <c r="I68" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J68" s="3"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="138"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A69" s="180"/>
-      <c r="B69" s="174" t="s">
-        <v>30</v>
-      </c>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="138"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="178"/>
+      <c r="B69" s="167"/>
       <c r="C69" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>54</v>
@@ -8238,17 +8627,23 @@
       <c r="H69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I69" s="3"/>
+      <c r="I69" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J69" s="3"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="138"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A70" s="180"/>
-      <c r="B70" s="174"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="138"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="178"/>
+      <c r="B70" s="167" t="s">
+        <v>30</v>
+      </c>
       <c r="C70" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>54</v>
@@ -8265,23 +8660,21 @@
       <c r="H70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="3"/>
-      <c r="J70" s="136" t="s">
-        <v>1443</v>
-      </c>
-      <c r="K70" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M70" s="138"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A71" s="180"/>
-      <c r="B71" s="174"/>
+      <c r="I70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="138"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="178"/>
+      <c r="B71" s="167"/>
       <c r="C71" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>54</v>
@@ -8298,119 +8691,750 @@
       <c r="H71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I71" s="3"/>
+      <c r="I71" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="J71" s="3"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="138"/>
-    </row>
-    <row r="72" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="181"/>
-      <c r="B72" s="175"/>
-      <c r="C72" s="139" t="s">
+      <c r="K71" s="3"/>
+      <c r="L71" s="136" t="s">
+        <v>1443</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N71" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O71" s="138"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="178"/>
+      <c r="B72" s="167"/>
+      <c r="C72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="138"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="270"/>
+      <c r="B73" s="181"/>
+      <c r="C73" s="150" t="s">
         <v>82</v>
       </c>
-      <c r="D72" s="139" t="s">
+      <c r="D73" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="E72" s="139" t="s">
+      <c r="E73" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="F72" s="139" t="s">
+      <c r="F73" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="139" t="s">
+      <c r="G73" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="H72" s="139" t="s">
+      <c r="H73" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="I72" s="139"/>
-      <c r="J72" s="139"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="141"/>
-      <c r="M72" s="142"/>
+      <c r="I73" s="150" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="150"/>
+      <c r="K73" s="150"/>
+      <c r="L73" s="150"/>
+      <c r="M73" s="149"/>
+      <c r="N73" s="151"/>
+      <c r="O73" s="147"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="167" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B74" s="181" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="167"/>
+      <c r="B75" s="189"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="167"/>
+      <c r="B76" s="189"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="167"/>
+      <c r="B77" s="189"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="167"/>
+      <c r="B78" s="182"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="167"/>
+      <c r="B79" s="181" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="167"/>
+      <c r="B80" s="189"/>
+      <c r="C80" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="4"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="167"/>
+      <c r="B81" s="189"/>
+      <c r="C81" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="167"/>
+      <c r="B82" s="189"/>
+      <c r="C82" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="167"/>
+      <c r="B83" s="182"/>
+      <c r="C83" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="167"/>
+      <c r="B84" s="181" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="167"/>
+      <c r="B85" s="189"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="167"/>
+      <c r="B86" s="189"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="167"/>
+      <c r="B87" s="189"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="167"/>
+      <c r="B88" s="182"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="167"/>
+      <c r="B89" s="181" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="167"/>
+      <c r="B90" s="189"/>
+      <c r="C90" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="167"/>
+      <c r="B91" s="189"/>
+      <c r="C91" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="167"/>
+      <c r="B92" s="189"/>
+      <c r="C92" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3"/>
+      <c r="F92" s="3"/>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="167"/>
+      <c r="B93" s="182"/>
+      <c r="C93" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="7"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="167"/>
+      <c r="B94" s="181" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D94" s="3"/>
+      <c r="E94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="7"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="167"/>
+      <c r="B95" s="189"/>
+      <c r="C95" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3"/>
+      <c r="F95" s="3"/>
+      <c r="G95" s="3"/>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="7"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="167"/>
+      <c r="B96" s="189"/>
+      <c r="C96" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="7"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="167"/>
+      <c r="B97" s="189"/>
+      <c r="C97" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="167"/>
+      <c r="B98" s="182"/>
+      <c r="C98" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D98" s="3"/>
+      <c r="E98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J98" s="4"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="7"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="167"/>
+      <c r="B99" s="181" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="167"/>
+      <c r="B100" s="189"/>
+      <c r="C100" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="167"/>
+      <c r="B101" s="189"/>
+      <c r="C101" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3"/>
+      <c r="I101" s="3"/>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="7"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="167"/>
+      <c r="B102" s="189"/>
+      <c r="C102" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="7"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="167"/>
+      <c r="B103" s="182"/>
+      <c r="C103" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="7"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
-    <mergeCell ref="H12:H14"/>
+  <mergeCells count="96">
+    <mergeCell ref="A74:A103"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="A3:A37"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A38:A49"/>
-    <mergeCell ref="A50:A72"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="O55:O58"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="K51:K54"/>
+    <mergeCell ref="K55:K58"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="H55:H58"/>
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="E6:E10"/>
     <mergeCell ref="E12:E14"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="H19:H20"/>
     <mergeCell ref="H6:H10"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="J50:J53"/>
-    <mergeCell ref="L50:L53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H61:H62"/>
-    <mergeCell ref="L54:L57"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="J61:J62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="J54:J57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="M61:M62"/>
-    <mergeCell ref="I50:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I61:I62"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="A51:A73"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:K1"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="A3:A37"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="O6:O9"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8455,88 +9479,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="213" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="248" t="s">
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="210" t="s">
         <v>1368</v>
       </c>
-      <c r="E1" s="249"/>
-      <c r="F1" s="250"/>
-      <c r="G1" s="246" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="208" t="s">
         <v>1369</v>
       </c>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="199" t="s">
+      <c r="H1" s="209"/>
+      <c r="I1" s="209"/>
+      <c r="J1" s="255" t="s">
         <v>1400</v>
       </c>
-      <c r="K1" s="200"/>
-      <c r="L1" s="201"/>
-      <c r="M1" s="243" t="s">
+      <c r="K1" s="253"/>
+      <c r="L1" s="254"/>
+      <c r="M1" s="205" t="s">
         <v>1401</v>
       </c>
-      <c r="N1" s="244"/>
-      <c r="O1" s="245"/>
-      <c r="P1" s="208" t="s">
+      <c r="N1" s="206"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="263" t="s">
         <v>1431</v>
       </c>
-      <c r="Q1" s="209"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="253" t="s">
+      <c r="Q1" s="264"/>
+      <c r="R1" s="265"/>
+      <c r="S1" s="215" t="s">
         <v>1440</v>
       </c>
-      <c r="T1" s="254"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="243" t="s">
+      <c r="T1" s="216"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="205" t="s">
         <v>789</v>
       </c>
-      <c r="W1" s="244"/>
-      <c r="X1" s="245"/>
+      <c r="W1" s="206"/>
+      <c r="X1" s="207"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="178" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="262" t="s">
+      <c r="B2" s="227"/>
+      <c r="C2" s="228"/>
+      <c r="D2" s="224" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="206"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="259" t="s">
+      <c r="E2" s="225"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="221" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="260"/>
-      <c r="I2" s="261"/>
-      <c r="J2" s="202" t="s">
+      <c r="H2" s="222"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="260" t="s">
         <v>1375</v>
       </c>
-      <c r="K2" s="203"/>
-      <c r="L2" s="204"/>
-      <c r="M2" s="256" t="s">
+      <c r="K2" s="258"/>
+      <c r="L2" s="259"/>
+      <c r="M2" s="218" t="s">
         <v>633</v>
       </c>
-      <c r="N2" s="257"/>
-      <c r="O2" s="258"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="219"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="262" t="s">
         <v>1430</v>
       </c>
-      <c r="Q2" s="206"/>
-      <c r="R2" s="207"/>
-      <c r="S2" s="240" t="s">
+      <c r="Q2" s="225"/>
+      <c r="R2" s="226"/>
+      <c r="S2" s="202" t="s">
         <v>788</v>
       </c>
-      <c r="T2" s="241"/>
-      <c r="U2" s="242"/>
-      <c r="V2" s="256" t="s">
+      <c r="T2" s="203"/>
+      <c r="U2" s="204"/>
+      <c r="V2" s="218" t="s">
         <v>799</v>
       </c>
-      <c r="W2" s="257"/>
-      <c r="X2" s="258"/>
+      <c r="W2" s="219"/>
+      <c r="X2" s="220"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -12679,7 +13703,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="211" t="s">
+      <c r="A102" s="266" t="s">
         <v>1155</v>
       </c>
       <c r="B102" s="77" t="s">
@@ -12687,7 +13711,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="212"/>
+      <c r="A103" s="267"/>
       <c r="B103" s="78" t="s">
         <v>1157</v>
       </c>
@@ -12708,58 +13732,58 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="232" t="s">
+      <c r="A107" s="229" t="s">
         <v>831</v>
       </c>
-      <c r="B107" s="233"/>
-      <c r="C107" s="238"/>
-      <c r="D107" s="191" t="s">
+      <c r="B107" s="230"/>
+      <c r="C107" s="235"/>
+      <c r="D107" s="163" t="s">
         <v>833</v>
       </c>
-      <c r="E107" s="233"/>
-      <c r="F107" s="238"/>
-      <c r="G107" s="191" t="s">
+      <c r="E107" s="230"/>
+      <c r="F107" s="235"/>
+      <c r="G107" s="163" t="s">
         <v>1099</v>
       </c>
-      <c r="H107" s="233"/>
-      <c r="I107" s="234"/>
-      <c r="J107" s="232" t="s">
+      <c r="H107" s="230"/>
+      <c r="I107" s="231"/>
+      <c r="J107" s="229" t="s">
         <v>1115</v>
       </c>
-      <c r="K107" s="233"/>
-      <c r="L107" s="234"/>
-      <c r="M107" s="191" t="s">
+      <c r="K107" s="230"/>
+      <c r="L107" s="231"/>
+      <c r="M107" s="163" t="s">
         <v>1147</v>
       </c>
-      <c r="N107" s="233"/>
-      <c r="O107" s="234"/>
+      <c r="N107" s="230"/>
+      <c r="O107" s="231"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="235" t="s">
+      <c r="A108" s="232" t="s">
         <v>832</v>
       </c>
-      <c r="B108" s="236"/>
-      <c r="C108" s="239"/>
-      <c r="D108" s="192" t="s">
+      <c r="B108" s="233"/>
+      <c r="C108" s="236"/>
+      <c r="D108" s="164" t="s">
         <v>834</v>
       </c>
-      <c r="E108" s="236"/>
-      <c r="F108" s="239"/>
-      <c r="G108" s="192" t="s">
+      <c r="E108" s="233"/>
+      <c r="F108" s="236"/>
+      <c r="G108" s="164" t="s">
         <v>1098</v>
       </c>
-      <c r="H108" s="236"/>
-      <c r="I108" s="237"/>
-      <c r="J108" s="235" t="s">
+      <c r="H108" s="233"/>
+      <c r="I108" s="234"/>
+      <c r="J108" s="232" t="s">
         <v>1116</v>
       </c>
-      <c r="K108" s="236"/>
-      <c r="L108" s="237"/>
-      <c r="M108" s="192" t="s">
+      <c r="K108" s="233"/>
+      <c r="L108" s="234"/>
+      <c r="M108" s="164" t="s">
         <v>1148</v>
       </c>
-      <c r="N108" s="236"/>
-      <c r="O108" s="237"/>
+      <c r="N108" s="233"/>
+      <c r="O108" s="234"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="49" t="s">
@@ -14734,58 +15758,58 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="225" t="s">
+      <c r="A192" s="237" t="s">
         <v>831</v>
       </c>
-      <c r="B192" s="226"/>
-      <c r="C192" s="227"/>
-      <c r="D192" s="228" t="s">
+      <c r="B192" s="238"/>
+      <c r="C192" s="239"/>
+      <c r="D192" s="240" t="s">
         <v>833</v>
       </c>
-      <c r="E192" s="226"/>
-      <c r="F192" s="227"/>
-      <c r="G192" s="228" t="s">
+      <c r="E192" s="238"/>
+      <c r="F192" s="239"/>
+      <c r="G192" s="240" t="s">
         <v>1099</v>
       </c>
-      <c r="H192" s="226"/>
-      <c r="I192" s="227"/>
-      <c r="J192" s="229" t="s">
+      <c r="H192" s="238"/>
+      <c r="I192" s="239"/>
+      <c r="J192" s="241" t="s">
         <v>1268</v>
       </c>
-      <c r="K192" s="198"/>
-      <c r="L192" s="230"/>
-      <c r="M192" s="229" t="s">
+      <c r="K192" s="173"/>
+      <c r="L192" s="242"/>
+      <c r="M192" s="241" t="s">
         <v>1361</v>
       </c>
-      <c r="N192" s="198"/>
-      <c r="O192" s="231"/>
+      <c r="N192" s="173"/>
+      <c r="O192" s="243"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="217" t="s">
+      <c r="A193" s="244" t="s">
         <v>832</v>
       </c>
-      <c r="B193" s="218"/>
-      <c r="C193" s="219"/>
-      <c r="D193" s="220" t="s">
+      <c r="B193" s="245"/>
+      <c r="C193" s="246"/>
+      <c r="D193" s="247" t="s">
         <v>834</v>
       </c>
-      <c r="E193" s="218"/>
-      <c r="F193" s="219"/>
-      <c r="G193" s="220" t="s">
+      <c r="E193" s="245"/>
+      <c r="F193" s="246"/>
+      <c r="G193" s="247" t="s">
         <v>1098</v>
       </c>
-      <c r="H193" s="218"/>
-      <c r="I193" s="219"/>
-      <c r="J193" s="221" t="s">
+      <c r="H193" s="245"/>
+      <c r="I193" s="246"/>
+      <c r="J193" s="248" t="s">
         <v>1269</v>
       </c>
-      <c r="K193" s="222"/>
-      <c r="L193" s="223"/>
-      <c r="M193" s="221" t="s">
+      <c r="K193" s="249"/>
+      <c r="L193" s="250"/>
+      <c r="M193" s="248" t="s">
         <v>1365</v>
       </c>
-      <c r="N193" s="222"/>
-      <c r="O193" s="224"/>
+      <c r="N193" s="249"/>
+      <c r="O193" s="251"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
@@ -17457,58 +18481,58 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A278" s="215" t="s">
+      <c r="A278" s="252" t="s">
         <v>831</v>
       </c>
-      <c r="B278" s="200"/>
-      <c r="C278" s="201"/>
-      <c r="D278" s="199" t="s">
+      <c r="B278" s="253"/>
+      <c r="C278" s="254"/>
+      <c r="D278" s="255" t="s">
         <v>833</v>
       </c>
-      <c r="E278" s="200"/>
-      <c r="F278" s="201"/>
-      <c r="G278" s="199" t="s">
+      <c r="E278" s="253"/>
+      <c r="F278" s="254"/>
+      <c r="G278" s="255" t="s">
         <v>1099</v>
       </c>
-      <c r="H278" s="200"/>
-      <c r="I278" s="216"/>
-      <c r="J278" s="215" t="s">
+      <c r="H278" s="253"/>
+      <c r="I278" s="256"/>
+      <c r="J278" s="252" t="s">
         <v>1115</v>
       </c>
-      <c r="K278" s="200"/>
-      <c r="L278" s="216"/>
-      <c r="M278" s="199" t="s">
+      <c r="K278" s="253"/>
+      <c r="L278" s="256"/>
+      <c r="M278" s="255" t="s">
         <v>1147</v>
       </c>
-      <c r="N278" s="200"/>
-      <c r="O278" s="216"/>
+      <c r="N278" s="253"/>
+      <c r="O278" s="256"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A279" s="213" t="s">
+      <c r="A279" s="257" t="s">
         <v>832</v>
       </c>
-      <c r="B279" s="203"/>
-      <c r="C279" s="204"/>
-      <c r="D279" s="202" t="s">
+      <c r="B279" s="258"/>
+      <c r="C279" s="259"/>
+      <c r="D279" s="260" t="s">
         <v>834</v>
       </c>
-      <c r="E279" s="203"/>
-      <c r="F279" s="204"/>
-      <c r="G279" s="202" t="s">
+      <c r="E279" s="258"/>
+      <c r="F279" s="259"/>
+      <c r="G279" s="260" t="s">
         <v>1098</v>
       </c>
-      <c r="H279" s="203"/>
-      <c r="I279" s="214"/>
-      <c r="J279" s="213" t="s">
+      <c r="H279" s="258"/>
+      <c r="I279" s="261"/>
+      <c r="J279" s="257" t="s">
         <v>1116</v>
       </c>
-      <c r="K279" s="203"/>
-      <c r="L279" s="214"/>
-      <c r="M279" s="202" t="s">
+      <c r="K279" s="258"/>
+      <c r="L279" s="261"/>
+      <c r="M279" s="260" t="s">
         <v>1148</v>
       </c>
-      <c r="N279" s="203"/>
-      <c r="O279" s="214"/>
+      <c r="N279" s="258"/>
+      <c r="O279" s="261"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="49" t="s">
@@ -19473,6 +20497,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -19485,41 +20540,10 @@
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="M279:O279"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="A102:A103"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19585,19 +20609,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="167" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="174" t="s">
+      <c r="B2" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="167" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="167" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="174" t="s">
+      <c r="E2" s="167" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -19613,11 +20637,11 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="174"/>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="174"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="167"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
@@ -19631,14 +20655,14 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="174"/>
-      <c r="B4" s="174"/>
-      <c r="C4" s="174"/>
-      <c r="D4" s="174"/>
-      <c r="E4" s="160" t="s">
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
+      <c r="C4" s="167"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="160" t="s">
+      <c r="F4" s="181" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -19653,12 +20677,12 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="174"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="189"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
@@ -19671,58 +20695,58 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="174" t="s">
+      <c r="A6" s="167"/>
+      <c r="B6" s="167"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="189"/>
+      <c r="G6" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="174"/>
-      <c r="I6" s="174" t="s">
+      <c r="H6" s="167"/>
+      <c r="I6" s="167" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="174"/>
-      <c r="K6" s="174"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
       <c r="L6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N6" s="265" t="s">
+      <c r="N6" s="268" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="174"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="164"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
+      <c r="A7" s="167"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
       <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="266"/>
+      <c r="N7" s="269"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="161"/>
+      <c r="A8" s="167"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="189"/>
+      <c r="F8" s="182"/>
       <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
@@ -19737,11 +20761,11 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="174"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="164"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="167"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="189"/>
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
@@ -19759,7 +20783,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="161"/>
+      <c r="E10" s="182"/>
       <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
@@ -19774,11 +20798,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="D2:D9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="H6:H7"/>
@@ -19787,6 +20806,11 @@
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FD4383-B871-4A3E-9AF4-BD41BFD233AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55AECA-37A5-4FA2-9FF5-1AA450001C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29490" yWindow="2130" windowWidth="14760" windowHeight="15585" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1482">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4692,6 +4692,22 @@
   </si>
   <si>
     <t>HIS.PA.CORE.UI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무하달</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김재강 책임</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240730_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4978,7 +4994,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -5377,26 +5393,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5838,169 +5841,301 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6051,9 +6186,6 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6084,105 +6216,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6195,20 +6228,11 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6551,10 +6575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6563,50 +6587,55 @@
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="11" width="8.875" style="1"/>
-    <col min="12" max="12" width="26.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="48.125" style="6" customWidth="1"/>
-    <col min="14" max="14" width="64.375" customWidth="1"/>
-    <col min="15" max="15" width="51.875" customWidth="1"/>
+    <col min="7" max="12" width="8.875" style="1"/>
+    <col min="13" max="13" width="26.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="48.125" style="6" customWidth="1"/>
+    <col min="16" max="16" width="64.375" customWidth="1"/>
+    <col min="17" max="17" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="171" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="169" t="s">
+      <c r="C1" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="210" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
-      <c r="H1" s="173"/>
-      <c r="I1" s="173"/>
-      <c r="J1" s="173"/>
-      <c r="K1" s="173"/>
-      <c r="L1" s="179" t="s">
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="169" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="179" t="s">
+      <c r="N1" s="169" t="s">
+        <v>1479</v>
+      </c>
+      <c r="O1" s="169" t="s">
         <v>55</v>
       </c>
-      <c r="N1" s="179" t="s">
+      <c r="P1" s="169" t="s">
         <v>351</v>
       </c>
-      <c r="O1" s="155" t="s">
+      <c r="Q1" s="167" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="172"/>
-      <c r="B2" s="170"/>
-      <c r="C2" s="170"/>
+    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="209"/>
+      <c r="B2" s="207"/>
+      <c r="C2" s="207"/>
       <c r="D2" s="146">
         <v>240711</v>
       </c>
@@ -6625,20 +6654,26 @@
       <c r="I2" s="146">
         <v>240729</v>
       </c>
-      <c r="J2" s="146"/>
+      <c r="J2" s="146">
+        <v>240730</v>
+      </c>
       <c r="K2" s="146" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L2" s="146" t="s">
         <v>1448</v>
       </c>
-      <c r="L2" s="180"/>
-      <c r="M2" s="180"/>
-      <c r="N2" s="180"/>
-      <c r="O2" s="156"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="M2" s="170"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="168"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="166" t="s">
+      <c r="B3" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -6659,23 +6694,33 @@
       <c r="H3" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="55">
+      <c r="I3" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="143"/>
+      <c r="M3" s="55">
         <v>240723</v>
       </c>
-      <c r="M3" s="137" t="s">
+      <c r="N3" s="55" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O3" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="137" t="s">
+      <c r="P3" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="144"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="164"/>
-      <c r="B4" s="167"/>
+      <c r="Q3" s="144"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="204"/>
+      <c r="B4" s="194"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6697,16 +6742,22 @@
       <c r="I4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="138"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="164"/>
-      <c r="B5" s="167"/>
+      <c r="J4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="12"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="138"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="204"/>
+      <c r="B5" s="194"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6725,134 +6776,160 @@
       <c r="H5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="138"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="164"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="181" t="s">
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="138"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="204"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="152" t="s">
+      <c r="E6" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="152" t="s">
+      <c r="G6" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="152" t="s">
+      <c r="H6" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="183" t="s">
+      <c r="I6" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="N6" s="148"/>
+      <c r="O6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="186" t="s">
+      <c r="P6" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="157" t="s">
+      <c r="Q6" s="174" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="164"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="7" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="204"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="176"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="187"/>
-      <c r="O7" s="158"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="164"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="189"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="7" t="s">
+      <c r="P7" s="179"/>
+      <c r="Q7" s="172"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="204"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="190"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="176"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="187"/>
-      <c r="O8" s="158"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="164"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="189"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="7" t="s">
+      <c r="P8" s="179"/>
+      <c r="Q8" s="172"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="204"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="190"/>
+      <c r="I9" s="190"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="177"/>
+      <c r="N9" s="150"/>
+      <c r="O9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="188"/>
-      <c r="O9" s="159"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="164"/>
-      <c r="B10" s="167"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="182"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="5">
+      <c r="P9" s="180"/>
+      <c r="Q9" s="173"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="204"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="191"/>
+      <c r="I10" s="191"/>
+      <c r="J10" s="161"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="5">
         <v>240718</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="N10" s="5" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="P10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="O10" s="138"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="164"/>
-      <c r="B11" s="167"/>
+      <c r="Q10" s="138"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="204"/>
+      <c r="B11" s="194"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -6871,100 +6948,124 @@
       <c r="H11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="138"/>
-    </row>
-    <row r="12" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="164"/>
-      <c r="B12" s="167"/>
-      <c r="C12" s="181" t="s">
+      <c r="I11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="138"/>
+    </row>
+    <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="204"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="152" t="s">
+      <c r="D12" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="152" t="s">
+      <c r="G12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="152" t="s">
+      <c r="H12" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="14" t="s">
+      <c r="I12" s="192" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="M12" s="7" t="s">
+      <c r="N12" s="14" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="Q12" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="164"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="181">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="204"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="159">
         <v>240718</v>
       </c>
-      <c r="M13" s="7" t="s">
+      <c r="N13" s="159" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="157" t="s">
+      <c r="Q13" s="174" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="164"/>
-      <c r="B14" s="167"/>
-      <c r="C14" s="182"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="182"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="7" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="204"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="161"/>
+      <c r="F14" s="191"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="191"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="161"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="O14" s="159"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="164"/>
-      <c r="B15" s="167"/>
+      <c r="Q14" s="173"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="204"/>
+      <c r="B15" s="194"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -6986,16 +7087,22 @@
       <c r="I15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="138"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="164"/>
-      <c r="B16" s="167" t="s">
+      <c r="J15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="138"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="204"/>
+      <c r="B16" s="194" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7019,16 +7126,22 @@
       <c r="I16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="138"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="164"/>
-      <c r="B17" s="167"/>
+      <c r="J16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="138"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="204"/>
+      <c r="B17" s="194"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -7050,16 +7163,22 @@
       <c r="I17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="138"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="164"/>
-      <c r="B18" s="167"/>
+      <c r="J17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="138"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="204"/>
+      <c r="B18" s="194"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -7081,72 +7200,86 @@
       <c r="I18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="138"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="164"/>
-      <c r="B19" s="167"/>
-      <c r="C19" s="181" t="s">
+      <c r="J18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="12"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="138"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="204"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="192" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="150"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="183" t="s">
+      <c r="E19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="51"/>
+      <c r="M19" s="175" t="s">
         <v>86</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="N19" s="148"/>
+      <c r="O19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N19" s="186" t="s">
+      <c r="P19" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="138"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="164"/>
-      <c r="B20" s="167"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="182"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="182"/>
-      <c r="H20" s="182"/>
-      <c r="I20" s="182"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="185"/>
-      <c r="M20" s="7" t="s">
+      <c r="Q19" s="138"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="204"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="161"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="177"/>
+      <c r="N20" s="150"/>
+      <c r="O20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N20" s="188"/>
-      <c r="O20" s="138"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="164"/>
-      <c r="B21" s="167"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="138"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="204"/>
+      <c r="B21" s="194"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -7168,16 +7301,22 @@
       <c r="I21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="138"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="164"/>
-      <c r="B22" s="167"/>
+      <c r="J21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="12"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="138"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="204"/>
+      <c r="B22" s="194"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -7199,16 +7338,22 @@
       <c r="I22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="138"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="164"/>
-      <c r="B23" s="167"/>
+      <c r="J22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="138"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="204"/>
+      <c r="B23" s="194"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7230,16 +7375,22 @@
       <c r="I23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="138"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="164"/>
-      <c r="B24" s="167" t="s">
+      <c r="J23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="138"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="204"/>
+      <c r="B24" s="194" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7263,16 +7414,22 @@
       <c r="I24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="138"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="164"/>
-      <c r="B25" s="167"/>
+      <c r="J24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="12"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="138"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="204"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7294,16 +7451,22 @@
       <c r="I25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="3"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="138"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
-      <c r="B26" s="167"/>
+      <c r="J25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="12"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="138"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="204"/>
+      <c r="B26" s="194"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7325,16 +7488,22 @@
       <c r="I26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="3"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="138"/>
-    </row>
-    <row r="27" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="164"/>
-      <c r="B27" s="167"/>
+      <c r="J26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="138"/>
+    </row>
+    <row r="27" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="204"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7356,24 +7525,30 @@
       <c r="I27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="10" t="s">
+      <c r="J27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L27" s="12"/>
+      <c r="M27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="N27" s="10"/>
+      <c r="O27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="16" t="s">
+      <c r="Q27" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="164"/>
-      <c r="B28" s="167"/>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="204"/>
+      <c r="B28" s="194"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7395,16 +7570,22 @@
       <c r="I28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="3"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="138"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="164"/>
-      <c r="B29" s="167"/>
+      <c r="J28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="138"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="204"/>
+      <c r="B29" s="194"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -7426,16 +7607,22 @@
       <c r="I29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="3"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="138"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="164"/>
-      <c r="B30" s="167"/>
+      <c r="J29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="12"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="138"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="204"/>
+      <c r="B30" s="194"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7457,16 +7644,22 @@
       <c r="I30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="3"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="138"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
-      <c r="B31" s="167" t="s">
+      <c r="J30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L30" s="12"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="138"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="204"/>
+      <c r="B31" s="194" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7490,16 +7683,22 @@
       <c r="I31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="138"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="164"/>
-      <c r="B32" s="167"/>
+      <c r="J31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L31" s="12"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="138"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="204"/>
+      <c r="B32" s="194"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -7521,16 +7720,22 @@
       <c r="I32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="138"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="164"/>
-      <c r="B33" s="167"/>
+      <c r="J32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="12"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="138"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="204"/>
+      <c r="B33" s="194"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -7552,16 +7757,22 @@
       <c r="I33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="138"/>
-    </row>
-    <row r="34" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
-      <c r="B34" s="167"/>
+      <c r="J33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L33" s="12"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="138"/>
+    </row>
+    <row r="34" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="204"/>
+      <c r="B34" s="194"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -7583,24 +7794,30 @@
       <c r="I34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="10" t="s">
+      <c r="J34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="12"/>
+      <c r="M34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="M34" s="7" t="s">
+      <c r="N34" s="10"/>
+      <c r="O34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="16" t="s">
+      <c r="Q34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="164"/>
-      <c r="B35" s="167"/>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="204"/>
+      <c r="B35" s="194"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -7622,16 +7839,22 @@
       <c r="I35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="138"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="164"/>
-      <c r="B36" s="167"/>
+      <c r="J35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L35" s="12"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="138"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="204"/>
+      <c r="B36" s="194"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -7653,16 +7876,22 @@
       <c r="I36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="138"/>
-    </row>
-    <row r="37" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="165"/>
-      <c r="B37" s="168"/>
+      <c r="J36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="138"/>
+    </row>
+    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="205"/>
+      <c r="B37" s="195"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
       </c>
@@ -7684,18 +7913,24 @@
       <c r="I37" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="139"/>
-      <c r="K37" s="145"/>
-      <c r="L37" s="139"/>
-      <c r="M37" s="140"/>
-      <c r="N37" s="140"/>
-      <c r="O37" s="141"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="174" t="s">
+      <c r="J37" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="L37" s="145"/>
+      <c r="M37" s="139"/>
+      <c r="N37" s="139"/>
+      <c r="O37" s="140"/>
+      <c r="P37" s="140"/>
+      <c r="Q37" s="141"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="166" t="s">
+      <c r="B38" s="202" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -7719,74 +7954,86 @@
       <c r="I38" s="143" t="s">
         <v>1449</v>
       </c>
-      <c r="J38" s="143"/>
+      <c r="J38" s="143" t="s">
+        <v>12</v>
+      </c>
       <c r="K38" s="143"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="137"/>
-      <c r="N38" s="137"/>
-      <c r="O38" s="144"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="181" t="s">
+      <c r="L38" s="143"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="137"/>
+      <c r="P38" s="137"/>
+      <c r="Q38" s="144"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="197"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="152" t="s">
+      <c r="D39" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="196" t="s">
+      <c r="G39" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="164" t="s">
         <v>1449</v>
       </c>
-      <c r="I39" s="196" t="s">
+      <c r="I39" s="164" t="s">
         <v>1449</v>
       </c>
-      <c r="J39" s="51"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="3">
+      <c r="J39" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="51"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="3">
         <v>240723</v>
       </c>
-      <c r="M39" s="7" t="s">
+      <c r="N39" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="O39" s="138"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
-      <c r="B40" s="167"/>
-      <c r="C40" s="182"/>
-      <c r="D40" s="182"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="182"/>
-      <c r="H40" s="195"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="10">
+      <c r="Q39" s="138"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="197"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="161"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="165"/>
+      <c r="J40" s="165"/>
+      <c r="K40" s="53"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="10">
         <v>240729</v>
       </c>
-      <c r="M40" s="7" t="s">
+      <c r="N40" s="10"/>
+      <c r="O40" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="N40" s="7"/>
-      <c r="O40" s="138"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="175"/>
-      <c r="B41" s="167"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="138"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="197"/>
+      <c r="B41" s="194"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -7808,16 +8055,20 @@
       <c r="I41" s="12" t="s">
         <v>1449</v>
       </c>
-      <c r="J41" s="12"/>
+      <c r="J41" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K41" s="12"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="138"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="175"/>
-      <c r="B42" s="167" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="138"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="197"/>
+      <c r="B42" s="194" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -7841,16 +8092,20 @@
       <c r="I42" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="3"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="138"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="175"/>
-      <c r="B43" s="167"/>
+      <c r="J42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="3"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="138"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="197"/>
+      <c r="B43" s="194"/>
       <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
@@ -7872,16 +8127,20 @@
       <c r="I43" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J43" s="3"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="138"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="175"/>
-      <c r="B44" s="167"/>
+      <c r="J43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="3"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="138"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" s="197"/>
+      <c r="B44" s="194"/>
       <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
@@ -7903,16 +8162,20 @@
       <c r="I44" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="138"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="175"/>
-      <c r="B45" s="167" t="s">
+      <c r="J44" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="3"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="138"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A45" s="197"/>
+      <c r="B45" s="194" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -7936,16 +8199,20 @@
       <c r="I45" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="138"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="175"/>
-      <c r="B46" s="167"/>
+      <c r="J45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="3"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="138"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="197"/>
+      <c r="B46" s="194"/>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
@@ -7967,16 +8234,20 @@
       <c r="I46" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="138"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="175"/>
-      <c r="B47" s="167"/>
+      <c r="J46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="3"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="138"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="197"/>
+      <c r="B47" s="194"/>
       <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
@@ -7998,16 +8269,20 @@
       <c r="I47" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="138"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="175"/>
-      <c r="B48" s="167" t="s">
+      <c r="J47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="138"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="197"/>
+      <c r="B48" s="194" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -8031,16 +8306,20 @@
       <c r="I48" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="3"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="138"/>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="175"/>
-      <c r="B49" s="167"/>
+      <c r="J48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="3"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="138"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="197"/>
+      <c r="B49" s="194"/>
       <c r="C49" s="3" t="s">
         <v>52</v>
       </c>
@@ -8062,16 +8341,20 @@
       <c r="I49" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="3"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="138"/>
-    </row>
-    <row r="50" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="176"/>
-      <c r="B50" s="168"/>
+      <c r="J49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="3"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="138"/>
+    </row>
+    <row r="50" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="198"/>
+      <c r="B50" s="195"/>
       <c r="C50" s="139" t="s">
         <v>53</v>
       </c>
@@ -8093,208 +8376,234 @@
       <c r="I50" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="139"/>
-      <c r="K50" s="145"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="141"/>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+      <c r="J50" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="139"/>
+      <c r="L50" s="145"/>
+      <c r="M50" s="139"/>
+      <c r="N50" s="139"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="141"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="166" t="s">
+      <c r="B51" s="202" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="190" t="s">
+      <c r="C51" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="190" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="192" t="s">
+      <c r="D51" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="189" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="193" t="s">
+      <c r="G51" s="183" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="193" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="193" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="148"/>
-      <c r="K51" s="193"/>
-      <c r="L51" s="190">
+      <c r="H51" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="183" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="147"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="163">
         <v>240722</v>
       </c>
-      <c r="M51" s="137" t="s">
+      <c r="N51" s="163" t="s">
+        <v>1480</v>
+      </c>
+      <c r="O51" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="N51" s="191" t="s">
+      <c r="P51" s="186" t="s">
         <v>103</v>
       </c>
-      <c r="O51" s="160"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="178"/>
-      <c r="B52" s="167"/>
-      <c r="C52" s="189"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="194"/>
-      <c r="H52" s="194"/>
-      <c r="I52" s="194"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="194"/>
-      <c r="L52" s="189"/>
-      <c r="M52" s="7" t="s">
+      <c r="Q51" s="187"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="200"/>
+      <c r="B52" s="194"/>
+      <c r="C52" s="160"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="190"/>
+      <c r="G52" s="166"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="166"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="166"/>
+      <c r="M52" s="160"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="N52" s="187"/>
-      <c r="O52" s="161"/>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="178"/>
-      <c r="B53" s="167"/>
-      <c r="C53" s="189"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="194"/>
-      <c r="H53" s="194"/>
-      <c r="I53" s="194"/>
-      <c r="J53" s="52"/>
-      <c r="K53" s="194"/>
-      <c r="L53" s="189"/>
-      <c r="M53" s="7" t="s">
+      <c r="P52" s="179"/>
+      <c r="Q52" s="188"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="200"/>
+      <c r="B53" s="194"/>
+      <c r="C53" s="160"/>
+      <c r="D53" s="160"/>
+      <c r="E53" s="160"/>
+      <c r="F53" s="190"/>
+      <c r="G53" s="166"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="166"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="166"/>
+      <c r="M53" s="160"/>
+      <c r="N53" s="160"/>
+      <c r="O53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="N53" s="187"/>
-      <c r="O53" s="161"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="178"/>
-      <c r="B54" s="167"/>
-      <c r="C54" s="182"/>
-      <c r="D54" s="182"/>
-      <c r="E54" s="182"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="195"/>
-      <c r="H54" s="195"/>
-      <c r="I54" s="195"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="195"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="7" t="s">
+      <c r="P53" s="179"/>
+      <c r="Q53" s="188"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="200"/>
+      <c r="B54" s="194"/>
+      <c r="C54" s="161"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="191"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="165"/>
+      <c r="M54" s="161"/>
+      <c r="N54" s="161"/>
+      <c r="O54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N54" s="188"/>
-      <c r="O54" s="162"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="178"/>
-      <c r="B55" s="167"/>
-      <c r="C55" s="181" t="s">
+      <c r="P54" s="180"/>
+      <c r="Q54" s="182"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="200"/>
+      <c r="B55" s="194"/>
+      <c r="C55" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="152" t="s">
+      <c r="D55" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="196" t="s">
+      <c r="G55" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="51"/>
-      <c r="K55" s="196"/>
-      <c r="L55" s="197" t="s">
+      <c r="H55" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="K55" s="51"/>
+      <c r="L55" s="164"/>
+      <c r="M55" s="184" t="s">
         <v>1443</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="151"/>
+      <c r="O55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="N55" s="186" t="s">
+      <c r="P55" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="O55" s="200"/>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="178"/>
-      <c r="B56" s="167"/>
-      <c r="C56" s="189"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="194"/>
-      <c r="H56" s="194"/>
-      <c r="I56" s="194"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="194"/>
-      <c r="L56" s="199"/>
-      <c r="M56" s="7" t="s">
+      <c r="Q55" s="171"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="200"/>
+      <c r="B56" s="194"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="166"/>
+      <c r="M56" s="193"/>
+      <c r="N56" s="153"/>
+      <c r="O56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="N56" s="187"/>
-      <c r="O56" s="158"/>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="178"/>
-      <c r="B57" s="167"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="194"/>
-      <c r="H57" s="194"/>
-      <c r="I57" s="194"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="194"/>
-      <c r="L57" s="199"/>
-      <c r="M57" s="7" t="s">
+      <c r="P56" s="179"/>
+      <c r="Q56" s="172"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="200"/>
+      <c r="B57" s="194"/>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="52"/>
+      <c r="L57" s="166"/>
+      <c r="M57" s="193"/>
+      <c r="N57" s="153"/>
+      <c r="O57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="N57" s="187"/>
-      <c r="O57" s="158"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="178"/>
-      <c r="B58" s="167"/>
-      <c r="C58" s="182"/>
-      <c r="D58" s="182"/>
-      <c r="E58" s="182"/>
-      <c r="F58" s="154"/>
-      <c r="G58" s="195"/>
-      <c r="H58" s="195"/>
-      <c r="I58" s="195"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="195"/>
-      <c r="L58" s="198"/>
-      <c r="M58" s="7" t="s">
+      <c r="P57" s="179"/>
+      <c r="Q57" s="172"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="200"/>
+      <c r="B58" s="194"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="161"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="165"/>
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="165"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="165"/>
+      <c r="M58" s="185"/>
+      <c r="N58" s="152"/>
+      <c r="O58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="N58" s="188"/>
-      <c r="O58" s="159"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="178"/>
-      <c r="B59" s="167"/>
+      <c r="P58" s="180"/>
+      <c r="Q58" s="173"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="200"/>
+      <c r="B59" s="194"/>
       <c r="C59" s="3" t="s">
         <v>67</v>
       </c>
@@ -8316,16 +8625,20 @@
       <c r="I59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="12"/>
+      <c r="J59" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K59" s="12"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="138"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="178"/>
-      <c r="B60" s="167"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="138"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="200"/>
+      <c r="B60" s="194"/>
       <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
@@ -8347,16 +8660,20 @@
       <c r="I60" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J60" s="12"/>
+      <c r="J60" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K60" s="12"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="138"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="178"/>
-      <c r="B61" s="167" t="s">
+      <c r="L60" s="12"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="138"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61" s="200"/>
+      <c r="B61" s="194" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -8380,72 +8697,82 @@
       <c r="I61" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="12"/>
+      <c r="J61" s="12" t="s">
+        <v>12</v>
+      </c>
       <c r="K61" s="12"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="138"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="181" t="s">
+      <c r="L61" s="12"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="138"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="200"/>
+      <c r="B62" s="194"/>
+      <c r="C62" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="181" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="196" t="s">
+      <c r="D62" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="159" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="H62" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="196" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="51"/>
-      <c r="K62" s="196"/>
-      <c r="L62" s="197" t="s">
+      <c r="H62" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="164" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="51"/>
+      <c r="L62" s="164"/>
+      <c r="M62" s="184" t="s">
         <v>1444</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="N62" s="151"/>
+      <c r="O62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="N62" s="186" t="s">
+      <c r="P62" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="O62" s="201"/>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="182"/>
-      <c r="E63" s="182"/>
-      <c r="F63" s="182"/>
-      <c r="G63" s="195"/>
-      <c r="H63" s="195"/>
-      <c r="I63" s="195"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="195"/>
-      <c r="L63" s="198"/>
-      <c r="M63" s="7" t="s">
+      <c r="Q62" s="181"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="200"/>
+      <c r="B63" s="194"/>
+      <c r="C63" s="161"/>
+      <c r="D63" s="161"/>
+      <c r="E63" s="161"/>
+      <c r="F63" s="161"/>
+      <c r="G63" s="165"/>
+      <c r="H63" s="165"/>
+      <c r="I63" s="165"/>
+      <c r="J63" s="165"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="165"/>
+      <c r="M63" s="185"/>
+      <c r="N63" s="152"/>
+      <c r="O63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="N63" s="188"/>
-      <c r="O63" s="162"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="178"/>
-      <c r="B64" s="167"/>
+      <c r="P63" s="180"/>
+      <c r="Q63" s="182"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="200"/>
+      <c r="B64" s="194"/>
       <c r="C64" s="3" t="s">
         <v>72</v>
       </c>
@@ -8467,16 +8794,20 @@
       <c r="I64" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J64" s="3"/>
+      <c r="J64" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="138"/>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="167"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="138"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="200"/>
+      <c r="B65" s="194"/>
       <c r="C65" s="3" t="s">
         <v>73</v>
       </c>
@@ -8498,16 +8829,20 @@
       <c r="I65" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J65" s="3"/>
+      <c r="J65" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="138"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A66" s="178"/>
-      <c r="B66" s="167" t="s">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="138"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="200"/>
+      <c r="B66" s="194" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -8531,16 +8866,20 @@
       <c r="I66" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="3"/>
+      <c r="J66" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="138"/>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" s="178"/>
-      <c r="B67" s="167"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="138"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="200"/>
+      <c r="B67" s="194"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
@@ -8562,22 +8901,26 @@
       <c r="I67" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J67" s="3"/>
+      <c r="J67" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K67" s="3"/>
-      <c r="L67" s="136" t="s">
+      <c r="L67" s="3"/>
+      <c r="M67" s="136" t="s">
         <v>1443</v>
       </c>
-      <c r="M67" s="7" t="s">
+      <c r="N67" s="136"/>
+      <c r="O67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="P67" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="O67" s="138"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="178"/>
-      <c r="B68" s="167"/>
+      <c r="Q67" s="138"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="200"/>
+      <c r="B68" s="194"/>
       <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
@@ -8599,16 +8942,20 @@
       <c r="I68" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J68" s="3"/>
+      <c r="J68" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K68" s="3"/>
       <c r="L68" s="3"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="138"/>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A69" s="178"/>
-      <c r="B69" s="167"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="138"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="200"/>
+      <c r="B69" s="194"/>
       <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
@@ -8630,16 +8977,20 @@
       <c r="I69" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J69" s="3"/>
+      <c r="J69" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K69" s="3"/>
       <c r="L69" s="3"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="138"/>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="178"/>
-      <c r="B70" s="167" t="s">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="138"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="200"/>
+      <c r="B70" s="194" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -8663,16 +9014,20 @@
       <c r="I70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="3"/>
+      <c r="J70" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="138"/>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="167"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="138"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="200"/>
+      <c r="B71" s="194"/>
       <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
@@ -8694,22 +9049,26 @@
       <c r="I71" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="3"/>
+      <c r="J71" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K71" s="3"/>
-      <c r="L71" s="136" t="s">
+      <c r="L71" s="3"/>
+      <c r="M71" s="136" t="s">
         <v>1443</v>
       </c>
-      <c r="M71" s="7" t="s">
+      <c r="N71" s="136"/>
+      <c r="O71" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="P71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O71" s="138"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="178"/>
-      <c r="B72" s="167"/>
+      <c r="Q71" s="138"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="200"/>
+      <c r="B72" s="194"/>
       <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
@@ -8731,614 +9090,1125 @@
       <c r="I72" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="3"/>
+      <c r="J72" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="138"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="270"/>
-      <c r="B73" s="181"/>
-      <c r="C73" s="150" t="s">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="138"/>
+    </row>
+    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="201"/>
+      <c r="B73" s="195"/>
+      <c r="C73" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="D73" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="E73" s="150" t="s">
-        <v>54</v>
-      </c>
-      <c r="F73" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="I73" s="150" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="150"/>
-      <c r="K73" s="150"/>
-      <c r="L73" s="150"/>
-      <c r="M73" s="149"/>
-      <c r="N73" s="151"/>
-      <c r="O73" s="147"/>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="167" t="s">
+      <c r="D73" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="I73" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="139" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="139"/>
+      <c r="L73" s="139"/>
+      <c r="M73" s="139"/>
+      <c r="N73" s="139"/>
+      <c r="O73" s="140"/>
+      <c r="P73" s="154"/>
+      <c r="Q73" s="141"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" s="156" t="s">
         <v>1451</v>
       </c>
-      <c r="B74" s="181" t="s">
+      <c r="B74" s="163" t="s">
         <v>1452</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A75" s="167"/>
-      <c r="B75" s="189"/>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="F74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="G74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="H74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I74" s="55" t="s">
+        <v>1478</v>
+      </c>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55"/>
+      <c r="M74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="137"/>
+      <c r="P74" s="155"/>
+      <c r="Q74" s="144"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" s="157"/>
+      <c r="B75" s="160"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A76" s="167"/>
-      <c r="B76" s="189"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="138"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" s="157"/>
+      <c r="B76" s="160"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="D76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="167"/>
-      <c r="B77" s="189"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="138"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" s="157"/>
+      <c r="B77" s="160"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A78" s="167"/>
-      <c r="B78" s="182"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="138"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A78" s="157"/>
+      <c r="B78" s="161"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A79" s="167"/>
-      <c r="B79" s="181" t="s">
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="138"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A79" s="157"/>
+      <c r="B79" s="159" t="s">
         <v>1453</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>1473</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="167"/>
-      <c r="B80" s="189"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="138"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A80" s="157"/>
+      <c r="B80" s="160"/>
       <c r="C80" s="3" t="s">
         <v>1474</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
       <c r="L80" s="3"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="167"/>
-      <c r="B81" s="189"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="138"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81" s="157"/>
+      <c r="B81" s="160"/>
       <c r="C81" s="3" t="s">
         <v>1475</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
       <c r="L81" s="3"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="167"/>
-      <c r="B82" s="189"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="138"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" s="157"/>
+      <c r="B82" s="160"/>
       <c r="C82" s="3" t="s">
         <v>1476</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
+      <c r="D82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
       <c r="L82" s="3"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="167"/>
-      <c r="B83" s="182"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="138"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" s="157"/>
+      <c r="B83" s="161"/>
       <c r="C83" s="3" t="s">
         <v>1477</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
+      <c r="D83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
       <c r="L83" s="3"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A84" s="167"/>
-      <c r="B84" s="181" t="s">
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="138"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" s="157"/>
+      <c r="B84" s="159" t="s">
         <v>1454</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="3"/>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
+      <c r="D84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
       <c r="L84" s="3"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="167"/>
-      <c r="B85" s="189"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="138"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" s="157"/>
+      <c r="B85" s="160"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
+      <c r="D85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
       <c r="L85" s="3"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A86" s="167"/>
-      <c r="B86" s="189"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="138"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86" s="157"/>
+      <c r="B86" s="160"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
+      <c r="D86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
       <c r="L86" s="3"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="167"/>
-      <c r="B87" s="189"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="138"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A87" s="157"/>
+      <c r="B87" s="160"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
+      <c r="D87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="3"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A88" s="167"/>
-      <c r="B88" s="182"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="138"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A88" s="157"/>
+      <c r="B88" s="161"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="D88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="3"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A89" s="167"/>
-      <c r="B89" s="181" t="s">
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="138"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A89" s="157"/>
+      <c r="B89" s="159" t="s">
         <v>1455</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="3"/>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
       <c r="L89" s="3"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A90" s="167"/>
-      <c r="B90" s="189"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="138"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A90" s="157"/>
+      <c r="B90" s="160"/>
       <c r="C90" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+      <c r="D90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
       <c r="L90" s="3"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A91" s="167"/>
-      <c r="B91" s="189"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="138"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="157"/>
+      <c r="B91" s="160"/>
       <c r="C91" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+      <c r="D91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
       <c r="L91" s="3"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A92" s="167"/>
-      <c r="B92" s="189"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="138"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A92" s="157"/>
+      <c r="B92" s="160"/>
       <c r="C92" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
       <c r="L92" s="3"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A93" s="167"/>
-      <c r="B93" s="182"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="138"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A93" s="157"/>
+      <c r="B93" s="161"/>
       <c r="C93" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
       <c r="L93" s="3"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A94" s="167"/>
-      <c r="B94" s="181" t="s">
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="7"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="138"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A94" s="157"/>
+      <c r="B94" s="159" t="s">
         <v>1462</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
+      <c r="D94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
       <c r="L94" s="3"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A95" s="167"/>
-      <c r="B95" s="189"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="7"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="138"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="157"/>
+      <c r="B95" s="160"/>
       <c r="C95" s="3" t="s">
         <v>1460</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
       <c r="L95" s="3"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A96" s="167"/>
-      <c r="B96" s="189"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="7"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="138"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="157"/>
+      <c r="B96" s="160"/>
       <c r="C96" s="3" t="s">
         <v>1459</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
       <c r="L96" s="3"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="167"/>
-      <c r="B97" s="189"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="7"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="138"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="157"/>
+      <c r="B97" s="160"/>
       <c r="C97" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
       <c r="L97" s="3"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="167"/>
-      <c r="B98" s="182"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="138"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="157"/>
+      <c r="B98" s="161"/>
       <c r="C98" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="I98" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
       <c r="L98" s="3"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="167"/>
-      <c r="B99" s="181" t="s">
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="7"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="138"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="157"/>
+      <c r="B99" s="159" t="s">
         <v>1456</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J99" s="3"/>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="167"/>
-      <c r="B100" s="189"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="138"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="157"/>
+      <c r="B100" s="160"/>
       <c r="C100" s="3" t="s">
         <v>1466</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J100" s="3"/>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="167"/>
-      <c r="B101" s="189"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="138"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A101" s="157"/>
+      <c r="B101" s="160"/>
       <c r="C101" s="3" t="s">
         <v>1465</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
+      <c r="D101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J101" s="3"/>
       <c r="K101" s="3"/>
       <c r="L101" s="3"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="167"/>
-      <c r="B102" s="189"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="7"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="138"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A102" s="157"/>
+      <c r="B102" s="160"/>
       <c r="C102" s="3" t="s">
         <v>1464</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="3"/>
+      <c r="D102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J102" s="3"/>
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="167"/>
-      <c r="B103" s="182"/>
-      <c r="C103" s="3" t="s">
+      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="138"/>
+    </row>
+    <row r="103" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="158"/>
+      <c r="B103" s="162"/>
+      <c r="C103" s="139" t="s">
         <v>1463</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
+      <c r="D103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="F103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="G103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="H103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="I103" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="J103" s="139"/>
+      <c r="K103" s="139"/>
+      <c r="L103" s="139"/>
+      <c r="M103" s="139"/>
+      <c r="N103" s="139"/>
+      <c r="O103" s="140"/>
+      <c r="P103" s="154"/>
+      <c r="Q103" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="111">
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="A3:A37"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="B16:B23"/>
+    <mergeCell ref="B24:B30"/>
+    <mergeCell ref="B31:B37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="P55:P58"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="M6:M9"/>
+    <mergeCell ref="P6:P9"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="L51:L54"/>
+    <mergeCell ref="L55:L58"/>
     <mergeCell ref="A74:A103"/>
     <mergeCell ref="B94:B98"/>
     <mergeCell ref="B99:B103"/>
@@ -9346,95 +10216,23 @@
     <mergeCell ref="B79:B83"/>
     <mergeCell ref="B74:B78"/>
     <mergeCell ref="B84:B88"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="O55:O58"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="K51:K54"/>
-    <mergeCell ref="K55:K58"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="L55:L58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="N51:N54"/>
     <mergeCell ref="C51:C54"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="F51:F54"/>
     <mergeCell ref="G51:G54"/>
     <mergeCell ref="E51:E54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="G12:G14"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="E55:E58"/>
     <mergeCell ref="B42:B44"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="A38:A50"/>
     <mergeCell ref="A51:A73"/>
     <mergeCell ref="B51:B60"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="A3:A37"/>
-    <mergeCell ref="B3:B15"/>
-    <mergeCell ref="B16:B23"/>
-    <mergeCell ref="B24:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="O6:O9"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="L6:L9"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="I19:I20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9479,88 +10277,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="257" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="210" t="s">
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="254" t="s">
         <v>1368</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="208" t="s">
+      <c r="E1" s="255"/>
+      <c r="F1" s="256"/>
+      <c r="G1" s="252" t="s">
         <v>1369</v>
       </c>
-      <c r="H1" s="209"/>
-      <c r="I1" s="209"/>
-      <c r="J1" s="255" t="s">
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="234" t="s">
         <v>1400</v>
       </c>
-      <c r="K1" s="253"/>
-      <c r="L1" s="254"/>
-      <c r="M1" s="205" t="s">
+      <c r="K1" s="232"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="249" t="s">
         <v>1401</v>
       </c>
-      <c r="N1" s="206"/>
-      <c r="O1" s="207"/>
-      <c r="P1" s="263" t="s">
+      <c r="N1" s="250"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="273" t="s">
         <v>1431</v>
       </c>
-      <c r="Q1" s="264"/>
-      <c r="R1" s="265"/>
-      <c r="S1" s="215" t="s">
+      <c r="Q1" s="274"/>
+      <c r="R1" s="275"/>
+      <c r="S1" s="259" t="s">
         <v>1440</v>
       </c>
-      <c r="T1" s="216"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="205" t="s">
+      <c r="T1" s="260"/>
+      <c r="U1" s="261"/>
+      <c r="V1" s="249" t="s">
         <v>789</v>
       </c>
-      <c r="W1" s="206"/>
-      <c r="X1" s="207"/>
+      <c r="W1" s="250"/>
+      <c r="X1" s="251"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="200" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="227"/>
-      <c r="C2" s="228"/>
-      <c r="D2" s="224" t="s">
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
+      <c r="D2" s="267" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="225"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="221" t="s">
+      <c r="E2" s="268"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="264" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="222"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="260" t="s">
+      <c r="H2" s="265"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="216" t="s">
         <v>1375</v>
       </c>
-      <c r="K2" s="258"/>
-      <c r="L2" s="259"/>
-      <c r="M2" s="218" t="s">
+      <c r="K2" s="214"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="157" t="s">
         <v>633</v>
       </c>
-      <c r="N2" s="219"/>
-      <c r="O2" s="220"/>
-      <c r="P2" s="262" t="s">
+      <c r="N2" s="262"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="272" t="s">
         <v>1430</v>
       </c>
-      <c r="Q2" s="225"/>
-      <c r="R2" s="226"/>
-      <c r="S2" s="202" t="s">
+      <c r="Q2" s="268"/>
+      <c r="R2" s="269"/>
+      <c r="S2" s="246" t="s">
         <v>788</v>
       </c>
-      <c r="T2" s="203"/>
-      <c r="U2" s="204"/>
-      <c r="V2" s="218" t="s">
+      <c r="T2" s="247"/>
+      <c r="U2" s="248"/>
+      <c r="V2" s="157" t="s">
         <v>799</v>
       </c>
-      <c r="W2" s="219"/>
-      <c r="X2" s="220"/>
+      <c r="W2" s="262"/>
+      <c r="X2" s="263"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -13703,7 +14501,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="266" t="s">
+      <c r="A102" s="211" t="s">
         <v>1155</v>
       </c>
       <c r="B102" s="77" t="s">
@@ -13711,7 +14509,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="267"/>
+      <c r="A103" s="212"/>
       <c r="B103" s="78" t="s">
         <v>1157</v>
       </c>
@@ -13732,58 +14530,58 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="229" t="s">
+      <c r="A107" s="225" t="s">
         <v>831</v>
       </c>
-      <c r="B107" s="230"/>
-      <c r="C107" s="235"/>
-      <c r="D107" s="163" t="s">
+      <c r="B107" s="226"/>
+      <c r="C107" s="244"/>
+      <c r="D107" s="203" t="s">
         <v>833</v>
       </c>
-      <c r="E107" s="230"/>
-      <c r="F107" s="235"/>
-      <c r="G107" s="163" t="s">
+      <c r="E107" s="226"/>
+      <c r="F107" s="244"/>
+      <c r="G107" s="203" t="s">
         <v>1099</v>
       </c>
-      <c r="H107" s="230"/>
-      <c r="I107" s="231"/>
-      <c r="J107" s="229" t="s">
+      <c r="H107" s="226"/>
+      <c r="I107" s="227"/>
+      <c r="J107" s="225" t="s">
         <v>1115</v>
       </c>
-      <c r="K107" s="230"/>
-      <c r="L107" s="231"/>
-      <c r="M107" s="163" t="s">
+      <c r="K107" s="226"/>
+      <c r="L107" s="227"/>
+      <c r="M107" s="203" t="s">
         <v>1147</v>
       </c>
-      <c r="N107" s="230"/>
-      <c r="O107" s="231"/>
+      <c r="N107" s="226"/>
+      <c r="O107" s="227"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="232" t="s">
+      <c r="A108" s="228" t="s">
         <v>832</v>
       </c>
-      <c r="B108" s="233"/>
-      <c r="C108" s="236"/>
-      <c r="D108" s="164" t="s">
+      <c r="B108" s="229"/>
+      <c r="C108" s="245"/>
+      <c r="D108" s="204" t="s">
         <v>834</v>
       </c>
-      <c r="E108" s="233"/>
-      <c r="F108" s="236"/>
-      <c r="G108" s="164" t="s">
+      <c r="E108" s="229"/>
+      <c r="F108" s="245"/>
+      <c r="G108" s="204" t="s">
         <v>1098</v>
       </c>
-      <c r="H108" s="233"/>
-      <c r="I108" s="234"/>
-      <c r="J108" s="232" t="s">
+      <c r="H108" s="229"/>
+      <c r="I108" s="230"/>
+      <c r="J108" s="228" t="s">
         <v>1116</v>
       </c>
-      <c r="K108" s="233"/>
-      <c r="L108" s="234"/>
-      <c r="M108" s="164" t="s">
+      <c r="K108" s="229"/>
+      <c r="L108" s="230"/>
+      <c r="M108" s="204" t="s">
         <v>1148</v>
       </c>
-      <c r="N108" s="233"/>
-      <c r="O108" s="234"/>
+      <c r="N108" s="229"/>
+      <c r="O108" s="230"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="49" t="s">
@@ -15776,40 +16574,40 @@
       <c r="J192" s="241" t="s">
         <v>1268</v>
       </c>
-      <c r="K192" s="173"/>
+      <c r="K192" s="210"/>
       <c r="L192" s="242"/>
       <c r="M192" s="241" t="s">
         <v>1361</v>
       </c>
-      <c r="N192" s="173"/>
+      <c r="N192" s="210"/>
       <c r="O192" s="243"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="244" t="s">
+      <c r="A193" s="218" t="s">
         <v>832</v>
       </c>
-      <c r="B193" s="245"/>
-      <c r="C193" s="246"/>
-      <c r="D193" s="247" t="s">
+      <c r="B193" s="219"/>
+      <c r="C193" s="220"/>
+      <c r="D193" s="221" t="s">
         <v>834</v>
       </c>
-      <c r="E193" s="245"/>
-      <c r="F193" s="246"/>
-      <c r="G193" s="247" t="s">
+      <c r="E193" s="219"/>
+      <c r="F193" s="220"/>
+      <c r="G193" s="221" t="s">
         <v>1098</v>
       </c>
-      <c r="H193" s="245"/>
-      <c r="I193" s="246"/>
-      <c r="J193" s="248" t="s">
+      <c r="H193" s="219"/>
+      <c r="I193" s="220"/>
+      <c r="J193" s="222" t="s">
         <v>1269</v>
       </c>
-      <c r="K193" s="249"/>
-      <c r="L193" s="250"/>
-      <c r="M193" s="248" t="s">
+      <c r="K193" s="223"/>
+      <c r="L193" s="224"/>
+      <c r="M193" s="222" t="s">
         <v>1365</v>
       </c>
-      <c r="N193" s="249"/>
-      <c r="O193" s="251"/>
+      <c r="N193" s="223"/>
+      <c r="O193" s="236"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
@@ -18481,58 +19279,58 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A278" s="252" t="s">
+      <c r="A278" s="231" t="s">
         <v>831</v>
       </c>
-      <c r="B278" s="253"/>
-      <c r="C278" s="254"/>
-      <c r="D278" s="255" t="s">
+      <c r="B278" s="232"/>
+      <c r="C278" s="233"/>
+      <c r="D278" s="234" t="s">
         <v>833</v>
       </c>
-      <c r="E278" s="253"/>
-      <c r="F278" s="254"/>
-      <c r="G278" s="255" t="s">
+      <c r="E278" s="232"/>
+      <c r="F278" s="233"/>
+      <c r="G278" s="234" t="s">
         <v>1099</v>
       </c>
-      <c r="H278" s="253"/>
-      <c r="I278" s="256"/>
-      <c r="J278" s="252" t="s">
+      <c r="H278" s="232"/>
+      <c r="I278" s="235"/>
+      <c r="J278" s="231" t="s">
         <v>1115</v>
       </c>
-      <c r="K278" s="253"/>
-      <c r="L278" s="256"/>
-      <c r="M278" s="255" t="s">
+      <c r="K278" s="232"/>
+      <c r="L278" s="235"/>
+      <c r="M278" s="234" t="s">
         <v>1147</v>
       </c>
-      <c r="N278" s="253"/>
-      <c r="O278" s="256"/>
+      <c r="N278" s="232"/>
+      <c r="O278" s="235"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A279" s="257" t="s">
+      <c r="A279" s="213" t="s">
         <v>832</v>
       </c>
-      <c r="B279" s="258"/>
-      <c r="C279" s="259"/>
-      <c r="D279" s="260" t="s">
+      <c r="B279" s="214"/>
+      <c r="C279" s="215"/>
+      <c r="D279" s="216" t="s">
         <v>834</v>
       </c>
-      <c r="E279" s="258"/>
-      <c r="F279" s="259"/>
-      <c r="G279" s="260" t="s">
+      <c r="E279" s="214"/>
+      <c r="F279" s="215"/>
+      <c r="G279" s="216" t="s">
         <v>1098</v>
       </c>
-      <c r="H279" s="258"/>
-      <c r="I279" s="261"/>
-      <c r="J279" s="257" t="s">
+      <c r="H279" s="214"/>
+      <c r="I279" s="217"/>
+      <c r="J279" s="213" t="s">
         <v>1116</v>
       </c>
-      <c r="K279" s="258"/>
-      <c r="L279" s="261"/>
-      <c r="M279" s="260" t="s">
+      <c r="K279" s="214"/>
+      <c r="L279" s="217"/>
+      <c r="M279" s="216" t="s">
         <v>1148</v>
       </c>
-      <c r="N279" s="258"/>
-      <c r="O279" s="261"/>
+      <c r="N279" s="214"/>
+      <c r="O279" s="217"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="49" t="s">
@@ -20497,37 +21295,6 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -20544,6 +21311,37 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20609,19 +21407,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="194" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="167" t="s">
+      <c r="B2" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="167" t="s">
+      <c r="C2" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="167" t="s">
+      <c r="E2" s="194" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -20637,11 +21435,11 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
+      <c r="A3" s="194"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="194"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="194"/>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
@@ -20655,14 +21453,14 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="167"/>
-      <c r="B4" s="167"/>
-      <c r="C4" s="167"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="181" t="s">
+      <c r="A4" s="194"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="181" t="s">
+      <c r="F4" s="159" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -20677,12 +21475,12 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="189"/>
-      <c r="F5" s="189"/>
+      <c r="A5" s="194"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
@@ -20695,58 +21493,58 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="167"/>
-      <c r="B6" s="167"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="167" t="s">
+      <c r="A6" s="194"/>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="194" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
       <c r="L6" s="2" t="s">
         <v>118</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="N6" s="268" t="s">
+      <c r="N6" s="276" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="167"/>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
+      <c r="A7" s="194"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
       <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="N7" s="269"/>
+      <c r="N7" s="277"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="167"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="182"/>
+      <c r="A8" s="194"/>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="161"/>
       <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
@@ -20761,11 +21559,11 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
-      <c r="B9" s="167"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="189"/>
+      <c r="A9" s="194"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="160"/>
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
@@ -20783,7 +21581,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="182"/>
+      <c r="E10" s="161"/>
       <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
@@ -20798,6 +21596,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="D2:D9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="H6:H7"/>
@@ -20806,11 +21609,6 @@
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B55AECA-37A5-4FA2-9FF5-1AA450001C9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438DAF5F-77E0-4578-94A6-12D340E8B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29490" yWindow="2130" windowWidth="14760" windowHeight="15585" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4218" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="1483">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4708,6 +4708,10 @@
   </si>
   <si>
     <t>240730_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>240730_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5898,9 +5902,51 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5949,9 +5995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5967,46 +6010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6575,10 +6579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
-  <dimension ref="A1:Q103"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6587,15 +6591,15 @@
     <col min="2" max="2" width="7.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="12" width="8.875" style="1"/>
-    <col min="13" max="13" width="26.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="48.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="64.375" customWidth="1"/>
-    <col min="17" max="17" width="51.875" customWidth="1"/>
+    <col min="7" max="13" width="8.875" style="1"/>
+    <col min="14" max="14" width="26.625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="48.125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="64.375" customWidth="1"/>
+    <col min="18" max="18" width="51.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="208" t="s">
         <v>38</v>
       </c>
@@ -6616,23 +6620,24 @@
       <c r="J1" s="210"/>
       <c r="K1" s="210"/>
       <c r="L1" s="210"/>
-      <c r="M1" s="169" t="s">
+      <c r="M1" s="210"/>
+      <c r="N1" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="169" t="s">
+      <c r="O1" s="183" t="s">
         <v>1479</v>
       </c>
-      <c r="O1" s="169" t="s">
+      <c r="P1" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="P1" s="169" t="s">
+      <c r="Q1" s="183" t="s">
         <v>351</v>
       </c>
-      <c r="Q1" s="167" t="s">
+      <c r="R1" s="181" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="209"/>
       <c r="B2" s="207"/>
       <c r="C2" s="207"/>
@@ -6661,19 +6666,22 @@
         <v>1481</v>
       </c>
       <c r="L2" s="146" t="s">
+        <v>1482</v>
+      </c>
+      <c r="M2" s="146" t="s">
         <v>1448</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="170"/>
-      <c r="O2" s="170"/>
-      <c r="P2" s="170"/>
-      <c r="Q2" s="168"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="182"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="202" t="s">
+      <c r="B3" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -6703,24 +6711,27 @@
       <c r="K3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="143"/>
-      <c r="M3" s="55">
+      <c r="L3" s="142" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" s="143"/>
+      <c r="N3" s="55">
         <v>240723</v>
       </c>
-      <c r="N3" s="55" t="s">
+      <c r="O3" s="55" t="s">
         <v>1480</v>
       </c>
-      <c r="O3" s="137" t="s">
+      <c r="P3" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="P3" s="137" t="s">
+      <c r="Q3" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="Q3" s="144"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="144"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="204"/>
-      <c r="B4" s="194"/>
+      <c r="B4" s="172"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6748,16 +6759,19 @@
       <c r="K4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="3"/>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="138"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q4" s="7"/>
+      <c r="R4" s="138"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="204"/>
-      <c r="B5" s="194"/>
+      <c r="B5" s="172"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6785,151 +6799,161 @@
       <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="3"/>
+      <c r="L5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="12"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="7"/>
-      <c r="Q5" s="138"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q5" s="7"/>
+      <c r="R5" s="138"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="204"/>
-      <c r="B6" s="194"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="159" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="171" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="192" t="s">
+      <c r="F6" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="192" t="s">
+      <c r="I6" s="171" t="s">
         <v>8</v>
       </c>
       <c r="J6" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="192" t="s">
+      <c r="K6" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="175" t="s">
+      <c r="L6" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="51"/>
+      <c r="N6" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="N6" s="148"/>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="148"/>
+      <c r="P6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P6" s="178" t="s">
+      <c r="Q6" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="174" t="s">
+      <c r="R6" s="188" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="204"/>
-      <c r="B7" s="194"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="160"/>
-      <c r="D7" s="190"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="160"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="190"/>
-      <c r="I7" s="190"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
       <c r="J7" s="160"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="176"/>
-      <c r="N7" s="149"/>
-      <c r="O7" s="7" t="s">
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="179"/>
-      <c r="Q7" s="172"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q7" s="193"/>
+      <c r="R7" s="186"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="204"/>
-      <c r="B8" s="194"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="160"/>
-      <c r="D8" s="190"/>
+      <c r="D8" s="167"/>
       <c r="E8" s="160"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="190"/>
-      <c r="I8" s="190"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
       <c r="J8" s="160"/>
-      <c r="K8" s="190"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="176"/>
-      <c r="N8" s="149"/>
-      <c r="O8" s="7" t="s">
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="190"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P8" s="179"/>
-      <c r="Q8" s="172"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q8" s="193"/>
+      <c r="R8" s="186"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="204"/>
-      <c r="B9" s="194"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="160"/>
-      <c r="D9" s="190"/>
+      <c r="D9" s="167"/>
       <c r="E9" s="160"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="190"/>
-      <c r="H9" s="190"/>
-      <c r="I9" s="190"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
       <c r="J9" s="160"/>
-      <c r="K9" s="190"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="177"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="7" t="s">
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="150"/>
+      <c r="P9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="173"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q9" s="194"/>
+      <c r="R9" s="187"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="204"/>
-      <c r="B10" s="194"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="161"/>
-      <c r="D10" s="191"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="161"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
-      <c r="I10" s="191"/>
+      <c r="F10" s="168"/>
+      <c r="G10" s="168"/>
+      <c r="H10" s="168"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="161"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="5">
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="5">
         <v>240718</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>1480</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="Q10" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q10" s="138"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="138"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="204"/>
-      <c r="B11" s="194"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -6957,16 +6981,19 @@
       <c r="K11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="3"/>
+      <c r="L11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="12"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="7"/>
+      <c r="O11" s="3"/>
       <c r="P11" s="7"/>
-      <c r="Q11" s="138"/>
-    </row>
-    <row r="12" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="Q11" s="7"/>
+      <c r="R11" s="138"/>
+    </row>
+    <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A12" s="204"/>
-      <c r="B12" s="194"/>
+      <c r="B12" s="172"/>
       <c r="C12" s="159" t="s">
         <v>6</v>
       </c>
@@ -6976,16 +7003,16 @@
       <c r="E12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="192" t="s">
+      <c r="F12" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="192" t="s">
+      <c r="G12" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="192" t="s">
+      <c r="H12" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="192" t="s">
+      <c r="I12" s="171" t="s">
         <v>8</v>
       </c>
       <c r="J12" s="159" t="s">
@@ -6994,78 +7021,83 @@
       <c r="K12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="14" t="s">
+      <c r="L12" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="51"/>
+      <c r="N12" s="14" t="s">
         <v>1442</v>
       </c>
-      <c r="N12" s="14" t="s">
+      <c r="O12" s="14" t="s">
         <v>1480</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="R12" s="16" t="s">
         <v>1446</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="204"/>
-      <c r="B13" s="194"/>
+      <c r="B13" s="172"/>
       <c r="C13" s="160"/>
       <c r="D13" s="160"/>
       <c r="E13" s="160"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
       <c r="J13" s="160"/>
       <c r="K13" s="160"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="159">
+      <c r="L13" s="167"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="159">
         <v>240718</v>
       </c>
-      <c r="N13" s="159" t="s">
+      <c r="O13" s="159" t="s">
         <v>1480</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" s="174" t="s">
+      <c r="R13" s="188" t="s">
         <v>1445</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="204"/>
-      <c r="B14" s="194"/>
+      <c r="B14" s="172"/>
       <c r="C14" s="161"/>
       <c r="D14" s="161"/>
       <c r="E14" s="161"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="191"/>
-      <c r="I14" s="191"/>
+      <c r="F14" s="168"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
       <c r="J14" s="161"/>
       <c r="K14" s="161"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="161"/>
+      <c r="L14" s="168"/>
+      <c r="M14" s="53"/>
       <c r="N14" s="161"/>
-      <c r="O14" s="7" t="s">
+      <c r="O14" s="161"/>
+      <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="Q14" s="173"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="187"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="204"/>
-      <c r="B15" s="194"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -7093,16 +7125,19 @@
       <c r="K15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="3"/>
+      <c r="L15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="12"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="7"/>
+      <c r="O15" s="3"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="138"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q15" s="7"/>
+      <c r="R15" s="138"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="204"/>
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="172" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7132,16 +7167,19 @@
       <c r="K16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="3"/>
+      <c r="L16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" s="12"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="3"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="138"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q16" s="7"/>
+      <c r="R16" s="138"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="204"/>
-      <c r="B17" s="194"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -7169,16 +7207,19 @@
       <c r="K17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="12"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="3"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="138"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q17" s="7"/>
+      <c r="R17" s="138"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="204"/>
-      <c r="B18" s="194"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -7206,20 +7247,23 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="12"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="12"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="3"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="138"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q18" s="7"/>
+      <c r="R18" s="138"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="204"/>
-      <c r="B19" s="194"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="171" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="159" t="s">
@@ -7243,24 +7287,27 @@
       <c r="K19" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="51"/>
-      <c r="M19" s="175" t="s">
+      <c r="L19" s="159" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="51"/>
+      <c r="N19" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="N19" s="148"/>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="148"/>
+      <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P19" s="178" t="s">
+      <c r="Q19" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="Q19" s="138"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="138"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="204"/>
-      <c r="B20" s="194"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="161"/>
-      <c r="D20" s="191"/>
+      <c r="D20" s="168"/>
       <c r="E20" s="161"/>
       <c r="F20" s="161"/>
       <c r="G20" s="161"/>
@@ -7268,18 +7315,19 @@
       <c r="I20" s="161"/>
       <c r="J20" s="161"/>
       <c r="K20" s="161"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="177"/>
-      <c r="N20" s="150"/>
-      <c r="O20" s="7" t="s">
+      <c r="L20" s="161"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="150"/>
+      <c r="P20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="138"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q20" s="194"/>
+      <c r="R20" s="138"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="204"/>
-      <c r="B21" s="194"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -7307,16 +7355,19 @@
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M21" s="12"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="3"/>
       <c r="P21" s="7"/>
-      <c r="Q21" s="138"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q21" s="7"/>
+      <c r="R21" s="138"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="204"/>
-      <c r="B22" s="194"/>
+      <c r="B22" s="172"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -7344,16 +7395,19 @@
       <c r="K22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="12"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="3"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="138"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q22" s="7"/>
+      <c r="R22" s="138"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="204"/>
-      <c r="B23" s="194"/>
+      <c r="B23" s="172"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7381,16 +7435,19 @@
       <c r="K23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="12"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="12"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="7"/>
+      <c r="O23" s="3"/>
       <c r="P23" s="7"/>
-      <c r="Q23" s="138"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q23" s="7"/>
+      <c r="R23" s="138"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="204"/>
-      <c r="B24" s="194" t="s">
+      <c r="B24" s="172" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7420,16 +7477,19 @@
       <c r="K24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="12"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="3"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="138"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q24" s="7"/>
+      <c r="R24" s="138"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="204"/>
-      <c r="B25" s="194"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7457,16 +7517,19 @@
       <c r="K25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="12"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="12"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="3"/>
       <c r="P25" s="7"/>
-      <c r="Q25" s="138"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q25" s="7"/>
+      <c r="R25" s="138"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="204"/>
-      <c r="B26" s="194"/>
+      <c r="B26" s="172"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7494,16 +7557,19 @@
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="12"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="3"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="138"/>
-    </row>
-    <row r="27" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="Q26" s="7"/>
+      <c r="R26" s="138"/>
+    </row>
+    <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A27" s="204"/>
-      <c r="B27" s="194"/>
+      <c r="B27" s="172"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7531,24 +7597,27 @@
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="10" t="s">
+      <c r="L27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="12"/>
+      <c r="N27" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="7" t="s">
+      <c r="O27" s="10"/>
+      <c r="P27" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q27" s="16" t="s">
+      <c r="R27" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="204"/>
-      <c r="B28" s="194"/>
+      <c r="B28" s="172"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7576,16 +7645,19 @@
       <c r="K28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="12"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="7"/>
+      <c r="O28" s="3"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="138"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q28" s="7"/>
+      <c r="R28" s="138"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="204"/>
-      <c r="B29" s="194"/>
+      <c r="B29" s="172"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -7613,16 +7685,19 @@
       <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="3"/>
+      <c r="L29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="12"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="3"/>
       <c r="P29" s="7"/>
-      <c r="Q29" s="138"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q29" s="7"/>
+      <c r="R29" s="138"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="204"/>
-      <c r="B30" s="194"/>
+      <c r="B30" s="172"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7650,16 +7725,19 @@
       <c r="K30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="3"/>
+      <c r="L30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="12"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="3"/>
       <c r="P30" s="7"/>
-      <c r="Q30" s="138"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q30" s="7"/>
+      <c r="R30" s="138"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="204"/>
-      <c r="B31" s="194" t="s">
+      <c r="B31" s="172" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7689,16 +7767,19 @@
       <c r="K31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="12"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="138"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q31" s="7"/>
+      <c r="R31" s="138"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="204"/>
-      <c r="B32" s="194"/>
+      <c r="B32" s="172"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -7726,16 +7807,19 @@
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M32" s="12"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="7"/>
+      <c r="O32" s="3"/>
       <c r="P32" s="7"/>
-      <c r="Q32" s="138"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q32" s="7"/>
+      <c r="R32" s="138"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="204"/>
-      <c r="B33" s="194"/>
+      <c r="B33" s="172"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -7763,16 +7847,19 @@
       <c r="K33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M33" s="12"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="138"/>
-    </row>
-    <row r="34" spans="1:17" ht="33" x14ac:dyDescent="0.3">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="138"/>
+    </row>
+    <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.3">
       <c r="A34" s="204"/>
-      <c r="B34" s="194"/>
+      <c r="B34" s="172"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -7800,24 +7887,27 @@
       <c r="K34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="10" t="s">
+      <c r="L34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M34" s="12"/>
+      <c r="N34" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="N34" s="10"/>
-      <c r="O34" s="7" t="s">
+      <c r="O34" s="10"/>
+      <c r="P34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="Q34" s="16" t="s">
+      <c r="R34" s="16" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="204"/>
-      <c r="B35" s="194"/>
+      <c r="B35" s="172"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -7845,16 +7935,19 @@
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="3"/>
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="12"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="7"/>
+      <c r="O35" s="3"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="138"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q35" s="7"/>
+      <c r="R35" s="138"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="204"/>
-      <c r="B36" s="194"/>
+      <c r="B36" s="172"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -7882,16 +7975,19 @@
       <c r="K36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="3"/>
+      <c r="L36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M36" s="12"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="7"/>
+      <c r="O36" s="3"/>
       <c r="P36" s="7"/>
-      <c r="Q36" s="138"/>
-    </row>
-    <row r="37" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q36" s="7"/>
+      <c r="R36" s="138"/>
+    </row>
+    <row r="37" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="205"/>
-      <c r="B37" s="195"/>
+      <c r="B37" s="173"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
       </c>
@@ -7919,18 +8015,21 @@
       <c r="K37" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="145"/>
-      <c r="M37" s="139"/>
+      <c r="L37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M37" s="145"/>
       <c r="N37" s="139"/>
-      <c r="O37" s="140"/>
+      <c r="O37" s="139"/>
       <c r="P37" s="140"/>
-      <c r="Q37" s="141"/>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="196" t="s">
+      <c r="Q37" s="140"/>
+      <c r="R37" s="141"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A38" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="202" t="s">
+      <c r="B38" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -7959,15 +8058,16 @@
       </c>
       <c r="K38" s="143"/>
       <c r="L38" s="143"/>
-      <c r="M38" s="55"/>
+      <c r="M38" s="143"/>
       <c r="N38" s="55"/>
-      <c r="O38" s="137"/>
+      <c r="O38" s="55"/>
       <c r="P38" s="137"/>
-      <c r="Q38" s="144"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="197"/>
-      <c r="B39" s="194"/>
+      <c r="Q38" s="137"/>
+      <c r="R38" s="144"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A39" s="175"/>
+      <c r="B39" s="172"/>
       <c r="C39" s="159" t="s">
         <v>43</v>
       </c>
@@ -7977,7 +8077,7 @@
       <c r="E39" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="192" t="s">
+      <c r="F39" s="171" t="s">
         <v>8</v>
       </c>
       <c r="G39" s="159" t="s">
@@ -7993,47 +8093,49 @@
         <v>12</v>
       </c>
       <c r="K39" s="51"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="3">
+      <c r="L39" s="51"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="3">
         <v>240723</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="O39" s="7" t="s">
+      <c r="P39" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="P39" s="7" t="s">
+      <c r="Q39" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Q39" s="138"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="197"/>
-      <c r="B40" s="194"/>
+      <c r="R39" s="138"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A40" s="175"/>
+      <c r="B40" s="172"/>
       <c r="C40" s="161"/>
       <c r="D40" s="161"/>
       <c r="E40" s="161"/>
-      <c r="F40" s="191"/>
+      <c r="F40" s="168"/>
       <c r="G40" s="161"/>
       <c r="H40" s="165"/>
       <c r="I40" s="165"/>
       <c r="J40" s="165"/>
       <c r="K40" s="53"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="10">
+      <c r="L40" s="53"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="10">
         <v>240729</v>
       </c>
-      <c r="N40" s="10"/>
-      <c r="O40" s="7" t="s">
+      <c r="O40" s="10"/>
+      <c r="P40" s="7" t="s">
         <v>1450</v>
       </c>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="138"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="197"/>
-      <c r="B41" s="194"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="138"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A41" s="175"/>
+      <c r="B41" s="172"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -8060,15 +8162,16 @@
       </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
-      <c r="M41" s="3"/>
+      <c r="M41" s="12"/>
       <c r="N41" s="3"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="3"/>
       <c r="P41" s="7"/>
-      <c r="Q41" s="138"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="197"/>
-      <c r="B42" s="194" t="s">
+      <c r="Q41" s="7"/>
+      <c r="R41" s="138"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="175"/>
+      <c r="B42" s="172" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -8096,16 +8199,17 @@
         <v>12</v>
       </c>
       <c r="K42" s="3"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="3"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="3"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="138"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="197"/>
-      <c r="B43" s="194"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="138"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A43" s="175"/>
+      <c r="B43" s="172"/>
       <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
@@ -8131,16 +8235,17 @@
         <v>12</v>
       </c>
       <c r="K43" s="3"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="3"/>
-      <c r="O43" s="7"/>
+      <c r="O43" s="3"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="138"/>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="197"/>
-      <c r="B44" s="194"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="138"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="175"/>
+      <c r="B44" s="172"/>
       <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
@@ -8166,16 +8271,17 @@
         <v>12</v>
       </c>
       <c r="K44" s="3"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="12"/>
       <c r="N44" s="3"/>
-      <c r="O44" s="7"/>
+      <c r="O44" s="3"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="138"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="197"/>
-      <c r="B45" s="194" t="s">
+      <c r="Q44" s="7"/>
+      <c r="R44" s="138"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="175"/>
+      <c r="B45" s="172" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -8203,16 +8309,17 @@
         <v>12</v>
       </c>
       <c r="K45" s="3"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="12"/>
       <c r="N45" s="3"/>
-      <c r="O45" s="7"/>
+      <c r="O45" s="3"/>
       <c r="P45" s="7"/>
-      <c r="Q45" s="138"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="197"/>
-      <c r="B46" s="194"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="138"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="175"/>
+      <c r="B46" s="172"/>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
@@ -8238,16 +8345,17 @@
         <v>12</v>
       </c>
       <c r="K46" s="3"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="12"/>
       <c r="N46" s="3"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="3"/>
       <c r="P46" s="7"/>
-      <c r="Q46" s="138"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="197"/>
-      <c r="B47" s="194"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="138"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="175"/>
+      <c r="B47" s="172"/>
       <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
@@ -8273,16 +8381,17 @@
         <v>12</v>
       </c>
       <c r="K47" s="3"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="12"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="3"/>
       <c r="P47" s="7"/>
-      <c r="Q47" s="138"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="197"/>
-      <c r="B48" s="194" t="s">
+      <c r="Q47" s="7"/>
+      <c r="R47" s="138"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="175"/>
+      <c r="B48" s="172" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -8310,16 +8419,17 @@
         <v>12</v>
       </c>
       <c r="K48" s="3"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="12"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="7"/>
+      <c r="O48" s="3"/>
       <c r="P48" s="7"/>
-      <c r="Q48" s="138"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="197"/>
-      <c r="B49" s="194"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="138"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" s="175"/>
+      <c r="B49" s="172"/>
       <c r="C49" s="3" t="s">
         <v>52</v>
       </c>
@@ -8345,16 +8455,17 @@
         <v>12</v>
       </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="12"/>
       <c r="N49" s="3"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="3"/>
       <c r="P49" s="7"/>
-      <c r="Q49" s="138"/>
-    </row>
-    <row r="50" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="198"/>
-      <c r="B50" s="195"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="138"/>
+    </row>
+    <row r="50" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="176"/>
+      <c r="B50" s="173"/>
       <c r="C50" s="139" t="s">
         <v>53</v>
       </c>
@@ -8380,18 +8491,19 @@
         <v>12</v>
       </c>
       <c r="K50" s="139"/>
-      <c r="L50" s="145"/>
-      <c r="M50" s="139"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="145"/>
       <c r="N50" s="139"/>
-      <c r="O50" s="140"/>
+      <c r="O50" s="139"/>
       <c r="P50" s="140"/>
-      <c r="Q50" s="141"/>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="199" t="s">
+      <c r="Q50" s="140"/>
+      <c r="R50" s="141"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="202" t="s">
+      <c r="B51" s="180" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="163" t="s">
@@ -8403,103 +8515,107 @@
       <c r="E51" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="189" t="s">
+      <c r="F51" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="183" t="s">
+      <c r="G51" s="169" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="183" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="183" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="183" t="s">
+      <c r="H51" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="169" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="169" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="147"/>
-      <c r="L51" s="183"/>
-      <c r="M51" s="163">
+      <c r="L51" s="147"/>
+      <c r="M51" s="169"/>
+      <c r="N51" s="163">
         <v>240722</v>
       </c>
-      <c r="N51" s="163" t="s">
+      <c r="O51" s="163" t="s">
         <v>1480</v>
       </c>
-      <c r="O51" s="137" t="s">
+      <c r="P51" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="P51" s="186" t="s">
+      <c r="Q51" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="Q51" s="187"/>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="200"/>
-      <c r="B52" s="194"/>
+      <c r="R51" s="200"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" s="178"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="160"/>
       <c r="D52" s="160"/>
       <c r="E52" s="160"/>
-      <c r="F52" s="190"/>
-      <c r="G52" s="166"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="166"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="170"/>
+      <c r="H52" s="170"/>
+      <c r="I52" s="170"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="52"/>
-      <c r="L52" s="166"/>
-      <c r="M52" s="160"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="170"/>
       <c r="N52" s="160"/>
-      <c r="O52" s="7" t="s">
+      <c r="O52" s="160"/>
+      <c r="P52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P52" s="179"/>
-      <c r="Q52" s="188"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="200"/>
-      <c r="B53" s="194"/>
+      <c r="Q52" s="193"/>
+      <c r="R52" s="201"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="178"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="160"/>
       <c r="D53" s="160"/>
       <c r="E53" s="160"/>
-      <c r="F53" s="190"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="170"/>
+      <c r="H53" s="170"/>
+      <c r="I53" s="170"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="52"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="160"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="170"/>
       <c r="N53" s="160"/>
-      <c r="O53" s="7" t="s">
+      <c r="O53" s="160"/>
+      <c r="P53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P53" s="179"/>
-      <c r="Q53" s="188"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="200"/>
-      <c r="B54" s="194"/>
+      <c r="Q53" s="193"/>
+      <c r="R53" s="201"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="178"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="161"/>
       <c r="D54" s="161"/>
       <c r="E54" s="161"/>
-      <c r="F54" s="191"/>
+      <c r="F54" s="168"/>
       <c r="G54" s="165"/>
       <c r="H54" s="165"/>
       <c r="I54" s="165"/>
       <c r="J54" s="165"/>
       <c r="K54" s="53"/>
-      <c r="L54" s="165"/>
-      <c r="M54" s="161"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="165"/>
       <c r="N54" s="161"/>
-      <c r="O54" s="7" t="s">
+      <c r="O54" s="161"/>
+      <c r="P54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P54" s="180"/>
-      <c r="Q54" s="182"/>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="200"/>
-      <c r="B55" s="194"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="196"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="178"/>
+      <c r="B55" s="172"/>
       <c r="C55" s="159" t="s">
         <v>66</v>
       </c>
@@ -8509,7 +8625,7 @@
       <c r="E55" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="192" t="s">
+      <c r="F55" s="171" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="164" t="s">
@@ -8525,85 +8641,89 @@
         <v>12</v>
       </c>
       <c r="K55" s="51"/>
-      <c r="L55" s="164"/>
-      <c r="M55" s="184" t="s">
+      <c r="L55" s="51"/>
+      <c r="M55" s="164"/>
+      <c r="N55" s="197" t="s">
         <v>1443</v>
       </c>
-      <c r="N55" s="151"/>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="151"/>
+      <c r="P55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P55" s="178" t="s">
+      <c r="Q55" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="Q55" s="171"/>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="200"/>
-      <c r="B56" s="194"/>
+      <c r="R55" s="185"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="178"/>
+      <c r="B56" s="172"/>
       <c r="C56" s="160"/>
       <c r="D56" s="160"/>
       <c r="E56" s="160"/>
-      <c r="F56" s="190"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="166"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="170"/>
+      <c r="H56" s="170"/>
+      <c r="I56" s="170"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="52"/>
-      <c r="L56" s="166"/>
-      <c r="M56" s="193"/>
-      <c r="N56" s="153"/>
-      <c r="O56" s="7" t="s">
+      <c r="L56" s="52"/>
+      <c r="M56" s="170"/>
+      <c r="N56" s="202"/>
+      <c r="O56" s="153"/>
+      <c r="P56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P56" s="179"/>
-      <c r="Q56" s="172"/>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="200"/>
-      <c r="B57" s="194"/>
+      <c r="Q56" s="193"/>
+      <c r="R56" s="186"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" s="178"/>
+      <c r="B57" s="172"/>
       <c r="C57" s="160"/>
       <c r="D57" s="160"/>
       <c r="E57" s="160"/>
-      <c r="F57" s="190"/>
-      <c r="G57" s="166"/>
-      <c r="H57" s="166"/>
-      <c r="I57" s="166"/>
-      <c r="J57" s="166"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="170"/>
+      <c r="H57" s="170"/>
+      <c r="I57" s="170"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="52"/>
-      <c r="L57" s="166"/>
-      <c r="M57" s="193"/>
-      <c r="N57" s="153"/>
-      <c r="O57" s="7" t="s">
+      <c r="L57" s="52"/>
+      <c r="M57" s="170"/>
+      <c r="N57" s="202"/>
+      <c r="O57" s="153"/>
+      <c r="P57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P57" s="179"/>
-      <c r="Q57" s="172"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="200"/>
-      <c r="B58" s="194"/>
+      <c r="Q57" s="193"/>
+      <c r="R57" s="186"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A58" s="178"/>
+      <c r="B58" s="172"/>
       <c r="C58" s="161"/>
       <c r="D58" s="161"/>
       <c r="E58" s="161"/>
-      <c r="F58" s="191"/>
+      <c r="F58" s="168"/>
       <c r="G58" s="165"/>
       <c r="H58" s="165"/>
       <c r="I58" s="165"/>
       <c r="J58" s="165"/>
       <c r="K58" s="53"/>
-      <c r="L58" s="165"/>
-      <c r="M58" s="185"/>
-      <c r="N58" s="152"/>
-      <c r="O58" s="7" t="s">
+      <c r="L58" s="53"/>
+      <c r="M58" s="165"/>
+      <c r="N58" s="198"/>
+      <c r="O58" s="152"/>
+      <c r="P58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P58" s="180"/>
-      <c r="Q58" s="173"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="200"/>
-      <c r="B59" s="194"/>
+      <c r="Q58" s="194"/>
+      <c r="R58" s="187"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A59" s="178"/>
+      <c r="B59" s="172"/>
       <c r="C59" s="3" t="s">
         <v>67</v>
       </c>
@@ -8630,15 +8750,16 @@
       </c>
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="3"/>
+      <c r="M59" s="12"/>
       <c r="N59" s="3"/>
-      <c r="O59" s="7"/>
+      <c r="O59" s="3"/>
       <c r="P59" s="7"/>
-      <c r="Q59" s="138"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="200"/>
-      <c r="B60" s="194"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="138"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A60" s="178"/>
+      <c r="B60" s="172"/>
       <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
@@ -8665,15 +8786,16 @@
       </c>
       <c r="K60" s="12"/>
       <c r="L60" s="12"/>
-      <c r="M60" s="3"/>
+      <c r="M60" s="12"/>
       <c r="N60" s="3"/>
-      <c r="O60" s="7"/>
+      <c r="O60" s="3"/>
       <c r="P60" s="7"/>
-      <c r="Q60" s="138"/>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="200"/>
-      <c r="B61" s="194" t="s">
+      <c r="Q60" s="7"/>
+      <c r="R60" s="138"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A61" s="178"/>
+      <c r="B61" s="172" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -8702,15 +8824,16 @@
       </c>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
-      <c r="M61" s="3"/>
+      <c r="M61" s="12"/>
       <c r="N61" s="3"/>
-      <c r="O61" s="7"/>
+      <c r="O61" s="3"/>
       <c r="P61" s="7"/>
-      <c r="Q61" s="138"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="200"/>
-      <c r="B62" s="194"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="138"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A62" s="178"/>
+      <c r="B62" s="172"/>
       <c r="C62" s="159" t="s">
         <v>71</v>
       </c>
@@ -8736,22 +8859,23 @@
         <v>12</v>
       </c>
       <c r="K62" s="51"/>
-      <c r="L62" s="164"/>
-      <c r="M62" s="184" t="s">
+      <c r="L62" s="51"/>
+      <c r="M62" s="164"/>
+      <c r="N62" s="197" t="s">
         <v>1444</v>
       </c>
-      <c r="N62" s="151"/>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="151"/>
+      <c r="P62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P62" s="178" t="s">
+      <c r="Q62" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="Q62" s="181"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="200"/>
-      <c r="B63" s="194"/>
+      <c r="R62" s="195"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A63" s="178"/>
+      <c r="B63" s="172"/>
       <c r="C63" s="161"/>
       <c r="D63" s="161"/>
       <c r="E63" s="161"/>
@@ -8761,18 +8885,19 @@
       <c r="I63" s="165"/>
       <c r="J63" s="165"/>
       <c r="K63" s="53"/>
-      <c r="L63" s="165"/>
-      <c r="M63" s="185"/>
-      <c r="N63" s="152"/>
-      <c r="O63" s="7" t="s">
+      <c r="L63" s="53"/>
+      <c r="M63" s="165"/>
+      <c r="N63" s="198"/>
+      <c r="O63" s="152"/>
+      <c r="P63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P63" s="180"/>
-      <c r="Q63" s="182"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="200"/>
-      <c r="B64" s="194"/>
+      <c r="Q63" s="194"/>
+      <c r="R63" s="196"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A64" s="178"/>
+      <c r="B64" s="172"/>
       <c r="C64" s="3" t="s">
         <v>72</v>
       </c>
@@ -8801,13 +8926,14 @@
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="138"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="200"/>
-      <c r="B65" s="194"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="138"/>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="178"/>
+      <c r="B65" s="172"/>
       <c r="C65" s="3" t="s">
         <v>73</v>
       </c>
@@ -8836,13 +8962,14 @@
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="138"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="200"/>
-      <c r="B66" s="194" t="s">
+      <c r="O65" s="3"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="138"/>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="178"/>
+      <c r="B66" s="172" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -8873,13 +9000,14 @@
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="138"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="200"/>
-      <c r="B67" s="194"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="138"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="178"/>
+      <c r="B67" s="172"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
@@ -8906,21 +9034,22 @@
       </c>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-      <c r="M67" s="136" t="s">
+      <c r="M67" s="3"/>
+      <c r="N67" s="136" t="s">
         <v>1443</v>
       </c>
-      <c r="N67" s="136"/>
-      <c r="O67" s="7" t="s">
+      <c r="O67" s="136"/>
+      <c r="P67" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="Q67" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="Q67" s="138"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="200"/>
-      <c r="B68" s="194"/>
+      <c r="R67" s="138"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A68" s="178"/>
+      <c r="B68" s="172"/>
       <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
@@ -8949,13 +9078,14 @@
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="138"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="200"/>
-      <c r="B69" s="194"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="138"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A69" s="178"/>
+      <c r="B69" s="172"/>
       <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
@@ -8984,13 +9114,14 @@
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="138"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="200"/>
-      <c r="B70" s="194" t="s">
+      <c r="O69" s="3"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="138"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A70" s="178"/>
+      <c r="B70" s="172" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -9021,13 +9152,14 @@
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="138"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="200"/>
-      <c r="B71" s="194"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="138"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A71" s="178"/>
+      <c r="B71" s="172"/>
       <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
@@ -9054,21 +9186,22 @@
       </c>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
-      <c r="M71" s="136" t="s">
+      <c r="M71" s="3"/>
+      <c r="N71" s="136" t="s">
         <v>1443</v>
       </c>
-      <c r="N71" s="136"/>
-      <c r="O71" s="7" t="s">
+      <c r="O71" s="136"/>
+      <c r="P71" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="Q71" s="138"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="200"/>
-      <c r="B72" s="194"/>
+      <c r="R71" s="138"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A72" s="178"/>
+      <c r="B72" s="172"/>
       <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
@@ -9097,13 +9230,14 @@
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="138"/>
-    </row>
-    <row r="73" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="201"/>
-      <c r="B73" s="195"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="138"/>
+    </row>
+    <row r="73" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="179"/>
+      <c r="B73" s="173"/>
       <c r="C73" s="139" t="s">
         <v>82</v>
       </c>
@@ -9132,11 +9266,12 @@
       <c r="L73" s="139"/>
       <c r="M73" s="139"/>
       <c r="N73" s="139"/>
-      <c r="O73" s="140"/>
-      <c r="P73" s="154"/>
-      <c r="Q73" s="141"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O73" s="139"/>
+      <c r="P73" s="140"/>
+      <c r="Q73" s="154"/>
+      <c r="R73" s="141"/>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="156" t="s">
         <v>1451</v>
       </c>
@@ -9167,11 +9302,12 @@
       <c r="L74" s="55"/>
       <c r="M74" s="55"/>
       <c r="N74" s="55"/>
-      <c r="O74" s="137"/>
-      <c r="P74" s="155"/>
-      <c r="Q74" s="144"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O74" s="55"/>
+      <c r="P74" s="137"/>
+      <c r="Q74" s="155"/>
+      <c r="R74" s="144"/>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="157"/>
       <c r="B75" s="160"/>
       <c r="C75" s="3"/>
@@ -9198,11 +9334,12 @@
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="138"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O75" s="3"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="138"/>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="157"/>
       <c r="B76" s="160"/>
       <c r="C76" s="3"/>
@@ -9229,11 +9366,12 @@
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="138"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O76" s="3"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="138"/>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="157"/>
       <c r="B77" s="160"/>
       <c r="C77" s="3"/>
@@ -9260,11 +9398,12 @@
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="138"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O77" s="3"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="138"/>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="157"/>
       <c r="B78" s="161"/>
       <c r="C78" s="3"/>
@@ -9291,11 +9430,12 @@
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="138"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O78" s="3"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="138"/>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="157"/>
       <c r="B79" s="159" t="s">
         <v>1453</v>
@@ -9326,11 +9466,12 @@
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="138"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O79" s="3"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="138"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="157"/>
       <c r="B80" s="160"/>
       <c r="C80" s="3" t="s">
@@ -9356,14 +9497,15 @@
       </c>
       <c r="J80" s="12"/>
       <c r="K80" s="12"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="12"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="138"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O80" s="3"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="138"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="157"/>
       <c r="B81" s="160"/>
       <c r="C81" s="3" t="s">
@@ -9389,14 +9531,15 @@
       </c>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
-      <c r="L81" s="3"/>
+      <c r="L81" s="12"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="138"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O81" s="3"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="138"/>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="157"/>
       <c r="B82" s="160"/>
       <c r="C82" s="3" t="s">
@@ -9422,14 +9565,15 @@
       </c>
       <c r="J82" s="12"/>
       <c r="K82" s="12"/>
-      <c r="L82" s="3"/>
+      <c r="L82" s="12"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="138"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O82" s="3"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="138"/>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="157"/>
       <c r="B83" s="161"/>
       <c r="C83" s="3" t="s">
@@ -9455,14 +9599,15 @@
       </c>
       <c r="J83" s="12"/>
       <c r="K83" s="12"/>
-      <c r="L83" s="3"/>
+      <c r="L83" s="12"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="138"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O83" s="3"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="138"/>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="157"/>
       <c r="B84" s="159" t="s">
         <v>1454</v>
@@ -9488,14 +9633,15 @@
       </c>
       <c r="J84" s="12"/>
       <c r="K84" s="12"/>
-      <c r="L84" s="3"/>
+      <c r="L84" s="12"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="138"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O84" s="3"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="138"/>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="157"/>
       <c r="B85" s="160"/>
       <c r="C85" s="3"/>
@@ -9519,14 +9665,15 @@
       </c>
       <c r="J85" s="12"/>
       <c r="K85" s="12"/>
-      <c r="L85" s="3"/>
+      <c r="L85" s="12"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="138"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O85" s="3"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="138"/>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="157"/>
       <c r="B86" s="160"/>
       <c r="C86" s="3"/>
@@ -9550,14 +9697,15 @@
       </c>
       <c r="J86" s="12"/>
       <c r="K86" s="12"/>
-      <c r="L86" s="3"/>
+      <c r="L86" s="12"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="138"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O86" s="3"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="138"/>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="157"/>
       <c r="B87" s="160"/>
       <c r="C87" s="3"/>
@@ -9581,14 +9729,15 @@
       </c>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
-      <c r="L87" s="3"/>
+      <c r="L87" s="12"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="138"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O87" s="3"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="138"/>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="157"/>
       <c r="B88" s="161"/>
       <c r="C88" s="3"/>
@@ -9612,14 +9761,15 @@
       </c>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
-      <c r="L88" s="3"/>
+      <c r="L88" s="12"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="138"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O88" s="3"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="138"/>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="157"/>
       <c r="B89" s="159" t="s">
         <v>1455</v>
@@ -9647,14 +9797,15 @@
       </c>
       <c r="J89" s="12"/>
       <c r="K89" s="12"/>
-      <c r="L89" s="3"/>
+      <c r="L89" s="12"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="138"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O89" s="3"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="138"/>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="157"/>
       <c r="B90" s="160"/>
       <c r="C90" s="3" t="s">
@@ -9680,14 +9831,15 @@
       </c>
       <c r="J90" s="12"/>
       <c r="K90" s="12"/>
-      <c r="L90" s="3"/>
+      <c r="L90" s="12"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="138"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O90" s="3"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="138"/>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="157"/>
       <c r="B91" s="160"/>
       <c r="C91" s="3" t="s">
@@ -9713,14 +9865,15 @@
       </c>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
-      <c r="L91" s="3"/>
+      <c r="L91" s="12"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="138"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O91" s="3"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="138"/>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="157"/>
       <c r="B92" s="160"/>
       <c r="C92" s="3" t="s">
@@ -9746,14 +9899,15 @@
       </c>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
-      <c r="L92" s="3"/>
+      <c r="L92" s="12"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="138"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O92" s="3"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="138"/>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="157"/>
       <c r="B93" s="161"/>
       <c r="C93" s="3" t="s">
@@ -9779,14 +9933,15 @@
       </c>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
-      <c r="L93" s="3"/>
+      <c r="L93" s="12"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="138"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O93" s="3"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="138"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="157"/>
       <c r="B94" s="159" t="s">
         <v>1462</v>
@@ -9814,14 +9969,15 @@
       </c>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
-      <c r="L94" s="3"/>
+      <c r="L94" s="12"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="138"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O94" s="3"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="138"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="157"/>
       <c r="B95" s="160"/>
       <c r="C95" s="3" t="s">
@@ -9847,14 +10003,15 @@
       </c>
       <c r="J95" s="12"/>
       <c r="K95" s="12"/>
-      <c r="L95" s="3"/>
+      <c r="L95" s="12"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="138"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O95" s="3"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="138"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="157"/>
       <c r="B96" s="160"/>
       <c r="C96" s="3" t="s">
@@ -9880,14 +10037,15 @@
       </c>
       <c r="J96" s="12"/>
       <c r="K96" s="12"/>
-      <c r="L96" s="3"/>
+      <c r="L96" s="12"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="138"/>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O96" s="3"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="138"/>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="157"/>
       <c r="B97" s="160"/>
       <c r="C97" s="3" t="s">
@@ -9913,14 +10071,15 @@
       </c>
       <c r="J97" s="12"/>
       <c r="K97" s="12"/>
-      <c r="L97" s="3"/>
+      <c r="L97" s="12"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="138"/>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O97" s="3"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="138"/>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="157"/>
       <c r="B98" s="161"/>
       <c r="C98" s="3" t="s">
@@ -9946,14 +10105,15 @@
       </c>
       <c r="J98" s="12"/>
       <c r="K98" s="12"/>
-      <c r="L98" s="3"/>
+      <c r="L98" s="12"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="138"/>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O98" s="3"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="138"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="157"/>
       <c r="B99" s="159" t="s">
         <v>1456</v>
@@ -9984,11 +10144,12 @@
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="138"/>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O99" s="3"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="138"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="157"/>
       <c r="B100" s="160"/>
       <c r="C100" s="3" t="s">
@@ -10017,11 +10178,12 @@
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="138"/>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O100" s="3"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="138"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="157"/>
       <c r="B101" s="160"/>
       <c r="C101" s="3" t="s">
@@ -10050,11 +10212,12 @@
       <c r="L101" s="3"/>
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="138"/>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O101" s="3"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="138"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="157"/>
       <c r="B102" s="160"/>
       <c r="C102" s="3" t="s">
@@ -10083,11 +10246,12 @@
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
       <c r="N102" s="3"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="138"/>
-    </row>
-    <row r="103" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O102" s="3"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="138"/>
+    </row>
+    <row r="103" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="158"/>
       <c r="B103" s="162"/>
       <c r="C103" s="139" t="s">
@@ -10116,15 +10280,13 @@
       <c r="L103" s="139"/>
       <c r="M103" s="139"/>
       <c r="N103" s="139"/>
-      <c r="O103" s="140"/>
-      <c r="P103" s="154"/>
-      <c r="Q103" s="141"/>
+      <c r="O103" s="139"/>
+      <c r="P103" s="140"/>
+      <c r="Q103" s="154"/>
+      <c r="R103" s="141"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J6:J10"/>
+  <mergeCells count="114">
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B23"/>
@@ -10133,7 +10295,7 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:L1"/>
+    <mergeCell ref="D1:M1"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="G6:G10"/>
     <mergeCell ref="G12:G14"/>
@@ -10158,6 +10320,10 @@
     <mergeCell ref="F39:F40"/>
     <mergeCell ref="E39:E40"/>
     <mergeCell ref="D39:D40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J6:J10"/>
     <mergeCell ref="B61:B65"/>
     <mergeCell ref="B66:B69"/>
     <mergeCell ref="B70:B73"/>
@@ -10167,48 +10333,50 @@
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="D12:D14"/>
     <mergeCell ref="F12:F14"/>
-    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
     <mergeCell ref="H62:H63"/>
-    <mergeCell ref="P55:P58"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="Q51:Q54"/>
     <mergeCell ref="H51:H54"/>
-    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="R51:R54"/>
     <mergeCell ref="J51:J54"/>
     <mergeCell ref="J62:J63"/>
-    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="O51:O54"/>
     <mergeCell ref="I51:I54"/>
     <mergeCell ref="I55:I58"/>
     <mergeCell ref="I62:I63"/>
-    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="N55:N58"/>
     <mergeCell ref="H55:H58"/>
     <mergeCell ref="J55:J58"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
     <mergeCell ref="G55:G58"/>
     <mergeCell ref="G62:G63"/>
     <mergeCell ref="E62:E63"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N13:N14"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="M6:M9"/>
-    <mergeCell ref="P6:P9"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="L51:L54"/>
-    <mergeCell ref="L55:L58"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="M62:M63"/>
     <mergeCell ref="A74:A103"/>
     <mergeCell ref="B94:B98"/>
     <mergeCell ref="B99:B103"/>
@@ -10319,7 +10487,7 @@
       <c r="X1" s="251"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="178" t="s">
         <v>567</v>
       </c>
       <c r="B2" s="270"/>
@@ -21407,19 +21575,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="194" t="s">
+      <c r="A2" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="172" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="194" t="s">
+      <c r="C2" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="194" t="s">
+      <c r="D2" s="172" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="172" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -21435,11 +21603,11 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="194"/>
-      <c r="B3" s="194"/>
-      <c r="C3" s="194"/>
-      <c r="D3" s="194"/>
-      <c r="E3" s="194"/>
+      <c r="A3" s="172"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
@@ -21453,10 +21621,10 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="194"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
+      <c r="A4" s="172"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
       <c r="E4" s="159" t="s">
         <v>61</v>
       </c>
@@ -21475,10 +21643,10 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="194"/>
-      <c r="B5" s="194"/>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
+      <c r="A5" s="172"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
       <c r="E5" s="160"/>
       <c r="F5" s="160"/>
       <c r="G5" s="3" t="s">
@@ -21493,21 +21661,21 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="194"/>
-      <c r="B6" s="194"/>
-      <c r="C6" s="194"/>
-      <c r="D6" s="194"/>
+      <c r="A6" s="172"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="172"/>
+      <c r="D6" s="172"/>
       <c r="E6" s="160"/>
       <c r="F6" s="160"/>
-      <c r="G6" s="194" t="s">
+      <c r="G6" s="172" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194" t="s">
+      <c r="H6" s="172"/>
+      <c r="I6" s="172" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="194"/>
-      <c r="K6" s="194"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="172"/>
       <c r="L6" s="2" t="s">
         <v>118</v>
       </c>
@@ -21519,17 +21687,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="194"/>
-      <c r="B7" s="194"/>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
+      <c r="A7" s="172"/>
+      <c r="B7" s="172"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="172"/>
       <c r="E7" s="160"/>
       <c r="F7" s="160"/>
-      <c r="G7" s="194"/>
-      <c r="H7" s="194"/>
-      <c r="I7" s="194"/>
-      <c r="J7" s="194"/>
-      <c r="K7" s="194"/>
+      <c r="G7" s="172"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="172"/>
       <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
@@ -21539,10 +21707,10 @@
       <c r="N7" s="277"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="194"/>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
       <c r="E8" s="160"/>
       <c r="F8" s="161"/>
       <c r="G8" s="3" t="s">
@@ -21559,10 +21727,10 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="194"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
       <c r="E9" s="160"/>
       <c r="F9" s="3" t="s">
         <v>62</v>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kimyongrok\EZcareT\보라매SI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438DAF5F-77E0-4578-94A6-12D340E8B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25E661C-6524-4856-9E28-E2E8D53F4ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29490" yWindow="2130" windowWidth="14760" windowHeight="15585" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
+    <workbookView xWindow="5355" yWindow="2070" windowWidth="21600" windowHeight="12795" activeTab="3" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="was" sheetId="1" r:id="rId1"/>
     <sheet name="후원금납입조회" sheetId="3" r:id="rId2"/>
     <sheet name="모바일하이패스" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="산정특례신청 내역" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5872,6 +5872,138 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5881,51 +6013,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5944,97 +6037,175 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -6046,18 +6217,6 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6070,166 +6229,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6581,7 +6581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -6600,47 +6600,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="206" t="s">
+      <c r="B1" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="206" t="s">
+      <c r="C1" s="162" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="210" t="s">
+      <c r="D1" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="183" t="s">
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="183" t="s">
+      <c r="O1" s="190" t="s">
         <v>1479</v>
       </c>
-      <c r="P1" s="183" t="s">
+      <c r="P1" s="190" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="183" t="s">
+      <c r="Q1" s="190" t="s">
         <v>351</v>
       </c>
-      <c r="R1" s="181" t="s">
+      <c r="R1" s="188" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="209"/>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
+      <c r="A2" s="165"/>
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
       <c r="D2" s="146">
         <v>240711</v>
       </c>
@@ -6671,17 +6671,17 @@
       <c r="M2" s="146" t="s">
         <v>1448</v>
       </c>
-      <c r="N2" s="184"/>
-      <c r="O2" s="184"/>
-      <c r="P2" s="184"/>
-      <c r="Q2" s="184"/>
-      <c r="R2" s="182"/>
+      <c r="N2" s="191"/>
+      <c r="O2" s="191"/>
+      <c r="P2" s="191"/>
+      <c r="Q2" s="191"/>
+      <c r="R2" s="189"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="156" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="159" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="55" t="s">
@@ -6730,8 +6730,8 @@
       <c r="R3" s="144"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="204"/>
-      <c r="B4" s="172"/>
+      <c r="A4" s="157"/>
+      <c r="B4" s="160"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -6770,8 +6770,8 @@
       <c r="R4" s="138"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="204"/>
-      <c r="B5" s="172"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="160"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -6810,132 +6810,132 @@
       <c r="R5" s="138"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="204"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="159" t="s">
+      <c r="A6" s="157"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="167" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="171" t="s">
+      <c r="D6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="171" t="s">
+      <c r="E6" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="171" t="s">
+      <c r="G6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="171" t="s">
+      <c r="H6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="171" t="s">
+      <c r="I6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="171" t="s">
+      <c r="J6" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="171" t="s">
+      <c r="L6" s="169" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="51"/>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="196" t="s">
         <v>86</v>
       </c>
       <c r="O6" s="148"/>
       <c r="P6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="192" t="s">
+      <c r="Q6" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="188" t="s">
+      <c r="R6" s="195" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="204"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="160"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="160"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
+      <c r="A7" s="157"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="172"/>
+      <c r="D7" s="170"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="170"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
       <c r="M7" s="52"/>
-      <c r="N7" s="190"/>
+      <c r="N7" s="197"/>
       <c r="O7" s="149"/>
       <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="193"/>
-      <c r="R7" s="186"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="193"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="204"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="160"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="160"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
+      <c r="A8" s="157"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
       <c r="M8" s="52"/>
-      <c r="N8" s="190"/>
+      <c r="N8" s="197"/>
       <c r="O8" s="149"/>
       <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="193"/>
-      <c r="R8" s="186"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="193"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="204"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="160"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
+      <c r="A9" s="157"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
       <c r="M9" s="52"/>
-      <c r="N9" s="191"/>
+      <c r="N9" s="198"/>
       <c r="O9" s="150"/>
       <c r="P9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="194"/>
-      <c r="R9" s="187"/>
+      <c r="Q9" s="177"/>
+      <c r="R9" s="194"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="204"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="161"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="161"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="160"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
       <c r="M10" s="53"/>
       <c r="N10" s="5">
         <v>240718</v>
@@ -6952,8 +6952,8 @@
       <c r="R10" s="138"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="204"/>
-      <c r="B11" s="172"/>
+      <c r="A11" s="157"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -6992,36 +6992,36 @@
       <c r="R11" s="138"/>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="204"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="159" t="s">
+      <c r="A12" s="157"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="171" t="s">
+      <c r="D12" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="171" t="s">
+      <c r="G12" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="171" t="s">
+      <c r="I12" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="171" t="s">
+      <c r="J12" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="169" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="51"/>
@@ -7042,23 +7042,23 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="204"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="160"/>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="167"/>
+      <c r="A13" s="157"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="170"/>
       <c r="M13" s="52"/>
-      <c r="N13" s="159">
+      <c r="N13" s="167">
         <v>240718</v>
       </c>
-      <c r="O13" s="159" t="s">
+      <c r="O13" s="167" t="s">
         <v>1480</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -7067,37 +7067,37 @@
       <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="188" t="s">
+      <c r="R13" s="195" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="204"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="168"/>
+      <c r="A14" s="157"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="171"/>
+      <c r="G14" s="171"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="168"/>
+      <c r="K14" s="168"/>
+      <c r="L14" s="171"/>
       <c r="M14" s="53"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="187"/>
+      <c r="R14" s="194"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="204"/>
-      <c r="B15" s="172"/>
+      <c r="A15" s="157"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -7136,8 +7136,8 @@
       <c r="R15" s="138"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="204"/>
-      <c r="B16" s="172" t="s">
+      <c r="A16" s="157"/>
+      <c r="B16" s="160" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -7178,8 +7178,8 @@
       <c r="R16" s="138"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="204"/>
-      <c r="B17" s="172"/>
+      <c r="A17" s="157"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -7218,8 +7218,8 @@
       <c r="R17" s="138"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="204"/>
-      <c r="B18" s="172"/>
+      <c r="A18" s="157"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -7258,76 +7258,76 @@
       <c r="R18" s="138"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="204"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="159" t="s">
+      <c r="A19" s="157"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="171" t="s">
+      <c r="D19" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="159" t="s">
+      <c r="E19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="167" t="s">
         <v>12</v>
       </c>
       <c r="M19" s="51"/>
-      <c r="N19" s="189" t="s">
+      <c r="N19" s="196" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="148"/>
       <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="192" t="s">
+      <c r="Q19" s="175" t="s">
         <v>57</v>
       </c>
       <c r="R19" s="138"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="204"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="161"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="161"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="160"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="168"/>
+      <c r="K20" s="168"/>
+      <c r="L20" s="168"/>
       <c r="M20" s="53"/>
-      <c r="N20" s="191"/>
+      <c r="N20" s="198"/>
       <c r="O20" s="150"/>
       <c r="P20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="194"/>
+      <c r="Q20" s="177"/>
       <c r="R20" s="138"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="204"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="157"/>
+      <c r="B21" s="160"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -7366,8 +7366,8 @@
       <c r="R21" s="138"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="204"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="157"/>
+      <c r="B22" s="160"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -7406,8 +7406,8 @@
       <c r="R22" s="138"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="204"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="157"/>
+      <c r="B23" s="160"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -7446,8 +7446,8 @@
       <c r="R23" s="138"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="204"/>
-      <c r="B24" s="172" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="160" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -7488,8 +7488,8 @@
       <c r="R24" s="138"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="204"/>
-      <c r="B25" s="172"/>
+      <c r="A25" s="157"/>
+      <c r="B25" s="160"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -7528,8 +7528,8 @@
       <c r="R25" s="138"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="204"/>
-      <c r="B26" s="172"/>
+      <c r="A26" s="157"/>
+      <c r="B26" s="160"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -7568,8 +7568,8 @@
       <c r="R26" s="138"/>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="204"/>
-      <c r="B27" s="172"/>
+      <c r="A27" s="157"/>
+      <c r="B27" s="160"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -7616,8 +7616,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="204"/>
-      <c r="B28" s="172"/>
+      <c r="A28" s="157"/>
+      <c r="B28" s="160"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -7656,8 +7656,8 @@
       <c r="R28" s="138"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="204"/>
-      <c r="B29" s="172"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="160"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -7696,8 +7696,8 @@
       <c r="R29" s="138"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="204"/>
-      <c r="B30" s="172"/>
+      <c r="A30" s="157"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -7736,8 +7736,8 @@
       <c r="R30" s="138"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="204"/>
-      <c r="B31" s="172" t="s">
+      <c r="A31" s="157"/>
+      <c r="B31" s="160" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -7778,8 +7778,8 @@
       <c r="R31" s="138"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="204"/>
-      <c r="B32" s="172"/>
+      <c r="A32" s="157"/>
+      <c r="B32" s="160"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -7818,8 +7818,8 @@
       <c r="R32" s="138"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="204"/>
-      <c r="B33" s="172"/>
+      <c r="A33" s="157"/>
+      <c r="B33" s="160"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -7858,8 +7858,8 @@
       <c r="R33" s="138"/>
     </row>
     <row r="34" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="204"/>
-      <c r="B34" s="172"/>
+      <c r="A34" s="157"/>
+      <c r="B34" s="160"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -7906,8 +7906,8 @@
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="204"/>
-      <c r="B35" s="172"/>
+      <c r="A35" s="157"/>
+      <c r="B35" s="160"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -7946,8 +7946,8 @@
       <c r="R35" s="138"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A36" s="204"/>
-      <c r="B36" s="172"/>
+      <c r="A36" s="157"/>
+      <c r="B36" s="160"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -7986,8 +7986,8 @@
       <c r="R36" s="138"/>
     </row>
     <row r="37" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="205"/>
-      <c r="B37" s="173"/>
+      <c r="A37" s="158"/>
+      <c r="B37" s="161"/>
       <c r="C37" s="139" t="s">
         <v>36</v>
       </c>
@@ -8026,10 +8026,10 @@
       <c r="R37" s="141"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A38" s="174" t="s">
+      <c r="A38" s="205" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="180" t="s">
+      <c r="B38" s="159" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="55" t="s">
@@ -8066,30 +8066,30 @@
       <c r="R38" s="144"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A39" s="175"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="159" t="s">
+      <c r="A39" s="206"/>
+      <c r="B39" s="160"/>
+      <c r="C39" s="167" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="171" t="s">
+      <c r="D39" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E39" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="H39" s="164" t="s">
+      <c r="G39" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="173" t="s">
         <v>1449</v>
       </c>
-      <c r="I39" s="164" t="s">
+      <c r="I39" s="173" t="s">
         <v>1449</v>
       </c>
-      <c r="J39" s="164" t="s">
+      <c r="J39" s="173" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="51"/>
@@ -8110,16 +8110,16 @@
       <c r="R39" s="138"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A40" s="175"/>
-      <c r="B40" s="172"/>
-      <c r="C40" s="161"/>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
-      <c r="F40" s="168"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="165"/>
-      <c r="J40" s="165"/>
+      <c r="A40" s="206"/>
+      <c r="B40" s="160"/>
+      <c r="C40" s="168"/>
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="174"/>
       <c r="K40" s="53"/>
       <c r="L40" s="53"/>
       <c r="M40" s="12"/>
@@ -8134,8 +8134,8 @@
       <c r="R40" s="138"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A41" s="175"/>
-      <c r="B41" s="172"/>
+      <c r="A41" s="206"/>
+      <c r="B41" s="160"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -8170,8 +8170,8 @@
       <c r="R41" s="138"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="175"/>
-      <c r="B42" s="172" t="s">
+      <c r="A42" s="206"/>
+      <c r="B42" s="160" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -8208,8 +8208,8 @@
       <c r="R42" s="138"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A43" s="175"/>
-      <c r="B43" s="172"/>
+      <c r="A43" s="206"/>
+      <c r="B43" s="160"/>
       <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
@@ -8244,8 +8244,8 @@
       <c r="R43" s="138"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A44" s="175"/>
-      <c r="B44" s="172"/>
+      <c r="A44" s="206"/>
+      <c r="B44" s="160"/>
       <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
@@ -8280,8 +8280,8 @@
       <c r="R44" s="138"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="175"/>
-      <c r="B45" s="172" t="s">
+      <c r="A45" s="206"/>
+      <c r="B45" s="160" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -8318,8 +8318,8 @@
       <c r="R45" s="138"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="175"/>
-      <c r="B46" s="172"/>
+      <c r="A46" s="206"/>
+      <c r="B46" s="160"/>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
@@ -8354,8 +8354,8 @@
       <c r="R46" s="138"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="175"/>
-      <c r="B47" s="172"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="160"/>
       <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
@@ -8390,8 +8390,8 @@
       <c r="R47" s="138"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="175"/>
-      <c r="B48" s="172" t="s">
+      <c r="A48" s="206"/>
+      <c r="B48" s="160" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -8428,8 +8428,8 @@
       <c r="R48" s="138"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="175"/>
-      <c r="B49" s="172"/>
+      <c r="A49" s="206"/>
+      <c r="B49" s="160"/>
       <c r="C49" s="3" t="s">
         <v>52</v>
       </c>
@@ -8464,8 +8464,8 @@
       <c r="R49" s="138"/>
     </row>
     <row r="50" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="176"/>
-      <c r="B50" s="173"/>
+      <c r="A50" s="207"/>
+      <c r="B50" s="161"/>
       <c r="C50" s="139" t="s">
         <v>53</v>
       </c>
@@ -8500,230 +8500,230 @@
       <c r="R50" s="141"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="177" t="s">
+      <c r="A51" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="180" t="s">
+      <c r="B51" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="163" t="s">
+      <c r="C51" s="180" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="163" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="166" t="s">
+      <c r="D51" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" s="180" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="169" t="s">
+      <c r="G51" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="H51" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="169" t="s">
-        <v>12</v>
-      </c>
-      <c r="J51" s="169" t="s">
+      <c r="H51" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="182" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="182" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="147"/>
       <c r="L51" s="147"/>
-      <c r="M51" s="169"/>
-      <c r="N51" s="163">
+      <c r="M51" s="182"/>
+      <c r="N51" s="180">
         <v>240722</v>
       </c>
-      <c r="O51" s="163" t="s">
+      <c r="O51" s="180" t="s">
         <v>1480</v>
       </c>
       <c r="P51" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="Q51" s="199" t="s">
+      <c r="Q51" s="181" t="s">
         <v>103</v>
       </c>
-      <c r="R51" s="200"/>
+      <c r="R51" s="184"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="178"/>
-      <c r="B52" s="172"/>
-      <c r="C52" s="160"/>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="167"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
+      <c r="A52" s="209"/>
+      <c r="B52" s="160"/>
+      <c r="C52" s="172"/>
+      <c r="D52" s="172"/>
+      <c r="E52" s="172"/>
+      <c r="F52" s="170"/>
+      <c r="G52" s="183"/>
+      <c r="H52" s="183"/>
+      <c r="I52" s="183"/>
+      <c r="J52" s="183"/>
       <c r="K52" s="52"/>
       <c r="L52" s="52"/>
-      <c r="M52" s="170"/>
-      <c r="N52" s="160"/>
-      <c r="O52" s="160"/>
+      <c r="M52" s="183"/>
+      <c r="N52" s="172"/>
+      <c r="O52" s="172"/>
       <c r="P52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Q52" s="193"/>
-      <c r="R52" s="201"/>
+      <c r="Q52" s="176"/>
+      <c r="R52" s="185"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="178"/>
-      <c r="B53" s="172"/>
-      <c r="C53" s="160"/>
-      <c r="D53" s="160"/>
-      <c r="E53" s="160"/>
-      <c r="F53" s="167"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
+      <c r="A53" s="209"/>
+      <c r="B53" s="160"/>
+      <c r="C53" s="172"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="170"/>
+      <c r="G53" s="183"/>
+      <c r="H53" s="183"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
       <c r="K53" s="52"/>
       <c r="L53" s="52"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="160"/>
-      <c r="O53" s="160"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="172"/>
+      <c r="O53" s="172"/>
       <c r="P53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q53" s="193"/>
-      <c r="R53" s="201"/>
+      <c r="Q53" s="176"/>
+      <c r="R53" s="185"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="178"/>
-      <c r="B54" s="172"/>
-      <c r="C54" s="161"/>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="168"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
+      <c r="A54" s="209"/>
+      <c r="B54" s="160"/>
+      <c r="C54" s="168"/>
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="171"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="174"/>
       <c r="K54" s="53"/>
       <c r="L54" s="53"/>
-      <c r="M54" s="165"/>
-      <c r="N54" s="161"/>
-      <c r="O54" s="161"/>
+      <c r="M54" s="174"/>
+      <c r="N54" s="168"/>
+      <c r="O54" s="168"/>
       <c r="P54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q54" s="194"/>
-      <c r="R54" s="196"/>
+      <c r="Q54" s="177"/>
+      <c r="R54" s="186"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="178"/>
-      <c r="B55" s="172"/>
-      <c r="C55" s="159" t="s">
+      <c r="A55" s="209"/>
+      <c r="B55" s="160"/>
+      <c r="C55" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="F55" s="171" t="s">
+      <c r="D55" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="169" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="164" t="s">
+      <c r="G55" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="I55" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="164" t="s">
+      <c r="H55" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="173" t="s">
         <v>12</v>
       </c>
       <c r="K55" s="51"/>
       <c r="L55" s="51"/>
-      <c r="M55" s="164"/>
-      <c r="N55" s="197" t="s">
+      <c r="M55" s="173"/>
+      <c r="N55" s="178" t="s">
         <v>1443</v>
       </c>
       <c r="O55" s="151"/>
       <c r="P55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q55" s="192" t="s">
+      <c r="Q55" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="R55" s="185"/>
+      <c r="R55" s="192"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="178"/>
-      <c r="B56" s="172"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
+      <c r="A56" s="209"/>
+      <c r="B56" s="160"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="172"/>
+      <c r="E56" s="172"/>
+      <c r="F56" s="170"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="183"/>
       <c r="K56" s="52"/>
       <c r="L56" s="52"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="202"/>
+      <c r="M56" s="183"/>
+      <c r="N56" s="187"/>
       <c r="O56" s="153"/>
       <c r="P56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q56" s="193"/>
-      <c r="R56" s="186"/>
+      <c r="Q56" s="176"/>
+      <c r="R56" s="193"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="178"/>
-      <c r="B57" s="172"/>
-      <c r="C57" s="160"/>
-      <c r="D57" s="160"/>
-      <c r="E57" s="160"/>
-      <c r="F57" s="167"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
+      <c r="A57" s="209"/>
+      <c r="B57" s="160"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="172"/>
+      <c r="E57" s="172"/>
+      <c r="F57" s="170"/>
+      <c r="G57" s="183"/>
+      <c r="H57" s="183"/>
+      <c r="I57" s="183"/>
+      <c r="J57" s="183"/>
       <c r="K57" s="52"/>
       <c r="L57" s="52"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="202"/>
+      <c r="M57" s="183"/>
+      <c r="N57" s="187"/>
       <c r="O57" s="153"/>
       <c r="P57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q57" s="193"/>
-      <c r="R57" s="186"/>
+      <c r="Q57" s="176"/>
+      <c r="R57" s="193"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="178"/>
-      <c r="B58" s="172"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="161"/>
-      <c r="F58" s="168"/>
-      <c r="G58" s="165"/>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="165"/>
+      <c r="A58" s="209"/>
+      <c r="B58" s="160"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="171"/>
+      <c r="G58" s="174"/>
+      <c r="H58" s="174"/>
+      <c r="I58" s="174"/>
+      <c r="J58" s="174"/>
       <c r="K58" s="53"/>
       <c r="L58" s="53"/>
-      <c r="M58" s="165"/>
-      <c r="N58" s="198"/>
+      <c r="M58" s="174"/>
+      <c r="N58" s="179"/>
       <c r="O58" s="152"/>
       <c r="P58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="194"/>
-      <c r="R58" s="187"/>
+      <c r="Q58" s="177"/>
+      <c r="R58" s="194"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="178"/>
-      <c r="B59" s="172"/>
+      <c r="A59" s="209"/>
+      <c r="B59" s="160"/>
       <c r="C59" s="3" t="s">
         <v>67</v>
       </c>
@@ -8758,8 +8758,8 @@
       <c r="R59" s="138"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="178"/>
-      <c r="B60" s="172"/>
+      <c r="A60" s="209"/>
+      <c r="B60" s="160"/>
       <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
@@ -8794,8 +8794,8 @@
       <c r="R60" s="138"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="178"/>
-      <c r="B61" s="172" t="s">
+      <c r="A61" s="209"/>
+      <c r="B61" s="160" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -8832,72 +8832,72 @@
       <c r="R61" s="138"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
-      <c r="B62" s="172"/>
-      <c r="C62" s="159" t="s">
+      <c r="A62" s="209"/>
+      <c r="B62" s="160"/>
+      <c r="C62" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="E62" s="159" t="s">
-        <v>54</v>
-      </c>
-      <c r="F62" s="159" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="164" t="s">
+      <c r="D62" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="167" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="173" t="s">
         <v>133</v>
       </c>
-      <c r="H62" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="164" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="164" t="s">
+      <c r="H62" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="173" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="173" t="s">
         <v>12</v>
       </c>
       <c r="K62" s="51"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="164"/>
-      <c r="N62" s="197" t="s">
+      <c r="M62" s="173"/>
+      <c r="N62" s="178" t="s">
         <v>1444</v>
       </c>
       <c r="O62" s="151"/>
       <c r="P62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q62" s="192" t="s">
+      <c r="Q62" s="175" t="s">
         <v>85</v>
       </c>
-      <c r="R62" s="195"/>
+      <c r="R62" s="199"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="178"/>
-      <c r="B63" s="172"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="165"/>
-      <c r="H63" s="165"/>
-      <c r="I63" s="165"/>
-      <c r="J63" s="165"/>
+      <c r="A63" s="209"/>
+      <c r="B63" s="160"/>
+      <c r="C63" s="168"/>
+      <c r="D63" s="168"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="168"/>
+      <c r="G63" s="174"/>
+      <c r="H63" s="174"/>
+      <c r="I63" s="174"/>
+      <c r="J63" s="174"/>
       <c r="K63" s="53"/>
       <c r="L63" s="53"/>
-      <c r="M63" s="165"/>
-      <c r="N63" s="198"/>
+      <c r="M63" s="174"/>
+      <c r="N63" s="179"/>
       <c r="O63" s="152"/>
       <c r="P63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Q63" s="194"/>
-      <c r="R63" s="196"/>
+      <c r="Q63" s="177"/>
+      <c r="R63" s="186"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="178"/>
-      <c r="B64" s="172"/>
+      <c r="A64" s="209"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="3" t="s">
         <v>72</v>
       </c>
@@ -8932,8 +8932,8 @@
       <c r="R64" s="138"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="178"/>
-      <c r="B65" s="172"/>
+      <c r="A65" s="209"/>
+      <c r="B65" s="160"/>
       <c r="C65" s="3" t="s">
         <v>73</v>
       </c>
@@ -8968,8 +8968,8 @@
       <c r="R65" s="138"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="178"/>
-      <c r="B66" s="172" t="s">
+      <c r="A66" s="209"/>
+      <c r="B66" s="160" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -9006,8 +9006,8 @@
       <c r="R66" s="138"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="178"/>
-      <c r="B67" s="172"/>
+      <c r="A67" s="209"/>
+      <c r="B67" s="160"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
@@ -9048,8 +9048,8 @@
       <c r="R67" s="138"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="178"/>
-      <c r="B68" s="172"/>
+      <c r="A68" s="209"/>
+      <c r="B68" s="160"/>
       <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
@@ -9084,8 +9084,8 @@
       <c r="R68" s="138"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="178"/>
-      <c r="B69" s="172"/>
+      <c r="A69" s="209"/>
+      <c r="B69" s="160"/>
       <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
@@ -9120,8 +9120,8 @@
       <c r="R69" s="138"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="178"/>
-      <c r="B70" s="172" t="s">
+      <c r="A70" s="209"/>
+      <c r="B70" s="160" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -9158,8 +9158,8 @@
       <c r="R70" s="138"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="178"/>
-      <c r="B71" s="172"/>
+      <c r="A71" s="209"/>
+      <c r="B71" s="160"/>
       <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
@@ -9200,8 +9200,8 @@
       <c r="R71" s="138"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="178"/>
-      <c r="B72" s="172"/>
+      <c r="A72" s="209"/>
+      <c r="B72" s="160"/>
       <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
@@ -9236,8 +9236,8 @@
       <c r="R72" s="138"/>
     </row>
     <row r="73" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="179"/>
-      <c r="B73" s="173"/>
+      <c r="A73" s="210"/>
+      <c r="B73" s="161"/>
       <c r="C73" s="139" t="s">
         <v>82</v>
       </c>
@@ -9272,10 +9272,10 @@
       <c r="R73" s="141"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="156" t="s">
+      <c r="A74" s="200" t="s">
         <v>1451</v>
       </c>
-      <c r="B74" s="163" t="s">
+      <c r="B74" s="180" t="s">
         <v>1452</v>
       </c>
       <c r="C74" s="55"/>
@@ -9308,8 +9308,8 @@
       <c r="R74" s="144"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="157"/>
-      <c r="B75" s="160"/>
+      <c r="A75" s="201"/>
+      <c r="B75" s="172"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>54</v>
@@ -9340,8 +9340,8 @@
       <c r="R75" s="138"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="157"/>
-      <c r="B76" s="160"/>
+      <c r="A76" s="201"/>
+      <c r="B76" s="172"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
         <v>54</v>
@@ -9372,8 +9372,8 @@
       <c r="R76" s="138"/>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A77" s="157"/>
-      <c r="B77" s="160"/>
+      <c r="A77" s="201"/>
+      <c r="B77" s="172"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
         <v>54</v>
@@ -9404,8 +9404,8 @@
       <c r="R77" s="138"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="157"/>
-      <c r="B78" s="161"/>
+      <c r="A78" s="201"/>
+      <c r="B78" s="168"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
         <v>54</v>
@@ -9436,8 +9436,8 @@
       <c r="R78" s="138"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="157"/>
-      <c r="B79" s="159" t="s">
+      <c r="A79" s="201"/>
+      <c r="B79" s="167" t="s">
         <v>1453</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -9472,8 +9472,8 @@
       <c r="R79" s="138"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="157"/>
-      <c r="B80" s="160"/>
+      <c r="A80" s="201"/>
+      <c r="B80" s="172"/>
       <c r="C80" s="3" t="s">
         <v>1474</v>
       </c>
@@ -9506,8 +9506,8 @@
       <c r="R80" s="138"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="157"/>
-      <c r="B81" s="160"/>
+      <c r="A81" s="201"/>
+      <c r="B81" s="172"/>
       <c r="C81" s="3" t="s">
         <v>1475</v>
       </c>
@@ -9540,8 +9540,8 @@
       <c r="R81" s="138"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="157"/>
-      <c r="B82" s="160"/>
+      <c r="A82" s="201"/>
+      <c r="B82" s="172"/>
       <c r="C82" s="3" t="s">
         <v>1476</v>
       </c>
@@ -9574,8 +9574,8 @@
       <c r="R82" s="138"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="157"/>
-      <c r="B83" s="161"/>
+      <c r="A83" s="201"/>
+      <c r="B83" s="168"/>
       <c r="C83" s="3" t="s">
         <v>1477</v>
       </c>
@@ -9608,8 +9608,8 @@
       <c r="R83" s="138"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="157"/>
-      <c r="B84" s="159" t="s">
+      <c r="A84" s="201"/>
+      <c r="B84" s="167" t="s">
         <v>1454</v>
       </c>
       <c r="C84" s="3"/>
@@ -9642,8 +9642,8 @@
       <c r="R84" s="138"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="157"/>
-      <c r="B85" s="160"/>
+      <c r="A85" s="201"/>
+      <c r="B85" s="172"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
         <v>54</v>
@@ -9674,8 +9674,8 @@
       <c r="R85" s="138"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="157"/>
-      <c r="B86" s="160"/>
+      <c r="A86" s="201"/>
+      <c r="B86" s="172"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>54</v>
@@ -9706,8 +9706,8 @@
       <c r="R86" s="138"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="157"/>
-      <c r="B87" s="160"/>
+      <c r="A87" s="201"/>
+      <c r="B87" s="172"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>54</v>
@@ -9738,8 +9738,8 @@
       <c r="R87" s="138"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="157"/>
-      <c r="B88" s="161"/>
+      <c r="A88" s="201"/>
+      <c r="B88" s="168"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
         <v>54</v>
@@ -9770,8 +9770,8 @@
       <c r="R88" s="138"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="157"/>
-      <c r="B89" s="159" t="s">
+      <c r="A89" s="201"/>
+      <c r="B89" s="167" t="s">
         <v>1455</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -9806,8 +9806,8 @@
       <c r="R89" s="138"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="157"/>
-      <c r="B90" s="160"/>
+      <c r="A90" s="201"/>
+      <c r="B90" s="172"/>
       <c r="C90" s="3" t="s">
         <v>1471</v>
       </c>
@@ -9840,8 +9840,8 @@
       <c r="R90" s="138"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="157"/>
-      <c r="B91" s="160"/>
+      <c r="A91" s="201"/>
+      <c r="B91" s="172"/>
       <c r="C91" s="3" t="s">
         <v>1470</v>
       </c>
@@ -9874,8 +9874,8 @@
       <c r="R91" s="138"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="157"/>
-      <c r="B92" s="160"/>
+      <c r="A92" s="201"/>
+      <c r="B92" s="172"/>
       <c r="C92" s="3" t="s">
         <v>1469</v>
       </c>
@@ -9908,8 +9908,8 @@
       <c r="R92" s="138"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="157"/>
-      <c r="B93" s="161"/>
+      <c r="A93" s="201"/>
+      <c r="B93" s="168"/>
       <c r="C93" s="3" t="s">
         <v>1468</v>
       </c>
@@ -9942,8 +9942,8 @@
       <c r="R93" s="138"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="157"/>
-      <c r="B94" s="159" t="s">
+      <c r="A94" s="201"/>
+      <c r="B94" s="167" t="s">
         <v>1462</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -9978,8 +9978,8 @@
       <c r="R94" s="138"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="157"/>
-      <c r="B95" s="160"/>
+      <c r="A95" s="201"/>
+      <c r="B95" s="172"/>
       <c r="C95" s="3" t="s">
         <v>1460</v>
       </c>
@@ -10012,8 +10012,8 @@
       <c r="R95" s="138"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="157"/>
-      <c r="B96" s="160"/>
+      <c r="A96" s="201"/>
+      <c r="B96" s="172"/>
       <c r="C96" s="3" t="s">
         <v>1459</v>
       </c>
@@ -10046,8 +10046,8 @@
       <c r="R96" s="138"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="157"/>
-      <c r="B97" s="160"/>
+      <c r="A97" s="201"/>
+      <c r="B97" s="172"/>
       <c r="C97" s="3" t="s">
         <v>1458</v>
       </c>
@@ -10080,8 +10080,8 @@
       <c r="R97" s="138"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="157"/>
-      <c r="B98" s="161"/>
+      <c r="A98" s="201"/>
+      <c r="B98" s="168"/>
       <c r="C98" s="3" t="s">
         <v>1457</v>
       </c>
@@ -10114,8 +10114,8 @@
       <c r="R98" s="138"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A99" s="157"/>
-      <c r="B99" s="159" t="s">
+      <c r="A99" s="201"/>
+      <c r="B99" s="167" t="s">
         <v>1456</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -10150,8 +10150,8 @@
       <c r="R99" s="138"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="157"/>
-      <c r="B100" s="160"/>
+      <c r="A100" s="201"/>
+      <c r="B100" s="172"/>
       <c r="C100" s="3" t="s">
         <v>1466</v>
       </c>
@@ -10184,8 +10184,8 @@
       <c r="R100" s="138"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="157"/>
-      <c r="B101" s="160"/>
+      <c r="A101" s="201"/>
+      <c r="B101" s="172"/>
       <c r="C101" s="3" t="s">
         <v>1465</v>
       </c>
@@ -10218,8 +10218,8 @@
       <c r="R101" s="138"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="157"/>
-      <c r="B102" s="160"/>
+      <c r="A102" s="201"/>
+      <c r="B102" s="172"/>
       <c r="C102" s="3" t="s">
         <v>1464</v>
       </c>
@@ -10252,8 +10252,8 @@
       <c r="R102" s="138"/>
     </row>
     <row r="103" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="158"/>
-      <c r="B103" s="162"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="203"/>
       <c r="C103" s="139" t="s">
         <v>1463</v>
       </c>
@@ -10287,6 +10287,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="A51:A73"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="A74:A103"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B23"/>
@@ -10311,96 +10401,6 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="B61:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="A74:A103"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="A51:A73"/>
-    <mergeCell ref="B51:B60"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10412,7 +10412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B100B-E3DE-4E19-A3FF-31A6CE0566A4}">
   <dimension ref="A1:X355"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
@@ -10445,88 +10445,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="257" t="s">
+      <c r="A1" s="222" t="s">
         <v>1367</v>
       </c>
-      <c r="B1" s="258"/>
-      <c r="C1" s="258"/>
-      <c r="D1" s="254" t="s">
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="219" t="s">
         <v>1368</v>
       </c>
-      <c r="E1" s="255"/>
-      <c r="F1" s="256"/>
-      <c r="G1" s="252" t="s">
+      <c r="E1" s="220"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="217" t="s">
         <v>1369</v>
       </c>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="234" t="s">
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="237" t="s">
         <v>1400</v>
       </c>
-      <c r="K1" s="232"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="249" t="s">
+      <c r="K1" s="238"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="214" t="s">
         <v>1401</v>
       </c>
-      <c r="N1" s="250"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="273" t="s">
+      <c r="N1" s="215"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="244" t="s">
         <v>1431</v>
       </c>
-      <c r="Q1" s="274"/>
-      <c r="R1" s="275"/>
-      <c r="S1" s="259" t="s">
+      <c r="Q1" s="245"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="224" t="s">
         <v>1440</v>
       </c>
-      <c r="T1" s="260"/>
-      <c r="U1" s="261"/>
-      <c r="V1" s="249" t="s">
+      <c r="T1" s="225"/>
+      <c r="U1" s="226"/>
+      <c r="V1" s="214" t="s">
         <v>789</v>
       </c>
-      <c r="W1" s="250"/>
-      <c r="X1" s="251"/>
+      <c r="W1" s="215"/>
+      <c r="X1" s="216"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="209" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="267" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="236"/>
+      <c r="D2" s="232" t="s">
         <v>497</v>
       </c>
-      <c r="E2" s="268"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="264" t="s">
+      <c r="E2" s="233"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="229" t="s">
         <v>347</v>
       </c>
-      <c r="H2" s="265"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="216" t="s">
+      <c r="H2" s="230"/>
+      <c r="I2" s="231"/>
+      <c r="J2" s="240" t="s">
         <v>1375</v>
       </c>
-      <c r="K2" s="214"/>
-      <c r="L2" s="215"/>
-      <c r="M2" s="157" t="s">
+      <c r="K2" s="241"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="201" t="s">
         <v>633</v>
       </c>
-      <c r="N2" s="262"/>
-      <c r="O2" s="263"/>
-      <c r="P2" s="272" t="s">
+      <c r="N2" s="227"/>
+      <c r="O2" s="228"/>
+      <c r="P2" s="243" t="s">
         <v>1430</v>
       </c>
-      <c r="Q2" s="268"/>
-      <c r="R2" s="269"/>
-      <c r="S2" s="246" t="s">
+      <c r="Q2" s="233"/>
+      <c r="R2" s="234"/>
+      <c r="S2" s="211" t="s">
         <v>788</v>
       </c>
-      <c r="T2" s="247"/>
-      <c r="U2" s="248"/>
-      <c r="V2" s="157" t="s">
+      <c r="T2" s="212"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="201" t="s">
         <v>799</v>
       </c>
-      <c r="W2" s="262"/>
-      <c r="X2" s="263"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="228"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
@@ -14669,7 +14669,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="211" t="s">
+      <c r="A102" s="268" t="s">
         <v>1155</v>
       </c>
       <c r="B102" s="77" t="s">
@@ -14677,7 +14677,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="212"/>
+      <c r="A103" s="269"/>
       <c r="B103" s="78" t="s">
         <v>1157</v>
       </c>
@@ -14698,58 +14698,58 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="225" t="s">
+      <c r="A107" s="251" t="s">
         <v>831</v>
       </c>
-      <c r="B107" s="226"/>
-      <c r="C107" s="244"/>
-      <c r="D107" s="203" t="s">
+      <c r="B107" s="247"/>
+      <c r="C107" s="252"/>
+      <c r="D107" s="156" t="s">
         <v>833</v>
       </c>
-      <c r="E107" s="226"/>
-      <c r="F107" s="244"/>
-      <c r="G107" s="203" t="s">
+      <c r="E107" s="247"/>
+      <c r="F107" s="252"/>
+      <c r="G107" s="156" t="s">
         <v>1099</v>
       </c>
-      <c r="H107" s="226"/>
-      <c r="I107" s="227"/>
-      <c r="J107" s="225" t="s">
+      <c r="H107" s="247"/>
+      <c r="I107" s="248"/>
+      <c r="J107" s="251" t="s">
         <v>1115</v>
       </c>
-      <c r="K107" s="226"/>
-      <c r="L107" s="227"/>
-      <c r="M107" s="203" t="s">
+      <c r="K107" s="247"/>
+      <c r="L107" s="248"/>
+      <c r="M107" s="156" t="s">
         <v>1147</v>
       </c>
-      <c r="N107" s="226"/>
-      <c r="O107" s="227"/>
+      <c r="N107" s="247"/>
+      <c r="O107" s="248"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="228" t="s">
+      <c r="A108" s="253" t="s">
         <v>832</v>
       </c>
-      <c r="B108" s="229"/>
-      <c r="C108" s="245"/>
-      <c r="D108" s="204" t="s">
+      <c r="B108" s="249"/>
+      <c r="C108" s="254"/>
+      <c r="D108" s="157" t="s">
         <v>834</v>
       </c>
-      <c r="E108" s="229"/>
-      <c r="F108" s="245"/>
-      <c r="G108" s="204" t="s">
+      <c r="E108" s="249"/>
+      <c r="F108" s="254"/>
+      <c r="G108" s="157" t="s">
         <v>1098</v>
       </c>
-      <c r="H108" s="229"/>
-      <c r="I108" s="230"/>
-      <c r="J108" s="228" t="s">
+      <c r="H108" s="249"/>
+      <c r="I108" s="250"/>
+      <c r="J108" s="253" t="s">
         <v>1116</v>
       </c>
-      <c r="K108" s="229"/>
-      <c r="L108" s="230"/>
-      <c r="M108" s="204" t="s">
+      <c r="K108" s="249"/>
+      <c r="L108" s="250"/>
+      <c r="M108" s="157" t="s">
         <v>1148</v>
       </c>
-      <c r="N108" s="229"/>
-      <c r="O108" s="230"/>
+      <c r="N108" s="249"/>
+      <c r="O108" s="250"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="49" t="s">
@@ -16724,58 +16724,58 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="237" t="s">
+      <c r="A192" s="258" t="s">
         <v>831</v>
       </c>
-      <c r="B192" s="238"/>
-      <c r="C192" s="239"/>
-      <c r="D192" s="240" t="s">
+      <c r="B192" s="259"/>
+      <c r="C192" s="260"/>
+      <c r="D192" s="261" t="s">
         <v>833</v>
       </c>
-      <c r="E192" s="238"/>
-      <c r="F192" s="239"/>
-      <c r="G192" s="240" t="s">
+      <c r="E192" s="259"/>
+      <c r="F192" s="260"/>
+      <c r="G192" s="261" t="s">
         <v>1099</v>
       </c>
-      <c r="H192" s="238"/>
-      <c r="I192" s="239"/>
-      <c r="J192" s="241" t="s">
+      <c r="H192" s="259"/>
+      <c r="I192" s="260"/>
+      <c r="J192" s="262" t="s">
         <v>1268</v>
       </c>
-      <c r="K192" s="210"/>
-      <c r="L192" s="242"/>
-      <c r="M192" s="241" t="s">
+      <c r="K192" s="166"/>
+      <c r="L192" s="263"/>
+      <c r="M192" s="262" t="s">
         <v>1361</v>
       </c>
-      <c r="N192" s="210"/>
-      <c r="O192" s="243"/>
+      <c r="N192" s="166"/>
+      <c r="O192" s="264"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="218" t="s">
+      <c r="A193" s="271" t="s">
         <v>832</v>
       </c>
-      <c r="B193" s="219"/>
-      <c r="C193" s="220"/>
-      <c r="D193" s="221" t="s">
+      <c r="B193" s="272"/>
+      <c r="C193" s="273"/>
+      <c r="D193" s="274" t="s">
         <v>834</v>
       </c>
-      <c r="E193" s="219"/>
-      <c r="F193" s="220"/>
-      <c r="G193" s="221" t="s">
+      <c r="E193" s="272"/>
+      <c r="F193" s="273"/>
+      <c r="G193" s="274" t="s">
         <v>1098</v>
       </c>
-      <c r="H193" s="219"/>
-      <c r="I193" s="220"/>
-      <c r="J193" s="222" t="s">
+      <c r="H193" s="272"/>
+      <c r="I193" s="273"/>
+      <c r="J193" s="255" t="s">
         <v>1269</v>
       </c>
-      <c r="K193" s="223"/>
-      <c r="L193" s="224"/>
-      <c r="M193" s="222" t="s">
+      <c r="K193" s="256"/>
+      <c r="L193" s="275"/>
+      <c r="M193" s="255" t="s">
         <v>1365</v>
       </c>
-      <c r="N193" s="223"/>
-      <c r="O193" s="236"/>
+      <c r="N193" s="256"/>
+      <c r="O193" s="257"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
@@ -19447,58 +19447,58 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A278" s="231" t="s">
+      <c r="A278" s="266" t="s">
         <v>831</v>
       </c>
-      <c r="B278" s="232"/>
-      <c r="C278" s="233"/>
-      <c r="D278" s="234" t="s">
+      <c r="B278" s="238"/>
+      <c r="C278" s="239"/>
+      <c r="D278" s="237" t="s">
         <v>833</v>
       </c>
-      <c r="E278" s="232"/>
-      <c r="F278" s="233"/>
-      <c r="G278" s="234" t="s">
+      <c r="E278" s="238"/>
+      <c r="F278" s="239"/>
+      <c r="G278" s="237" t="s">
         <v>1099</v>
       </c>
-      <c r="H278" s="232"/>
-      <c r="I278" s="235"/>
-      <c r="J278" s="231" t="s">
+      <c r="H278" s="238"/>
+      <c r="I278" s="267"/>
+      <c r="J278" s="266" t="s">
         <v>1115</v>
       </c>
-      <c r="K278" s="232"/>
-      <c r="L278" s="235"/>
-      <c r="M278" s="234" t="s">
+      <c r="K278" s="238"/>
+      <c r="L278" s="267"/>
+      <c r="M278" s="237" t="s">
         <v>1147</v>
       </c>
-      <c r="N278" s="232"/>
-      <c r="O278" s="235"/>
+      <c r="N278" s="238"/>
+      <c r="O278" s="267"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A279" s="213" t="s">
+      <c r="A279" s="270" t="s">
         <v>832</v>
       </c>
-      <c r="B279" s="214"/>
-      <c r="C279" s="215"/>
-      <c r="D279" s="216" t="s">
+      <c r="B279" s="241"/>
+      <c r="C279" s="242"/>
+      <c r="D279" s="240" t="s">
         <v>834</v>
       </c>
-      <c r="E279" s="214"/>
-      <c r="F279" s="215"/>
-      <c r="G279" s="216" t="s">
+      <c r="E279" s="241"/>
+      <c r="F279" s="242"/>
+      <c r="G279" s="240" t="s">
         <v>1098</v>
       </c>
-      <c r="H279" s="214"/>
-      <c r="I279" s="217"/>
-      <c r="J279" s="213" t="s">
+      <c r="H279" s="241"/>
+      <c r="I279" s="265"/>
+      <c r="J279" s="270" t="s">
         <v>1116</v>
       </c>
-      <c r="K279" s="214"/>
-      <c r="L279" s="217"/>
-      <c r="M279" s="216" t="s">
+      <c r="K279" s="241"/>
+      <c r="L279" s="265"/>
+      <c r="M279" s="240" t="s">
         <v>1148</v>
       </c>
-      <c r="N279" s="214"/>
-      <c r="O279" s="217"/>
+      <c r="N279" s="241"/>
+      <c r="O279" s="265"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="49" t="s">
@@ -21463,6 +21463,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -21479,37 +21510,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21575,19 +21575,19 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="160" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="160" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="172" t="s">
+      <c r="D2" s="160" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="172" t="s">
+      <c r="E2" s="160" t="s">
         <v>120</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -21603,11 +21603,11 @@
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="172"/>
-      <c r="B3" s="172"/>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
-      <c r="E3" s="172"/>
+      <c r="A3" s="160"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="3" t="s">
         <v>63</v>
       </c>
@@ -21621,14 +21621,14 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="172"/>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="159" t="s">
+      <c r="A4" s="160"/>
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="159" t="s">
+      <c r="F4" s="167" t="s">
         <v>64</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -21643,12 +21643,12 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="172"/>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
+      <c r="A5" s="160"/>
+      <c r="B5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="172"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="3" t="s">
         <v>62</v>
       </c>
@@ -21661,21 +21661,21 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="172" t="s">
+      <c r="A6" s="160"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="172"/>
+      <c r="G6" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172" t="s">
+      <c r="H6" s="160"/>
+      <c r="I6" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
+      <c r="J6" s="160"/>
+      <c r="K6" s="160"/>
       <c r="L6" s="2" t="s">
         <v>118</v>
       </c>
@@ -21687,17 +21687,17 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="172"/>
-      <c r="B7" s="172"/>
-      <c r="C7" s="172"/>
-      <c r="D7" s="172"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="160"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
+      <c r="K7" s="160"/>
       <c r="L7" s="2" t="s">
         <v>115</v>
       </c>
@@ -21707,12 +21707,12 @@
       <c r="N7" s="277"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="172"/>
-      <c r="B8" s="172"/>
-      <c r="C8" s="172"/>
-      <c r="D8" s="172"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="161"/>
+      <c r="A8" s="160"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="160"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="168"/>
       <c r="G8" s="3" t="s">
         <v>113</v>
       </c>
@@ -21727,11 +21727,11 @@
       <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="172"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="160"/>
+      <c r="A9" s="160"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="160"/>
+      <c r="D9" s="160"/>
+      <c r="E9" s="172"/>
       <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
@@ -21749,7 +21749,7 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="161"/>
+      <c r="E10" s="168"/>
       <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
@@ -21764,11 +21764,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F4:F8"/>
-    <mergeCell ref="D2:D9"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="H6:H7"/>
@@ -21777,6 +21772,11 @@
     <mergeCell ref="E4:E10"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="D2:D9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21787,8 +21787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E760171C-20B1-442D-9A95-111A8C765390}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF07ABB-CB4F-4BC5-87E0-CA9B5CC7DB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A773F56-BE8C-4DCB-991E-F2FDA24FE863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="1665" windowWidth="16200" windowHeight="15255" firstSheet="1" activeTab="2" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="was" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6232" uniqueCount="2123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6233" uniqueCount="2123">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -8177,6 +8177,156 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8186,160 +8336,181 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -8351,18 +8522,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8375,166 +8534,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8546,6 +8588,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8553,60 +8607,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9010,47 +9010,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="235" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="277" t="s">
+      <c r="B1" s="233" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="277" t="s">
+      <c r="C1" s="233" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="281" t="s">
+      <c r="D1" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="253" t="s">
+      <c r="E1" s="237"/>
+      <c r="F1" s="237"/>
+      <c r="G1" s="237"/>
+      <c r="H1" s="237"/>
+      <c r="I1" s="237"/>
+      <c r="J1" s="237"/>
+      <c r="K1" s="237"/>
+      <c r="L1" s="237"/>
+      <c r="M1" s="237"/>
+      <c r="N1" s="262" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="253" t="s">
+      <c r="O1" s="262" t="s">
         <v>1460</v>
       </c>
-      <c r="P1" s="253" t="s">
+      <c r="P1" s="262" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="253" t="s">
+      <c r="Q1" s="262" t="s">
         <v>332</v>
       </c>
-      <c r="R1" s="251" t="s">
+      <c r="R1" s="260" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
       <c r="D2" s="144">
         <v>240711</v>
       </c>
@@ -9081,17 +9081,17 @@
       <c r="M2" s="144" t="s">
         <v>1429</v>
       </c>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="254"/>
-      <c r="R2" s="252"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
+      <c r="P2" s="263"/>
+      <c r="Q2" s="263"/>
+      <c r="R2" s="261"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="249" t="s">
+      <c r="B3" s="230" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -9140,8 +9140,8 @@
       <c r="R3" s="142"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="275"/>
-      <c r="B4" s="250"/>
+      <c r="A4" s="228"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -9180,8 +9180,8 @@
       <c r="R4" s="136"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="275"/>
-      <c r="B5" s="250"/>
+      <c r="A5" s="228"/>
+      <c r="B5" s="231"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9220,132 +9220,132 @@
       <c r="R5" s="136"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="275"/>
-      <c r="B6" s="250"/>
-      <c r="C6" s="230" t="s">
+      <c r="A6" s="228"/>
+      <c r="B6" s="231"/>
+      <c r="C6" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="242" t="s">
+      <c r="D6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="230" t="s">
+      <c r="E6" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="242" t="s">
+      <c r="F6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="242" t="s">
+      <c r="G6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="242" t="s">
+      <c r="H6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="242" t="s">
+      <c r="I6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="230" t="s">
+      <c r="J6" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="242" t="s">
+      <c r="K6" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="242" t="s">
+      <c r="L6" s="240" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="49"/>
-      <c r="N6" s="259" t="s">
+      <c r="N6" s="268" t="s">
         <v>86</v>
       </c>
       <c r="O6" s="146"/>
       <c r="P6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="262" t="s">
+      <c r="Q6" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="258" t="s">
+      <c r="R6" s="267" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="275"/>
-      <c r="B7" s="250"/>
-      <c r="C7" s="231"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="231"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="231"/>
-      <c r="K7" s="238"/>
-      <c r="L7" s="238"/>
+      <c r="A7" s="228"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="241"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="241"/>
+      <c r="G7" s="241"/>
+      <c r="H7" s="241"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="241"/>
+      <c r="L7" s="241"/>
       <c r="M7" s="50"/>
-      <c r="N7" s="260"/>
+      <c r="N7" s="269"/>
       <c r="O7" s="147"/>
       <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="263"/>
-      <c r="R7" s="256"/>
+      <c r="Q7" s="250"/>
+      <c r="R7" s="265"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="275"/>
-      <c r="B8" s="250"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
-      <c r="H8" s="238"/>
-      <c r="I8" s="238"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="238"/>
-      <c r="L8" s="238"/>
+      <c r="A8" s="228"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="241"/>
+      <c r="G8" s="241"/>
+      <c r="H8" s="241"/>
+      <c r="I8" s="241"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="241"/>
+      <c r="L8" s="241"/>
       <c r="M8" s="50"/>
-      <c r="N8" s="260"/>
+      <c r="N8" s="269"/>
       <c r="O8" s="147"/>
       <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="263"/>
-      <c r="R8" s="256"/>
+      <c r="Q8" s="250"/>
+      <c r="R8" s="265"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="275"/>
-      <c r="B9" s="250"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="238"/>
-      <c r="G9" s="238"/>
-      <c r="H9" s="238"/>
-      <c r="I9" s="238"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="238"/>
-      <c r="L9" s="238"/>
+      <c r="A9" s="228"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="243"/>
+      <c r="D9" s="241"/>
+      <c r="E9" s="243"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="241"/>
+      <c r="H9" s="241"/>
+      <c r="I9" s="241"/>
+      <c r="J9" s="243"/>
+      <c r="K9" s="241"/>
+      <c r="L9" s="241"/>
       <c r="M9" s="50"/>
-      <c r="N9" s="261"/>
+      <c r="N9" s="270"/>
       <c r="O9" s="148"/>
       <c r="P9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="264"/>
-      <c r="R9" s="257"/>
+      <c r="Q9" s="247"/>
+      <c r="R9" s="266"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="275"/>
-      <c r="B10" s="250"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="239"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="239"/>
-      <c r="G10" s="239"/>
-      <c r="H10" s="239"/>
-      <c r="I10" s="239"/>
-      <c r="J10" s="232"/>
-      <c r="K10" s="239"/>
-      <c r="L10" s="239"/>
+      <c r="A10" s="228"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="239"/>
+      <c r="D10" s="242"/>
+      <c r="E10" s="239"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="239"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
       <c r="M10" s="51"/>
       <c r="N10" s="5">
         <v>240718</v>
@@ -9362,8 +9362,8 @@
       <c r="R10" s="136"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="275"/>
-      <c r="B11" s="250"/>
+      <c r="A11" s="228"/>
+      <c r="B11" s="231"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -9402,36 +9402,36 @@
       <c r="R11" s="136"/>
     </row>
     <row r="12" spans="1:18" ht="33">
-      <c r="A12" s="275"/>
-      <c r="B12" s="250"/>
-      <c r="C12" s="230" t="s">
+      <c r="A12" s="228"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="230" t="s">
+      <c r="D12" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="230" t="s">
+      <c r="E12" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="242" t="s">
+      <c r="F12" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="242" t="s">
+      <c r="G12" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="242" t="s">
+      <c r="H12" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="242" t="s">
+      <c r="I12" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="230" t="s">
+      <c r="J12" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="230" t="s">
+      <c r="K12" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="242" t="s">
+      <c r="L12" s="240" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="49"/>
@@ -9452,23 +9452,23 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="275"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="231"/>
-      <c r="D13" s="231"/>
-      <c r="E13" s="231"/>
-      <c r="F13" s="238"/>
-      <c r="G13" s="238"/>
-      <c r="H13" s="238"/>
-      <c r="I13" s="238"/>
-      <c r="J13" s="231"/>
-      <c r="K13" s="231"/>
-      <c r="L13" s="238"/>
+      <c r="A13" s="228"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="243"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="243"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="241"/>
       <c r="M13" s="50"/>
-      <c r="N13" s="230">
+      <c r="N13" s="238">
         <v>240718</v>
       </c>
-      <c r="O13" s="230" t="s">
+      <c r="O13" s="238" t="s">
         <v>1461</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -9477,37 +9477,37 @@
       <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="258" t="s">
+      <c r="R13" s="267" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="275"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="232"/>
-      <c r="D14" s="232"/>
-      <c r="E14" s="232"/>
-      <c r="F14" s="239"/>
-      <c r="G14" s="239"/>
-      <c r="H14" s="239"/>
-      <c r="I14" s="239"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="232"/>
-      <c r="L14" s="239"/>
+      <c r="A14" s="228"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="239"/>
+      <c r="D14" s="239"/>
+      <c r="E14" s="239"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="239"/>
+      <c r="K14" s="239"/>
+      <c r="L14" s="242"/>
       <c r="M14" s="51"/>
-      <c r="N14" s="232"/>
-      <c r="O14" s="232"/>
+      <c r="N14" s="239"/>
+      <c r="O14" s="239"/>
       <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="257"/>
+      <c r="R14" s="266"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="275"/>
-      <c r="B15" s="250"/>
+      <c r="A15" s="228"/>
+      <c r="B15" s="231"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -9546,8 +9546,8 @@
       <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="275"/>
-      <c r="B16" s="250" t="s">
+      <c r="A16" s="228"/>
+      <c r="B16" s="231" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -9588,8 +9588,8 @@
       <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="275"/>
-      <c r="B17" s="250"/>
+      <c r="A17" s="228"/>
+      <c r="B17" s="231"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -9628,8 +9628,8 @@
       <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="275"/>
-      <c r="B18" s="250"/>
+      <c r="A18" s="228"/>
+      <c r="B18" s="231"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -9668,76 +9668,76 @@
       <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="275"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="230" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="238" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="242" t="s">
+      <c r="D19" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="230" t="s">
+      <c r="E19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="230" t="s">
+      <c r="F19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="230" t="s">
+      <c r="G19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="230" t="s">
+      <c r="H19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="230" t="s">
+      <c r="I19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="230" t="s">
+      <c r="J19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="230" t="s">
+      <c r="K19" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="230" t="s">
+      <c r="L19" s="238" t="s">
         <v>12</v>
       </c>
       <c r="M19" s="49"/>
-      <c r="N19" s="259" t="s">
+      <c r="N19" s="268" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="146"/>
       <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="262" t="s">
+      <c r="Q19" s="246" t="s">
         <v>57</v>
       </c>
       <c r="R19" s="136"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="275"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="239"/>
-      <c r="E20" s="232"/>
-      <c r="F20" s="232"/>
-      <c r="G20" s="232"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="232"/>
-      <c r="J20" s="232"/>
-      <c r="K20" s="232"/>
-      <c r="L20" s="232"/>
+      <c r="A20" s="228"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="239"/>
+      <c r="D20" s="242"/>
+      <c r="E20" s="239"/>
+      <c r="F20" s="239"/>
+      <c r="G20" s="239"/>
+      <c r="H20" s="239"/>
+      <c r="I20" s="239"/>
+      <c r="J20" s="239"/>
+      <c r="K20" s="239"/>
+      <c r="L20" s="239"/>
       <c r="M20" s="51"/>
-      <c r="N20" s="261"/>
+      <c r="N20" s="270"/>
       <c r="O20" s="148"/>
       <c r="P20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="264"/>
+      <c r="Q20" s="247"/>
       <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="275"/>
-      <c r="B21" s="250"/>
+      <c r="A21" s="228"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -9776,8 +9776,8 @@
       <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="275"/>
-      <c r="B22" s="250"/>
+      <c r="A22" s="228"/>
+      <c r="B22" s="231"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -9816,8 +9816,8 @@
       <c r="R22" s="136"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="275"/>
-      <c r="B23" s="250"/>
+      <c r="A23" s="228"/>
+      <c r="B23" s="231"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -9856,8 +9856,8 @@
       <c r="R23" s="136"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="275"/>
-      <c r="B24" s="250" t="s">
+      <c r="A24" s="228"/>
+      <c r="B24" s="231" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -9898,8 +9898,8 @@
       <c r="R24" s="136"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="275"/>
-      <c r="B25" s="250"/>
+      <c r="A25" s="228"/>
+      <c r="B25" s="231"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -9938,8 +9938,8 @@
       <c r="R25" s="136"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="275"/>
-      <c r="B26" s="250"/>
+      <c r="A26" s="228"/>
+      <c r="B26" s="231"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -9978,8 +9978,8 @@
       <c r="R26" s="136"/>
     </row>
     <row r="27" spans="1:18" ht="33">
-      <c r="A27" s="275"/>
-      <c r="B27" s="250"/>
+      <c r="A27" s="228"/>
+      <c r="B27" s="231"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -10026,8 +10026,8 @@
       </c>
     </row>
     <row r="28" spans="1:18">
-      <c r="A28" s="275"/>
-      <c r="B28" s="250"/>
+      <c r="A28" s="228"/>
+      <c r="B28" s="231"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -10066,8 +10066,8 @@
       <c r="R28" s="136"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="A29" s="275"/>
-      <c r="B29" s="250"/>
+      <c r="A29" s="228"/>
+      <c r="B29" s="231"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -10106,8 +10106,8 @@
       <c r="R29" s="136"/>
     </row>
     <row r="30" spans="1:18">
-      <c r="A30" s="275"/>
-      <c r="B30" s="250"/>
+      <c r="A30" s="228"/>
+      <c r="B30" s="231"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -10146,8 +10146,8 @@
       <c r="R30" s="136"/>
     </row>
     <row r="31" spans="1:18">
-      <c r="A31" s="275"/>
-      <c r="B31" s="250" t="s">
+      <c r="A31" s="228"/>
+      <c r="B31" s="231" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -10188,8 +10188,8 @@
       <c r="R31" s="136"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="A32" s="275"/>
-      <c r="B32" s="250"/>
+      <c r="A32" s="228"/>
+      <c r="B32" s="231"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -10228,8 +10228,8 @@
       <c r="R32" s="136"/>
     </row>
     <row r="33" spans="1:18">
-      <c r="A33" s="275"/>
-      <c r="B33" s="250"/>
+      <c r="A33" s="228"/>
+      <c r="B33" s="231"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -10268,8 +10268,8 @@
       <c r="R33" s="136"/>
     </row>
     <row r="34" spans="1:18" ht="33">
-      <c r="A34" s="275"/>
-      <c r="B34" s="250"/>
+      <c r="A34" s="228"/>
+      <c r="B34" s="231"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -10316,8 +10316,8 @@
       </c>
     </row>
     <row r="35" spans="1:18">
-      <c r="A35" s="275"/>
-      <c r="B35" s="250"/>
+      <c r="A35" s="228"/>
+      <c r="B35" s="231"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -10356,8 +10356,8 @@
       <c r="R35" s="136"/>
     </row>
     <row r="36" spans="1:18">
-      <c r="A36" s="275"/>
-      <c r="B36" s="250"/>
+      <c r="A36" s="228"/>
+      <c r="B36" s="231"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10396,8 +10396,8 @@
       <c r="R36" s="136"/>
     </row>
     <row r="37" spans="1:18" ht="17.25" thickBot="1">
-      <c r="A37" s="276"/>
-      <c r="B37" s="273"/>
+      <c r="A37" s="229"/>
+      <c r="B37" s="232"/>
       <c r="C37" s="137" t="s">
         <v>36</v>
       </c>
@@ -10436,10 +10436,10 @@
       <c r="R37" s="139"/>
     </row>
     <row r="38" spans="1:18">
-      <c r="A38" s="243" t="s">
+      <c r="A38" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="249" t="s">
+      <c r="B38" s="230" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="53" t="s">
@@ -10476,30 +10476,30 @@
       <c r="R38" s="142"/>
     </row>
     <row r="39" spans="1:18">
-      <c r="A39" s="244"/>
-      <c r="B39" s="250"/>
-      <c r="C39" s="230" t="s">
+      <c r="A39" s="272"/>
+      <c r="B39" s="231"/>
+      <c r="C39" s="238" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="230" t="s">
+      <c r="D39" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="230" t="s">
+      <c r="E39" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="242" t="s">
+      <c r="F39" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="230" t="s">
+      <c r="G39" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="235" t="s">
+      <c r="H39" s="257" t="s">
         <v>1430</v>
       </c>
-      <c r="I39" s="235" t="s">
+      <c r="I39" s="257" t="s">
         <v>1430</v>
       </c>
-      <c r="J39" s="235" t="s">
+      <c r="J39" s="257" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="49"/>
@@ -10520,16 +10520,16 @@
       <c r="R39" s="136"/>
     </row>
     <row r="40" spans="1:18">
-      <c r="A40" s="244"/>
-      <c r="B40" s="250"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="232"/>
-      <c r="E40" s="232"/>
-      <c r="F40" s="239"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="236"/>
-      <c r="J40" s="236"/>
+      <c r="A40" s="272"/>
+      <c r="B40" s="231"/>
+      <c r="C40" s="239"/>
+      <c r="D40" s="239"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="239"/>
+      <c r="H40" s="253"/>
+      <c r="I40" s="253"/>
+      <c r="J40" s="253"/>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="11"/>
@@ -10544,8 +10544,8 @@
       <c r="R40" s="136"/>
     </row>
     <row r="41" spans="1:18">
-      <c r="A41" s="244"/>
-      <c r="B41" s="250"/>
+      <c r="A41" s="272"/>
+      <c r="B41" s="231"/>
       <c r="C41" s="3" t="s">
         <v>44</v>
       </c>
@@ -10580,8 +10580,8 @@
       <c r="R41" s="136"/>
     </row>
     <row r="42" spans="1:18">
-      <c r="A42" s="244"/>
-      <c r="B42" s="250" t="s">
+      <c r="A42" s="272"/>
+      <c r="B42" s="231" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -10618,8 +10618,8 @@
       <c r="R42" s="136"/>
     </row>
     <row r="43" spans="1:18">
-      <c r="A43" s="244"/>
-      <c r="B43" s="250"/>
+      <c r="A43" s="272"/>
+      <c r="B43" s="231"/>
       <c r="C43" s="3" t="s">
         <v>46</v>
       </c>
@@ -10654,8 +10654,8 @@
       <c r="R43" s="136"/>
     </row>
     <row r="44" spans="1:18">
-      <c r="A44" s="244"/>
-      <c r="B44" s="250"/>
+      <c r="A44" s="272"/>
+      <c r="B44" s="231"/>
       <c r="C44" s="3" t="s">
         <v>47</v>
       </c>
@@ -10690,8 +10690,8 @@
       <c r="R44" s="136"/>
     </row>
     <row r="45" spans="1:18">
-      <c r="A45" s="244"/>
-      <c r="B45" s="250" t="s">
+      <c r="A45" s="272"/>
+      <c r="B45" s="231" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -10728,8 +10728,8 @@
       <c r="R45" s="136"/>
     </row>
     <row r="46" spans="1:18">
-      <c r="A46" s="244"/>
-      <c r="B46" s="250"/>
+      <c r="A46" s="272"/>
+      <c r="B46" s="231"/>
       <c r="C46" s="3" t="s">
         <v>49</v>
       </c>
@@ -10764,8 +10764,8 @@
       <c r="R46" s="136"/>
     </row>
     <row r="47" spans="1:18">
-      <c r="A47" s="244"/>
-      <c r="B47" s="250"/>
+      <c r="A47" s="272"/>
+      <c r="B47" s="231"/>
       <c r="C47" s="3" t="s">
         <v>48</v>
       </c>
@@ -10800,8 +10800,8 @@
       <c r="R47" s="136"/>
     </row>
     <row r="48" spans="1:18">
-      <c r="A48" s="244"/>
-      <c r="B48" s="250" t="s">
+      <c r="A48" s="272"/>
+      <c r="B48" s="231" t="s">
         <v>30</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -10838,8 +10838,8 @@
       <c r="R48" s="136"/>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="244"/>
-      <c r="B49" s="250"/>
+      <c r="A49" s="272"/>
+      <c r="B49" s="231"/>
       <c r="C49" s="3" t="s">
         <v>52</v>
       </c>
@@ -10874,8 +10874,8 @@
       <c r="R49" s="136"/>
     </row>
     <row r="50" spans="1:18" ht="17.25" thickBot="1">
-      <c r="A50" s="245"/>
-      <c r="B50" s="273"/>
+      <c r="A50" s="273"/>
+      <c r="B50" s="232"/>
       <c r="C50" s="137" t="s">
         <v>53</v>
       </c>
@@ -10910,230 +10910,230 @@
       <c r="R50" s="139"/>
     </row>
     <row r="51" spans="1:18">
-      <c r="A51" s="246" t="s">
+      <c r="A51" s="274" t="s">
         <v>69</v>
       </c>
-      <c r="B51" s="249" t="s">
+      <c r="B51" s="230" t="s">
         <v>0</v>
       </c>
-      <c r="C51" s="234" t="s">
+      <c r="C51" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="234" t="s">
+      <c r="D51" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="234" t="s">
+      <c r="E51" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="237" t="s">
+      <c r="F51" s="281" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="240" t="s">
+      <c r="G51" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="H51" s="240" t="s">
+      <c r="H51" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="I51" s="240" t="s">
+      <c r="I51" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="240" t="s">
+      <c r="J51" s="251" t="s">
         <v>12</v>
       </c>
       <c r="K51" s="145"/>
       <c r="L51" s="145"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="234">
+      <c r="M51" s="251"/>
+      <c r="N51" s="248">
         <v>240722</v>
       </c>
-      <c r="O51" s="234" t="s">
+      <c r="O51" s="248" t="s">
         <v>1461</v>
       </c>
       <c r="P51" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="Q51" s="267" t="s">
+      <c r="Q51" s="249" t="s">
         <v>103</v>
       </c>
-      <c r="R51" s="268"/>
+      <c r="R51" s="254"/>
     </row>
     <row r="52" spans="1:18">
-      <c r="A52" s="247"/>
-      <c r="B52" s="250"/>
-      <c r="C52" s="231"/>
-      <c r="D52" s="231"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="238"/>
-      <c r="G52" s="241"/>
-      <c r="H52" s="241"/>
-      <c r="I52" s="241"/>
-      <c r="J52" s="241"/>
+      <c r="A52" s="275"/>
+      <c r="B52" s="231"/>
+      <c r="C52" s="243"/>
+      <c r="D52" s="243"/>
+      <c r="E52" s="243"/>
+      <c r="F52" s="241"/>
+      <c r="G52" s="252"/>
+      <c r="H52" s="252"/>
+      <c r="I52" s="252"/>
+      <c r="J52" s="252"/>
       <c r="K52" s="50"/>
       <c r="L52" s="50"/>
-      <c r="M52" s="241"/>
-      <c r="N52" s="231"/>
-      <c r="O52" s="231"/>
+      <c r="M52" s="252"/>
+      <c r="N52" s="243"/>
+      <c r="O52" s="243"/>
       <c r="P52" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Q52" s="263"/>
-      <c r="R52" s="269"/>
+      <c r="Q52" s="250"/>
+      <c r="R52" s="255"/>
     </row>
     <row r="53" spans="1:18">
-      <c r="A53" s="247"/>
-      <c r="B53" s="250"/>
-      <c r="C53" s="231"/>
-      <c r="D53" s="231"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="238"/>
-      <c r="G53" s="241"/>
-      <c r="H53" s="241"/>
-      <c r="I53" s="241"/>
-      <c r="J53" s="241"/>
+      <c r="A53" s="275"/>
+      <c r="B53" s="231"/>
+      <c r="C53" s="243"/>
+      <c r="D53" s="243"/>
+      <c r="E53" s="243"/>
+      <c r="F53" s="241"/>
+      <c r="G53" s="252"/>
+      <c r="H53" s="252"/>
+      <c r="I53" s="252"/>
+      <c r="J53" s="252"/>
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
-      <c r="M53" s="241"/>
-      <c r="N53" s="231"/>
-      <c r="O53" s="231"/>
+      <c r="M53" s="252"/>
+      <c r="N53" s="243"/>
+      <c r="O53" s="243"/>
       <c r="P53" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q53" s="263"/>
-      <c r="R53" s="269"/>
+      <c r="Q53" s="250"/>
+      <c r="R53" s="255"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="247"/>
-      <c r="B54" s="250"/>
-      <c r="C54" s="232"/>
-      <c r="D54" s="232"/>
-      <c r="E54" s="232"/>
-      <c r="F54" s="239"/>
-      <c r="G54" s="236"/>
-      <c r="H54" s="236"/>
-      <c r="I54" s="236"/>
-      <c r="J54" s="236"/>
+      <c r="A54" s="275"/>
+      <c r="B54" s="231"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="239"/>
+      <c r="E54" s="239"/>
+      <c r="F54" s="242"/>
+      <c r="G54" s="253"/>
+      <c r="H54" s="253"/>
+      <c r="I54" s="253"/>
+      <c r="J54" s="253"/>
       <c r="K54" s="51"/>
       <c r="L54" s="51"/>
-      <c r="M54" s="236"/>
-      <c r="N54" s="232"/>
-      <c r="O54" s="232"/>
+      <c r="M54" s="253"/>
+      <c r="N54" s="239"/>
+      <c r="O54" s="239"/>
       <c r="P54" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q54" s="264"/>
-      <c r="R54" s="270"/>
+      <c r="Q54" s="247"/>
+      <c r="R54" s="256"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="247"/>
-      <c r="B55" s="250"/>
-      <c r="C55" s="230" t="s">
+      <c r="A55" s="275"/>
+      <c r="B55" s="231"/>
+      <c r="C55" s="238" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="230" t="s">
+      <c r="D55" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="230" t="s">
+      <c r="E55" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="242" t="s">
+      <c r="F55" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="235" t="s">
+      <c r="G55" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="235" t="s">
+      <c r="H55" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="235" t="s">
+      <c r="I55" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="235" t="s">
+      <c r="J55" s="257" t="s">
         <v>12</v>
       </c>
       <c r="K55" s="49"/>
       <c r="L55" s="49"/>
-      <c r="M55" s="235"/>
-      <c r="N55" s="265" t="s">
+      <c r="M55" s="257"/>
+      <c r="N55" s="244" t="s">
         <v>1424</v>
       </c>
       <c r="O55" s="149"/>
       <c r="P55" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q55" s="262" t="s">
+      <c r="Q55" s="246" t="s">
         <v>85</v>
       </c>
-      <c r="R55" s="255"/>
+      <c r="R55" s="264"/>
     </row>
     <row r="56" spans="1:18">
-      <c r="A56" s="247"/>
-      <c r="B56" s="250"/>
-      <c r="C56" s="231"/>
-      <c r="D56" s="231"/>
-      <c r="E56" s="231"/>
-      <c r="F56" s="238"/>
-      <c r="G56" s="241"/>
-      <c r="H56" s="241"/>
-      <c r="I56" s="241"/>
-      <c r="J56" s="241"/>
+      <c r="A56" s="275"/>
+      <c r="B56" s="231"/>
+      <c r="C56" s="243"/>
+      <c r="D56" s="243"/>
+      <c r="E56" s="243"/>
+      <c r="F56" s="241"/>
+      <c r="G56" s="252"/>
+      <c r="H56" s="252"/>
+      <c r="I56" s="252"/>
+      <c r="J56" s="252"/>
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
-      <c r="M56" s="241"/>
-      <c r="N56" s="271"/>
+      <c r="M56" s="252"/>
+      <c r="N56" s="258"/>
       <c r="O56" s="151"/>
       <c r="P56" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q56" s="263"/>
-      <c r="R56" s="256"/>
+      <c r="Q56" s="250"/>
+      <c r="R56" s="265"/>
     </row>
     <row r="57" spans="1:18">
-      <c r="A57" s="247"/>
-      <c r="B57" s="250"/>
-      <c r="C57" s="231"/>
-      <c r="D57" s="231"/>
-      <c r="E57" s="231"/>
-      <c r="F57" s="238"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="241"/>
-      <c r="I57" s="241"/>
-      <c r="J57" s="241"/>
+      <c r="A57" s="275"/>
+      <c r="B57" s="231"/>
+      <c r="C57" s="243"/>
+      <c r="D57" s="243"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="241"/>
+      <c r="G57" s="252"/>
+      <c r="H57" s="252"/>
+      <c r="I57" s="252"/>
+      <c r="J57" s="252"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="241"/>
-      <c r="N57" s="271"/>
+      <c r="M57" s="252"/>
+      <c r="N57" s="258"/>
       <c r="O57" s="151"/>
       <c r="P57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q57" s="263"/>
-      <c r="R57" s="256"/>
+      <c r="Q57" s="250"/>
+      <c r="R57" s="265"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="247"/>
-      <c r="B58" s="250"/>
-      <c r="C58" s="232"/>
-      <c r="D58" s="232"/>
-      <c r="E58" s="232"/>
-      <c r="F58" s="239"/>
-      <c r="G58" s="236"/>
-      <c r="H58" s="236"/>
-      <c r="I58" s="236"/>
-      <c r="J58" s="236"/>
+      <c r="A58" s="275"/>
+      <c r="B58" s="231"/>
+      <c r="C58" s="239"/>
+      <c r="D58" s="239"/>
+      <c r="E58" s="239"/>
+      <c r="F58" s="242"/>
+      <c r="G58" s="253"/>
+      <c r="H58" s="253"/>
+      <c r="I58" s="253"/>
+      <c r="J58" s="253"/>
       <c r="K58" s="51"/>
       <c r="L58" s="51"/>
-      <c r="M58" s="236"/>
-      <c r="N58" s="266"/>
+      <c r="M58" s="253"/>
+      <c r="N58" s="245"/>
       <c r="O58" s="150"/>
       <c r="P58" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q58" s="264"/>
-      <c r="R58" s="257"/>
+      <c r="Q58" s="247"/>
+      <c r="R58" s="266"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="247"/>
-      <c r="B59" s="250"/>
+      <c r="A59" s="275"/>
+      <c r="B59" s="231"/>
       <c r="C59" s="3" t="s">
         <v>67</v>
       </c>
@@ -11168,8 +11168,8 @@
       <c r="R59" s="136"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="247"/>
-      <c r="B60" s="250"/>
+      <c r="A60" s="275"/>
+      <c r="B60" s="231"/>
       <c r="C60" s="3" t="s">
         <v>68</v>
       </c>
@@ -11204,8 +11204,8 @@
       <c r="R60" s="136"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="247"/>
-      <c r="B61" s="250" t="s">
+      <c r="A61" s="275"/>
+      <c r="B61" s="231" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -11242,72 +11242,72 @@
       <c r="R61" s="136"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="247"/>
-      <c r="B62" s="250"/>
-      <c r="C62" s="230" t="s">
+      <c r="A62" s="275"/>
+      <c r="B62" s="231"/>
+      <c r="C62" s="238" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="230" t="s">
+      <c r="D62" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="230" t="s">
+      <c r="E62" s="238" t="s">
         <v>54</v>
       </c>
-      <c r="F62" s="230" t="s">
+      <c r="F62" s="238" t="s">
         <v>12</v>
       </c>
-      <c r="G62" s="235" t="s">
+      <c r="G62" s="257" t="s">
         <v>114</v>
       </c>
-      <c r="H62" s="235" t="s">
+      <c r="H62" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="I62" s="235" t="s">
+      <c r="I62" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="J62" s="235" t="s">
+      <c r="J62" s="257" t="s">
         <v>12</v>
       </c>
       <c r="K62" s="49"/>
       <c r="L62" s="49"/>
-      <c r="M62" s="235"/>
-      <c r="N62" s="265" t="s">
+      <c r="M62" s="257"/>
+      <c r="N62" s="244" t="s">
         <v>1425</v>
       </c>
       <c r="O62" s="149"/>
       <c r="P62" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q62" s="262" t="s">
+      <c r="Q62" s="246" t="s">
         <v>85</v>
       </c>
-      <c r="R62" s="272"/>
+      <c r="R62" s="259"/>
     </row>
     <row r="63" spans="1:18">
-      <c r="A63" s="247"/>
-      <c r="B63" s="250"/>
-      <c r="C63" s="232"/>
-      <c r="D63" s="232"/>
-      <c r="E63" s="232"/>
-      <c r="F63" s="232"/>
-      <c r="G63" s="236"/>
-      <c r="H63" s="236"/>
-      <c r="I63" s="236"/>
-      <c r="J63" s="236"/>
+      <c r="A63" s="275"/>
+      <c r="B63" s="231"/>
+      <c r="C63" s="239"/>
+      <c r="D63" s="239"/>
+      <c r="E63" s="239"/>
+      <c r="F63" s="239"/>
+      <c r="G63" s="253"/>
+      <c r="H63" s="253"/>
+      <c r="I63" s="253"/>
+      <c r="J63" s="253"/>
       <c r="K63" s="51"/>
       <c r="L63" s="51"/>
-      <c r="M63" s="236"/>
-      <c r="N63" s="266"/>
+      <c r="M63" s="253"/>
+      <c r="N63" s="245"/>
       <c r="O63" s="150"/>
       <c r="P63" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Q63" s="264"/>
-      <c r="R63" s="270"/>
+      <c r="Q63" s="247"/>
+      <c r="R63" s="256"/>
     </row>
     <row r="64" spans="1:18">
-      <c r="A64" s="247"/>
-      <c r="B64" s="250"/>
+      <c r="A64" s="275"/>
+      <c r="B64" s="231"/>
       <c r="C64" s="3" t="s">
         <v>72</v>
       </c>
@@ -11342,8 +11342,8 @@
       <c r="R64" s="136"/>
     </row>
     <row r="65" spans="1:18">
-      <c r="A65" s="247"/>
-      <c r="B65" s="250"/>
+      <c r="A65" s="275"/>
+      <c r="B65" s="231"/>
       <c r="C65" s="3" t="s">
         <v>73</v>
       </c>
@@ -11378,8 +11378,8 @@
       <c r="R65" s="136"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="A66" s="247"/>
-      <c r="B66" s="250" t="s">
+      <c r="A66" s="275"/>
+      <c r="B66" s="231" t="s">
         <v>78</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -11416,8 +11416,8 @@
       <c r="R66" s="136"/>
     </row>
     <row r="67" spans="1:18">
-      <c r="A67" s="247"/>
-      <c r="B67" s="250"/>
+      <c r="A67" s="275"/>
+      <c r="B67" s="231"/>
       <c r="C67" s="3" t="s">
         <v>75</v>
       </c>
@@ -11458,8 +11458,8 @@
       <c r="R67" s="136"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="A68" s="247"/>
-      <c r="B68" s="250"/>
+      <c r="A68" s="275"/>
+      <c r="B68" s="231"/>
       <c r="C68" s="3" t="s">
         <v>76</v>
       </c>
@@ -11494,8 +11494,8 @@
       <c r="R68" s="136"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="A69" s="247"/>
-      <c r="B69" s="250"/>
+      <c r="A69" s="275"/>
+      <c r="B69" s="231"/>
       <c r="C69" s="3" t="s">
         <v>77</v>
       </c>
@@ -11530,8 +11530,8 @@
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:18">
-      <c r="A70" s="247"/>
-      <c r="B70" s="250" t="s">
+      <c r="A70" s="275"/>
+      <c r="B70" s="231" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -11568,8 +11568,8 @@
       <c r="R70" s="136"/>
     </row>
     <row r="71" spans="1:18">
-      <c r="A71" s="247"/>
-      <c r="B71" s="250"/>
+      <c r="A71" s="275"/>
+      <c r="B71" s="231"/>
       <c r="C71" s="3" t="s">
         <v>80</v>
       </c>
@@ -11610,8 +11610,8 @@
       <c r="R71" s="136"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="A72" s="247"/>
-      <c r="B72" s="250"/>
+      <c r="A72" s="275"/>
+      <c r="B72" s="231"/>
       <c r="C72" s="3" t="s">
         <v>81</v>
       </c>
@@ -11646,8 +11646,8 @@
       <c r="R72" s="136"/>
     </row>
     <row r="73" spans="1:18" ht="17.25" thickBot="1">
-      <c r="A73" s="248"/>
-      <c r="B73" s="273"/>
+      <c r="A73" s="276"/>
+      <c r="B73" s="232"/>
       <c r="C73" s="137" t="s">
         <v>82</v>
       </c>
@@ -11682,10 +11682,10 @@
       <c r="R73" s="139"/>
     </row>
     <row r="74" spans="1:18">
-      <c r="A74" s="227" t="s">
+      <c r="A74" s="277" t="s">
         <v>1432</v>
       </c>
-      <c r="B74" s="234" t="s">
+      <c r="B74" s="248" t="s">
         <v>1433</v>
       </c>
       <c r="C74" s="53"/>
@@ -11718,8 +11718,8 @@
       <c r="R74" s="142"/>
     </row>
     <row r="75" spans="1:18">
-      <c r="A75" s="228"/>
-      <c r="B75" s="231"/>
+      <c r="A75" s="278"/>
+      <c r="B75" s="243"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
         <v>54</v>
@@ -11750,8 +11750,8 @@
       <c r="R75" s="136"/>
     </row>
     <row r="76" spans="1:18">
-      <c r="A76" s="228"/>
-      <c r="B76" s="231"/>
+      <c r="A76" s="278"/>
+      <c r="B76" s="243"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
         <v>54</v>
@@ -11782,8 +11782,8 @@
       <c r="R76" s="136"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="A77" s="228"/>
-      <c r="B77" s="231"/>
+      <c r="A77" s="278"/>
+      <c r="B77" s="243"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
         <v>54</v>
@@ -11814,8 +11814,8 @@
       <c r="R77" s="136"/>
     </row>
     <row r="78" spans="1:18">
-      <c r="A78" s="228"/>
-      <c r="B78" s="232"/>
+      <c r="A78" s="278"/>
+      <c r="B78" s="239"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3" t="s">
         <v>54</v>
@@ -11846,8 +11846,8 @@
       <c r="R78" s="136"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="A79" s="228"/>
-      <c r="B79" s="230" t="s">
+      <c r="A79" s="278"/>
+      <c r="B79" s="238" t="s">
         <v>1434</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -11882,8 +11882,8 @@
       <c r="R79" s="136"/>
     </row>
     <row r="80" spans="1:18">
-      <c r="A80" s="228"/>
-      <c r="B80" s="231"/>
+      <c r="A80" s="278"/>
+      <c r="B80" s="243"/>
       <c r="C80" s="3" t="s">
         <v>1455</v>
       </c>
@@ -11916,8 +11916,8 @@
       <c r="R80" s="136"/>
     </row>
     <row r="81" spans="1:18">
-      <c r="A81" s="228"/>
-      <c r="B81" s="231"/>
+      <c r="A81" s="278"/>
+      <c r="B81" s="243"/>
       <c r="C81" s="3" t="s">
         <v>1456</v>
       </c>
@@ -11950,8 +11950,8 @@
       <c r="R81" s="136"/>
     </row>
     <row r="82" spans="1:18">
-      <c r="A82" s="228"/>
-      <c r="B82" s="231"/>
+      <c r="A82" s="278"/>
+      <c r="B82" s="243"/>
       <c r="C82" s="3" t="s">
         <v>1457</v>
       </c>
@@ -11984,8 +11984,8 @@
       <c r="R82" s="136"/>
     </row>
     <row r="83" spans="1:18">
-      <c r="A83" s="228"/>
-      <c r="B83" s="232"/>
+      <c r="A83" s="278"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="3" t="s">
         <v>1458</v>
       </c>
@@ -12018,8 +12018,8 @@
       <c r="R83" s="136"/>
     </row>
     <row r="84" spans="1:18">
-      <c r="A84" s="228"/>
-      <c r="B84" s="230" t="s">
+      <c r="A84" s="278"/>
+      <c r="B84" s="238" t="s">
         <v>1435</v>
       </c>
       <c r="C84" s="3"/>
@@ -12052,8 +12052,8 @@
       <c r="R84" s="136"/>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="228"/>
-      <c r="B85" s="231"/>
+      <c r="A85" s="278"/>
+      <c r="B85" s="243"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3" t="s">
         <v>54</v>
@@ -12084,8 +12084,8 @@
       <c r="R85" s="136"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="228"/>
-      <c r="B86" s="231"/>
+      <c r="A86" s="278"/>
+      <c r="B86" s="243"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
         <v>54</v>
@@ -12116,8 +12116,8 @@
       <c r="R86" s="136"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="228"/>
-      <c r="B87" s="231"/>
+      <c r="A87" s="278"/>
+      <c r="B87" s="243"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
         <v>54</v>
@@ -12148,8 +12148,8 @@
       <c r="R87" s="136"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="228"/>
-      <c r="B88" s="232"/>
+      <c r="A88" s="278"/>
+      <c r="B88" s="239"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
         <v>54</v>
@@ -12180,8 +12180,8 @@
       <c r="R88" s="136"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="228"/>
-      <c r="B89" s="230" t="s">
+      <c r="A89" s="278"/>
+      <c r="B89" s="238" t="s">
         <v>1436</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -12216,8 +12216,8 @@
       <c r="R89" s="136"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="228"/>
-      <c r="B90" s="231"/>
+      <c r="A90" s="278"/>
+      <c r="B90" s="243"/>
       <c r="C90" s="3" t="s">
         <v>1452</v>
       </c>
@@ -12250,8 +12250,8 @@
       <c r="R90" s="136"/>
     </row>
     <row r="91" spans="1:18">
-      <c r="A91" s="228"/>
-      <c r="B91" s="231"/>
+      <c r="A91" s="278"/>
+      <c r="B91" s="243"/>
       <c r="C91" s="3" t="s">
         <v>1451</v>
       </c>
@@ -12284,8 +12284,8 @@
       <c r="R91" s="136"/>
     </row>
     <row r="92" spans="1:18">
-      <c r="A92" s="228"/>
-      <c r="B92" s="231"/>
+      <c r="A92" s="278"/>
+      <c r="B92" s="243"/>
       <c r="C92" s="3" t="s">
         <v>1450</v>
       </c>
@@ -12318,8 +12318,8 @@
       <c r="R92" s="136"/>
     </row>
     <row r="93" spans="1:18">
-      <c r="A93" s="228"/>
-      <c r="B93" s="232"/>
+      <c r="A93" s="278"/>
+      <c r="B93" s="239"/>
       <c r="C93" s="3" t="s">
         <v>1449</v>
       </c>
@@ -12352,8 +12352,8 @@
       <c r="R93" s="136"/>
     </row>
     <row r="94" spans="1:18">
-      <c r="A94" s="228"/>
-      <c r="B94" s="230" t="s">
+      <c r="A94" s="278"/>
+      <c r="B94" s="238" t="s">
         <v>1443</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -12388,8 +12388,8 @@
       <c r="R94" s="136"/>
     </row>
     <row r="95" spans="1:18">
-      <c r="A95" s="228"/>
-      <c r="B95" s="231"/>
+      <c r="A95" s="278"/>
+      <c r="B95" s="243"/>
       <c r="C95" s="3" t="s">
         <v>1441</v>
       </c>
@@ -12422,8 +12422,8 @@
       <c r="R95" s="136"/>
     </row>
     <row r="96" spans="1:18">
-      <c r="A96" s="228"/>
-      <c r="B96" s="231"/>
+      <c r="A96" s="278"/>
+      <c r="B96" s="243"/>
       <c r="C96" s="3" t="s">
         <v>1440</v>
       </c>
@@ -12456,8 +12456,8 @@
       <c r="R96" s="136"/>
     </row>
     <row r="97" spans="1:18">
-      <c r="A97" s="228"/>
-      <c r="B97" s="231"/>
+      <c r="A97" s="278"/>
+      <c r="B97" s="243"/>
       <c r="C97" s="3" t="s">
         <v>1439</v>
       </c>
@@ -12490,8 +12490,8 @@
       <c r="R97" s="136"/>
     </row>
     <row r="98" spans="1:18">
-      <c r="A98" s="228"/>
-      <c r="B98" s="232"/>
+      <c r="A98" s="278"/>
+      <c r="B98" s="239"/>
       <c r="C98" s="3" t="s">
         <v>1438</v>
       </c>
@@ -12524,8 +12524,8 @@
       <c r="R98" s="136"/>
     </row>
     <row r="99" spans="1:18">
-      <c r="A99" s="228"/>
-      <c r="B99" s="230" t="s">
+      <c r="A99" s="278"/>
+      <c r="B99" s="238" t="s">
         <v>1437</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -12560,8 +12560,8 @@
       <c r="R99" s="136"/>
     </row>
     <row r="100" spans="1:18">
-      <c r="A100" s="228"/>
-      <c r="B100" s="231"/>
+      <c r="A100" s="278"/>
+      <c r="B100" s="243"/>
       <c r="C100" s="3" t="s">
         <v>1447</v>
       </c>
@@ -12594,8 +12594,8 @@
       <c r="R100" s="136"/>
     </row>
     <row r="101" spans="1:18">
-      <c r="A101" s="228"/>
-      <c r="B101" s="231"/>
+      <c r="A101" s="278"/>
+      <c r="B101" s="243"/>
       <c r="C101" s="3" t="s">
         <v>1446</v>
       </c>
@@ -12628,8 +12628,8 @@
       <c r="R101" s="136"/>
     </row>
     <row r="102" spans="1:18">
-      <c r="A102" s="228"/>
-      <c r="B102" s="231"/>
+      <c r="A102" s="278"/>
+      <c r="B102" s="243"/>
       <c r="C102" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12662,8 +12662,8 @@
       <c r="R102" s="136"/>
     </row>
     <row r="103" spans="1:18" ht="17.25" thickBot="1">
-      <c r="A103" s="229"/>
-      <c r="B103" s="233"/>
+      <c r="A103" s="279"/>
+      <c r="B103" s="280"/>
       <c r="C103" s="137" t="s">
         <v>1444</v>
       </c>
@@ -12697,6 +12697,96 @@
     </row>
   </sheetData>
   <mergeCells count="114">
+    <mergeCell ref="A74:A103"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="B74:B78"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="D51:D54"/>
+    <mergeCell ref="F51:F54"/>
+    <mergeCell ref="G51:G54"/>
+    <mergeCell ref="E51:E54"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B61:B65"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="A38:A50"/>
+    <mergeCell ref="A51:A73"/>
+    <mergeCell ref="B51:B60"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="N51:N54"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="H51:H54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="O51:O54"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="M51:M54"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B23"/>
@@ -12721,96 +12811,6 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="N51:N54"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="H51:H54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="O51:O54"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="M51:M54"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="A38:A50"/>
-    <mergeCell ref="A51:A73"/>
-    <mergeCell ref="B51:B60"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A74:A103"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B79:B83"/>
-    <mergeCell ref="B74:B78"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D51:D54"/>
-    <mergeCell ref="F51:F54"/>
-    <mergeCell ref="G51:G54"/>
-    <mergeCell ref="E51:E54"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B61:B65"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12855,88 +12855,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="293" t="s">
         <v>1348</v>
       </c>
-      <c r="B1" s="329"/>
-      <c r="C1" s="329"/>
-      <c r="D1" s="325" t="s">
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="290" t="s">
         <v>1349</v>
       </c>
-      <c r="E1" s="326"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="323" t="s">
+      <c r="E1" s="291"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="288" t="s">
         <v>1350</v>
       </c>
-      <c r="H1" s="324"/>
-      <c r="I1" s="324"/>
-      <c r="J1" s="305" t="s">
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="308" t="s">
         <v>1381</v>
       </c>
-      <c r="K1" s="303"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="320" t="s">
+      <c r="K1" s="309"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="285" t="s">
         <v>1382</v>
       </c>
-      <c r="N1" s="321"/>
-      <c r="O1" s="322"/>
-      <c r="P1" s="344" t="s">
+      <c r="N1" s="286"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="315" t="s">
         <v>1412</v>
       </c>
-      <c r="Q1" s="345"/>
-      <c r="R1" s="346"/>
-      <c r="S1" s="330" t="s">
+      <c r="Q1" s="316"/>
+      <c r="R1" s="317"/>
+      <c r="S1" s="295" t="s">
         <v>1421</v>
       </c>
-      <c r="T1" s="331"/>
-      <c r="U1" s="332"/>
-      <c r="V1" s="320" t="s">
+      <c r="T1" s="296"/>
+      <c r="U1" s="297"/>
+      <c r="V1" s="285" t="s">
         <v>770</v>
       </c>
-      <c r="W1" s="321"/>
-      <c r="X1" s="322"/>
+      <c r="W1" s="286"/>
+      <c r="X1" s="287"/>
     </row>
     <row r="2" spans="1:24">
-      <c r="A2" s="247" t="s">
+      <c r="A2" s="275" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="341"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="338" t="s">
+      <c r="B2" s="306"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="303" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="339"/>
-      <c r="F2" s="340"/>
-      <c r="G2" s="335" t="s">
+      <c r="E2" s="304"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="300" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="336"/>
-      <c r="I2" s="337"/>
-      <c r="J2" s="287" t="s">
+      <c r="H2" s="301"/>
+      <c r="I2" s="302"/>
+      <c r="J2" s="311" t="s">
         <v>1356</v>
       </c>
-      <c r="K2" s="285"/>
-      <c r="L2" s="286"/>
-      <c r="M2" s="228" t="s">
+      <c r="K2" s="312"/>
+      <c r="L2" s="313"/>
+      <c r="M2" s="278" t="s">
         <v>614</v>
       </c>
-      <c r="N2" s="333"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="343" t="s">
+      <c r="N2" s="298"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="314" t="s">
         <v>1411</v>
       </c>
-      <c r="Q2" s="339"/>
-      <c r="R2" s="340"/>
-      <c r="S2" s="317" t="s">
+      <c r="Q2" s="304"/>
+      <c r="R2" s="305"/>
+      <c r="S2" s="282" t="s">
         <v>769</v>
       </c>
-      <c r="T2" s="318"/>
-      <c r="U2" s="319"/>
-      <c r="V2" s="228" t="s">
+      <c r="T2" s="283"/>
+      <c r="U2" s="284"/>
+      <c r="V2" s="278" t="s">
         <v>780</v>
       </c>
-      <c r="W2" s="333"/>
-      <c r="X2" s="334"/>
+      <c r="W2" s="298"/>
+      <c r="X2" s="299"/>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="44" t="s">
@@ -17079,7 +17079,7 @@
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="282" t="s">
+      <c r="A102" s="339" t="s">
         <v>1136</v>
       </c>
       <c r="B102" s="75" t="s">
@@ -17087,7 +17087,7 @@
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="283"/>
+      <c r="A103" s="340"/>
       <c r="B103" s="76" t="s">
         <v>1138</v>
       </c>
@@ -17108,58 +17108,58 @@
       </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="296" t="s">
+      <c r="A107" s="322" t="s">
         <v>812</v>
       </c>
-      <c r="B107" s="297"/>
-      <c r="C107" s="315"/>
-      <c r="D107" s="274" t="s">
+      <c r="B107" s="318"/>
+      <c r="C107" s="323"/>
+      <c r="D107" s="227" t="s">
         <v>814</v>
       </c>
-      <c r="E107" s="297"/>
-      <c r="F107" s="315"/>
-      <c r="G107" s="274" t="s">
+      <c r="E107" s="318"/>
+      <c r="F107" s="323"/>
+      <c r="G107" s="227" t="s">
         <v>1080</v>
       </c>
-      <c r="H107" s="297"/>
-      <c r="I107" s="298"/>
-      <c r="J107" s="296" t="s">
+      <c r="H107" s="318"/>
+      <c r="I107" s="319"/>
+      <c r="J107" s="322" t="s">
         <v>1096</v>
       </c>
-      <c r="K107" s="297"/>
-      <c r="L107" s="298"/>
-      <c r="M107" s="274" t="s">
+      <c r="K107" s="318"/>
+      <c r="L107" s="319"/>
+      <c r="M107" s="227" t="s">
         <v>1128</v>
       </c>
-      <c r="N107" s="297"/>
-      <c r="O107" s="298"/>
+      <c r="N107" s="318"/>
+      <c r="O107" s="319"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="299" t="s">
+      <c r="A108" s="324" t="s">
         <v>813</v>
       </c>
-      <c r="B108" s="300"/>
-      <c r="C108" s="316"/>
-      <c r="D108" s="275" t="s">
+      <c r="B108" s="320"/>
+      <c r="C108" s="325"/>
+      <c r="D108" s="228" t="s">
         <v>815</v>
       </c>
-      <c r="E108" s="300"/>
-      <c r="F108" s="316"/>
-      <c r="G108" s="275" t="s">
+      <c r="E108" s="320"/>
+      <c r="F108" s="325"/>
+      <c r="G108" s="228" t="s">
         <v>1079</v>
       </c>
-      <c r="H108" s="300"/>
-      <c r="I108" s="301"/>
-      <c r="J108" s="299" t="s">
+      <c r="H108" s="320"/>
+      <c r="I108" s="321"/>
+      <c r="J108" s="324" t="s">
         <v>1097</v>
       </c>
-      <c r="K108" s="300"/>
-      <c r="L108" s="301"/>
-      <c r="M108" s="275" t="s">
+      <c r="K108" s="320"/>
+      <c r="L108" s="321"/>
+      <c r="M108" s="228" t="s">
         <v>1129</v>
       </c>
-      <c r="N108" s="300"/>
-      <c r="O108" s="301"/>
+      <c r="N108" s="320"/>
+      <c r="O108" s="321"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="47" t="s">
@@ -19134,58 +19134,58 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A192" s="308" t="s">
+      <c r="A192" s="329" t="s">
         <v>812</v>
       </c>
-      <c r="B192" s="309"/>
-      <c r="C192" s="310"/>
-      <c r="D192" s="311" t="s">
+      <c r="B192" s="330"/>
+      <c r="C192" s="331"/>
+      <c r="D192" s="332" t="s">
         <v>814</v>
       </c>
-      <c r="E192" s="309"/>
-      <c r="F192" s="310"/>
-      <c r="G192" s="311" t="s">
+      <c r="E192" s="330"/>
+      <c r="F192" s="331"/>
+      <c r="G192" s="332" t="s">
         <v>1080</v>
       </c>
-      <c r="H192" s="309"/>
-      <c r="I192" s="310"/>
-      <c r="J192" s="312" t="s">
+      <c r="H192" s="330"/>
+      <c r="I192" s="331"/>
+      <c r="J192" s="333" t="s">
         <v>1249</v>
       </c>
-      <c r="K192" s="281"/>
-      <c r="L192" s="313"/>
-      <c r="M192" s="312" t="s">
+      <c r="K192" s="237"/>
+      <c r="L192" s="334"/>
+      <c r="M192" s="333" t="s">
         <v>1342</v>
       </c>
-      <c r="N192" s="281"/>
-      <c r="O192" s="314"/>
+      <c r="N192" s="237"/>
+      <c r="O192" s="335"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A193" s="289" t="s">
+      <c r="A193" s="342" t="s">
         <v>813</v>
       </c>
-      <c r="B193" s="290"/>
-      <c r="C193" s="291"/>
-      <c r="D193" s="292" t="s">
+      <c r="B193" s="343"/>
+      <c r="C193" s="344"/>
+      <c r="D193" s="345" t="s">
         <v>815</v>
       </c>
-      <c r="E193" s="290"/>
-      <c r="F193" s="291"/>
-      <c r="G193" s="292" t="s">
+      <c r="E193" s="343"/>
+      <c r="F193" s="344"/>
+      <c r="G193" s="345" t="s">
         <v>1079</v>
       </c>
-      <c r="H193" s="290"/>
-      <c r="I193" s="291"/>
-      <c r="J193" s="293" t="s">
+      <c r="H193" s="343"/>
+      <c r="I193" s="344"/>
+      <c r="J193" s="326" t="s">
         <v>1250</v>
       </c>
-      <c r="K193" s="294"/>
-      <c r="L193" s="295"/>
-      <c r="M193" s="293" t="s">
+      <c r="K193" s="327"/>
+      <c r="L193" s="346"/>
+      <c r="M193" s="326" t="s">
         <v>1346</v>
       </c>
-      <c r="N193" s="294"/>
-      <c r="O193" s="307"/>
+      <c r="N193" s="327"/>
+      <c r="O193" s="328"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1">
       <c r="A194" s="47" t="s">
@@ -21857,58 +21857,58 @@
       </c>
     </row>
     <row r="278" spans="1:15">
-      <c r="A278" s="302" t="s">
+      <c r="A278" s="337" t="s">
         <v>812</v>
       </c>
-      <c r="B278" s="303"/>
-      <c r="C278" s="304"/>
-      <c r="D278" s="305" t="s">
+      <c r="B278" s="309"/>
+      <c r="C278" s="310"/>
+      <c r="D278" s="308" t="s">
         <v>814</v>
       </c>
-      <c r="E278" s="303"/>
-      <c r="F278" s="304"/>
-      <c r="G278" s="305" t="s">
+      <c r="E278" s="309"/>
+      <c r="F278" s="310"/>
+      <c r="G278" s="308" t="s">
         <v>1080</v>
       </c>
-      <c r="H278" s="303"/>
-      <c r="I278" s="306"/>
-      <c r="J278" s="302" t="s">
+      <c r="H278" s="309"/>
+      <c r="I278" s="338"/>
+      <c r="J278" s="337" t="s">
         <v>1096</v>
       </c>
-      <c r="K278" s="303"/>
-      <c r="L278" s="306"/>
-      <c r="M278" s="305" t="s">
+      <c r="K278" s="309"/>
+      <c r="L278" s="338"/>
+      <c r="M278" s="308" t="s">
         <v>1128</v>
       </c>
-      <c r="N278" s="303"/>
-      <c r="O278" s="306"/>
+      <c r="N278" s="309"/>
+      <c r="O278" s="338"/>
     </row>
     <row r="279" spans="1:15">
-      <c r="A279" s="284" t="s">
+      <c r="A279" s="341" t="s">
         <v>813</v>
       </c>
-      <c r="B279" s="285"/>
-      <c r="C279" s="286"/>
-      <c r="D279" s="287" t="s">
+      <c r="B279" s="312"/>
+      <c r="C279" s="313"/>
+      <c r="D279" s="311" t="s">
         <v>815</v>
       </c>
-      <c r="E279" s="285"/>
-      <c r="F279" s="286"/>
-      <c r="G279" s="287" t="s">
+      <c r="E279" s="312"/>
+      <c r="F279" s="313"/>
+      <c r="G279" s="311" t="s">
         <v>1079</v>
       </c>
-      <c r="H279" s="285"/>
-      <c r="I279" s="288"/>
-      <c r="J279" s="284" t="s">
+      <c r="H279" s="312"/>
+      <c r="I279" s="336"/>
+      <c r="J279" s="341" t="s">
         <v>1097</v>
       </c>
-      <c r="K279" s="285"/>
-      <c r="L279" s="288"/>
-      <c r="M279" s="287" t="s">
+      <c r="K279" s="312"/>
+      <c r="L279" s="336"/>
+      <c r="M279" s="311" t="s">
         <v>1129</v>
       </c>
-      <c r="N279" s="285"/>
-      <c r="O279" s="288"/>
+      <c r="N279" s="312"/>
+      <c r="O279" s="336"/>
     </row>
     <row r="280" spans="1:15">
       <c r="A280" s="47" t="s">
@@ -23873,6 +23873,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -23889,37 +23920,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23930,7 +23930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500557D-39D5-4A8C-8B40-67163349D1B1}">
   <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
@@ -23947,48 +23947,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="277" t="s">
         <v>2069</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="363" t="s">
+      <c r="B1" s="347"/>
+      <c r="C1" s="348"/>
+      <c r="D1" s="349" t="s">
         <v>2070</v>
       </c>
-      <c r="E1" s="364"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="344" t="s">
+      <c r="E1" s="350"/>
+      <c r="F1" s="351"/>
+      <c r="G1" s="315" t="s">
         <v>2074</v>
       </c>
-      <c r="H1" s="345"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="246" t="s">
+      <c r="H1" s="316"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="274" t="s">
         <v>2073</v>
       </c>
-      <c r="K1" s="369"/>
-      <c r="L1" s="370"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="356"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="278" t="s">
         <v>2066</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="350" t="s">
+      <c r="B2" s="298"/>
+      <c r="C2" s="299"/>
+      <c r="D2" s="368" t="s">
         <v>1079</v>
       </c>
-      <c r="E2" s="351"/>
-      <c r="F2" s="352"/>
-      <c r="G2" s="343" t="s">
+      <c r="E2" s="369"/>
+      <c r="F2" s="370"/>
+      <c r="G2" s="314" t="s">
         <v>1097</v>
       </c>
-      <c r="H2" s="339"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="247" t="s">
+      <c r="H2" s="304"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="275" t="s">
         <v>1992</v>
       </c>
-      <c r="K2" s="341"/>
-      <c r="L2" s="353"/>
+      <c r="K2" s="306"/>
+      <c r="L2" s="357"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
       <c r="A3" s="209"/>
@@ -24399,10 +24399,10 @@
       <c r="F14" s="136" t="s">
         <v>974</v>
       </c>
-      <c r="J14" s="347" t="s">
+      <c r="J14" s="361" t="s">
         <v>1543</v>
       </c>
-      <c r="K14" s="262" t="s">
+      <c r="K14" s="246" t="s">
         <v>1464</v>
       </c>
       <c r="L14" s="136" t="s">
@@ -24428,8 +24428,8 @@
       <c r="F15" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="J15" s="348"/>
-      <c r="K15" s="263"/>
+      <c r="J15" s="362"/>
+      <c r="K15" s="250"/>
       <c r="L15" s="136" t="s">
         <v>2001</v>
       </c>
@@ -24453,13 +24453,13 @@
       <c r="F16" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="366" t="s">
+      <c r="G16" s="352" t="s">
         <v>2072</v>
       </c>
-      <c r="H16" s="367"/>
-      <c r="I16" s="368"/>
-      <c r="J16" s="348"/>
-      <c r="K16" s="263"/>
+      <c r="H16" s="353"/>
+      <c r="I16" s="354"/>
+      <c r="J16" s="362"/>
+      <c r="K16" s="250"/>
       <c r="L16" s="136" t="s">
         <v>2002</v>
       </c>
@@ -24483,13 +24483,13 @@
       <c r="F17" s="136" t="s">
         <v>978</v>
       </c>
-      <c r="G17" s="354" t="s">
+      <c r="G17" s="358" t="s">
         <v>2065</v>
       </c>
-      <c r="H17" s="355"/>
-      <c r="I17" s="356"/>
-      <c r="J17" s="348"/>
-      <c r="K17" s="263"/>
+      <c r="H17" s="359"/>
+      <c r="I17" s="360"/>
+      <c r="J17" s="362"/>
+      <c r="K17" s="250"/>
       <c r="L17" s="136" t="s">
         <v>2003</v>
       </c>
@@ -24516,8 +24516,8 @@
       <c r="G18" s="205"/>
       <c r="H18" s="198"/>
       <c r="I18" s="203"/>
-      <c r="J18" s="348"/>
-      <c r="K18" s="263"/>
+      <c r="J18" s="362"/>
+      <c r="K18" s="250"/>
       <c r="L18" s="136" t="s">
         <v>2004</v>
       </c>
@@ -24550,8 +24550,8 @@
       <c r="I19" s="136" t="s">
         <v>1924</v>
       </c>
-      <c r="J19" s="348"/>
-      <c r="K19" s="263"/>
+      <c r="J19" s="362"/>
+      <c r="K19" s="250"/>
       <c r="L19" s="136" t="s">
         <v>2005</v>
       </c>
@@ -24584,8 +24584,8 @@
       <c r="I20" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="348"/>
-      <c r="K20" s="263"/>
+      <c r="J20" s="362"/>
+      <c r="K20" s="250"/>
       <c r="L20" s="136" t="s">
         <v>2006</v>
       </c>
@@ -24609,17 +24609,17 @@
       <c r="F21" s="136" t="s">
         <v>983</v>
       </c>
-      <c r="G21" s="359" t="s">
+      <c r="G21" s="366" t="s">
         <v>1925</v>
       </c>
-      <c r="H21" s="357" t="s">
+      <c r="H21" s="364" t="s">
         <v>1464</v>
       </c>
       <c r="I21" s="165" t="s">
         <v>1926</v>
       </c>
-      <c r="J21" s="348"/>
-      <c r="K21" s="263"/>
+      <c r="J21" s="362"/>
+      <c r="K21" s="250"/>
       <c r="L21" s="136" t="s">
         <v>2007</v>
       </c>
@@ -24643,13 +24643,13 @@
       <c r="F22" s="136" t="s">
         <v>985</v>
       </c>
-      <c r="G22" s="360"/>
-      <c r="H22" s="358"/>
+      <c r="G22" s="367"/>
+      <c r="H22" s="365"/>
       <c r="I22" s="165" t="s">
         <v>2067</v>
       </c>
-      <c r="J22" s="348"/>
-      <c r="K22" s="263"/>
+      <c r="J22" s="362"/>
+      <c r="K22" s="250"/>
       <c r="L22" s="136" t="s">
         <v>2008</v>
       </c>
@@ -24682,8 +24682,8 @@
       <c r="I23" s="220" t="s">
         <v>1927</v>
       </c>
-      <c r="J23" s="348"/>
-      <c r="K23" s="263"/>
+      <c r="J23" s="362"/>
+      <c r="K23" s="250"/>
       <c r="L23" s="136" t="s">
         <v>2009</v>
       </c>
@@ -24716,8 +24716,8 @@
       <c r="I24" s="223" t="s">
         <v>919</v>
       </c>
-      <c r="J24" s="348"/>
-      <c r="K24" s="263"/>
+      <c r="J24" s="362"/>
+      <c r="K24" s="250"/>
       <c r="L24" s="136" t="s">
         <v>2010</v>
       </c>
@@ -24750,8 +24750,8 @@
       <c r="I25" s="136" t="s">
         <v>972</v>
       </c>
-      <c r="J25" s="348"/>
-      <c r="K25" s="263"/>
+      <c r="J25" s="362"/>
+      <c r="K25" s="250"/>
       <c r="L25" s="136" t="s">
         <v>2011</v>
       </c>
@@ -24784,8 +24784,8 @@
       <c r="I26" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="J26" s="349"/>
-      <c r="K26" s="264"/>
+      <c r="J26" s="363"/>
+      <c r="K26" s="247"/>
       <c r="L26" s="136" t="s">
         <v>1474</v>
       </c>
@@ -25088,10 +25088,10 @@
       <c r="C36" s="136" t="s">
         <v>1921</v>
       </c>
-      <c r="D36" s="347" t="s">
+      <c r="D36" s="361" t="s">
         <v>1008</v>
       </c>
-      <c r="E36" s="262" t="s">
+      <c r="E36" s="246" t="s">
         <v>1464</v>
       </c>
       <c r="F36" s="136" t="s">
@@ -25117,8 +25117,8 @@
       <c r="C37" s="213" t="s">
         <v>2077</v>
       </c>
-      <c r="D37" s="348"/>
-      <c r="E37" s="263"/>
+      <c r="D37" s="362"/>
+      <c r="E37" s="250"/>
       <c r="F37" s="136" t="s">
         <v>1471</v>
       </c>
@@ -25133,8 +25133,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D38" s="348"/>
-      <c r="E38" s="263"/>
+      <c r="D38" s="362"/>
+      <c r="E38" s="250"/>
       <c r="F38" s="136" t="s">
         <v>2068</v>
       </c>
@@ -25149,8 +25149,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D39" s="349"/>
-      <c r="E39" s="264"/>
+      <c r="D39" s="363"/>
+      <c r="E39" s="247"/>
       <c r="F39" s="136" t="s">
         <v>1474</v>
       </c>
@@ -25245,10 +25245,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D44" s="347" t="s">
+      <c r="D44" s="361" t="s">
         <v>1014</v>
       </c>
-      <c r="E44" s="262" t="s">
+      <c r="E44" s="246" t="s">
         <v>1464</v>
       </c>
       <c r="F44" s="136" t="s">
@@ -25265,8 +25265,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D45" s="348"/>
-      <c r="E45" s="263"/>
+      <c r="D45" s="362"/>
+      <c r="E45" s="250"/>
       <c r="F45" s="136" t="s">
         <v>1471</v>
       </c>
@@ -25281,8 +25281,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D46" s="348"/>
-      <c r="E46" s="263"/>
+      <c r="D46" s="362"/>
+      <c r="E46" s="250"/>
       <c r="F46" s="136" t="s">
         <v>1522</v>
       </c>
@@ -25297,8 +25297,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1">
-      <c r="D47" s="349"/>
-      <c r="E47" s="264"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="247"/>
       <c r="F47" s="136" t="s">
         <v>1474</v>
       </c>
@@ -26019,18 +26019,18 @@
     <row r="95" spans="10:12" ht="16.5" customHeight="1"/>
     <row r="96" spans="10:12" ht="16.5" customHeight="1" thickBot="1"/>
     <row r="97" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A97" s="227" t="s">
+      <c r="A97" s="277" t="s">
         <v>2069</v>
       </c>
-      <c r="B97" s="361"/>
-      <c r="C97" s="362"/>
+      <c r="B97" s="347"/>
+      <c r="C97" s="348"/>
     </row>
     <row r="98" spans="1:3" ht="16.5" customHeight="1">
-      <c r="A98" s="228" t="s">
+      <c r="A98" s="278" t="s">
         <v>2066</v>
       </c>
-      <c r="B98" s="333"/>
-      <c r="C98" s="334"/>
+      <c r="B98" s="298"/>
+      <c r="C98" s="299"/>
     </row>
     <row r="99" spans="1:3" ht="16.5" customHeight="1"/>
     <row r="100" spans="1:3" ht="16.5" customHeight="1">
@@ -26480,6 +26480,9 @@
       <c r="A149" t="s">
         <v>1474</v>
       </c>
+      <c r="C149" t="s">
+        <v>1869</v>
+      </c>
     </row>
     <row r="150" spans="1:3" ht="16.5" customHeight="1">
       <c r="A150" t="s">
@@ -27647,12 +27650,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G16:I16"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="G2:I2"/>
@@ -27661,6 +27658,12 @@
     <mergeCell ref="K14:K26"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="D36:D39"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="E44:E47"/>
@@ -27705,11 +27708,11 @@
       </c>
       <c r="H1" s="372"/>
       <c r="I1" s="373"/>
-      <c r="J1" s="331" t="s">
+      <c r="J1" s="296" t="s">
         <v>1421</v>
       </c>
-      <c r="K1" s="331"/>
-      <c r="L1" s="332"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="297"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1">
       <c r="A2" s="377" t="s">
@@ -27725,8 +27728,8 @@
       <c r="J2" s="383" t="s">
         <v>769</v>
       </c>
-      <c r="K2" s="318"/>
-      <c r="L2" s="319"/>
+      <c r="K2" s="283"/>
+      <c r="L2" s="284"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
       <c r="A3" s="162"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB5FBBA-9176-439C-8DFB-D535C4E268E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61A39E4-7128-4103-9E80-21BA139C6512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
+    <workbookView xWindow="4380" yWindow="555" windowWidth="22005" windowHeight="15195" activeTab="1" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
   <sheets>
     <sheet name="was" sheetId="1" r:id="rId1"/>
-    <sheet name="후원금납입조회" sheetId="3" r:id="rId2"/>
-    <sheet name="모바일하이패스" sheetId="2" r:id="rId3"/>
-    <sheet name="산정특례신청 내역" sheetId="5" r:id="rId4"/>
+    <sheet name="행려환자내역조회" sheetId="6" r:id="rId2"/>
+    <sheet name="후원금납입조회" sheetId="3" r:id="rId3"/>
+    <sheet name="모바일하이패스" sheetId="2" r:id="rId4"/>
+    <sheet name="산정특례신청 내역" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6236" uniqueCount="2125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6593" uniqueCount="2281">
   <si>
     <t>UI</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -6661,6 +6662,488 @@
   </si>
   <si>
     <t>행려환자내역조회 신규 화면 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS_RMK3</t>
+  </si>
+  <si>
+    <t>행려비고3</t>
+  </si>
+  <si>
+    <t>HLS_RMK3_WK_NO</t>
+  </si>
+  <si>
+    <t>행려비고3작업번호</t>
+  </si>
+  <si>
+    <t>HLS_RMK3_WK_DTM</t>
+  </si>
+  <si>
+    <t>행려비고3작업일시</t>
+  </si>
+  <si>
+    <t>HLS_FNRL_DT</t>
+  </si>
+  <si>
+    <t>행려발인일</t>
+  </si>
+  <si>
+    <t>HLS_NSHR_DYS</t>
+  </si>
+  <si>
+    <t>행려안치일수</t>
+  </si>
+  <si>
+    <t>HLS_TH1_MCST_RSLT_CD</t>
+  </si>
+  <si>
+    <t>행려1차진료비처리결과코드</t>
+  </si>
+  <si>
+    <t>행려1차진료비처리결과내용</t>
+  </si>
+  <si>
+    <t>HLS_TH2_MCST_RSLT_CD</t>
+  </si>
+  <si>
+    <t>행려2차진료비처리결과코드</t>
+  </si>
+  <si>
+    <t>행려2차진료비처리결과내용</t>
+  </si>
+  <si>
+    <t>HLS_MTRT_TP_CD</t>
+  </si>
+  <si>
+    <t>행려진료결과구분코드</t>
+  </si>
+  <si>
+    <t>HLS_MTRT_NM</t>
+  </si>
+  <si>
+    <t>행려진료결과내용</t>
+  </si>
+  <si>
+    <t>CHK_LNKG_YN</t>
+  </si>
+  <si>
+    <t>체크리스트연동여부</t>
+  </si>
+  <si>
+    <t>ACPPIHLD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>행려자격신청서</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMRM_ARVL_DTM</t>
+  </si>
+  <si>
+    <t>응급실도착일시</t>
+  </si>
+  <si>
+    <t>HLS_CTH_PATH_TP_CD</t>
+  </si>
+  <si>
+    <t>행려내원경로구분코드</t>
+  </si>
+  <si>
+    <t>HLS_RFOR_NM</t>
+  </si>
+  <si>
+    <t>행려의뢰기관이름</t>
+  </si>
+  <si>
+    <t>HLS_RFOR_DEPT_NM</t>
+  </si>
+  <si>
+    <t>행려의뢰기관부서이름</t>
+  </si>
+  <si>
+    <t>HLS_RFOR_TEL_NO</t>
+  </si>
+  <si>
+    <t>행려의뢰기관전화번호</t>
+  </si>
+  <si>
+    <t>INSU_ORGN_CD</t>
+  </si>
+  <si>
+    <t>보험자기관기호</t>
+  </si>
+  <si>
+    <t>HLS_MNG_NO</t>
+  </si>
+  <si>
+    <t>행려관리번호</t>
+  </si>
+  <si>
+    <t>HLS_RJT_RSN_TP_CD</t>
+  </si>
+  <si>
+    <t>행려불가사유구분코드</t>
+  </si>
+  <si>
+    <t>HLS_RJT_RSN_CNTE</t>
+  </si>
+  <si>
+    <t>행려불가사유항목</t>
+  </si>
+  <si>
+    <t>HLS_QF_APLC_DT</t>
+  </si>
+  <si>
+    <t>행려자격신청일</t>
+  </si>
+  <si>
+    <t>HLS_QF_RPY_DT</t>
+  </si>
+  <si>
+    <t>행려자격회신일</t>
+  </si>
+  <si>
+    <t>HLS_RMK1</t>
+  </si>
+  <si>
+    <t>행려비고1</t>
+  </si>
+  <si>
+    <t>HLS_RMK1_WK_NO</t>
+  </si>
+  <si>
+    <t>행려비고1작업번호</t>
+  </si>
+  <si>
+    <t>HLS_RMK1_WK_DTM</t>
+  </si>
+  <si>
+    <t>행려비고1작업일시</t>
+  </si>
+  <si>
+    <t>HLS_RMK2</t>
+  </si>
+  <si>
+    <t>행려비고2</t>
+  </si>
+  <si>
+    <t>HLS_RMK2_WK_NO</t>
+  </si>
+  <si>
+    <t>행려비고2작업번호</t>
+  </si>
+  <si>
+    <t>HLS_RMK_WK_DTM</t>
+  </si>
+  <si>
+    <t>행려비고2작업일시</t>
+  </si>
+  <si>
+    <t>PCTPCPAM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLT_PT_RRN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CORG_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번 계약처명인데 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_APRV_DTL_TP_CD</t>
+  </si>
+  <si>
+    <t>카드결제상세구분코드</t>
+  </si>
+  <si>
+    <t>RPY_PACT_ID</t>
+  </si>
+  <si>
+    <t>APY_STR_DT</t>
+  </si>
+  <si>
+    <t>적용시작일자</t>
+  </si>
+  <si>
+    <t>APY_END_DT</t>
+  </si>
+  <si>
+    <t>적용종료일자</t>
+  </si>
+  <si>
+    <t>ADS_DT</t>
+  </si>
+  <si>
+    <t>진료비합계금액</t>
+  </si>
+  <si>
+    <t>INS_SUM_AMT</t>
+  </si>
+  <si>
+    <t>보험합계금액</t>
+  </si>
+  <si>
+    <t>NINS_SUM_AMT</t>
+  </si>
+  <si>
+    <t>비보험합계금액</t>
+  </si>
+  <si>
+    <t>CMED_SUM_AMT</t>
+  </si>
+  <si>
+    <t>선택진료합계금액</t>
+  </si>
+  <si>
+    <t>UNN_BRDN_AMT</t>
+  </si>
+  <si>
+    <t>조합부담금액</t>
+  </si>
+  <si>
+    <t>PBDN_AMT</t>
+  </si>
+  <si>
+    <t>본인부담금액</t>
+  </si>
+  <si>
+    <t>MRPY_AMT</t>
+  </si>
+  <si>
+    <t>중간수납금액</t>
+  </si>
+  <si>
+    <t>PV_RPY_AMT</t>
+  </si>
+  <si>
+    <t>기수납금액</t>
+  </si>
+  <si>
+    <t>PYAC_AMT</t>
+  </si>
+  <si>
+    <t>대불신청금액</t>
+  </si>
+  <si>
+    <t>RROBT_SUP_AMT</t>
+  </si>
+  <si>
+    <t>희귀난치성지원금액</t>
+  </si>
+  <si>
+    <t>VAT_AMT</t>
+  </si>
+  <si>
+    <t>부가세금액</t>
+  </si>
+  <si>
+    <t>수납금액</t>
+  </si>
+  <si>
+    <t>W1_UNIT_COF_AMT</t>
+  </si>
+  <si>
+    <t>1원단위절사금액</t>
+  </si>
+  <si>
+    <t>미수금액</t>
+  </si>
+  <si>
+    <t>INDV_UNCL_RSN_CD</t>
+  </si>
+  <si>
+    <t>개인미수사유코드</t>
+  </si>
+  <si>
+    <t>APRV_TP_CD</t>
+  </si>
+  <si>
+    <t>결재구분코드</t>
+  </si>
+  <si>
+    <t>SETL_APBT_ID</t>
+  </si>
+  <si>
+    <t>결제승인ID</t>
+  </si>
+  <si>
+    <t>CARD_RPY_AMT</t>
+  </si>
+  <si>
+    <t>카드수납금액</t>
+  </si>
+  <si>
+    <t>CASH_RPY_AMT</t>
+  </si>
+  <si>
+    <t>현금수납금액</t>
+  </si>
+  <si>
+    <t>CRCP_AMT</t>
+  </si>
+  <si>
+    <t>현금영수증금액</t>
+  </si>
+  <si>
+    <t>PBDN_HGLM_INS_DMD_AMT</t>
+  </si>
+  <si>
+    <t>본인부담상한보험청구금액</t>
+  </si>
+  <si>
+    <t>PBDN_HGLM_INS_PT_BRDN_AMT</t>
+  </si>
+  <si>
+    <t>본인부담상한보험환자부담금액</t>
+  </si>
+  <si>
+    <t>RPY_DT</t>
+  </si>
+  <si>
+    <t>수납일자</t>
+  </si>
+  <si>
+    <t>RPY_STF_NO</t>
+  </si>
+  <si>
+    <t>수납직원번호</t>
+  </si>
+  <si>
+    <t>CNCL_DT</t>
+  </si>
+  <si>
+    <t>CNCL_CHG_STF_NO</t>
+  </si>
+  <si>
+    <t>취소변경직원번호</t>
+  </si>
+  <si>
+    <t>RPY_STS_CD</t>
+  </si>
+  <si>
+    <t>수납상태코드</t>
+  </si>
+  <si>
+    <t>WK_DT</t>
+  </si>
+  <si>
+    <t>RCP_NO</t>
+  </si>
+  <si>
+    <t>영수증번호</t>
+  </si>
+  <si>
+    <t>RFND_RSN_CD</t>
+  </si>
+  <si>
+    <t>환불사유코드</t>
+  </si>
+  <si>
+    <t>RBTR_NM</t>
+  </si>
+  <si>
+    <t>환불자명</t>
+  </si>
+  <si>
+    <t>PT_REL_DTL_TP_CD</t>
+  </si>
+  <si>
+    <t>환자관계상세구분코드</t>
+  </si>
+  <si>
+    <t>RBTR_TEL_NO</t>
+  </si>
+  <si>
+    <t>환불자전화번호</t>
+  </si>
+  <si>
+    <t>RFND_PATH_TP_CD</t>
+  </si>
+  <si>
+    <t>환불경로구분코드</t>
+  </si>
+  <si>
+    <t>RFND_SGNT_CNTE</t>
+  </si>
+  <si>
+    <t>환불서명내용</t>
+  </si>
+  <si>
+    <t>RFND_RMK_CNTE</t>
+  </si>
+  <si>
+    <t>환불비고내용</t>
+  </si>
+  <si>
+    <t>IDCD_DPCT_URL_ADDR</t>
+  </si>
+  <si>
+    <t>신분증사본URL주소</t>
+  </si>
+  <si>
+    <t>BNK_CTG_CD</t>
+  </si>
+  <si>
+    <t>은행분류코드</t>
+  </si>
+  <si>
+    <t>계좌번호</t>
+  </si>
+  <si>
+    <t>UNCL_INAM_AMT</t>
+  </si>
+  <si>
+    <t>미수입금금액</t>
+  </si>
+  <si>
+    <t>CMED_VAT_AMT</t>
+  </si>
+  <si>
+    <t>선택진료부가세금액</t>
+  </si>
+  <si>
+    <t>TAMT_PBDN_AMT</t>
+  </si>
+  <si>
+    <t>총액본인부담금액</t>
+  </si>
+  <si>
+    <t>ACPPEIPD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>입원수납정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS_TH1_MCST_RSLT_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HLS_TH2_MCST_RSLT_NM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MTCS_AMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNCL_AMT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPY_AMT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6835,7 +7318,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6989,6 +7472,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7503,7 +8004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="390">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8188,6 +8689,165 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8197,160 +8857,181 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -8362,18 +9043,6 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8386,166 +9055,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8566,15 +9118,6 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8587,39 +9130,6 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8659,20 +9169,23 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8682,9 +9195,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FF00FFCC"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FFFFFF66"/>
     </mruColors>
   </colors>
   <extLst>
@@ -9017,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
@@ -9036,47 +9549,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="278" t="s">
+      <c r="B1" s="235" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="278" t="s">
+      <c r="C1" s="235" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="282" t="s">
+      <c r="D1" s="239" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="282"/>
-      <c r="K1" s="282"/>
-      <c r="L1" s="282"/>
-      <c r="M1" s="282"/>
-      <c r="N1" s="255" t="s">
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
+      <c r="N1" s="264" t="s">
         <v>56</v>
       </c>
-      <c r="O1" s="255" t="s">
+      <c r="O1" s="264" t="s">
         <v>1459</v>
       </c>
-      <c r="P1" s="255" t="s">
+      <c r="P1" s="264" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" s="255" t="s">
+      <c r="Q1" s="264" t="s">
         <v>332</v>
       </c>
-      <c r="R1" s="253" t="s">
+      <c r="R1" s="262" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="281"/>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
+      <c r="A2" s="238"/>
+      <c r="B2" s="236"/>
+      <c r="C2" s="236"/>
       <c r="D2" s="144">
         <v>240711</v>
       </c>
@@ -9107,17 +9620,17 @@
       <c r="M2" s="144">
         <v>230731</v>
       </c>
-      <c r="N2" s="256"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="256"/>
-      <c r="Q2" s="256"/>
-      <c r="R2" s="254"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
+      <c r="P2" s="265"/>
+      <c r="Q2" s="265"/>
+      <c r="R2" s="263"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="229" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="252" t="s">
+      <c r="B3" s="232" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="53" t="s">
@@ -9150,7 +9663,7 @@
       <c r="L3" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="385" t="s">
+      <c r="M3" s="228" t="s">
         <v>2122</v>
       </c>
       <c r="N3" s="53">
@@ -9168,8 +9681,8 @@
       <c r="R3" s="142"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="276"/>
-      <c r="B4" s="244"/>
+      <c r="A4" s="230"/>
+      <c r="B4" s="233"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -9208,8 +9721,8 @@
       <c r="R4" s="136"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="276"/>
-      <c r="B5" s="244"/>
+      <c r="A5" s="230"/>
+      <c r="B5" s="233"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -9248,132 +9761,132 @@
       <c r="R5" s="136"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="276"/>
-      <c r="B6" s="244"/>
-      <c r="C6" s="231" t="s">
+      <c r="A6" s="230"/>
+      <c r="B6" s="233"/>
+      <c r="C6" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="243" t="s">
+      <c r="D6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="231" t="s">
+      <c r="E6" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="243" t="s">
+      <c r="F6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="243" t="s">
+      <c r="G6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="243" t="s">
+      <c r="H6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="243" t="s">
+      <c r="I6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="231" t="s">
+      <c r="J6" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="243" t="s">
+      <c r="K6" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="243" t="s">
+      <c r="L6" s="242" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="49"/>
-      <c r="N6" s="261" t="s">
+      <c r="N6" s="270" t="s">
         <v>86</v>
       </c>
       <c r="O6" s="146"/>
       <c r="P6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="Q6" s="264" t="s">
+      <c r="Q6" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="260" t="s">
+      <c r="R6" s="269" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="276"/>
-      <c r="B7" s="244"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="239"/>
-      <c r="E7" s="232"/>
-      <c r="F7" s="239"/>
-      <c r="G7" s="239"/>
-      <c r="H7" s="239"/>
-      <c r="I7" s="239"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="239"/>
+      <c r="A7" s="230"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="243"/>
+      <c r="L7" s="243"/>
       <c r="M7" s="50"/>
-      <c r="N7" s="262"/>
+      <c r="N7" s="271"/>
       <c r="O7" s="147"/>
       <c r="P7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="Q7" s="265"/>
-      <c r="R7" s="258"/>
+      <c r="Q7" s="252"/>
+      <c r="R7" s="267"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="276"/>
-      <c r="B8" s="244"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="239"/>
-      <c r="H8" s="239"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
+      <c r="A8" s="230"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="243"/>
+      <c r="L8" s="243"/>
       <c r="M8" s="50"/>
-      <c r="N8" s="262"/>
+      <c r="N8" s="271"/>
       <c r="O8" s="147"/>
       <c r="P8" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="265"/>
-      <c r="R8" s="258"/>
+      <c r="Q8" s="252"/>
+      <c r="R8" s="267"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="276"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="239"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="239"/>
-      <c r="G9" s="239"/>
-      <c r="H9" s="239"/>
-      <c r="I9" s="239"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="239"/>
-      <c r="L9" s="239"/>
+      <c r="A9" s="230"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="243"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="243"/>
+      <c r="G9" s="243"/>
+      <c r="H9" s="243"/>
+      <c r="I9" s="243"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="243"/>
+      <c r="L9" s="243"/>
       <c r="M9" s="50"/>
-      <c r="N9" s="263"/>
+      <c r="N9" s="272"/>
       <c r="O9" s="148"/>
       <c r="P9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" s="266"/>
-      <c r="R9" s="259"/>
+      <c r="Q9" s="249"/>
+      <c r="R9" s="268"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="276"/>
-      <c r="B10" s="244"/>
-      <c r="C10" s="233"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="233"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="240"/>
-      <c r="H10" s="240"/>
-      <c r="I10" s="240"/>
-      <c r="J10" s="233"/>
-      <c r="K10" s="240"/>
-      <c r="L10" s="240"/>
+      <c r="A10" s="230"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="241"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
       <c r="M10" s="51"/>
       <c r="N10" s="5">
         <v>240718</v>
@@ -9390,8 +9903,8 @@
       <c r="R10" s="136"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="276"/>
-      <c r="B11" s="244"/>
+      <c r="A11" s="230"/>
+      <c r="B11" s="233"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -9430,36 +9943,36 @@
       <c r="R11" s="136"/>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="276"/>
-      <c r="B12" s="244"/>
-      <c r="C12" s="231" t="s">
+      <c r="A12" s="230"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="240" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="231" t="s">
+      <c r="E12" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="243" t="s">
+      <c r="F12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="243" t="s">
+      <c r="G12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="243" t="s">
+      <c r="H12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="243" t="s">
+      <c r="I12" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="231" t="s">
+      <c r="J12" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="231" t="s">
+      <c r="K12" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="243" t="s">
+      <c r="L12" s="242" t="s">
         <v>8</v>
       </c>
       <c r="M12" s="49"/>
@@ -9480,23 +9993,23 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="276"/>
-      <c r="B13" s="244"/>
-      <c r="C13" s="232"/>
-      <c r="D13" s="232"/>
-      <c r="E13" s="232"/>
-      <c r="F13" s="239"/>
-      <c r="G13" s="239"/>
-      <c r="H13" s="239"/>
-      <c r="I13" s="239"/>
-      <c r="J13" s="232"/>
-      <c r="K13" s="232"/>
-      <c r="L13" s="239"/>
+      <c r="A13" s="230"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="245"/>
+      <c r="E13" s="245"/>
+      <c r="F13" s="243"/>
+      <c r="G13" s="243"/>
+      <c r="H13" s="243"/>
+      <c r="I13" s="243"/>
+      <c r="J13" s="245"/>
+      <c r="K13" s="245"/>
+      <c r="L13" s="243"/>
       <c r="M13" s="50"/>
-      <c r="N13" s="231">
+      <c r="N13" s="240">
         <v>240718</v>
       </c>
-      <c r="O13" s="231" t="s">
+      <c r="O13" s="240" t="s">
         <v>1460</v>
       </c>
       <c r="P13" s="7" t="s">
@@ -9505,37 +10018,37 @@
       <c r="Q13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R13" s="260" t="s">
+      <c r="R13" s="269" t="s">
         <v>1426</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="276"/>
-      <c r="B14" s="244"/>
-      <c r="C14" s="233"/>
-      <c r="D14" s="233"/>
-      <c r="E14" s="233"/>
-      <c r="F14" s="240"/>
-      <c r="G14" s="240"/>
-      <c r="H14" s="240"/>
-      <c r="I14" s="240"/>
-      <c r="J14" s="233"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="240"/>
+      <c r="A14" s="230"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="241"/>
+      <c r="D14" s="241"/>
+      <c r="E14" s="241"/>
+      <c r="F14" s="244"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="241"/>
+      <c r="K14" s="241"/>
+      <c r="L14" s="244"/>
       <c r="M14" s="51"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="233"/>
+      <c r="N14" s="241"/>
+      <c r="O14" s="241"/>
       <c r="P14" s="7" t="s">
         <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="R14" s="259"/>
+      <c r="R14" s="268"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="276"/>
-      <c r="B15" s="244"/>
+      <c r="A15" s="230"/>
+      <c r="B15" s="233"/>
       <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
@@ -9574,8 +10087,8 @@
       <c r="R15" s="136"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="276"/>
-      <c r="B16" s="244" t="s">
+      <c r="A16" s="230"/>
+      <c r="B16" s="233" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -9616,8 +10129,8 @@
       <c r="R16" s="136"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="276"/>
-      <c r="B17" s="244"/>
+      <c r="A17" s="230"/>
+      <c r="B17" s="233"/>
       <c r="C17" s="3" t="s">
         <v>11</v>
       </c>
@@ -9656,8 +10169,8 @@
       <c r="R17" s="136"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="276"/>
-      <c r="B18" s="244"/>
+      <c r="A18" s="230"/>
+      <c r="B18" s="233"/>
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -9696,76 +10209,76 @@
       <c r="R18" s="136"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="276"/>
-      <c r="B19" s="244"/>
-      <c r="C19" s="231" t="s">
+      <c r="A19" s="230"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="243" t="s">
+      <c r="D19" s="242" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="231" t="s">
+      <c r="E19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="231" t="s">
+      <c r="F19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="231" t="s">
+      <c r="G19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="231" t="s">
+      <c r="H19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="I19" s="231" t="s">
+      <c r="I19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="J19" s="231" t="s">
+      <c r="J19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="231" t="s">
+      <c r="K19" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="231" t="s">
+      <c r="L19" s="240" t="s">
         <v>12</v>
       </c>
       <c r="M19" s="49"/>
-      <c r="N19" s="261" t="s">
+      <c r="N19" s="270" t="s">
         <v>86</v>
       </c>
       <c r="O19" s="146"/>
       <c r="P19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Q19" s="264" t="s">
+      <c r="Q19" s="248" t="s">
         <v>57</v>
       </c>
       <c r="R19" s="136"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="276"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="233"/>
-      <c r="D20" s="240"/>
-      <c r="E20" s="233"/>
-      <c r="F20" s="233"/>
-      <c r="G20" s="233"/>
-      <c r="H20" s="233"/>
-      <c r="I20" s="233"/>
-      <c r="J20" s="233"/>
-      <c r="K20" s="233"/>
-      <c r="L20" s="233"/>
+      <c r="A20" s="230"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="241"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="241"/>
+      <c r="F20" s="241"/>
+      <c r="G20" s="241"/>
+      <c r="H20" s="241"/>
+      <c r="I20" s="241"/>
+      <c r="J20" s="241"/>
+      <c r="K20" s="241"/>
+      <c r="L20" s="241"/>
       <c r="M20" s="51"/>
-      <c r="N20" s="263"/>
+      <c r="N20" s="272"/>
       <c r="O20" s="148"/>
       <c r="P20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Q20" s="266"/>
+      <c r="Q20" s="249"/>
       <c r="R20" s="136"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="276"/>
-      <c r="B21" s="244"/>
+      <c r="A21" s="230"/>
+      <c r="B21" s="233"/>
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
@@ -9804,8 +10317,8 @@
       <c r="R21" s="136"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="276"/>
-      <c r="B22" s="244"/>
+      <c r="A22" s="230"/>
+      <c r="B22" s="233"/>
       <c r="C22" s="3" t="s">
         <v>16</v>
       </c>
@@ -9844,8 +10357,8 @@
       <c r="R22" s="136"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="276"/>
-      <c r="B23" s="244"/>
+      <c r="A23" s="230"/>
+      <c r="B23" s="233"/>
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
@@ -9884,8 +10397,8 @@
       <c r="R23" s="136"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="276"/>
-      <c r="B24" s="244" t="s">
+      <c r="A24" s="230"/>
+      <c r="B24" s="233" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -9926,8 +10439,8 @@
       <c r="R24" s="136"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="276"/>
-      <c r="B25" s="244"/>
+      <c r="A25" s="230"/>
+      <c r="B25" s="233"/>
       <c r="C25" s="3" t="s">
         <v>23</v>
       </c>
@@ -9966,8 +10479,8 @@
       <c r="R25" s="136"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="276"/>
-      <c r="B26" s="244"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="233"/>
       <c r="C26" s="3" t="s">
         <v>24</v>
       </c>
@@ -10006,8 +10519,8 @@
       <c r="R26" s="136"/>
     </row>
     <row r="27" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="276"/>
-      <c r="B27" s="244"/>
+      <c r="A27" s="230"/>
+      <c r="B27" s="233"/>
       <c r="C27" s="3" t="s">
         <v>25</v>
       </c>
@@ -10054,8 +10567,8 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="276"/>
-      <c r="B28" s="244"/>
+      <c r="A28" s="230"/>
+      <c r="B28" s="233"/>
       <c r="C28" s="3" t="s">
         <v>26</v>
       </c>
@@ -10094,8 +10607,8 @@
       <c r="R28" s="136"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="276"/>
-      <c r="B29" s="244"/>
+      <c r="A29" s="230"/>
+      <c r="B29" s="233"/>
       <c r="C29" s="3" t="s">
         <v>27</v>
       </c>
@@ -10134,8 +10647,8 @@
       <c r="R29" s="136"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="276"/>
-      <c r="B30" s="244"/>
+      <c r="A30" s="230"/>
+      <c r="B30" s="233"/>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
@@ -10174,8 +10687,8 @@
       <c r="R30" s="136"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="276"/>
-      <c r="B31" s="244" t="s">
+      <c r="A31" s="230"/>
+      <c r="B31" s="233" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -10216,8 +10729,8 @@
       <c r="R31" s="136"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="276"/>
-      <c r="B32" s="244"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="233"/>
       <c r="C32" s="3" t="s">
         <v>31</v>
       </c>
@@ -10256,8 +10769,8 @@
       <c r="R32" s="136"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="276"/>
-      <c r="B33" s="244"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="233"/>
       <c r="C33" s="3" t="s">
         <v>32</v>
       </c>
@@ -10296,8 +10809,8 @@
       <c r="R33" s="136"/>
     </row>
     <row r="34" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34" s="276"/>
-      <c r="B34" s="244"/>
+      <c r="A34" s="230"/>
+      <c r="B34" s="233"/>
       <c r="C34" s="3" t="s">
         <v>33</v>
       </c>
@@ -10344,8 +10857,8 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="276"/>
-      <c r="B35" s="244"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="233"/>
       <c r="C35" s="3" t="s">
         <v>34</v>
       </c>
@@ -10384,8 +10897,8 @@
       <c r="R35" s="136"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="276"/>
-      <c r="B36" s="244"/>
+      <c r="A36" s="230"/>
+      <c r="B36" s="233"/>
       <c r="C36" s="3" t="s">
         <v>35</v>
       </c>
@@ -10424,8 +10937,8 @@
       <c r="R36" s="136"/>
     </row>
     <row r="37" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="277"/>
-      <c r="B37" s="245"/>
+      <c r="A37" s="231"/>
+      <c r="B37" s="234"/>
       <c r="C37" s="137" t="s">
         <v>36</v>
       </c>
@@ -10464,10 +10977,10 @@
       <c r="R37" s="139"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="246" t="s">
+      <c r="A38" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="252" t="s">
+      <c r="B38" s="232" t="s">
         <v>0</v>
       </c>
       <c r="C38" s="53" t="s">
@@ -10504,30 +11017,30 @@
       <c r="R38" s="142"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="247"/>
-      <c r="B39" s="244"/>
-      <c r="C39" s="231" t="s">
+      <c r="A39" s="276"/>
+      <c r="B39" s="233"/>
+      <c r="C39" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="231" t="s">
+      <c r="D39" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="231" t="s">
+      <c r="E39" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="243" t="s">
+      <c r="F39" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="231" t="s">
+      <c r="G39" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="H39" s="236" t="s">
+      <c r="H39" s="259" t="s">
         <v>1429</v>
       </c>
-      <c r="I39" s="236" t="s">
+      <c r="I39" s="259" t="s">
         <v>1429</v>
       </c>
-      <c r="J39" s="236" t="s">
+      <c r="J39" s="259" t="s">
         <v>12</v>
       </c>
       <c r="K39" s="49"/>
@@ -10548,16 +11061,16 @@
       <c r="R39" s="136"/>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="247"/>
-      <c r="B40" s="244"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="233"/>
-      <c r="E40" s="233"/>
-      <c r="F40" s="240"/>
-      <c r="G40" s="233"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="237"/>
-      <c r="J40" s="237"/>
+      <c r="A40" s="276"/>
+      <c r="B40" s="233"/>
+      <c r="C40" s="245"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="241"/>
+      <c r="F40" s="244"/>
+      <c r="G40" s="241"/>
+      <c r="H40" s="255"/>
+      <c r="I40" s="255"/>
+      <c r="J40" s="255"/>
       <c r="K40" s="51"/>
       <c r="L40" s="51"/>
       <c r="M40" s="11"/>
@@ -10572,9 +11085,9 @@
       <c r="R40" s="136"/>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="247"/>
-      <c r="B41" s="244"/>
-      <c r="C41" s="232"/>
+      <c r="A41" s="276"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="245"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="227"/>
@@ -10585,26 +11098,26 @@
       <c r="K41" s="51"/>
       <c r="L41" s="51"/>
       <c r="M41" s="11"/>
-      <c r="N41" s="261">
+      <c r="N41" s="270">
         <v>240809</v>
       </c>
-      <c r="O41" s="389" t="s">
+      <c r="O41" s="3" t="s">
         <v>1460</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>2123</v>
       </c>
-      <c r="Q41" s="264" t="s">
+      <c r="Q41" s="248" t="s">
         <v>2124</v>
       </c>
       <c r="R41" s="136"/>
-      <c r="T41" s="386"/>
-      <c r="U41" s="386"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="247"/>
-      <c r="B42" s="244"/>
-      <c r="C42" s="232"/>
+      <c r="A42" s="276"/>
+      <c r="B42" s="233"/>
+      <c r="C42" s="245"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="227"/>
@@ -10615,18 +11128,18 @@
       <c r="K42" s="51"/>
       <c r="L42" s="51"/>
       <c r="M42" s="11"/>
-      <c r="N42" s="387"/>
+      <c r="N42" s="273"/>
       <c r="O42" s="9"/>
       <c r="P42" s="7"/>
-      <c r="Q42" s="265"/>
+      <c r="Q42" s="252"/>
       <c r="R42" s="136"/>
-      <c r="T42" s="386"/>
-      <c r="U42" s="386"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="247"/>
-      <c r="B43" s="244"/>
-      <c r="C43" s="232"/>
+      <c r="A43" s="276"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="245"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="227"/>
@@ -10637,18 +11150,18 @@
       <c r="K43" s="51"/>
       <c r="L43" s="51"/>
       <c r="M43" s="11"/>
-      <c r="N43" s="387"/>
+      <c r="N43" s="273"/>
       <c r="O43" s="9"/>
       <c r="P43" s="7"/>
-      <c r="Q43" s="265"/>
+      <c r="Q43" s="252"/>
       <c r="R43" s="136"/>
-      <c r="T43" s="386"/>
-      <c r="U43" s="386"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="247"/>
-      <c r="B44" s="244"/>
-      <c r="C44" s="233"/>
+      <c r="A44" s="276"/>
+      <c r="B44" s="233"/>
+      <c r="C44" s="241"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="227"/>
@@ -10659,17 +11172,17 @@
       <c r="K44" s="51"/>
       <c r="L44" s="51"/>
       <c r="M44" s="11"/>
-      <c r="N44" s="388"/>
+      <c r="N44" s="274"/>
       <c r="O44" s="9"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="266"/>
+      <c r="Q44" s="249"/>
       <c r="R44" s="136"/>
-      <c r="T44" s="386"/>
-      <c r="U44" s="386"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="247"/>
-      <c r="B45" s="244"/>
+      <c r="A45" s="276"/>
+      <c r="B45" s="233"/>
       <c r="C45" s="3" t="s">
         <v>44</v>
       </c>
@@ -10704,8 +11217,8 @@
       <c r="R45" s="136"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="247"/>
-      <c r="B46" s="244" t="s">
+      <c r="A46" s="276"/>
+      <c r="B46" s="233" t="s">
         <v>18</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -10742,8 +11255,8 @@
       <c r="R46" s="136"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="247"/>
-      <c r="B47" s="244"/>
+      <c r="A47" s="276"/>
+      <c r="B47" s="233"/>
       <c r="C47" s="3" t="s">
         <v>46</v>
       </c>
@@ -10778,8 +11291,8 @@
       <c r="R47" s="136"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="247"/>
-      <c r="B48" s="244"/>
+      <c r="A48" s="276"/>
+      <c r="B48" s="233"/>
       <c r="C48" s="3" t="s">
         <v>47</v>
       </c>
@@ -10814,8 +11327,8 @@
       <c r="R48" s="136"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A49" s="247"/>
-      <c r="B49" s="244" t="s">
+      <c r="A49" s="276"/>
+      <c r="B49" s="233" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -10852,8 +11365,8 @@
       <c r="R49" s="136"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="247"/>
-      <c r="B50" s="244"/>
+      <c r="A50" s="276"/>
+      <c r="B50" s="233"/>
       <c r="C50" s="3" t="s">
         <v>49</v>
       </c>
@@ -10888,8 +11401,8 @@
       <c r="R50" s="136"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="247"/>
-      <c r="B51" s="244"/>
+      <c r="A51" s="276"/>
+      <c r="B51" s="233"/>
       <c r="C51" s="3" t="s">
         <v>48</v>
       </c>
@@ -10924,8 +11437,8 @@
       <c r="R51" s="136"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A52" s="247"/>
-      <c r="B52" s="244" t="s">
+      <c r="A52" s="276"/>
+      <c r="B52" s="233" t="s">
         <v>30</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -10962,8 +11475,8 @@
       <c r="R52" s="136"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="247"/>
-      <c r="B53" s="244"/>
+      <c r="A53" s="276"/>
+      <c r="B53" s="233"/>
       <c r="C53" s="3" t="s">
         <v>52</v>
       </c>
@@ -10998,8 +11511,8 @@
       <c r="R53" s="136"/>
     </row>
     <row r="54" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="248"/>
-      <c r="B54" s="245"/>
+      <c r="A54" s="277"/>
+      <c r="B54" s="234"/>
       <c r="C54" s="137" t="s">
         <v>53</v>
       </c>
@@ -11034,230 +11547,230 @@
       <c r="R54" s="139"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="249" t="s">
+      <c r="A55" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="252" t="s">
+      <c r="B55" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="C55" s="235" t="s">
+      <c r="C55" s="250" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="235" t="s">
+      <c r="D55" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="E55" s="235" t="s">
+      <c r="E55" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="F55" s="238" t="s">
+      <c r="F55" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="241" t="s">
+      <c r="G55" s="253" t="s">
         <v>114</v>
       </c>
-      <c r="H55" s="241" t="s">
+      <c r="H55" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="I55" s="241" t="s">
+      <c r="I55" s="253" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="241" t="s">
+      <c r="J55" s="253" t="s">
         <v>12</v>
       </c>
       <c r="K55" s="145"/>
       <c r="L55" s="145"/>
-      <c r="M55" s="241"/>
-      <c r="N55" s="235">
+      <c r="M55" s="253"/>
+      <c r="N55" s="250">
         <v>240722</v>
       </c>
-      <c r="O55" s="235" t="s">
+      <c r="O55" s="250" t="s">
         <v>1460</v>
       </c>
       <c r="P55" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="Q55" s="269" t="s">
+      <c r="Q55" s="251" t="s">
         <v>103</v>
       </c>
-      <c r="R55" s="270"/>
+      <c r="R55" s="256"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="250"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="232"/>
-      <c r="D56" s="232"/>
-      <c r="E56" s="232"/>
-      <c r="F56" s="239"/>
-      <c r="G56" s="242"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
+      <c r="A56" s="279"/>
+      <c r="B56" s="233"/>
+      <c r="C56" s="245"/>
+      <c r="D56" s="245"/>
+      <c r="E56" s="245"/>
+      <c r="F56" s="243"/>
+      <c r="G56" s="254"/>
+      <c r="H56" s="254"/>
+      <c r="I56" s="254"/>
+      <c r="J56" s="254"/>
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
-      <c r="M56" s="242"/>
-      <c r="N56" s="232"/>
-      <c r="O56" s="232"/>
+      <c r="M56" s="254"/>
+      <c r="N56" s="245"/>
+      <c r="O56" s="245"/>
       <c r="P56" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="Q56" s="265"/>
-      <c r="R56" s="271"/>
+      <c r="Q56" s="252"/>
+      <c r="R56" s="257"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A57" s="250"/>
-      <c r="B57" s="244"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="232"/>
-      <c r="E57" s="232"/>
-      <c r="F57" s="239"/>
-      <c r="G57" s="242"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
+      <c r="A57" s="279"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="245"/>
+      <c r="D57" s="245"/>
+      <c r="E57" s="245"/>
+      <c r="F57" s="243"/>
+      <c r="G57" s="254"/>
+      <c r="H57" s="254"/>
+      <c r="I57" s="254"/>
+      <c r="J57" s="254"/>
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
-      <c r="M57" s="242"/>
-      <c r="N57" s="232"/>
-      <c r="O57" s="232"/>
+      <c r="M57" s="254"/>
+      <c r="N57" s="245"/>
+      <c r="O57" s="245"/>
       <c r="P57" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="Q57" s="265"/>
-      <c r="R57" s="271"/>
+      <c r="Q57" s="252"/>
+      <c r="R57" s="257"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A58" s="250"/>
-      <c r="B58" s="244"/>
-      <c r="C58" s="233"/>
-      <c r="D58" s="233"/>
-      <c r="E58" s="233"/>
-      <c r="F58" s="240"/>
-      <c r="G58" s="237"/>
-      <c r="H58" s="237"/>
-      <c r="I58" s="237"/>
-      <c r="J58" s="237"/>
+      <c r="A58" s="279"/>
+      <c r="B58" s="233"/>
+      <c r="C58" s="241"/>
+      <c r="D58" s="241"/>
+      <c r="E58" s="241"/>
+      <c r="F58" s="244"/>
+      <c r="G58" s="255"/>
+      <c r="H58" s="255"/>
+      <c r="I58" s="255"/>
+      <c r="J58" s="255"/>
       <c r="K58" s="51"/>
       <c r="L58" s="51"/>
-      <c r="M58" s="237"/>
-      <c r="N58" s="233"/>
-      <c r="O58" s="233"/>
+      <c r="M58" s="255"/>
+      <c r="N58" s="241"/>
+      <c r="O58" s="241"/>
       <c r="P58" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="Q58" s="266"/>
-      <c r="R58" s="272"/>
+      <c r="Q58" s="249"/>
+      <c r="R58" s="258"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A59" s="250"/>
-      <c r="B59" s="244"/>
-      <c r="C59" s="231" t="s">
+      <c r="A59" s="279"/>
+      <c r="B59" s="233"/>
+      <c r="C59" s="240" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="231" t="s">
+      <c r="D59" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="231" t="s">
+      <c r="E59" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="F59" s="243" t="s">
+      <c r="F59" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="236" t="s">
+      <c r="G59" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="H59" s="236" t="s">
+      <c r="H59" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="I59" s="236" t="s">
+      <c r="I59" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="236" t="s">
+      <c r="J59" s="259" t="s">
         <v>12</v>
       </c>
       <c r="K59" s="49"/>
       <c r="L59" s="49"/>
-      <c r="M59" s="236"/>
-      <c r="N59" s="267" t="s">
+      <c r="M59" s="259"/>
+      <c r="N59" s="246" t="s">
         <v>1424</v>
       </c>
       <c r="O59" s="149"/>
       <c r="P59" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="Q59" s="264" t="s">
+      <c r="Q59" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="R59" s="257"/>
+      <c r="R59" s="266"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A60" s="250"/>
-      <c r="B60" s="244"/>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="232"/>
-      <c r="F60" s="239"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="242"/>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
+      <c r="A60" s="279"/>
+      <c r="B60" s="233"/>
+      <c r="C60" s="245"/>
+      <c r="D60" s="245"/>
+      <c r="E60" s="245"/>
+      <c r="F60" s="243"/>
+      <c r="G60" s="254"/>
+      <c r="H60" s="254"/>
+      <c r="I60" s="254"/>
+      <c r="J60" s="254"/>
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
-      <c r="M60" s="242"/>
-      <c r="N60" s="273"/>
+      <c r="M60" s="254"/>
+      <c r="N60" s="260"/>
       <c r="O60" s="151"/>
       <c r="P60" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="Q60" s="265"/>
-      <c r="R60" s="258"/>
+      <c r="Q60" s="252"/>
+      <c r="R60" s="267"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A61" s="250"/>
-      <c r="B61" s="244"/>
-      <c r="C61" s="232"/>
-      <c r="D61" s="232"/>
-      <c r="E61" s="232"/>
-      <c r="F61" s="239"/>
-      <c r="G61" s="242"/>
-      <c r="H61" s="242"/>
-      <c r="I61" s="242"/>
-      <c r="J61" s="242"/>
+      <c r="A61" s="279"/>
+      <c r="B61" s="233"/>
+      <c r="C61" s="245"/>
+      <c r="D61" s="245"/>
+      <c r="E61" s="245"/>
+      <c r="F61" s="243"/>
+      <c r="G61" s="254"/>
+      <c r="H61" s="254"/>
+      <c r="I61" s="254"/>
+      <c r="J61" s="254"/>
       <c r="K61" s="50"/>
       <c r="L61" s="50"/>
-      <c r="M61" s="242"/>
-      <c r="N61" s="273"/>
+      <c r="M61" s="254"/>
+      <c r="N61" s="260"/>
       <c r="O61" s="151"/>
       <c r="P61" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="Q61" s="265"/>
-      <c r="R61" s="258"/>
+      <c r="Q61" s="252"/>
+      <c r="R61" s="267"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A62" s="250"/>
-      <c r="B62" s="244"/>
-      <c r="C62" s="233"/>
-      <c r="D62" s="233"/>
-      <c r="E62" s="233"/>
-      <c r="F62" s="240"/>
-      <c r="G62" s="237"/>
-      <c r="H62" s="237"/>
-      <c r="I62" s="237"/>
-      <c r="J62" s="237"/>
+      <c r="A62" s="279"/>
+      <c r="B62" s="233"/>
+      <c r="C62" s="241"/>
+      <c r="D62" s="241"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="244"/>
+      <c r="G62" s="255"/>
+      <c r="H62" s="255"/>
+      <c r="I62" s="255"/>
+      <c r="J62" s="255"/>
       <c r="K62" s="51"/>
       <c r="L62" s="51"/>
-      <c r="M62" s="237"/>
-      <c r="N62" s="268"/>
+      <c r="M62" s="255"/>
+      <c r="N62" s="247"/>
       <c r="O62" s="150"/>
       <c r="P62" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="Q62" s="266"/>
-      <c r="R62" s="259"/>
+      <c r="Q62" s="249"/>
+      <c r="R62" s="268"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A63" s="250"/>
-      <c r="B63" s="244"/>
+      <c r="A63" s="279"/>
+      <c r="B63" s="233"/>
       <c r="C63" s="3" t="s">
         <v>67</v>
       </c>
@@ -11292,8 +11805,8 @@
       <c r="R63" s="136"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A64" s="250"/>
-      <c r="B64" s="244"/>
+      <c r="A64" s="279"/>
+      <c r="B64" s="233"/>
       <c r="C64" s="3" t="s">
         <v>68</v>
       </c>
@@ -11328,8 +11841,8 @@
       <c r="R64" s="136"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A65" s="250"/>
-      <c r="B65" s="244" t="s">
+      <c r="A65" s="279"/>
+      <c r="B65" s="233" t="s">
         <v>19</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -11366,72 +11879,72 @@
       <c r="R65" s="136"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="250"/>
-      <c r="B66" s="244"/>
-      <c r="C66" s="231" t="s">
+      <c r="A66" s="279"/>
+      <c r="B66" s="233"/>
+      <c r="C66" s="240" t="s">
         <v>71</v>
       </c>
-      <c r="D66" s="231" t="s">
+      <c r="D66" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="231" t="s">
+      <c r="E66" s="240" t="s">
         <v>54</v>
       </c>
-      <c r="F66" s="231" t="s">
+      <c r="F66" s="240" t="s">
         <v>12</v>
       </c>
-      <c r="G66" s="236" t="s">
+      <c r="G66" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="H66" s="236" t="s">
+      <c r="H66" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="I66" s="236" t="s">
+      <c r="I66" s="259" t="s">
         <v>12</v>
       </c>
-      <c r="J66" s="236" t="s">
+      <c r="J66" s="259" t="s">
         <v>12</v>
       </c>
       <c r="K66" s="49"/>
       <c r="L66" s="49"/>
-      <c r="M66" s="236"/>
-      <c r="N66" s="267" t="s">
+      <c r="M66" s="259"/>
+      <c r="N66" s="246" t="s">
         <v>1425</v>
       </c>
       <c r="O66" s="149"/>
       <c r="P66" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="Q66" s="264" t="s">
+      <c r="Q66" s="248" t="s">
         <v>85</v>
       </c>
-      <c r="R66" s="274"/>
+      <c r="R66" s="261"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="250"/>
-      <c r="B67" s="244"/>
-      <c r="C67" s="233"/>
-      <c r="D67" s="233"/>
-      <c r="E67" s="233"/>
-      <c r="F67" s="233"/>
-      <c r="G67" s="237"/>
-      <c r="H67" s="237"/>
-      <c r="I67" s="237"/>
-      <c r="J67" s="237"/>
+      <c r="A67" s="279"/>
+      <c r="B67" s="233"/>
+      <c r="C67" s="241"/>
+      <c r="D67" s="241"/>
+      <c r="E67" s="241"/>
+      <c r="F67" s="241"/>
+      <c r="G67" s="255"/>
+      <c r="H67" s="255"/>
+      <c r="I67" s="255"/>
+      <c r="J67" s="255"/>
       <c r="K67" s="51"/>
       <c r="L67" s="51"/>
-      <c r="M67" s="237"/>
-      <c r="N67" s="268"/>
+      <c r="M67" s="255"/>
+      <c r="N67" s="247"/>
       <c r="O67" s="150"/>
       <c r="P67" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="Q67" s="266"/>
-      <c r="R67" s="272"/>
+      <c r="Q67" s="249"/>
+      <c r="R67" s="258"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="250"/>
-      <c r="B68" s="244"/>
+      <c r="A68" s="279"/>
+      <c r="B68" s="233"/>
       <c r="C68" s="3" t="s">
         <v>72</v>
       </c>
@@ -11466,8 +11979,8 @@
       <c r="R68" s="136"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A69" s="250"/>
-      <c r="B69" s="244"/>
+      <c r="A69" s="279"/>
+      <c r="B69" s="233"/>
       <c r="C69" s="3" t="s">
         <v>73</v>
       </c>
@@ -11502,8 +12015,8 @@
       <c r="R69" s="136"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A70" s="250"/>
-      <c r="B70" s="244" t="s">
+      <c r="A70" s="279"/>
+      <c r="B70" s="233" t="s">
         <v>78</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -11540,8 +12053,8 @@
       <c r="R70" s="136"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A71" s="250"/>
-      <c r="B71" s="244"/>
+      <c r="A71" s="279"/>
+      <c r="B71" s="233"/>
       <c r="C71" s="3" t="s">
         <v>75</v>
       </c>
@@ -11582,8 +12095,8 @@
       <c r="R71" s="136"/>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A72" s="250"/>
-      <c r="B72" s="244"/>
+      <c r="A72" s="279"/>
+      <c r="B72" s="233"/>
       <c r="C72" s="3" t="s">
         <v>76</v>
       </c>
@@ -11618,8 +12131,8 @@
       <c r="R72" s="136"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A73" s="250"/>
-      <c r="B73" s="244"/>
+      <c r="A73" s="279"/>
+      <c r="B73" s="233"/>
       <c r="C73" s="3" t="s">
         <v>77</v>
       </c>
@@ -11654,8 +12167,8 @@
       <c r="R73" s="136"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="250"/>
-      <c r="B74" s="244" t="s">
+      <c r="A74" s="279"/>
+      <c r="B74" s="233" t="s">
         <v>30</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -11692,8 +12205,8 @@
       <c r="R74" s="136"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="250"/>
-      <c r="B75" s="244"/>
+      <c r="A75" s="279"/>
+      <c r="B75" s="233"/>
       <c r="C75" s="3" t="s">
         <v>80</v>
       </c>
@@ -11734,8 +12247,8 @@
       <c r="R75" s="136"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="250"/>
-      <c r="B76" s="244"/>
+      <c r="A76" s="279"/>
+      <c r="B76" s="233"/>
       <c r="C76" s="3" t="s">
         <v>81</v>
       </c>
@@ -11770,8 +12283,8 @@
       <c r="R76" s="136"/>
     </row>
     <row r="77" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="251"/>
-      <c r="B77" s="245"/>
+      <c r="A77" s="280"/>
+      <c r="B77" s="234"/>
       <c r="C77" s="137" t="s">
         <v>82</v>
       </c>
@@ -11806,10 +12319,10 @@
       <c r="R77" s="139"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="228" t="s">
+      <c r="A78" s="281" t="s">
         <v>1431</v>
       </c>
-      <c r="B78" s="235" t="s">
+      <c r="B78" s="250" t="s">
         <v>1432</v>
       </c>
       <c r="C78" s="53"/>
@@ -11842,8 +12355,8 @@
       <c r="R78" s="142"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="229"/>
-      <c r="B79" s="232"/>
+      <c r="A79" s="282"/>
+      <c r="B79" s="245"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
         <v>54</v>
@@ -11874,8 +12387,8 @@
       <c r="R79" s="136"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A80" s="229"/>
-      <c r="B80" s="232"/>
+      <c r="A80" s="282"/>
+      <c r="B80" s="245"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
         <v>54</v>
@@ -11906,8 +12419,8 @@
       <c r="R80" s="136"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="229"/>
-      <c r="B81" s="232"/>
+      <c r="A81" s="282"/>
+      <c r="B81" s="245"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
         <v>54</v>
@@ -11938,8 +12451,8 @@
       <c r="R81" s="136"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="229"/>
-      <c r="B82" s="233"/>
+      <c r="A82" s="282"/>
+      <c r="B82" s="241"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
         <v>54</v>
@@ -11970,8 +12483,8 @@
       <c r="R82" s="136"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="229"/>
-      <c r="B83" s="231" t="s">
+      <c r="A83" s="282"/>
+      <c r="B83" s="240" t="s">
         <v>1433</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -12006,8 +12519,8 @@
       <c r="R83" s="136"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A84" s="229"/>
-      <c r="B84" s="232"/>
+      <c r="A84" s="282"/>
+      <c r="B84" s="245"/>
       <c r="C84" s="3" t="s">
         <v>1454</v>
       </c>
@@ -12040,8 +12553,8 @@
       <c r="R84" s="136"/>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="229"/>
-      <c r="B85" s="232"/>
+      <c r="A85" s="282"/>
+      <c r="B85" s="245"/>
       <c r="C85" s="3" t="s">
         <v>1455</v>
       </c>
@@ -12074,8 +12587,8 @@
       <c r="R85" s="136"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="229"/>
-      <c r="B86" s="232"/>
+      <c r="A86" s="282"/>
+      <c r="B86" s="245"/>
       <c r="C86" s="3" t="s">
         <v>1456</v>
       </c>
@@ -12108,8 +12621,8 @@
       <c r="R86" s="136"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="229"/>
-      <c r="B87" s="233"/>
+      <c r="A87" s="282"/>
+      <c r="B87" s="241"/>
       <c r="C87" s="3" t="s">
         <v>1457</v>
       </c>
@@ -12142,8 +12655,8 @@
       <c r="R87" s="136"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="229"/>
-      <c r="B88" s="231" t="s">
+      <c r="A88" s="282"/>
+      <c r="B88" s="240" t="s">
         <v>1434</v>
       </c>
       <c r="C88" s="3"/>
@@ -12176,8 +12689,8 @@
       <c r="R88" s="136"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="229"/>
-      <c r="B89" s="232"/>
+      <c r="A89" s="282"/>
+      <c r="B89" s="245"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
         <v>54</v>
@@ -12208,8 +12721,8 @@
       <c r="R89" s="136"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A90" s="229"/>
-      <c r="B90" s="232"/>
+      <c r="A90" s="282"/>
+      <c r="B90" s="245"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
         <v>54</v>
@@ -12240,8 +12753,8 @@
       <c r="R90" s="136"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="229"/>
-      <c r="B91" s="232"/>
+      <c r="A91" s="282"/>
+      <c r="B91" s="245"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
         <v>54</v>
@@ -12272,8 +12785,8 @@
       <c r="R91" s="136"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="229"/>
-      <c r="B92" s="233"/>
+      <c r="A92" s="282"/>
+      <c r="B92" s="241"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
         <v>54</v>
@@ -12304,8 +12817,8 @@
       <c r="R92" s="136"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="229"/>
-      <c r="B93" s="231" t="s">
+      <c r="A93" s="282"/>
+      <c r="B93" s="240" t="s">
         <v>1435</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -12340,8 +12853,8 @@
       <c r="R93" s="136"/>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A94" s="229"/>
-      <c r="B94" s="232"/>
+      <c r="A94" s="282"/>
+      <c r="B94" s="245"/>
       <c r="C94" s="3" t="s">
         <v>1451</v>
       </c>
@@ -12374,8 +12887,8 @@
       <c r="R94" s="136"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="229"/>
-      <c r="B95" s="232"/>
+      <c r="A95" s="282"/>
+      <c r="B95" s="245"/>
       <c r="C95" s="3" t="s">
         <v>1450</v>
       </c>
@@ -12408,8 +12921,8 @@
       <c r="R95" s="136"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="229"/>
-      <c r="B96" s="232"/>
+      <c r="A96" s="282"/>
+      <c r="B96" s="245"/>
       <c r="C96" s="3" t="s">
         <v>1449</v>
       </c>
@@ -12442,8 +12955,8 @@
       <c r="R96" s="136"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="229"/>
-      <c r="B97" s="233"/>
+      <c r="A97" s="282"/>
+      <c r="B97" s="241"/>
       <c r="C97" s="3" t="s">
         <v>1448</v>
       </c>
@@ -12476,8 +12989,8 @@
       <c r="R97" s="136"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="229"/>
-      <c r="B98" s="231" t="s">
+      <c r="A98" s="282"/>
+      <c r="B98" s="240" t="s">
         <v>1442</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -12512,8 +13025,8 @@
       <c r="R98" s="136"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A99" s="229"/>
-      <c r="B99" s="232"/>
+      <c r="A99" s="282"/>
+      <c r="B99" s="245"/>
       <c r="C99" s="3" t="s">
         <v>1440</v>
       </c>
@@ -12546,8 +13059,8 @@
       <c r="R99" s="136"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A100" s="229"/>
-      <c r="B100" s="232"/>
+      <c r="A100" s="282"/>
+      <c r="B100" s="245"/>
       <c r="C100" s="3" t="s">
         <v>1439</v>
       </c>
@@ -12580,8 +13093,8 @@
       <c r="R100" s="136"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A101" s="229"/>
-      <c r="B101" s="232"/>
+      <c r="A101" s="282"/>
+      <c r="B101" s="245"/>
       <c r="C101" s="3" t="s">
         <v>1438</v>
       </c>
@@ -12614,8 +13127,8 @@
       <c r="R101" s="136"/>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A102" s="229"/>
-      <c r="B102" s="233"/>
+      <c r="A102" s="282"/>
+      <c r="B102" s="241"/>
       <c r="C102" s="3" t="s">
         <v>1437</v>
       </c>
@@ -12648,8 +13161,8 @@
       <c r="R102" s="136"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="229"/>
-      <c r="B103" s="231" t="s">
+      <c r="A103" s="282"/>
+      <c r="B103" s="240" t="s">
         <v>1436</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -12684,8 +13197,8 @@
       <c r="R103" s="136"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="229"/>
-      <c r="B104" s="232"/>
+      <c r="A104" s="282"/>
+      <c r="B104" s="245"/>
       <c r="C104" s="3" t="s">
         <v>1446</v>
       </c>
@@ -12718,8 +13231,8 @@
       <c r="R104" s="136"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="229"/>
-      <c r="B105" s="232"/>
+      <c r="A105" s="282"/>
+      <c r="B105" s="245"/>
       <c r="C105" s="3" t="s">
         <v>1445</v>
       </c>
@@ -12752,8 +13265,8 @@
       <c r="R105" s="136"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A106" s="229"/>
-      <c r="B106" s="232"/>
+      <c r="A106" s="282"/>
+      <c r="B106" s="245"/>
       <c r="C106" s="3" t="s">
         <v>1444</v>
       </c>
@@ -12786,8 +13299,8 @@
       <c r="R106" s="136"/>
     </row>
     <row r="107" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="230"/>
-      <c r="B107" s="234"/>
+      <c r="A107" s="283"/>
+      <c r="B107" s="284"/>
       <c r="C107" s="137" t="s">
         <v>1443</v>
       </c>
@@ -12821,6 +13334,98 @@
     </row>
   </sheetData>
   <mergeCells count="116">
+    <mergeCell ref="A78:A107"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B83:B87"/>
+    <mergeCell ref="B78:B82"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="F55:F58"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="C59:C62"/>
+    <mergeCell ref="D59:D62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="A38:A54"/>
+    <mergeCell ref="A55:A77"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="R59:R62"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="R13:R14"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q59:Q62"/>
+    <mergeCell ref="Q41:Q44"/>
+    <mergeCell ref="N41:N44"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="Q66:Q67"/>
+    <mergeCell ref="N55:N58"/>
+    <mergeCell ref="Q55:Q58"/>
+    <mergeCell ref="H55:H58"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="O55:O58"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="N59:N62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="R66:R67"/>
+    <mergeCell ref="M55:M58"/>
+    <mergeCell ref="M59:M62"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C39:C44"/>
     <mergeCell ref="A3:A37"/>
     <mergeCell ref="B3:B15"/>
     <mergeCell ref="B16:B23"/>
@@ -12845,98 +13450,6 @@
     <mergeCell ref="J19:J20"/>
     <mergeCell ref="C6:C10"/>
     <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C39:C44"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="Q66:Q67"/>
-    <mergeCell ref="N55:N58"/>
-    <mergeCell ref="Q55:Q58"/>
-    <mergeCell ref="H55:H58"/>
-    <mergeCell ref="R55:R58"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="O55:O58"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="N59:N62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="R66:R67"/>
-    <mergeCell ref="M55:M58"/>
-    <mergeCell ref="M59:M62"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="R59:R62"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="R13:R14"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q59:Q62"/>
-    <mergeCell ref="Q41:Q44"/>
-    <mergeCell ref="N41:N44"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J12:J14"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="A38:A54"/>
-    <mergeCell ref="A55:A77"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L12:L14"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="B38:B45"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A78:A107"/>
-    <mergeCell ref="B98:B102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B83:B87"/>
-    <mergeCell ref="B78:B82"/>
-    <mergeCell ref="B88:B92"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="F55:F58"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="C59:C62"/>
-    <mergeCell ref="D59:D62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="B65:B69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12945,6 +13458,1263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6AB1D11-D7ED-4D35-9124-40F14AFE6F67}">
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.125" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="4" max="4" width="27.625" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
+    <col min="7" max="7" width="29.875" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="388" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1" s="388"/>
+      <c r="D1" s="389" t="s">
+        <v>2183</v>
+      </c>
+      <c r="E1" s="389"/>
+      <c r="G1" s="324" t="s">
+        <v>2274</v>
+      </c>
+      <c r="H1" s="324"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="388" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2" s="388"/>
+      <c r="D2" s="389" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E2" s="389"/>
+      <c r="G2" s="324" t="s">
+        <v>2275</v>
+      </c>
+      <c r="H2" s="324"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="158"/>
+      <c r="B3" s="158"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="G3" s="392"/>
+      <c r="H3" s="392"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="190" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="190" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2188</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2191</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>2185</v>
+      </c>
+      <c r="E13" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2195</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G17" s="393" t="s">
+        <v>2278</v>
+      </c>
+      <c r="H17" s="393" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>2174</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2197</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>2178</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2201</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>2179</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>2180</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2182</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2126</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>2207</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>2128</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2130</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>2211</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>2213</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>2215</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>2134</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" s="393" t="s">
+        <v>2280</v>
+      </c>
+      <c r="H28" s="393" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>2218</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="393" t="s">
+        <v>2276</v>
+      </c>
+      <c r="B30" s="393" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="393" t="s">
+        <v>2279</v>
+      </c>
+      <c r="H30" s="393" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>2221</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="393" t="s">
+        <v>2277</v>
+      </c>
+      <c r="B32" s="393" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>2223</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>2141</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2225</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2227</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2229</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>2231</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D37" s="390" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="390" t="s">
+        <v>125</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2233</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>2235</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>2237</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>2239</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>2241</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>2242</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>2244</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>2246</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>2247</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>2249</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D48" s="75" t="s">
+        <v>616</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>2251</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D49" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>2253</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D50" s="391" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E50" s="391" t="s">
+        <v>246</v>
+      </c>
+      <c r="F50" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>2255</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D51" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>2257</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>2259</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D53" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>2261</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D54" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>2263</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>2265</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D56" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>2270</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D59" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>2272</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D60" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>1747</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D61" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D62" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D63" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D64" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D65" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D66" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D67" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G69" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G71" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{396B100B-E3DE-4E19-A3FF-31A6CE0566A4}">
   <dimension ref="A1:X355"/>
   <sheetViews>
@@ -12981,88 +14751,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="329" t="s">
+      <c r="A1" s="297" t="s">
         <v>1348</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="326" t="s">
+      <c r="B1" s="298"/>
+      <c r="C1" s="298"/>
+      <c r="D1" s="294" t="s">
         <v>1349</v>
       </c>
-      <c r="E1" s="327"/>
-      <c r="F1" s="328"/>
-      <c r="G1" s="324" t="s">
+      <c r="E1" s="295"/>
+      <c r="F1" s="296"/>
+      <c r="G1" s="292" t="s">
         <v>1350</v>
       </c>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="306" t="s">
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="312" t="s">
         <v>1381</v>
       </c>
-      <c r="K1" s="304"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="321" t="s">
+      <c r="K1" s="313"/>
+      <c r="L1" s="314"/>
+      <c r="M1" s="289" t="s">
         <v>1382</v>
       </c>
-      <c r="N1" s="322"/>
-      <c r="O1" s="323"/>
-      <c r="P1" s="345" t="s">
+      <c r="N1" s="290"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="319" t="s">
         <v>1412</v>
       </c>
-      <c r="Q1" s="346"/>
-      <c r="R1" s="347"/>
-      <c r="S1" s="331" t="s">
+      <c r="Q1" s="320"/>
+      <c r="R1" s="321"/>
+      <c r="S1" s="299" t="s">
         <v>1421</v>
       </c>
-      <c r="T1" s="332"/>
-      <c r="U1" s="333"/>
-      <c r="V1" s="321" t="s">
+      <c r="T1" s="300"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="289" t="s">
         <v>770</v>
       </c>
-      <c r="W1" s="322"/>
-      <c r="X1" s="323"/>
+      <c r="W1" s="290"/>
+      <c r="X1" s="291"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="279" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="342"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="339" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="311"/>
+      <c r="D2" s="307" t="s">
         <v>478</v>
       </c>
-      <c r="E2" s="340"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="336" t="s">
+      <c r="E2" s="308"/>
+      <c r="F2" s="309"/>
+      <c r="G2" s="304" t="s">
         <v>328</v>
       </c>
-      <c r="H2" s="337"/>
-      <c r="I2" s="338"/>
-      <c r="J2" s="288" t="s">
+      <c r="H2" s="305"/>
+      <c r="I2" s="306"/>
+      <c r="J2" s="315" t="s">
         <v>1356</v>
       </c>
-      <c r="K2" s="286"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="229" t="s">
+      <c r="K2" s="316"/>
+      <c r="L2" s="317"/>
+      <c r="M2" s="282" t="s">
         <v>614</v>
       </c>
-      <c r="N2" s="334"/>
-      <c r="O2" s="335"/>
-      <c r="P2" s="344" t="s">
+      <c r="N2" s="302"/>
+      <c r="O2" s="303"/>
+      <c r="P2" s="318" t="s">
         <v>1411</v>
       </c>
-      <c r="Q2" s="340"/>
-      <c r="R2" s="341"/>
-      <c r="S2" s="318" t="s">
+      <c r="Q2" s="308"/>
+      <c r="R2" s="309"/>
+      <c r="S2" s="286" t="s">
         <v>769</v>
       </c>
-      <c r="T2" s="319"/>
-      <c r="U2" s="320"/>
-      <c r="V2" s="229" t="s">
+      <c r="T2" s="287"/>
+      <c r="U2" s="288"/>
+      <c r="V2" s="282" t="s">
         <v>780</v>
       </c>
-      <c r="W2" s="334"/>
-      <c r="X2" s="335"/>
+      <c r="W2" s="302"/>
+      <c r="X2" s="303"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
@@ -17205,7 +18975,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="283" t="s">
+      <c r="A102" s="343" t="s">
         <v>1136</v>
       </c>
       <c r="B102" s="75" t="s">
@@ -17213,7 +18983,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="284"/>
+      <c r="A103" s="344"/>
       <c r="B103" s="76" t="s">
         <v>1138</v>
       </c>
@@ -17234,58 +19004,58 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="297" t="s">
+      <c r="A107" s="326" t="s">
         <v>812</v>
       </c>
-      <c r="B107" s="298"/>
-      <c r="C107" s="316"/>
-      <c r="D107" s="275" t="s">
+      <c r="B107" s="322"/>
+      <c r="C107" s="327"/>
+      <c r="D107" s="229" t="s">
         <v>814</v>
       </c>
-      <c r="E107" s="298"/>
-      <c r="F107" s="316"/>
-      <c r="G107" s="275" t="s">
+      <c r="E107" s="322"/>
+      <c r="F107" s="327"/>
+      <c r="G107" s="229" t="s">
         <v>1080</v>
       </c>
-      <c r="H107" s="298"/>
-      <c r="I107" s="299"/>
-      <c r="J107" s="297" t="s">
+      <c r="H107" s="322"/>
+      <c r="I107" s="323"/>
+      <c r="J107" s="326" t="s">
         <v>1096</v>
       </c>
-      <c r="K107" s="298"/>
-      <c r="L107" s="299"/>
-      <c r="M107" s="275" t="s">
+      <c r="K107" s="322"/>
+      <c r="L107" s="323"/>
+      <c r="M107" s="229" t="s">
         <v>1128</v>
       </c>
-      <c r="N107" s="298"/>
-      <c r="O107" s="299"/>
+      <c r="N107" s="322"/>
+      <c r="O107" s="323"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="300" t="s">
+      <c r="A108" s="328" t="s">
         <v>813</v>
       </c>
-      <c r="B108" s="301"/>
-      <c r="C108" s="317"/>
-      <c r="D108" s="276" t="s">
+      <c r="B108" s="324"/>
+      <c r="C108" s="329"/>
+      <c r="D108" s="230" t="s">
         <v>815</v>
       </c>
-      <c r="E108" s="301"/>
-      <c r="F108" s="317"/>
-      <c r="G108" s="276" t="s">
+      <c r="E108" s="324"/>
+      <c r="F108" s="329"/>
+      <c r="G108" s="230" t="s">
         <v>1079</v>
       </c>
-      <c r="H108" s="301"/>
-      <c r="I108" s="302"/>
-      <c r="J108" s="300" t="s">
+      <c r="H108" s="324"/>
+      <c r="I108" s="325"/>
+      <c r="J108" s="328" t="s">
         <v>1097</v>
       </c>
-      <c r="K108" s="301"/>
-      <c r="L108" s="302"/>
-      <c r="M108" s="276" t="s">
+      <c r="K108" s="324"/>
+      <c r="L108" s="325"/>
+      <c r="M108" s="230" t="s">
         <v>1129</v>
       </c>
-      <c r="N108" s="301"/>
-      <c r="O108" s="302"/>
+      <c r="N108" s="324"/>
+      <c r="O108" s="325"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="47" t="s">
@@ -19260,58 +21030,58 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="309" t="s">
+      <c r="A192" s="333" t="s">
         <v>812</v>
       </c>
-      <c r="B192" s="310"/>
-      <c r="C192" s="311"/>
-      <c r="D192" s="312" t="s">
+      <c r="B192" s="334"/>
+      <c r="C192" s="335"/>
+      <c r="D192" s="336" t="s">
         <v>814</v>
       </c>
-      <c r="E192" s="310"/>
-      <c r="F192" s="311"/>
-      <c r="G192" s="312" t="s">
+      <c r="E192" s="334"/>
+      <c r="F192" s="335"/>
+      <c r="G192" s="336" t="s">
         <v>1080</v>
       </c>
-      <c r="H192" s="310"/>
-      <c r="I192" s="311"/>
-      <c r="J192" s="313" t="s">
+      <c r="H192" s="334"/>
+      <c r="I192" s="335"/>
+      <c r="J192" s="337" t="s">
         <v>1249</v>
       </c>
-      <c r="K192" s="282"/>
-      <c r="L192" s="314"/>
-      <c r="M192" s="313" t="s">
+      <c r="K192" s="239"/>
+      <c r="L192" s="338"/>
+      <c r="M192" s="337" t="s">
         <v>1342</v>
       </c>
-      <c r="N192" s="282"/>
-      <c r="O192" s="315"/>
+      <c r="N192" s="239"/>
+      <c r="O192" s="339"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="290" t="s">
+      <c r="A193" s="346" t="s">
         <v>813</v>
       </c>
-      <c r="B193" s="291"/>
-      <c r="C193" s="292"/>
-      <c r="D193" s="293" t="s">
+      <c r="B193" s="347"/>
+      <c r="C193" s="348"/>
+      <c r="D193" s="349" t="s">
         <v>815</v>
       </c>
-      <c r="E193" s="291"/>
-      <c r="F193" s="292"/>
-      <c r="G193" s="293" t="s">
+      <c r="E193" s="347"/>
+      <c r="F193" s="348"/>
+      <c r="G193" s="349" t="s">
         <v>1079</v>
       </c>
-      <c r="H193" s="291"/>
-      <c r="I193" s="292"/>
-      <c r="J193" s="294" t="s">
+      <c r="H193" s="347"/>
+      <c r="I193" s="348"/>
+      <c r="J193" s="330" t="s">
         <v>1250</v>
       </c>
-      <c r="K193" s="295"/>
-      <c r="L193" s="296"/>
-      <c r="M193" s="294" t="s">
+      <c r="K193" s="331"/>
+      <c r="L193" s="350"/>
+      <c r="M193" s="330" t="s">
         <v>1346</v>
       </c>
-      <c r="N193" s="295"/>
-      <c r="O193" s="308"/>
+      <c r="N193" s="331"/>
+      <c r="O193" s="332"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="47" t="s">
@@ -21983,58 +23753,58 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A278" s="303" t="s">
+      <c r="A278" s="341" t="s">
         <v>812</v>
       </c>
-      <c r="B278" s="304"/>
-      <c r="C278" s="305"/>
-      <c r="D278" s="306" t="s">
+      <c r="B278" s="313"/>
+      <c r="C278" s="314"/>
+      <c r="D278" s="312" t="s">
         <v>814</v>
       </c>
-      <c r="E278" s="304"/>
-      <c r="F278" s="305"/>
-      <c r="G278" s="306" t="s">
+      <c r="E278" s="313"/>
+      <c r="F278" s="314"/>
+      <c r="G278" s="312" t="s">
         <v>1080</v>
       </c>
-      <c r="H278" s="304"/>
-      <c r="I278" s="307"/>
-      <c r="J278" s="303" t="s">
+      <c r="H278" s="313"/>
+      <c r="I278" s="342"/>
+      <c r="J278" s="341" t="s">
         <v>1096</v>
       </c>
-      <c r="K278" s="304"/>
-      <c r="L278" s="307"/>
-      <c r="M278" s="306" t="s">
+      <c r="K278" s="313"/>
+      <c r="L278" s="342"/>
+      <c r="M278" s="312" t="s">
         <v>1128</v>
       </c>
-      <c r="N278" s="304"/>
-      <c r="O278" s="307"/>
+      <c r="N278" s="313"/>
+      <c r="O278" s="342"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A279" s="285" t="s">
+      <c r="A279" s="345" t="s">
         <v>813</v>
       </c>
-      <c r="B279" s="286"/>
-      <c r="C279" s="287"/>
-      <c r="D279" s="288" t="s">
+      <c r="B279" s="316"/>
+      <c r="C279" s="317"/>
+      <c r="D279" s="315" t="s">
         <v>815</v>
       </c>
-      <c r="E279" s="286"/>
-      <c r="F279" s="287"/>
-      <c r="G279" s="288" t="s">
+      <c r="E279" s="316"/>
+      <c r="F279" s="317"/>
+      <c r="G279" s="315" t="s">
         <v>1079</v>
       </c>
-      <c r="H279" s="286"/>
-      <c r="I279" s="289"/>
-      <c r="J279" s="285" t="s">
+      <c r="H279" s="316"/>
+      <c r="I279" s="340"/>
+      <c r="J279" s="345" t="s">
         <v>1097</v>
       </c>
-      <c r="K279" s="286"/>
-      <c r="L279" s="289"/>
-      <c r="M279" s="288" t="s">
+      <c r="K279" s="316"/>
+      <c r="L279" s="340"/>
+      <c r="M279" s="315" t="s">
         <v>1129</v>
       </c>
-      <c r="N279" s="286"/>
-      <c r="O279" s="289"/>
+      <c r="N279" s="316"/>
+      <c r="O279" s="340"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="47" t="s">
@@ -23999,6 +25769,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -24015,44 +25816,13 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A500557D-39D5-4A8C-8B40-67163349D1B1}">
   <dimension ref="A1:L257"/>
   <sheetViews>
@@ -24073,48 +25843,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="281" t="s">
         <v>2068</v>
       </c>
-      <c r="B1" s="361"/>
-      <c r="C1" s="362"/>
-      <c r="D1" s="363" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="353" t="s">
         <v>2069</v>
       </c>
-      <c r="E1" s="364"/>
-      <c r="F1" s="365"/>
-      <c r="G1" s="345" t="s">
+      <c r="E1" s="354"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="319" t="s">
         <v>2073</v>
       </c>
-      <c r="H1" s="346"/>
-      <c r="I1" s="347"/>
-      <c r="J1" s="249" t="s">
+      <c r="H1" s="320"/>
+      <c r="I1" s="321"/>
+      <c r="J1" s="278" t="s">
         <v>2072</v>
       </c>
-      <c r="K1" s="348"/>
-      <c r="L1" s="349"/>
+      <c r="K1" s="365"/>
+      <c r="L1" s="366"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="229" t="s">
+      <c r="A2" s="282" t="s">
         <v>2065</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="335"/>
-      <c r="D2" s="369" t="s">
+      <c r="B2" s="302"/>
+      <c r="C2" s="303"/>
+      <c r="D2" s="362" t="s">
         <v>1079</v>
       </c>
-      <c r="E2" s="370"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="344" t="s">
+      <c r="E2" s="363"/>
+      <c r="F2" s="364"/>
+      <c r="G2" s="318" t="s">
         <v>1097</v>
       </c>
-      <c r="H2" s="340"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="250" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="279" t="s">
         <v>1991</v>
       </c>
-      <c r="K2" s="342"/>
-      <c r="L2" s="350"/>
+      <c r="K2" s="310"/>
+      <c r="L2" s="367"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
@@ -24525,10 +26295,10 @@
       <c r="F14" s="136" t="s">
         <v>974</v>
       </c>
-      <c r="J14" s="354" t="s">
+      <c r="J14" s="359" t="s">
         <v>1542</v>
       </c>
-      <c r="K14" s="264" t="s">
+      <c r="K14" s="248" t="s">
         <v>1463</v>
       </c>
       <c r="L14" s="136" t="s">
@@ -24554,8 +26324,8 @@
       <c r="F15" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="J15" s="355"/>
-      <c r="K15" s="265"/>
+      <c r="J15" s="360"/>
+      <c r="K15" s="252"/>
       <c r="L15" s="136" t="s">
         <v>2000</v>
       </c>
@@ -24579,13 +26349,13 @@
       <c r="F16" s="136" t="s">
         <v>153</v>
       </c>
-      <c r="G16" s="366" t="s">
+      <c r="G16" s="356" t="s">
         <v>2071</v>
       </c>
-      <c r="H16" s="367"/>
-      <c r="I16" s="368"/>
-      <c r="J16" s="355"/>
-      <c r="K16" s="265"/>
+      <c r="H16" s="357"/>
+      <c r="I16" s="358"/>
+      <c r="J16" s="360"/>
+      <c r="K16" s="252"/>
       <c r="L16" s="136" t="s">
         <v>2001</v>
       </c>
@@ -24609,13 +26379,13 @@
       <c r="F17" s="136" t="s">
         <v>978</v>
       </c>
-      <c r="G17" s="351" t="s">
+      <c r="G17" s="368" t="s">
         <v>2064</v>
       </c>
-      <c r="H17" s="352"/>
-      <c r="I17" s="353"/>
-      <c r="J17" s="355"/>
-      <c r="K17" s="265"/>
+      <c r="H17" s="369"/>
+      <c r="I17" s="370"/>
+      <c r="J17" s="360"/>
+      <c r="K17" s="252"/>
       <c r="L17" s="136" t="s">
         <v>2002</v>
       </c>
@@ -24642,8 +26412,8 @@
       <c r="G18" s="205"/>
       <c r="H18" s="198"/>
       <c r="I18" s="203"/>
-      <c r="J18" s="355"/>
-      <c r="K18" s="265"/>
+      <c r="J18" s="360"/>
+      <c r="K18" s="252"/>
       <c r="L18" s="136" t="s">
         <v>2003</v>
       </c>
@@ -24676,8 +26446,8 @@
       <c r="I19" s="136" t="s">
         <v>1923</v>
       </c>
-      <c r="J19" s="355"/>
-      <c r="K19" s="265"/>
+      <c r="J19" s="360"/>
+      <c r="K19" s="252"/>
       <c r="L19" s="136" t="s">
         <v>2004</v>
       </c>
@@ -24710,8 +26480,8 @@
       <c r="I20" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="J20" s="355"/>
-      <c r="K20" s="265"/>
+      <c r="J20" s="360"/>
+      <c r="K20" s="252"/>
       <c r="L20" s="136" t="s">
         <v>2005</v>
       </c>
@@ -24735,17 +26505,17 @@
       <c r="F21" s="136" t="s">
         <v>983</v>
       </c>
-      <c r="G21" s="359" t="s">
+      <c r="G21" s="373" t="s">
         <v>1924</v>
       </c>
-      <c r="H21" s="357" t="s">
+      <c r="H21" s="371" t="s">
         <v>1463</v>
       </c>
       <c r="I21" s="165" t="s">
         <v>1925</v>
       </c>
-      <c r="J21" s="355"/>
-      <c r="K21" s="265"/>
+      <c r="J21" s="360"/>
+      <c r="K21" s="252"/>
       <c r="L21" s="136" t="s">
         <v>2006</v>
       </c>
@@ -24769,13 +26539,13 @@
       <c r="F22" s="136" t="s">
         <v>985</v>
       </c>
-      <c r="G22" s="360"/>
-      <c r="H22" s="358"/>
+      <c r="G22" s="374"/>
+      <c r="H22" s="372"/>
       <c r="I22" s="165" t="s">
         <v>2066</v>
       </c>
-      <c r="J22" s="355"/>
-      <c r="K22" s="265"/>
+      <c r="J22" s="360"/>
+      <c r="K22" s="252"/>
       <c r="L22" s="136" t="s">
         <v>2007</v>
       </c>
@@ -24808,8 +26578,8 @@
       <c r="I23" s="220" t="s">
         <v>1926</v>
       </c>
-      <c r="J23" s="355"/>
-      <c r="K23" s="265"/>
+      <c r="J23" s="360"/>
+      <c r="K23" s="252"/>
       <c r="L23" s="136" t="s">
         <v>2008</v>
       </c>
@@ -24842,8 +26612,8 @@
       <c r="I24" s="223" t="s">
         <v>919</v>
       </c>
-      <c r="J24" s="355"/>
-      <c r="K24" s="265"/>
+      <c r="J24" s="360"/>
+      <c r="K24" s="252"/>
       <c r="L24" s="136" t="s">
         <v>2009</v>
       </c>
@@ -24876,8 +26646,8 @@
       <c r="I25" s="136" t="s">
         <v>972</v>
       </c>
-      <c r="J25" s="355"/>
-      <c r="K25" s="265"/>
+      <c r="J25" s="360"/>
+      <c r="K25" s="252"/>
       <c r="L25" s="136" t="s">
         <v>2010</v>
       </c>
@@ -24910,8 +26680,8 @@
       <c r="I26" s="136" t="s">
         <v>976</v>
       </c>
-      <c r="J26" s="356"/>
-      <c r="K26" s="266"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="249"/>
       <c r="L26" s="136" t="s">
         <v>1473</v>
       </c>
@@ -25214,10 +26984,10 @@
       <c r="C36" s="136" t="s">
         <v>1920</v>
       </c>
-      <c r="D36" s="354" t="s">
+      <c r="D36" s="359" t="s">
         <v>1008</v>
       </c>
-      <c r="E36" s="264" t="s">
+      <c r="E36" s="248" t="s">
         <v>1463</v>
       </c>
       <c r="F36" s="136" t="s">
@@ -25243,8 +27013,8 @@
       <c r="C37" s="213" t="s">
         <v>2076</v>
       </c>
-      <c r="D37" s="355"/>
-      <c r="E37" s="265"/>
+      <c r="D37" s="360"/>
+      <c r="E37" s="252"/>
       <c r="F37" s="136" t="s">
         <v>1470</v>
       </c>
@@ -25259,8 +27029,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="355"/>
-      <c r="E38" s="265"/>
+      <c r="D38" s="360"/>
+      <c r="E38" s="252"/>
       <c r="F38" s="136" t="s">
         <v>2067</v>
       </c>
@@ -25275,8 +27045,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="356"/>
-      <c r="E39" s="266"/>
+      <c r="D39" s="361"/>
+      <c r="E39" s="249"/>
       <c r="F39" s="136" t="s">
         <v>1473</v>
       </c>
@@ -25371,10 +27141,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="354" t="s">
+      <c r="D44" s="359" t="s">
         <v>1014</v>
       </c>
-      <c r="E44" s="264" t="s">
+      <c r="E44" s="248" t="s">
         <v>1463</v>
       </c>
       <c r="F44" s="136" t="s">
@@ -25391,8 +27161,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="355"/>
-      <c r="E45" s="265"/>
+      <c r="D45" s="360"/>
+      <c r="E45" s="252"/>
       <c r="F45" s="136" t="s">
         <v>1470</v>
       </c>
@@ -25407,8 +27177,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="355"/>
-      <c r="E46" s="265"/>
+      <c r="D46" s="360"/>
+      <c r="E46" s="252"/>
       <c r="F46" s="136" t="s">
         <v>1521</v>
       </c>
@@ -25423,8 +27193,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="356"/>
-      <c r="E47" s="266"/>
+      <c r="D47" s="361"/>
+      <c r="E47" s="249"/>
       <c r="F47" s="136" t="s">
         <v>1473</v>
       </c>
@@ -26145,18 +27915,18 @@
     <row r="95" spans="10:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="10:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="228" t="s">
+      <c r="A97" s="281" t="s">
         <v>2068</v>
       </c>
-      <c r="B97" s="361"/>
-      <c r="C97" s="362"/>
+      <c r="B97" s="351"/>
+      <c r="C97" s="352"/>
     </row>
     <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="229" t="s">
+      <c r="A98" s="282" t="s">
         <v>2065</v>
       </c>
-      <c r="B98" s="334"/>
-      <c r="C98" s="335"/>
+      <c r="B98" s="302"/>
+      <c r="C98" s="303"/>
     </row>
     <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -27776,6 +29546,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J14:J26"/>
+    <mergeCell ref="K14:K26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A1:C1"/>
@@ -27788,21 +29566,13 @@
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J14:J26"/>
-    <mergeCell ref="K14:K26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E760171C-20B1-442D-9A95-111A8C765390}">
   <dimension ref="A1:L151"/>
   <sheetViews>
@@ -27824,38 +29594,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="375" t="s">
+      <c r="A1" s="378" t="s">
         <v>1864</v>
       </c>
-      <c r="B1" s="376"/>
-      <c r="C1" s="377"/>
-      <c r="G1" s="372" t="s">
+      <c r="B1" s="379"/>
+      <c r="C1" s="380"/>
+      <c r="G1" s="375" t="s">
         <v>1844</v>
       </c>
-      <c r="H1" s="373"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="332" t="s">
+      <c r="H1" s="376"/>
+      <c r="I1" s="377"/>
+      <c r="J1" s="300" t="s">
         <v>1421</v>
       </c>
-      <c r="K1" s="332"/>
-      <c r="L1" s="333"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="301"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="378" t="s">
+      <c r="A2" s="381" t="s">
         <v>1845</v>
       </c>
-      <c r="B2" s="379"/>
-      <c r="C2" s="380"/>
-      <c r="G2" s="381" t="s">
+      <c r="B2" s="382"/>
+      <c r="C2" s="383"/>
+      <c r="G2" s="384" t="s">
         <v>1846</v>
       </c>
-      <c r="H2" s="382"/>
-      <c r="I2" s="383"/>
-      <c r="J2" s="384" t="s">
+      <c r="H2" s="385"/>
+      <c r="I2" s="386"/>
+      <c r="J2" s="387" t="s">
         <v>769</v>
       </c>
-      <c r="K2" s="319"/>
-      <c r="L2" s="320"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="288"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="162"/>

--- a/보라매SI/보라매SI_정리_20240725.xlsx
+++ b/보라매SI/보라매SI_정리_20240725.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kimyongrok\EZcareT\보라매SI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBAAC2C-9D7B-40B8-B00B-14E7864233C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD925F64-0337-4EFD-8E6B-9BA53F7CBA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="510" yWindow="2025" windowWidth="13320" windowHeight="14460" xr2:uid="{829BC5A1-984B-4174-88D4-2A48F468ABA4}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7112" uniqueCount="2375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7113" uniqueCount="2375">
   <si>
     <t>UI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -9014,6 +9014,120 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -9021,125 +9135,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9152,21 +9152,183 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9176,169 +9338,49 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9359,18 +9401,6 @@
     <xf numFmtId="0" fontId="0" fillId="25" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9382,36 +9412,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9793,10 +9793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E30F44C7-AF7E-45FD-9757-E04E39F92D96}">
-  <dimension ref="A1:U147"/>
+  <dimension ref="A1:U148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9814,47 +9814,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="245" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="277" t="s">
+      <c r="B1" s="243" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="277" t="s">
+      <c r="C1" s="243" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="281" t="s">
+      <c r="D1" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="281"/>
-      <c r="K1" s="281"/>
-      <c r="L1" s="281"/>
-      <c r="M1" s="281"/>
-      <c r="N1" s="274" t="s">
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="266" t="s">
         <v>55</v>
       </c>
-      <c r="O1" s="274" t="s">
+      <c r="O1" s="266" t="s">
         <v>1452</v>
       </c>
-      <c r="P1" s="274" t="s">
+      <c r="P1" s="266" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" s="274" t="s">
+      <c r="Q1" s="266" t="s">
         <v>328</v>
       </c>
-      <c r="R1" s="272" t="s">
+      <c r="R1" s="264" t="s">
         <v>2315</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="280"/>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
+      <c r="A2" s="246"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
       <c r="D2" s="242">
         <v>240711</v>
       </c>
@@ -9885,17 +9885,17 @@
       <c r="M2" s="242">
         <v>230731</v>
       </c>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
-      <c r="P2" s="275"/>
-      <c r="Q2" s="275"/>
-      <c r="R2" s="273"/>
+      <c r="N2" s="267"/>
+      <c r="O2" s="267"/>
+      <c r="P2" s="267"/>
+      <c r="Q2" s="267"/>
+      <c r="R2" s="265"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="254" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="265" t="s">
+      <c r="B3" s="257" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="52" t="s">
@@ -9946,8 +9946,8 @@
       <c r="R3" s="140"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="283"/>
-      <c r="B4" s="253"/>
+      <c r="A4" s="255"/>
+      <c r="B4" s="258"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
@@ -9986,8 +9986,8 @@
       <c r="R4" s="134"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="283"/>
-      <c r="B5" s="253"/>
+      <c r="A5" s="255"/>
+      <c r="B5" s="258"/>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -10026,15 +10026,15 @@
       <c r="R5" s="134"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="283"/>
-      <c r="B6" s="253"/>
-      <c r="C6" s="245" t="s">
+      <c r="A6" s="255"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="248" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="248" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="250" t="s">
@@ -10049,7 +10049,7 @@
       <c r="I6" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="245" t="s">
+      <c r="J6" s="248" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="250" t="s">
@@ -10074,16 +10074,16 @@
       <c r="R6" s="134"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="283"/>
-      <c r="B7" s="253"/>
-      <c r="C7" s="246"/>
+      <c r="A7" s="255"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="253"/>
       <c r="D7" s="251"/>
-      <c r="E7" s="246"/>
+      <c r="E7" s="253"/>
       <c r="F7" s="251"/>
       <c r="G7" s="251"/>
       <c r="H7" s="251"/>
       <c r="I7" s="251"/>
-      <c r="J7" s="246"/>
+      <c r="J7" s="253"/>
       <c r="K7" s="251"/>
       <c r="L7" s="251"/>
       <c r="M7" s="49"/>
@@ -10102,16 +10102,16 @@
       <c r="R7" s="134"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="283"/>
-      <c r="B8" s="253"/>
-      <c r="C8" s="246"/>
+      <c r="A8" s="255"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="253"/>
       <c r="D8" s="251"/>
-      <c r="E8" s="246"/>
+      <c r="E8" s="253"/>
       <c r="F8" s="251"/>
       <c r="G8" s="251"/>
       <c r="H8" s="251"/>
       <c r="I8" s="251"/>
-      <c r="J8" s="246"/>
+      <c r="J8" s="253"/>
       <c r="K8" s="251"/>
       <c r="L8" s="251"/>
       <c r="M8" s="49"/>
@@ -10130,16 +10130,16 @@
       <c r="R8" s="134"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="283"/>
-      <c r="B9" s="253"/>
-      <c r="C9" s="246"/>
+      <c r="A9" s="255"/>
+      <c r="B9" s="258"/>
+      <c r="C9" s="253"/>
       <c r="D9" s="251"/>
-      <c r="E9" s="246"/>
+      <c r="E9" s="253"/>
       <c r="F9" s="251"/>
       <c r="G9" s="251"/>
       <c r="H9" s="251"/>
       <c r="I9" s="251"/>
-      <c r="J9" s="246"/>
+      <c r="J9" s="253"/>
       <c r="K9" s="251"/>
       <c r="L9" s="251"/>
       <c r="M9" s="49"/>
@@ -10158,16 +10158,16 @@
       <c r="R9" s="234"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="283"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="247"/>
+      <c r="A10" s="255"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="252"/>
-      <c r="E10" s="247"/>
+      <c r="E10" s="249"/>
       <c r="F10" s="252"/>
       <c r="G10" s="252"/>
       <c r="H10" s="252"/>
       <c r="I10" s="252"/>
-      <c r="J10" s="247"/>
+      <c r="J10" s="249"/>
       <c r="K10" s="252"/>
       <c r="L10" s="252"/>
       <c r="M10" s="50"/>
@@ -10186,8 +10186,8 @@
       <c r="R10" s="134"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="283"/>
-      <c r="B11" s="253"/>
+      <c r="A11" s="255"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
@@ -10226,15 +10226,15 @@
       <c r="R11" s="134"/>
     </row>
     <row r="12" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12" s="283"/>
-      <c r="B12" s="253"/>
-      <c r="C12" s="245" t="s">
+      <c r="A12" s="255"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="245" t="s">
+      <c r="D12" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="245" t="s">
+      <c r="E12" s="248" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="250" t="s">
@@ -10249,10 +10249,10 @@
       <c r="I12" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="245" t="s">
+      <c r="J12" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="245" t="s">
+      <c r="K12" s="248" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="250" t="s">
@@ -10276,17 +10276,17 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="283"/>
-      <c r="B13" s="253"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
+      <c r="A13" s="255"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
       <c r="F13" s="251"/>
       <c r="G13" s="251"/>
       <c r="H13" s="251"/>
       <c r="I13" s="251"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
       <c r="L13" s="251"/>
       <c r="M13" s="49"/>
       <c r="N13" s="224">
@@ -10295,7 +10295,7 @@
       <c r="O13" s="224" t="s">
         <v>1453</v>
       </c>
-      <c r="P13" s="243" t="s">
+      <c r="P13" s="283" t="s">
         <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
@@ -10306,17 +10306,17 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="283"/>
-      <c r="B14" s="253"/>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
+      <c r="A14" s="255"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
       <c r="F14" s="251"/>
       <c r="G14" s="251"/>
       <c r="H14" s="251"/>
       <c r="I14" s="251"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
       <c r="L14" s="251"/>
       <c r="M14" s="49"/>
       <c r="N14" s="224">
@@ -10325,89 +10325,71 @@
       <c r="O14" s="224" t="s">
         <v>1453</v>
       </c>
-      <c r="P14" s="244"/>
+      <c r="P14" s="363"/>
       <c r="Q14" s="7" t="s">
         <v>2362</v>
       </c>
       <c r="R14" s="228"/>
     </row>
-    <row r="15" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A15" s="283"/>
-      <c r="B15" s="253"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
-      <c r="L15" s="252"/>
-      <c r="M15" s="50"/>
+    <row r="15" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="255"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
+      <c r="L15" s="251"/>
+      <c r="M15" s="49"/>
       <c r="N15" s="224">
-        <v>240718</v>
+        <v>240905</v>
       </c>
       <c r="O15" s="224" t="s">
         <v>1453</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="P15" s="284"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="228"/>
+    </row>
+    <row r="16" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="255"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="249"/>
+      <c r="D16" s="249"/>
+      <c r="E16" s="249"/>
+      <c r="F16" s="252"/>
+      <c r="G16" s="252"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="249"/>
+      <c r="K16" s="249"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="224">
+        <v>240718</v>
+      </c>
+      <c r="O16" s="224" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="R15" s="228" t="s">
+      <c r="R16" s="228" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="283"/>
-      <c r="B16" s="253"/>
-      <c r="C16" s="3" t="s">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="255"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="10"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="134"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" s="283"/>
-      <c r="B17" s="253" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>12</v>
@@ -10418,23 +10400,23 @@
       <c r="F17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="I17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>8</v>
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="M17" s="10"/>
       <c r="N17" s="3"/>
@@ -10444,10 +10426,12 @@
       <c r="R17" s="134"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" s="283"/>
-      <c r="B18" s="253"/>
+      <c r="A18" s="255"/>
+      <c r="B18" s="258" t="s">
+        <v>19</v>
+      </c>
       <c r="C18" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>12</v>
@@ -10455,14 +10439,14 @@
       <c r="E18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>12</v>
+      <c r="F18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>12</v>
@@ -10473,8 +10457,8 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>12</v>
+      <c r="L18" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M18" s="10"/>
       <c r="N18" s="3"/>
@@ -10484,10 +10468,10 @@
       <c r="R18" s="134"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A19" s="283"/>
-      <c r="B19" s="253"/>
+      <c r="A19" s="255"/>
+      <c r="B19" s="258"/>
       <c r="C19" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>12</v>
@@ -10524,67 +10508,79 @@
       <c r="R19" s="134"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A20" s="283"/>
-      <c r="B20" s="253"/>
-      <c r="C20" s="245" t="s">
+      <c r="A20" s="255"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="134"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="255"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="250" t="s">
+      <c r="D21" s="250" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="245" t="s">
+      <c r="E21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="245" t="s">
+      <c r="F21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="245" t="s">
+      <c r="G21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="245" t="s">
+      <c r="H21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="245" t="s">
+      <c r="I21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="245" t="s">
+      <c r="J21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="245" t="s">
+      <c r="K21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="245" t="s">
+      <c r="L21" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="235" t="s">
-        <v>2321</v>
-      </c>
-      <c r="O20" s="224" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q20" s="233" t="s">
-        <v>56</v>
-      </c>
-      <c r="R20" s="134"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" s="283"/>
-      <c r="B21" s="253"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
-      <c r="H21" s="247"/>
-      <c r="I21" s="247"/>
-      <c r="J21" s="247"/>
-      <c r="K21" s="247"/>
-      <c r="L21" s="247"/>
-      <c r="M21" s="50"/>
+      <c r="M21" s="48"/>
       <c r="N21" s="235" t="s">
         <v>2321</v>
       </c>
@@ -10592,7 +10588,7 @@
         <v>1453</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="233" t="s">
         <v>56</v>
@@ -10600,50 +10596,38 @@
       <c r="R21" s="134"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="283"/>
-      <c r="B22" s="253"/>
-      <c r="C22" s="3" t="s">
+      <c r="A22" s="255"/>
+      <c r="B22" s="258"/>
+      <c r="C22" s="249"/>
+      <c r="D22" s="252"/>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
+      <c r="H22" s="249"/>
+      <c r="I22" s="249"/>
+      <c r="J22" s="249"/>
+      <c r="K22" s="249"/>
+      <c r="L22" s="249"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="235" t="s">
+        <v>2321</v>
+      </c>
+      <c r="O22" s="224" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q22" s="233" t="s">
+        <v>56</v>
+      </c>
+      <c r="R22" s="134"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="255"/>
+      <c r="B23" s="258"/>
+      <c r="C23" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="134"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A23" s="283"/>
-      <c r="B23" s="253"/>
-      <c r="C23" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>12</v>
@@ -10680,10 +10664,10 @@
       <c r="R23" s="134"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A24" s="283"/>
-      <c r="B24" s="253"/>
+      <c r="A24" s="255"/>
+      <c r="B24" s="258"/>
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -10720,12 +10704,10 @@
       <c r="R24" s="134"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A25" s="283"/>
-      <c r="B25" s="253" t="s">
-        <v>20</v>
-      </c>
+      <c r="A25" s="255"/>
+      <c r="B25" s="258"/>
       <c r="C25" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>12</v>
@@ -10733,14 +10715,14 @@
       <c r="E25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>8</v>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>12</v>
@@ -10762,10 +10744,12 @@
       <c r="R25" s="134"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A26" s="283"/>
-      <c r="B26" s="253"/>
+      <c r="A26" s="255"/>
+      <c r="B26" s="258" t="s">
+        <v>20</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>12</v>
@@ -10773,14 +10757,14 @@
       <c r="E26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>12</v>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>12</v>
@@ -10802,10 +10786,10 @@
       <c r="R26" s="134"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A27" s="283"/>
-      <c r="B27" s="253"/>
+      <c r="A27" s="255"/>
+      <c r="B27" s="258"/>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>12</v>
@@ -10842,10 +10826,10 @@
       <c r="R27" s="134"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" s="283"/>
-      <c r="B28" s="253"/>
+      <c r="A28" s="255"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>12</v>
@@ -10853,14 +10837,14 @@
       <c r="E28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>8</v>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>12</v>
@@ -10871,29 +10855,21 @@
       <c r="K28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="4" t="s">
-        <v>8</v>
+      <c r="L28" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="M28" s="10"/>
-      <c r="N28" s="235" t="s">
-        <v>2322</v>
-      </c>
-      <c r="O28" s="224" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R28" s="14"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="134"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="283"/>
-      <c r="B29" s="253"/>
+      <c r="A29" s="255"/>
+      <c r="B29" s="258"/>
       <c r="C29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>12</v>
@@ -10901,14 +10877,14 @@
       <c r="E29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>12</v>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>12</v>
@@ -10919,21 +10895,29 @@
       <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>12</v>
+      <c r="L29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="10"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="134"/>
+      <c r="N29" s="235" t="s">
+        <v>2322</v>
+      </c>
+      <c r="O29" s="224" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" s="14"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" s="283"/>
-      <c r="B30" s="253"/>
+      <c r="A30" s="255"/>
+      <c r="B30" s="258"/>
       <c r="C30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>12</v>
@@ -10970,10 +10954,10 @@
       <c r="R30" s="134"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="283"/>
-      <c r="B31" s="253"/>
+      <c r="A31" s="255"/>
+      <c r="B31" s="258"/>
       <c r="C31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>12</v>
@@ -11010,12 +10994,10 @@
       <c r="R31" s="134"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" s="283"/>
-      <c r="B32" s="253" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="255"/>
+      <c r="B32" s="258"/>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>12</v>
@@ -11023,14 +11005,14 @@
       <c r="E32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>8</v>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>12</v>
@@ -11052,10 +11034,12 @@
       <c r="R32" s="134"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="283"/>
-      <c r="B33" s="253"/>
+      <c r="A33" s="255"/>
+      <c r="B33" s="258" t="s">
+        <v>30</v>
+      </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>12</v>
@@ -11063,14 +11047,14 @@
       <c r="E33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>12</v>
@@ -11092,10 +11076,10 @@
       <c r="R33" s="134"/>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="283"/>
-      <c r="B34" s="253"/>
+      <c r="A34" s="255"/>
+      <c r="B34" s="258"/>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>12</v>
@@ -11132,22 +11116,22 @@
       <c r="R34" s="134"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="283"/>
-      <c r="B35" s="253"/>
+      <c r="A35" s="255"/>
+      <c r="B35" s="258"/>
       <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>8</v>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>12</v>
@@ -11161,41 +11145,33 @@
       <c r="K35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="134"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="255"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="M35" s="10"/>
-      <c r="N35" s="235" t="s">
-        <v>2322</v>
-      </c>
-      <c r="O35" s="224" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="R35" s="14"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="283"/>
-      <c r="B36" s="253"/>
-      <c r="C36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>12</v>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>12</v>
@@ -11209,21 +11185,29 @@
       <c r="K36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>12</v>
+      <c r="L36" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="M36" s="10"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="134"/>
+      <c r="N36" s="235" t="s">
+        <v>2322</v>
+      </c>
+      <c r="O36" s="224" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="R36" s="14"/>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="283"/>
-      <c r="B37" s="253"/>
+      <c r="A37" s="255"/>
+      <c r="B37" s="258"/>
       <c r="C37" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>12</v>
@@ -11259,192 +11243,202 @@
       <c r="Q37" s="7"/>
       <c r="R37" s="134"/>
     </row>
-    <row r="38" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="284"/>
-      <c r="B38" s="256"/>
-      <c r="C38" s="135" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" s="135" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="255"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="135" t="s">
+      <c r="E38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="135" t="s">
+      <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="135" t="s">
+      <c r="G38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="135" t="s">
+      <c r="H38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I38" s="135" t="s">
+      <c r="I38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="135" t="s">
+      <c r="J38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K38" s="135" t="s">
+      <c r="K38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="L38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M38" s="141"/>
-      <c r="N38" s="135"/>
-      <c r="O38" s="135"/>
-      <c r="P38" s="136"/>
-      <c r="Q38" s="136"/>
-      <c r="R38" s="137"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="266" t="s">
+      <c r="M38" s="10"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="134"/>
+    </row>
+    <row r="39" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="256"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="135" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="141"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="136"/>
+      <c r="Q39" s="136"/>
+      <c r="R39" s="137"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="265" t="s">
+      <c r="B40" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C40" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="138" t="s">
+      <c r="F40" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="52" t="s">
+      <c r="G40" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="139" t="s">
+      <c r="H40" s="139" t="s">
         <v>1422</v>
       </c>
-      <c r="I39" s="139" t="s">
+      <c r="I40" s="139" t="s">
         <v>1422</v>
       </c>
-      <c r="J39" s="139" t="s">
+      <c r="J40" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="K39" s="139"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="139"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="133"/>
-      <c r="Q39" s="133"/>
-      <c r="R39" s="140"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="267"/>
-      <c r="B40" s="253"/>
-      <c r="C40" s="245" t="s">
+      <c r="K40" s="139"/>
+      <c r="L40" s="139"/>
+      <c r="M40" s="139"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="133"/>
+      <c r="Q40" s="133"/>
+      <c r="R40" s="140"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="270"/>
+      <c r="B41" s="258"/>
+      <c r="C41" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="D40" s="245" t="s">
+      <c r="D41" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="E40" s="245" t="s">
+      <c r="E41" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="250" t="s">
+      <c r="F41" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="245" t="s">
+      <c r="G41" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="254" t="s">
+      <c r="H41" s="268" t="s">
         <v>1422</v>
       </c>
-      <c r="I40" s="254" t="s">
+      <c r="I41" s="268" t="s">
         <v>1422</v>
       </c>
-      <c r="J40" s="254" t="s">
+      <c r="J41" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="K40" s="48"/>
-      <c r="L40" s="48"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="3">
-        <v>240723</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="R40" s="134"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="267"/>
-      <c r="B41" s="253"/>
-      <c r="C41" s="246"/>
-      <c r="D41" s="247"/>
-      <c r="E41" s="247"/>
-      <c r="F41" s="252"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="255"/>
-      <c r="I41" s="255"/>
-      <c r="J41" s="255"/>
-      <c r="K41" s="50"/>
-      <c r="L41" s="50"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
       <c r="M41" s="10"/>
       <c r="N41" s="3">
-        <v>240729</v>
+        <v>240723</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>1423</v>
+        <v>58</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>2352</v>
+        <v>85</v>
       </c>
       <c r="R41" s="134"/>
     </row>
-    <row r="42" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="267"/>
-      <c r="B42" s="253"/>
-      <c r="C42" s="246"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="219"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="270"/>
+      <c r="B42" s="258"/>
+      <c r="C42" s="253"/>
+      <c r="D42" s="249"/>
+      <c r="E42" s="249"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="262"/>
+      <c r="I42" s="262"/>
+      <c r="J42" s="262"/>
       <c r="K42" s="50"/>
       <c r="L42" s="50"/>
       <c r="M42" s="10"/>
-      <c r="N42" s="240" t="s">
-        <v>2329</v>
+      <c r="N42" s="3">
+        <v>240729</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>2116</v>
-      </c>
-      <c r="Q42" s="233" t="s">
-        <v>2117</v>
+        <v>1423</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>2352</v>
       </c>
       <c r="R42" s="134"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
     </row>
     <row r="43" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A43" s="267"/>
-      <c r="B43" s="253"/>
-      <c r="C43" s="246"/>
+      <c r="A43" s="270"/>
+      <c r="B43" s="258"/>
+      <c r="C43" s="253"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="219"/>
@@ -11462,7 +11456,7 @@
         <v>1453</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>2372</v>
+        <v>2116</v>
       </c>
       <c r="Q43" s="233" t="s">
         <v>2117</v>
@@ -11472,9 +11466,9 @@
       <c r="U43" s="6"/>
     </row>
     <row r="44" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A44" s="267"/>
-      <c r="B44" s="253"/>
-      <c r="C44" s="246"/>
+      <c r="A44" s="270"/>
+      <c r="B44" s="258"/>
+      <c r="C44" s="253"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="219"/>
@@ -11492,7 +11486,7 @@
         <v>1453</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="Q44" s="233" t="s">
         <v>2117</v>
@@ -11502,9 +11496,9 @@
       <c r="U44" s="6"/>
     </row>
     <row r="45" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A45" s="267"/>
-      <c r="B45" s="253"/>
-      <c r="C45" s="246"/>
+      <c r="A45" s="270"/>
+      <c r="B45" s="258"/>
+      <c r="C45" s="253"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="219"/>
@@ -11522,7 +11516,7 @@
         <v>1453</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="Q45" s="233" t="s">
         <v>2117</v>
@@ -11531,10 +11525,10 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="267"/>
-      <c r="B46" s="253"/>
-      <c r="C46" s="246"/>
+    <row r="46" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="270"/>
+      <c r="B46" s="258"/>
+      <c r="C46" s="253"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="219"/>
@@ -11545,26 +11539,26 @@
       <c r="K46" s="50"/>
       <c r="L46" s="50"/>
       <c r="M46" s="10"/>
-      <c r="N46" s="224">
-        <v>240819</v>
+      <c r="N46" s="240" t="s">
+        <v>2329</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>2318</v>
+        <v>2374</v>
       </c>
       <c r="Q46" s="233" t="s">
-        <v>2325</v>
+        <v>2117</v>
       </c>
       <c r="R46" s="134"/>
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="267"/>
-      <c r="B47" s="253"/>
-      <c r="C47" s="246"/>
+      <c r="A47" s="270"/>
+      <c r="B47" s="258"/>
+      <c r="C47" s="253"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="219"/>
@@ -11581,8 +11575,8 @@
       <c r="O47" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P47" s="243" t="s">
-        <v>2335</v>
+      <c r="P47" s="7" t="s">
+        <v>2318</v>
       </c>
       <c r="Q47" s="233" t="s">
         <v>2325</v>
@@ -11592,9 +11586,9 @@
       <c r="U47" s="6"/>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="267"/>
-      <c r="B48" s="253"/>
-      <c r="C48" s="246"/>
+      <c r="A48" s="270"/>
+      <c r="B48" s="258"/>
+      <c r="C48" s="253"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="219"/>
@@ -11605,24 +11599,26 @@
       <c r="K48" s="50"/>
       <c r="L48" s="50"/>
       <c r="M48" s="10"/>
-      <c r="N48" s="235" t="s">
-        <v>2331</v>
+      <c r="N48" s="224">
+        <v>240819</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P48" s="244"/>
+      <c r="P48" s="281" t="s">
+        <v>2335</v>
+      </c>
       <c r="Q48" s="233" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="R48" s="134"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="267"/>
-      <c r="B49" s="253"/>
-      <c r="C49" s="246"/>
+      <c r="A49" s="270"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="253"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="219"/>
@@ -11633,26 +11629,24 @@
       <c r="K49" s="50"/>
       <c r="L49" s="50"/>
       <c r="M49" s="10"/>
-      <c r="N49" s="224">
-        <v>240819</v>
+      <c r="N49" s="235" t="s">
+        <v>2331</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P49" s="7" t="s">
-        <v>2336</v>
-      </c>
+      <c r="P49" s="282"/>
       <c r="Q49" s="233" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="R49" s="134"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="267"/>
-      <c r="B50" s="253"/>
-      <c r="C50" s="246"/>
+      <c r="A50" s="270"/>
+      <c r="B50" s="258"/>
+      <c r="C50" s="253"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="219"/>
@@ -11670,7 +11664,7 @@
         <v>1453</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="Q50" s="233" t="s">
         <v>2325</v>
@@ -11680,9 +11674,9 @@
       <c r="U50" s="6"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="267"/>
-      <c r="B51" s="253"/>
-      <c r="C51" s="246"/>
+      <c r="A51" s="270"/>
+      <c r="B51" s="258"/>
+      <c r="C51" s="253"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="219"/>
@@ -11700,19 +11694,19 @@
         <v>1453</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>2319</v>
+        <v>2337</v>
       </c>
       <c r="Q51" s="233" t="s">
-        <v>2324</v>
-      </c>
-      <c r="R51" s="14"/>
+        <v>2325</v>
+      </c>
+      <c r="R51" s="134"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="267"/>
-      <c r="B52" s="253"/>
-      <c r="C52" s="246"/>
+      <c r="A52" s="270"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="253"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="219"/>
@@ -11729,20 +11723,20 @@
       <c r="O52" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P52" s="248" t="s">
-        <v>2333</v>
+      <c r="P52" s="7" t="s">
+        <v>2319</v>
       </c>
       <c r="Q52" s="233" t="s">
         <v>2324</v>
       </c>
-      <c r="R52" s="134"/>
+      <c r="R52" s="14"/>
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="267"/>
-      <c r="B53" s="253"/>
-      <c r="C53" s="246"/>
+      <c r="A53" s="270"/>
+      <c r="B53" s="258"/>
+      <c r="C53" s="253"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="219"/>
@@ -11753,24 +11747,26 @@
       <c r="K53" s="50"/>
       <c r="L53" s="50"/>
       <c r="M53" s="10"/>
-      <c r="N53" s="12" t="s">
-        <v>2363</v>
+      <c r="N53" s="224">
+        <v>240819</v>
       </c>
       <c r="O53" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P53" s="249"/>
+      <c r="P53" s="283" t="s">
+        <v>2333</v>
+      </c>
       <c r="Q53" s="233" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="R53" s="134"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="267"/>
-      <c r="B54" s="253"/>
-      <c r="C54" s="246"/>
+      <c r="A54" s="270"/>
+      <c r="B54" s="258"/>
+      <c r="C54" s="253"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="219"/>
@@ -11781,26 +11777,24 @@
       <c r="K54" s="50"/>
       <c r="L54" s="50"/>
       <c r="M54" s="10"/>
-      <c r="N54" s="224">
-        <v>240819</v>
+      <c r="N54" s="12" t="s">
+        <v>2363</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>2334</v>
-      </c>
+      <c r="P54" s="284"/>
       <c r="Q54" s="233" t="s">
-        <v>2324</v>
+        <v>2326</v>
       </c>
       <c r="R54" s="134"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="267"/>
-      <c r="B55" s="253"/>
-      <c r="C55" s="246"/>
+      <c r="A55" s="270"/>
+      <c r="B55" s="258"/>
+      <c r="C55" s="253"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="219"/>
@@ -11818,7 +11812,7 @@
         <v>1453</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>2332</v>
+        <v>2334</v>
       </c>
       <c r="Q55" s="233" t="s">
         <v>2324</v>
@@ -11828,9 +11822,9 @@
       <c r="U55" s="6"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="267"/>
-      <c r="B56" s="253"/>
-      <c r="C56" s="246"/>
+      <c r="A56" s="270"/>
+      <c r="B56" s="258"/>
+      <c r="C56" s="253"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
       <c r="F56" s="219"/>
@@ -11841,26 +11835,26 @@
       <c r="K56" s="50"/>
       <c r="L56" s="50"/>
       <c r="M56" s="10"/>
-      <c r="N56" s="224" t="s">
-        <v>2331</v>
+      <c r="N56" s="224">
+        <v>240819</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>2317</v>
+        <v>2332</v>
       </c>
       <c r="Q56" s="233" t="s">
-        <v>2327</v>
+        <v>2324</v>
       </c>
       <c r="R56" s="134"/>
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="267"/>
-      <c r="B57" s="253"/>
-      <c r="C57" s="246"/>
+      <c r="A57" s="270"/>
+      <c r="B57" s="258"/>
+      <c r="C57" s="253"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="219"/>
@@ -11871,14 +11865,14 @@
       <c r="K57" s="50"/>
       <c r="L57" s="50"/>
       <c r="M57" s="10"/>
-      <c r="N57" s="235" t="s">
+      <c r="N57" s="224" t="s">
         <v>2331</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>2341</v>
+        <v>2317</v>
       </c>
       <c r="Q57" s="233" t="s">
         <v>2327</v>
@@ -11888,9 +11882,9 @@
       <c r="U57" s="6"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="267"/>
-      <c r="B58" s="253"/>
-      <c r="C58" s="246"/>
+      <c r="A58" s="270"/>
+      <c r="B58" s="258"/>
+      <c r="C58" s="253"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="219"/>
@@ -11908,7 +11902,7 @@
         <v>1453</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="Q58" s="233" t="s">
         <v>2327</v>
@@ -11918,9 +11912,9 @@
       <c r="U58" s="6"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="267"/>
-      <c r="B59" s="253"/>
-      <c r="C59" s="246"/>
+      <c r="A59" s="270"/>
+      <c r="B59" s="258"/>
+      <c r="C59" s="253"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="219"/>
@@ -11938,7 +11932,7 @@
         <v>1453</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="Q59" s="233" t="s">
         <v>2327</v>
@@ -11948,9 +11942,9 @@
       <c r="U59" s="6"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="267"/>
-      <c r="B60" s="253"/>
-      <c r="C60" s="246"/>
+      <c r="A60" s="270"/>
+      <c r="B60" s="258"/>
+      <c r="C60" s="253"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
       <c r="F60" s="219"/>
@@ -11961,26 +11955,26 @@
       <c r="K60" s="50"/>
       <c r="L60" s="50"/>
       <c r="M60" s="10"/>
-      <c r="N60" s="12" t="s">
-        <v>2363</v>
+      <c r="N60" s="235" t="s">
+        <v>2331</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>2316</v>
+        <v>2343</v>
       </c>
       <c r="Q60" s="233" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="R60" s="134"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="267"/>
-      <c r="B61" s="253"/>
-      <c r="C61" s="246"/>
+      <c r="A61" s="270"/>
+      <c r="B61" s="258"/>
+      <c r="C61" s="253"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="219"/>
@@ -11998,7 +11992,7 @@
         <v>1453</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>2338</v>
+        <v>2316</v>
       </c>
       <c r="Q61" s="233" t="s">
         <v>2326</v>
@@ -12008,9 +12002,9 @@
       <c r="U61" s="6"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="267"/>
-      <c r="B62" s="253"/>
-      <c r="C62" s="246"/>
+      <c r="A62" s="270"/>
+      <c r="B62" s="258"/>
+      <c r="C62" s="253"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="219"/>
@@ -12028,7 +12022,7 @@
         <v>1453</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
       <c r="Q62" s="233" t="s">
         <v>2326</v>
@@ -12038,9 +12032,9 @@
       <c r="U62" s="6"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="267"/>
-      <c r="B63" s="253"/>
-      <c r="C63" s="246"/>
+      <c r="A63" s="270"/>
+      <c r="B63" s="258"/>
+      <c r="C63" s="253"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="219"/>
@@ -12058,7 +12052,7 @@
         <v>1453</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
       <c r="Q63" s="233" t="s">
         <v>2326</v>
@@ -12068,9 +12062,9 @@
       <c r="U63" s="6"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="267"/>
-      <c r="B64" s="253"/>
-      <c r="C64" s="246"/>
+      <c r="A64" s="270"/>
+      <c r="B64" s="258"/>
+      <c r="C64" s="253"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="219"/>
@@ -12081,26 +12075,26 @@
       <c r="K64" s="50"/>
       <c r="L64" s="50"/>
       <c r="M64" s="10"/>
-      <c r="N64" s="12">
-        <v>240830</v>
+      <c r="N64" s="12" t="s">
+        <v>2363</v>
       </c>
       <c r="O64" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P64" s="241" t="s">
-        <v>2359</v>
+      <c r="P64" s="7" t="s">
+        <v>2340</v>
       </c>
       <c r="Q64" s="233" t="s">
-        <v>2361</v>
+        <v>2326</v>
       </c>
       <c r="R64" s="134"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="267"/>
-      <c r="B65" s="253"/>
-      <c r="C65" s="246"/>
+      <c r="A65" s="270"/>
+      <c r="B65" s="258"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
       <c r="F65" s="219"/>
@@ -12117,8 +12111,8 @@
       <c r="O65" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P65" s="146" t="s">
-        <v>2365</v>
+      <c r="P65" s="241" t="s">
+        <v>2359</v>
       </c>
       <c r="Q65" s="233" t="s">
         <v>2361</v>
@@ -12128,9 +12122,9 @@
       <c r="U65" s="6"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="267"/>
-      <c r="B66" s="253"/>
-      <c r="C66" s="246"/>
+      <c r="A66" s="270"/>
+      <c r="B66" s="258"/>
+      <c r="C66" s="253"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="219"/>
@@ -12148,7 +12142,7 @@
         <v>1453</v>
       </c>
       <c r="P66" s="146" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="Q66" s="233" t="s">
         <v>2361</v>
@@ -12158,9 +12152,9 @@
       <c r="U66" s="6"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="267"/>
-      <c r="B67" s="253"/>
-      <c r="C67" s="246"/>
+      <c r="A67" s="270"/>
+      <c r="B67" s="258"/>
+      <c r="C67" s="253"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="219"/>
@@ -12178,7 +12172,7 @@
         <v>1453</v>
       </c>
       <c r="P67" s="146" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="Q67" s="233" t="s">
         <v>2361</v>
@@ -12188,9 +12182,9 @@
       <c r="U67" s="6"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="267"/>
-      <c r="B68" s="253"/>
-      <c r="C68" s="246"/>
+      <c r="A68" s="270"/>
+      <c r="B68" s="258"/>
+      <c r="C68" s="253"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
       <c r="F68" s="219"/>
@@ -12201,14 +12195,14 @@
       <c r="K68" s="50"/>
       <c r="L68" s="50"/>
       <c r="M68" s="10"/>
-      <c r="N68" s="12" t="s">
-        <v>2364</v>
+      <c r="N68" s="12">
+        <v>240830</v>
       </c>
       <c r="O68" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P68" s="146" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="Q68" s="233" t="s">
         <v>2361</v>
@@ -12218,9 +12212,9 @@
       <c r="U68" s="6"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="267"/>
-      <c r="B69" s="253"/>
-      <c r="C69" s="246"/>
+      <c r="A69" s="270"/>
+      <c r="B69" s="258"/>
+      <c r="C69" s="253"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="219"/>
@@ -12238,7 +12232,7 @@
         <v>1453</v>
       </c>
       <c r="P69" s="146" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="Q69" s="233" t="s">
         <v>2361</v>
@@ -12248,9 +12242,9 @@
       <c r="U69" s="6"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="267"/>
-      <c r="B70" s="253"/>
-      <c r="C70" s="246"/>
+      <c r="A70" s="270"/>
+      <c r="B70" s="258"/>
+      <c r="C70" s="253"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="219"/>
@@ -12268,7 +12262,7 @@
         <v>1453</v>
       </c>
       <c r="P70" s="146" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="Q70" s="233" t="s">
         <v>2361</v>
@@ -12278,9 +12272,9 @@
       <c r="U70" s="6"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="267"/>
-      <c r="B71" s="253"/>
-      <c r="C71" s="247"/>
+      <c r="A71" s="270"/>
+      <c r="B71" s="258"/>
+      <c r="C71" s="253"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
       <c r="F71" s="219"/>
@@ -12298,7 +12292,7 @@
         <v>1453</v>
       </c>
       <c r="P71" s="146" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="Q71" s="233" t="s">
         <v>2361</v>
@@ -12308,48 +12302,40 @@
       <c r="U71" s="6"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="267"/>
-      <c r="B72" s="253"/>
-      <c r="C72" s="3" t="s">
+      <c r="A72" s="270"/>
+      <c r="B72" s="258"/>
+      <c r="C72" s="249"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="219"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="50"/>
+      <c r="L72" s="50"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P72" s="146" t="s">
+        <v>2371</v>
+      </c>
+      <c r="Q72" s="233" t="s">
+        <v>2361</v>
+      </c>
+      <c r="R72" s="134"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="270"/>
+      <c r="B73" s="258"/>
+      <c r="C73" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>1422</v>
-      </c>
-      <c r="I72" s="10" t="s">
-        <v>1422</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="233"/>
-      <c r="R72" s="134"/>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="267"/>
-      <c r="B73" s="253" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>53</v>
@@ -12357,23 +12343,23 @@
       <c r="E73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
+      <c r="F73" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H73" s="3" t="s">
+      <c r="H73" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="J73" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
       <c r="M73" s="10"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
@@ -12381,11 +12367,13 @@
       <c r="Q73" s="233"/>
       <c r="R73" s="134"/>
     </row>
-    <row r="74" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="267"/>
-      <c r="B74" s="253"/>
-      <c r="C74" s="245" t="s">
-        <v>46</v>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="270"/>
+      <c r="B74" s="258" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>53</v>
@@ -12411,31 +12399,39 @@
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="10"/>
-      <c r="N74" s="240" t="s">
-        <v>2329</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P74" s="7" t="s">
-        <v>2350</v>
-      </c>
-      <c r="Q74" s="233" t="s">
-        <v>2117</v>
-      </c>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="233"/>
       <c r="R74" s="134"/>
     </row>
     <row r="75" spans="1:21" ht="33" x14ac:dyDescent="0.3">
-      <c r="A75" s="267"/>
-      <c r="B75" s="253"/>
-      <c r="C75" s="246"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
+      <c r="A75" s="270"/>
+      <c r="B75" s="258"/>
+      <c r="C75" s="248" t="s">
+        <v>46</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="10"/>
@@ -12446,17 +12442,17 @@
         <v>1453</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="Q75" s="233" t="s">
         <v>2117</v>
       </c>
       <c r="R75" s="134"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="267"/>
-      <c r="B76" s="253"/>
-      <c r="C76" s="246"/>
+    <row r="76" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="270"/>
+      <c r="B76" s="258"/>
+      <c r="C76" s="253"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -12467,24 +12463,24 @@
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="10"/>
-      <c r="N76" s="224">
-        <v>240819</v>
+      <c r="N76" s="240" t="s">
+        <v>2329</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>2346</v>
+        <v>2351</v>
       </c>
       <c r="Q76" s="233" t="s">
-        <v>2325</v>
+        <v>2117</v>
       </c>
       <c r="R76" s="134"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="267"/>
-      <c r="B77" s="253"/>
-      <c r="C77" s="246"/>
+      <c r="A77" s="270"/>
+      <c r="B77" s="258"/>
+      <c r="C77" s="253"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -12502,7 +12498,7 @@
         <v>1453</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
       <c r="Q77" s="233" t="s">
         <v>2325</v>
@@ -12510,9 +12506,9 @@
       <c r="R77" s="134"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="267"/>
-      <c r="B78" s="253"/>
-      <c r="C78" s="246"/>
+      <c r="A78" s="270"/>
+      <c r="B78" s="258"/>
+      <c r="C78" s="253"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -12530,17 +12526,17 @@
         <v>1453</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
       <c r="Q78" s="233" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="R78" s="134"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="267"/>
-      <c r="B79" s="253"/>
-      <c r="C79" s="246"/>
+      <c r="A79" s="270"/>
+      <c r="B79" s="258"/>
+      <c r="C79" s="253"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -12558,7 +12554,7 @@
         <v>1453</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
       <c r="Q79" s="233" t="s">
         <v>2324</v>
@@ -12566,9 +12562,9 @@
       <c r="R79" s="134"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="267"/>
-      <c r="B80" s="253"/>
-      <c r="C80" s="246"/>
+      <c r="A80" s="270"/>
+      <c r="B80" s="258"/>
+      <c r="C80" s="253"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -12579,24 +12575,24 @@
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="10"/>
-      <c r="N80" s="12" t="s">
-        <v>2363</v>
+      <c r="N80" s="224">
+        <v>240819</v>
       </c>
       <c r="O80" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>2344</v>
+        <v>2349</v>
       </c>
       <c r="Q80" s="233" t="s">
-        <v>2345</v>
+        <v>2324</v>
       </c>
       <c r="R80" s="134"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A81" s="267"/>
-      <c r="B81" s="253"/>
-      <c r="C81" s="247"/>
+      <c r="A81" s="270"/>
+      <c r="B81" s="258"/>
+      <c r="C81" s="253"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -12608,62 +12604,52 @@
       <c r="L81" s="3"/>
       <c r="M81" s="10"/>
       <c r="N81" s="12" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P81" s="7" t="s">
-        <v>2360</v>
+        <v>2344</v>
       </c>
       <c r="Q81" s="233" t="s">
-        <v>2361</v>
+        <v>2345</v>
       </c>
       <c r="R81" s="134"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A82" s="267"/>
-      <c r="B82" s="253"/>
-      <c r="C82" s="3" t="s">
-        <v>2320</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A82" s="270"/>
+      <c r="B82" s="258"/>
+      <c r="C82" s="249"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="10"/>
-      <c r="N82" s="3"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="233"/>
+      <c r="N82" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P82" s="7" t="s">
+        <v>2360</v>
+      </c>
+      <c r="Q82" s="233" t="s">
+        <v>2361</v>
+      </c>
       <c r="R82" s="134"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A83" s="267"/>
-      <c r="B83" s="253" t="s">
-        <v>20</v>
-      </c>
+      <c r="A83" s="270"/>
+      <c r="B83" s="258"/>
       <c r="C83" s="3" t="s">
-        <v>49</v>
+        <v>2320</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>53</v>
@@ -12692,14 +12678,16 @@
       <c r="N83" s="3"/>
       <c r="O83" s="3"/>
       <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
+      <c r="Q83" s="233"/>
       <c r="R83" s="134"/>
     </row>
-    <row r="84" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A84" s="267"/>
-      <c r="B84" s="253"/>
-      <c r="C84" s="245" t="s">
-        <v>48</v>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A84" s="270"/>
+      <c r="B84" s="258" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>53</v>
@@ -12725,52 +12713,60 @@
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="10"/>
-      <c r="N84" s="240" t="s">
-        <v>2329</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P84" s="7" t="s">
-        <v>2355</v>
-      </c>
-      <c r="Q84" s="233" t="s">
-        <v>2117</v>
-      </c>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
       <c r="R84" s="134"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A85" s="267"/>
-      <c r="B85" s="253"/>
-      <c r="C85" s="246"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="3"/>
-      <c r="J85" s="3"/>
+    <row r="85" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A85" s="270"/>
+      <c r="B85" s="258"/>
+      <c r="C85" s="248" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="10"/>
-      <c r="N85" s="224">
-        <v>240819</v>
+      <c r="N85" s="240" t="s">
+        <v>2329</v>
       </c>
       <c r="O85" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P85" s="7" t="s">
-        <v>2353</v>
+        <v>2355</v>
       </c>
       <c r="Q85" s="233" t="s">
-        <v>2325</v>
+        <v>2117</v>
       </c>
       <c r="R85" s="134"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A86" s="267"/>
-      <c r="B86" s="253"/>
-      <c r="C86" s="246"/>
+      <c r="A86" s="270"/>
+      <c r="B86" s="258"/>
+      <c r="C86" s="253"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -12788,17 +12784,17 @@
         <v>1453</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="Q86" s="233" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="R86" s="134"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A87" s="267"/>
-      <c r="B87" s="253"/>
-      <c r="C87" s="247"/>
+      <c r="A87" s="270"/>
+      <c r="B87" s="258"/>
+      <c r="C87" s="253"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -12809,57 +12805,47 @@
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="10"/>
-      <c r="N87" s="3"/>
+      <c r="N87" s="224">
+        <v>240819</v>
+      </c>
       <c r="O87" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
+      <c r="P87" s="7" t="s">
+        <v>2354</v>
+      </c>
+      <c r="Q87" s="233" t="s">
+        <v>2324</v>
+      </c>
       <c r="R87" s="134"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A88" s="267"/>
-      <c r="B88" s="253"/>
-      <c r="C88" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A88" s="270"/>
+      <c r="B88" s="258"/>
+      <c r="C88" s="249"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="10"/>
       <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
+      <c r="O88" s="3" t="s">
+        <v>1453</v>
+      </c>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="134"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A89" s="267"/>
-      <c r="B89" s="253" t="s">
-        <v>30</v>
-      </c>
+      <c r="A89" s="270"/>
+      <c r="B89" s="258"/>
       <c r="C89" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>53</v>
@@ -12891,11 +12877,13 @@
       <c r="Q89" s="7"/>
       <c r="R89" s="134"/>
     </row>
-    <row r="90" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A90" s="267"/>
-      <c r="B90" s="253"/>
-      <c r="C90" s="245" t="s">
-        <v>51</v>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A90" s="270"/>
+      <c r="B90" s="258" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>53</v>
@@ -12921,52 +12909,60 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="10"/>
-      <c r="N90" s="240" t="s">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="134"/>
+    </row>
+    <row r="91" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A91" s="270"/>
+      <c r="B91" s="258"/>
+      <c r="C91" s="248" t="s">
+        <v>51</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="240" t="s">
         <v>2329</v>
-      </c>
-      <c r="O90" s="3" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>2356</v>
-      </c>
-      <c r="Q90" s="233" t="s">
-        <v>2117</v>
-      </c>
-      <c r="R90" s="134"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A91" s="268"/>
-      <c r="B91" s="245"/>
-      <c r="C91" s="246"/>
-      <c r="D91" s="224"/>
-      <c r="E91" s="224"/>
-      <c r="F91" s="224"/>
-      <c r="G91" s="224"/>
-      <c r="H91" s="224"/>
-      <c r="I91" s="224"/>
-      <c r="J91" s="224"/>
-      <c r="K91" s="224"/>
-      <c r="L91" s="224"/>
-      <c r="M91" s="48"/>
-      <c r="N91" s="224">
-        <v>240819</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>1453</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="Q91" s="233" t="s">
-        <v>2325</v>
-      </c>
-      <c r="R91" s="227"/>
+        <v>2117</v>
+      </c>
+      <c r="R91" s="134"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A92" s="268"/>
-      <c r="B92" s="245"/>
-      <c r="C92" s="246"/>
+      <c r="A92" s="271"/>
+      <c r="B92" s="248"/>
+      <c r="C92" s="253"/>
       <c r="D92" s="224"/>
       <c r="E92" s="224"/>
       <c r="F92" s="224"/>
@@ -12984,17 +12980,17 @@
         <v>1453</v>
       </c>
       <c r="P92" s="7" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="Q92" s="233" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="R92" s="227"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A93" s="268"/>
-      <c r="B93" s="245"/>
-      <c r="C93" s="247"/>
+      <c r="A93" s="271"/>
+      <c r="B93" s="248"/>
+      <c r="C93" s="253"/>
       <c r="D93" s="224"/>
       <c r="E93" s="224"/>
       <c r="F93" s="224"/>
@@ -13005,140 +13001,140 @@
       <c r="K93" s="224"/>
       <c r="L93" s="224"/>
       <c r="M93" s="48"/>
-      <c r="N93" s="224"/>
+      <c r="N93" s="224">
+        <v>240819</v>
+      </c>
       <c r="O93" s="3" t="s">
         <v>1453</v>
       </c>
-      <c r="P93" s="225"/>
-      <c r="Q93" s="225"/>
+      <c r="P93" s="7" t="s">
+        <v>2358</v>
+      </c>
+      <c r="Q93" s="233" t="s">
+        <v>2324</v>
+      </c>
       <c r="R93" s="227"/>
     </row>
-    <row r="94" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="269"/>
-      <c r="B94" s="256"/>
-      <c r="C94" s="135" t="s">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A94" s="271"/>
+      <c r="B94" s="248"/>
+      <c r="C94" s="249"/>
+      <c r="D94" s="224"/>
+      <c r="E94" s="224"/>
+      <c r="F94" s="224"/>
+      <c r="G94" s="224"/>
+      <c r="H94" s="224"/>
+      <c r="I94" s="224"/>
+      <c r="J94" s="224"/>
+      <c r="K94" s="224"/>
+      <c r="L94" s="224"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="224"/>
+      <c r="O94" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P94" s="225"/>
+      <c r="Q94" s="225"/>
+      <c r="R94" s="227"/>
+    </row>
+    <row r="95" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="272"/>
+      <c r="B95" s="259"/>
+      <c r="C95" s="135" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="135" t="s">
+      <c r="D95" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="E94" s="135" t="s">
+      <c r="E95" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="F94" s="135" t="s">
+      <c r="F95" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="G94" s="135" t="s">
+      <c r="G95" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="H94" s="135" t="s">
+      <c r="H95" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="I94" s="135" t="s">
+      <c r="I95" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J94" s="135" t="s">
+      <c r="J95" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K94" s="135"/>
-      <c r="L94" s="135"/>
-      <c r="M94" s="141"/>
-      <c r="N94" s="135"/>
-      <c r="O94" s="135"/>
-      <c r="P94" s="136"/>
-      <c r="Q94" s="136"/>
-      <c r="R94" s="137"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A95" s="262" t="s">
+      <c r="K95" s="135"/>
+      <c r="L95" s="135"/>
+      <c r="M95" s="141"/>
+      <c r="N95" s="135"/>
+      <c r="O95" s="135"/>
+      <c r="P95" s="136"/>
+      <c r="Q95" s="136"/>
+      <c r="R95" s="137"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A96" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="265" t="s">
+      <c r="B96" s="257" t="s">
         <v>0</v>
       </c>
-      <c r="C95" s="257" t="s">
+      <c r="C96" s="277" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="257" t="s">
+      <c r="D96" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="E95" s="257" t="s">
+      <c r="E96" s="277" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="276" t="s">
+      <c r="F96" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="271" t="s">
+      <c r="G96" s="260" t="s">
         <v>110</v>
       </c>
-      <c r="H95" s="271" t="s">
+      <c r="H96" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="I95" s="271" t="s">
+      <c r="I96" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="J95" s="271" t="s">
+      <c r="J96" s="260" t="s">
         <v>12</v>
       </c>
-      <c r="K95" s="142"/>
-      <c r="L95" s="142"/>
-      <c r="M95" s="271"/>
-      <c r="N95" s="3">
-        <v>240722</v>
-      </c>
-      <c r="O95" s="226" t="s">
-        <v>1453</v>
-      </c>
-      <c r="P95" s="133" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q95" s="237" t="s">
-        <v>101</v>
-      </c>
-      <c r="R95" s="239"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A96" s="263"/>
-      <c r="B96" s="253"/>
-      <c r="C96" s="246"/>
-      <c r="D96" s="246"/>
-      <c r="E96" s="246"/>
-      <c r="F96" s="251"/>
-      <c r="G96" s="270"/>
-      <c r="H96" s="270"/>
-      <c r="I96" s="270"/>
-      <c r="J96" s="270"/>
-      <c r="K96" s="49"/>
-      <c r="L96" s="49"/>
-      <c r="M96" s="270"/>
+      <c r="K96" s="142"/>
+      <c r="L96" s="142"/>
+      <c r="M96" s="260"/>
       <c r="N96" s="3">
         <v>240722</v>
       </c>
-      <c r="O96" s="3" t="s">
+      <c r="O96" s="226" t="s">
         <v>1453</v>
       </c>
-      <c r="P96" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q96" s="2" t="s">
+      <c r="P96" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q96" s="237" t="s">
         <v>101</v>
       </c>
-      <c r="R96" s="134"/>
+      <c r="R96" s="239"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A97" s="263"/>
-      <c r="B97" s="253"/>
-      <c r="C97" s="246"/>
-      <c r="D97" s="246"/>
-      <c r="E97" s="246"/>
+      <c r="A97" s="279"/>
+      <c r="B97" s="258"/>
+      <c r="C97" s="253"/>
+      <c r="D97" s="253"/>
+      <c r="E97" s="253"/>
       <c r="F97" s="251"/>
-      <c r="G97" s="270"/>
-      <c r="H97" s="270"/>
-      <c r="I97" s="270"/>
-      <c r="J97" s="270"/>
+      <c r="G97" s="261"/>
+      <c r="H97" s="261"/>
+      <c r="I97" s="261"/>
+      <c r="J97" s="261"/>
       <c r="K97" s="49"/>
       <c r="L97" s="49"/>
-      <c r="M97" s="270"/>
+      <c r="M97" s="261"/>
       <c r="N97" s="3">
         <v>240722</v>
       </c>
@@ -13146,7 +13142,7 @@
         <v>1453</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>101</v>
@@ -13154,19 +13150,19 @@
       <c r="R97" s="134"/>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A98" s="263"/>
-      <c r="B98" s="253"/>
-      <c r="C98" s="247"/>
-      <c r="D98" s="247"/>
-      <c r="E98" s="247"/>
-      <c r="F98" s="252"/>
-      <c r="G98" s="255"/>
-      <c r="H98" s="255"/>
-      <c r="I98" s="255"/>
-      <c r="J98" s="255"/>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="255"/>
+      <c r="A98" s="279"/>
+      <c r="B98" s="258"/>
+      <c r="C98" s="253"/>
+      <c r="D98" s="253"/>
+      <c r="E98" s="253"/>
+      <c r="F98" s="251"/>
+      <c r="G98" s="261"/>
+      <c r="H98" s="261"/>
+      <c r="I98" s="261"/>
+      <c r="J98" s="261"/>
+      <c r="K98" s="49"/>
+      <c r="L98" s="49"/>
+      <c r="M98" s="261"/>
       <c r="N98" s="3">
         <v>240722</v>
       </c>
@@ -13174,71 +13170,71 @@
         <v>1453</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q98" s="2" t="s">
         <v>101</v>
       </c>
       <c r="R98" s="134"/>
     </row>
-    <row r="99" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="263"/>
-      <c r="B99" s="253"/>
-      <c r="C99" s="245" t="s">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A99" s="279"/>
+      <c r="B99" s="258"/>
+      <c r="C99" s="249"/>
+      <c r="D99" s="249"/>
+      <c r="E99" s="249"/>
+      <c r="F99" s="252"/>
+      <c r="G99" s="262"/>
+      <c r="H99" s="262"/>
+      <c r="I99" s="262"/>
+      <c r="J99" s="262"/>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="262"/>
+      <c r="N99" s="3">
+        <v>240722</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="P99" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R99" s="134"/>
+    </row>
+    <row r="100" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="279"/>
+      <c r="B100" s="258"/>
+      <c r="C100" s="248" t="s">
         <v>65</v>
       </c>
-      <c r="D99" s="245" t="s">
+      <c r="D100" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="E99" s="245" t="s">
+      <c r="E100" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="F99" s="250" t="s">
+      <c r="F100" s="250" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="254" t="s">
+      <c r="G100" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="H99" s="254" t="s">
+      <c r="H100" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="254" t="s">
+      <c r="I100" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="J99" s="254" t="s">
+      <c r="J100" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="K99" s="48"/>
-      <c r="L99" s="48"/>
-      <c r="M99" s="254"/>
-      <c r="N99" s="238" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O99" s="143" t="s">
-        <v>2328</v>
-      </c>
-      <c r="P99" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q99" s="233" t="s">
-        <v>84</v>
-      </c>
-      <c r="R99" s="134"/>
-    </row>
-    <row r="100" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="263"/>
-      <c r="B100" s="253"/>
-      <c r="C100" s="246"/>
-      <c r="D100" s="246"/>
-      <c r="E100" s="246"/>
-      <c r="F100" s="251"/>
-      <c r="G100" s="270"/>
-      <c r="H100" s="270"/>
-      <c r="I100" s="270"/>
-      <c r="J100" s="270"/>
-      <c r="K100" s="49"/>
-      <c r="L100" s="49"/>
-      <c r="M100" s="270"/>
+      <c r="K100" s="48"/>
+      <c r="L100" s="48"/>
+      <c r="M100" s="268"/>
       <c r="N100" s="238" t="s">
         <v>2330</v>
       </c>
@@ -13246,7 +13242,7 @@
         <v>2328</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="Q100" s="233" t="s">
         <v>84</v>
@@ -13254,19 +13250,19 @@
       <c r="R100" s="134"/>
     </row>
     <row r="101" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="263"/>
-      <c r="B101" s="253"/>
-      <c r="C101" s="246"/>
-      <c r="D101" s="246"/>
-      <c r="E101" s="246"/>
+      <c r="A101" s="279"/>
+      <c r="B101" s="258"/>
+      <c r="C101" s="253"/>
+      <c r="D101" s="253"/>
+      <c r="E101" s="253"/>
       <c r="F101" s="251"/>
-      <c r="G101" s="270"/>
-      <c r="H101" s="270"/>
-      <c r="I101" s="270"/>
-      <c r="J101" s="270"/>
+      <c r="G101" s="261"/>
+      <c r="H101" s="261"/>
+      <c r="I101" s="261"/>
+      <c r="J101" s="261"/>
       <c r="K101" s="49"/>
       <c r="L101" s="49"/>
-      <c r="M101" s="270"/>
+      <c r="M101" s="261"/>
       <c r="N101" s="238" t="s">
         <v>2330</v>
       </c>
@@ -13274,7 +13270,7 @@
         <v>2328</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="Q101" s="233" t="s">
         <v>84</v>
@@ -13282,19 +13278,19 @@
       <c r="R101" s="134"/>
     </row>
     <row r="102" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="263"/>
-      <c r="B102" s="253"/>
-      <c r="C102" s="247"/>
-      <c r="D102" s="247"/>
-      <c r="E102" s="247"/>
-      <c r="F102" s="252"/>
-      <c r="G102" s="255"/>
-      <c r="H102" s="255"/>
-      <c r="I102" s="255"/>
-      <c r="J102" s="255"/>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="255"/>
+      <c r="A102" s="279"/>
+      <c r="B102" s="258"/>
+      <c r="C102" s="253"/>
+      <c r="D102" s="253"/>
+      <c r="E102" s="253"/>
+      <c r="F102" s="251"/>
+      <c r="G102" s="261"/>
+      <c r="H102" s="261"/>
+      <c r="I102" s="261"/>
+      <c r="J102" s="261"/>
+      <c r="K102" s="49"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="261"/>
       <c r="N102" s="238" t="s">
         <v>2330</v>
       </c>
@@ -13302,54 +13298,46 @@
         <v>2328</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q102" s="233" t="s">
         <v>84</v>
       </c>
       <c r="R102" s="134"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A103" s="263"/>
-      <c r="B103" s="253"/>
-      <c r="C103" s="3" t="s">
+    <row r="103" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="279"/>
+      <c r="B103" s="258"/>
+      <c r="C103" s="249"/>
+      <c r="D103" s="249"/>
+      <c r="E103" s="249"/>
+      <c r="F103" s="252"/>
+      <c r="G103" s="262"/>
+      <c r="H103" s="262"/>
+      <c r="I103" s="262"/>
+      <c r="J103" s="262"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="262"/>
+      <c r="N103" s="238" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O103" s="143" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P103" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q103" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="R103" s="134"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="279"/>
+      <c r="B104" s="258"/>
+      <c r="C104" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="3"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="134"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A104" s="263"/>
-      <c r="B104" s="253"/>
-      <c r="C104" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>53</v>
@@ -13382,12 +13370,10 @@
       <c r="R104" s="134"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A105" s="263"/>
-      <c r="B105" s="253" t="s">
-        <v>19</v>
-      </c>
+      <c r="A105" s="279"/>
+      <c r="B105" s="258"/>
       <c r="C105" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>53</v>
@@ -13395,8 +13381,8 @@
       <c r="E105" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>12</v>
+      <c r="F105" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>110</v>
@@ -13419,64 +13405,74 @@
       <c r="Q105" s="7"/>
       <c r="R105" s="134"/>
     </row>
-    <row r="106" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="263"/>
-      <c r="B106" s="253"/>
-      <c r="C106" s="245" t="s">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" s="279"/>
+      <c r="B106" s="258" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="3"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="7"/>
+      <c r="R106" s="134"/>
+    </row>
+    <row r="107" spans="1:18" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="279"/>
+      <c r="B107" s="258"/>
+      <c r="C107" s="248" t="s">
         <v>70</v>
       </c>
-      <c r="D106" s="245" t="s">
+      <c r="D107" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="E106" s="245" t="s">
+      <c r="E107" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="245" t="s">
+      <c r="F107" s="248" t="s">
         <v>12</v>
       </c>
-      <c r="G106" s="254" t="s">
+      <c r="G107" s="268" t="s">
         <v>110</v>
       </c>
-      <c r="H106" s="254" t="s">
+      <c r="H107" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="I106" s="254" t="s">
+      <c r="I107" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="J106" s="254" t="s">
+      <c r="J107" s="268" t="s">
         <v>12</v>
       </c>
-      <c r="K106" s="48"/>
-      <c r="L106" s="48"/>
-      <c r="M106" s="254"/>
-      <c r="N106" s="238" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O106" s="143" t="s">
-        <v>2328</v>
-      </c>
-      <c r="P106" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q106" s="233" t="s">
-        <v>84</v>
-      </c>
-      <c r="R106" s="134"/>
-    </row>
-    <row r="107" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A107" s="263"/>
-      <c r="B107" s="253"/>
-      <c r="C107" s="247"/>
-      <c r="D107" s="247"/>
-      <c r="E107" s="247"/>
-      <c r="F107" s="247"/>
-      <c r="G107" s="255"/>
-      <c r="H107" s="255"/>
-      <c r="I107" s="255"/>
-      <c r="J107" s="255"/>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="255"/>
+      <c r="K107" s="48"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="268"/>
       <c r="N107" s="238" t="s">
         <v>2330</v>
       </c>
@@ -13484,54 +13480,46 @@
         <v>2328</v>
       </c>
       <c r="P107" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q107" s="233" t="s">
         <v>84</v>
       </c>
       <c r="R107" s="134"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A108" s="263"/>
-      <c r="B108" s="253"/>
-      <c r="C108" s="3" t="s">
+    <row r="108" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A108" s="279"/>
+      <c r="B108" s="258"/>
+      <c r="C108" s="249"/>
+      <c r="D108" s="249"/>
+      <c r="E108" s="249"/>
+      <c r="F108" s="249"/>
+      <c r="G108" s="262"/>
+      <c r="H108" s="262"/>
+      <c r="I108" s="262"/>
+      <c r="J108" s="262"/>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="262"/>
+      <c r="N108" s="238" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O108" s="143" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P108" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q108" s="233" t="s">
+        <v>84</v>
+      </c>
+      <c r="R108" s="134"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" s="279"/>
+      <c r="B109" s="258"/>
+      <c r="C109" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-      <c r="N108" s="3"/>
-      <c r="O108" s="3"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="134"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A109" s="263"/>
-      <c r="B109" s="253"/>
-      <c r="C109" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>53</v>
@@ -13564,12 +13552,10 @@
       <c r="R109" s="134"/>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A110" s="263"/>
-      <c r="B110" s="253" t="s">
-        <v>77</v>
-      </c>
+      <c r="A110" s="279"/>
+      <c r="B110" s="258"/>
       <c r="C110" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>53</v>
@@ -13601,11 +13587,13 @@
       <c r="Q110" s="2"/>
       <c r="R110" s="134"/>
     </row>
-    <row r="111" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="263"/>
-      <c r="B111" s="253"/>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" s="279"/>
+      <c r="B111" s="258" t="s">
+        <v>77</v>
+      </c>
       <c r="C111" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>53</v>
@@ -13631,25 +13619,17 @@
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
-      <c r="N111" s="238" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O111" s="143" t="s">
-        <v>2328</v>
-      </c>
-      <c r="P111" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q111" s="2" t="s">
-        <v>1421</v>
-      </c>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="2"/>
       <c r="R111" s="134"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A112" s="263"/>
-      <c r="B112" s="253"/>
+    <row r="112" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A112" s="279"/>
+      <c r="B112" s="258"/>
       <c r="C112" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>53</v>
@@ -13675,17 +13655,25 @@
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="O112" s="3"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="2"/>
+      <c r="N112" s="238" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O112" s="143" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P112" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q112" s="2" t="s">
+        <v>1421</v>
+      </c>
       <c r="R112" s="134"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A113" s="263"/>
-      <c r="B113" s="253"/>
+      <c r="A113" s="279"/>
+      <c r="B113" s="258"/>
       <c r="C113" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>53</v>
@@ -13718,12 +13706,10 @@
       <c r="R113" s="134"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A114" s="263"/>
-      <c r="B114" s="253" t="s">
-        <v>30</v>
-      </c>
+      <c r="A114" s="279"/>
+      <c r="B114" s="258"/>
       <c r="C114" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>53</v>
@@ -13755,11 +13741,13 @@
       <c r="Q114" s="2"/>
       <c r="R114" s="134"/>
     </row>
-    <row r="115" spans="1:18" ht="33" x14ac:dyDescent="0.3">
-      <c r="A115" s="263"/>
-      <c r="B115" s="253"/>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A115" s="279"/>
+      <c r="B115" s="258" t="s">
+        <v>30</v>
+      </c>
       <c r="C115" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>53</v>
@@ -13785,25 +13773,17 @@
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
-      <c r="N115" s="238" t="s">
-        <v>2330</v>
-      </c>
-      <c r="O115" s="143" t="s">
-        <v>2328</v>
-      </c>
-      <c r="P115" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q115" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="N115" s="3"/>
+      <c r="O115" s="3"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="2"/>
       <c r="R115" s="134"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A116" s="263"/>
-      <c r="B116" s="253"/>
+    <row r="116" spans="1:18" ht="33" x14ac:dyDescent="0.3">
+      <c r="A116" s="279"/>
+      <c r="B116" s="258"/>
       <c r="C116" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>53</v>
@@ -13829,119 +13809,131 @@
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
-      <c r="N116" s="3"/>
-      <c r="O116" s="3"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="2"/>
+      <c r="N116" s="238" t="s">
+        <v>2330</v>
+      </c>
+      <c r="O116" s="143" t="s">
+        <v>2328</v>
+      </c>
+      <c r="P116" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q116" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="R116" s="134"/>
     </row>
-    <row r="117" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="264"/>
-      <c r="B117" s="256"/>
-      <c r="C117" s="135" t="s">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A117" s="279"/>
+      <c r="B117" s="258"/>
+      <c r="C117" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="3"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="134"/>
+    </row>
+    <row r="118" spans="1:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="280"/>
+      <c r="B118" s="259"/>
+      <c r="C118" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D117" s="135" t="s">
+      <c r="D118" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="E117" s="135" t="s">
+      <c r="E118" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="F117" s="135" t="s">
+      <c r="F118" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="135" t="s">
+      <c r="G118" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="135" t="s">
+      <c r="H118" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="I117" s="135" t="s">
+      <c r="I118" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J117" s="135" t="s">
+      <c r="J118" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="K117" s="135"/>
-      <c r="L117" s="135"/>
-      <c r="M117" s="135"/>
-      <c r="N117" s="135"/>
-      <c r="O117" s="135"/>
-      <c r="P117" s="136"/>
-      <c r="Q117" s="144"/>
-      <c r="R117" s="137"/>
-    </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="258" t="s">
+      <c r="K118" s="135"/>
+      <c r="L118" s="135"/>
+      <c r="M118" s="135"/>
+      <c r="N118" s="135"/>
+      <c r="O118" s="135"/>
+      <c r="P118" s="136"/>
+      <c r="Q118" s="144"/>
+      <c r="R118" s="137"/>
+    </row>
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="273" t="s">
         <v>1424</v>
       </c>
-      <c r="B118" s="257" t="s">
+      <c r="B119" s="277" t="s">
         <v>1425</v>
       </c>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52" t="s">
+      <c r="C119" s="52"/>
+      <c r="D119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="E118" s="52" t="s">
+      <c r="E119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="F118" s="52" t="s">
+      <c r="F119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="G118" s="52" t="s">
+      <c r="G119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="H118" s="52" t="s">
+      <c r="H119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="I118" s="52" t="s">
+      <c r="I119" s="52" t="s">
         <v>1451</v>
       </c>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="52"/>
-      <c r="M118" s="52"/>
-      <c r="N118" s="52"/>
-      <c r="O118" s="52"/>
-      <c r="P118" s="133"/>
-      <c r="Q118" s="145"/>
-      <c r="R118" s="140"/>
-    </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="259"/>
-      <c r="B119" s="246"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I119" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="3"/>
-      <c r="O119" s="3"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="134"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="52"/>
+      <c r="O119" s="52"/>
+      <c r="P119" s="133"/>
+      <c r="Q119" s="145"/>
+      <c r="R119" s="140"/>
     </row>
     <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="259"/>
-      <c r="B120" s="246"/>
+      <c r="A120" s="274"/>
+      <c r="B120" s="253"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3" t="s">
         <v>53</v>
@@ -13972,8 +13964,8 @@
       <c r="R120" s="134"/>
     </row>
     <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="259"/>
-      <c r="B121" s="246"/>
+      <c r="A121" s="274"/>
+      <c r="B121" s="253"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
         <v>53</v>
@@ -14004,8 +13996,8 @@
       <c r="R121" s="134"/>
     </row>
     <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="259"/>
-      <c r="B122" s="247"/>
+      <c r="A122" s="274"/>
+      <c r="B122" s="253"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
         <v>53</v>
@@ -14036,13 +14028,9 @@
       <c r="R122" s="134"/>
     </row>
     <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="259"/>
-      <c r="B123" s="245" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>1446</v>
-      </c>
+      <c r="A123" s="274"/>
+      <c r="B123" s="249"/>
+      <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
         <v>53</v>
       </c>
@@ -14072,10 +14060,12 @@
       <c r="R123" s="134"/>
     </row>
     <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="259"/>
-      <c r="B124" s="246"/>
+      <c r="A124" s="274"/>
+      <c r="B124" s="248" t="s">
+        <v>1426</v>
+      </c>
       <c r="C124" s="3" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>53</v>
@@ -14092,12 +14082,12 @@
       <c r="H124" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I124" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
+      <c r="I124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
       <c r="M124" s="3"/>
       <c r="N124" s="3"/>
       <c r="O124" s="3"/>
@@ -14106,10 +14096,10 @@
       <c r="R124" s="134"/>
     </row>
     <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="259"/>
-      <c r="B125" s="246"/>
+      <c r="A125" s="274"/>
+      <c r="B125" s="253"/>
       <c r="C125" s="3" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>53</v>
@@ -14126,8 +14116,8 @@
       <c r="H125" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I125" s="3" t="s">
-        <v>53</v>
+      <c r="I125" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="J125" s="10"/>
       <c r="K125" s="10"/>
@@ -14140,10 +14130,10 @@
       <c r="R125" s="134"/>
     </row>
     <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="259"/>
-      <c r="B126" s="246"/>
+      <c r="A126" s="274"/>
+      <c r="B126" s="253"/>
       <c r="C126" s="3" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>53</v>
@@ -14174,10 +14164,10 @@
       <c r="R126" s="134"/>
     </row>
     <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="259"/>
-      <c r="B127" s="247"/>
+      <c r="A127" s="274"/>
+      <c r="B127" s="253"/>
       <c r="C127" s="3" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>53</v>
@@ -14208,11 +14198,11 @@
       <c r="R127" s="134"/>
     </row>
     <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="259"/>
-      <c r="B128" s="245" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C128" s="3"/>
+      <c r="A128" s="274"/>
+      <c r="B128" s="249"/>
+      <c r="C128" s="3" t="s">
+        <v>1450</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>53</v>
       </c>
@@ -14242,8 +14232,10 @@
       <c r="R128" s="134"/>
     </row>
     <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="259"/>
-      <c r="B129" s="246"/>
+      <c r="A129" s="274"/>
+      <c r="B129" s="248" t="s">
+        <v>1427</v>
+      </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
         <v>53</v>
@@ -14274,8 +14266,8 @@
       <c r="R129" s="134"/>
     </row>
     <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="259"/>
-      <c r="B130" s="246"/>
+      <c r="A130" s="274"/>
+      <c r="B130" s="253"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
         <v>53</v>
@@ -14306,8 +14298,8 @@
       <c r="R130" s="134"/>
     </row>
     <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="259"/>
-      <c r="B131" s="246"/>
+      <c r="A131" s="274"/>
+      <c r="B131" s="253"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3" t="s">
         <v>53</v>
@@ -14338,8 +14330,8 @@
       <c r="R131" s="134"/>
     </row>
     <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="259"/>
-      <c r="B132" s="247"/>
+      <c r="A132" s="274"/>
+      <c r="B132" s="253"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
         <v>53</v>
@@ -14370,13 +14362,9 @@
       <c r="R132" s="134"/>
     </row>
     <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="259"/>
-      <c r="B133" s="245" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>1445</v>
-      </c>
+      <c r="A133" s="274"/>
+      <c r="B133" s="249"/>
+      <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
         <v>53</v>
       </c>
@@ -14406,10 +14394,12 @@
       <c r="R133" s="134"/>
     </row>
     <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="259"/>
-      <c r="B134" s="246"/>
+      <c r="A134" s="274"/>
+      <c r="B134" s="248" t="s">
+        <v>1428</v>
+      </c>
       <c r="C134" s="3" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>53</v>
@@ -14440,10 +14430,10 @@
       <c r="R134" s="134"/>
     </row>
     <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="259"/>
-      <c r="B135" s="246"/>
+      <c r="A135" s="274"/>
+      <c r="B135" s="253"/>
       <c r="C135" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>53</v>
@@ -14474,10 +14464,10 @@
       <c r="R135" s="134"/>
     </row>
     <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="259"/>
-      <c r="B136" s="246"/>
+      <c r="A136" s="274"/>
+      <c r="B136" s="253"/>
       <c r="C136" s="3" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>53</v>
@@ -14508,10 +14498,10 @@
       <c r="R136" s="134"/>
     </row>
     <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="259"/>
-      <c r="B137" s="247"/>
+      <c r="A137" s="274"/>
+      <c r="B137" s="253"/>
       <c r="C137" s="3" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>53</v>
@@ -14542,12 +14532,10 @@
       <c r="R137" s="134"/>
     </row>
     <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="259"/>
-      <c r="B138" s="245" t="s">
-        <v>1435</v>
-      </c>
+      <c r="A138" s="274"/>
+      <c r="B138" s="249"/>
       <c r="C138" s="3" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>53</v>
@@ -14578,10 +14566,12 @@
       <c r="R138" s="134"/>
     </row>
     <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="259"/>
-      <c r="B139" s="246"/>
+      <c r="A139" s="274"/>
+      <c r="B139" s="248" t="s">
+        <v>1435</v>
+      </c>
       <c r="C139" s="3" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>53</v>
@@ -14612,10 +14602,10 @@
       <c r="R139" s="134"/>
     </row>
     <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="259"/>
-      <c r="B140" s="246"/>
+      <c r="A140" s="274"/>
+      <c r="B140" s="253"/>
       <c r="C140" s="3" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>53</v>
@@ -14646,10 +14636,10 @@
       <c r="R140" s="134"/>
     </row>
     <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="259"/>
-      <c r="B141" s="246"/>
+      <c r="A141" s="274"/>
+      <c r="B141" s="253"/>
       <c r="C141" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>53</v>
@@ -14680,10 +14670,10 @@
       <c r="R141" s="134"/>
     </row>
     <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="259"/>
-      <c r="B142" s="247"/>
+      <c r="A142" s="274"/>
+      <c r="B142" s="253"/>
       <c r="C142" s="3" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>53</v>
@@ -14700,8 +14690,8 @@
       <c r="H142" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I142" s="4" t="s">
-        <v>8</v>
+      <c r="I142" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="J142" s="10"/>
       <c r="K142" s="10"/>
@@ -14714,12 +14704,10 @@
       <c r="R142" s="134"/>
     </row>
     <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="259"/>
-      <c r="B143" s="245" t="s">
-        <v>1429</v>
-      </c>
+      <c r="A143" s="274"/>
+      <c r="B143" s="249"/>
       <c r="C143" s="3" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>53</v>
@@ -14736,12 +14724,12 @@
       <c r="H143" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I143" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J143" s="3"/>
-      <c r="K143" s="3"/>
-      <c r="L143" s="3"/>
+      <c r="I143" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
       <c r="M143" s="3"/>
       <c r="N143" s="3"/>
       <c r="O143" s="3"/>
@@ -14750,10 +14738,12 @@
       <c r="R143" s="134"/>
     </row>
     <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="259"/>
-      <c r="B144" s="246"/>
+      <c r="A144" s="274"/>
+      <c r="B144" s="248" t="s">
+        <v>1429</v>
+      </c>
       <c r="C144" s="3" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>53</v>
@@ -14784,10 +14774,10 @@
       <c r="R144" s="134"/>
     </row>
     <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="259"/>
-      <c r="B145" s="246"/>
+      <c r="A145" s="274"/>
+      <c r="B145" s="253"/>
       <c r="C145" s="3" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>53</v>
@@ -14818,10 +14808,10 @@
       <c r="R145" s="134"/>
     </row>
     <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="259"/>
-      <c r="B146" s="246"/>
+      <c r="A146" s="274"/>
+      <c r="B146" s="253"/>
       <c r="C146" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>53</v>
@@ -14851,144 +14841,178 @@
       <c r="Q146" s="2"/>
       <c r="R146" s="134"/>
     </row>
-    <row r="147" spans="1:18" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="260"/>
-      <c r="B147" s="261"/>
-      <c r="C147" s="135" t="s">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="274"/>
+      <c r="B147" s="253"/>
+      <c r="C147" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="134"/>
+    </row>
+    <row r="148" spans="1:18" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="275"/>
+      <c r="B148" s="276"/>
+      <c r="C148" s="135" t="s">
         <v>1436</v>
       </c>
-      <c r="D147" s="135" t="s">
+      <c r="D148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="E147" s="135" t="s">
+      <c r="E148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="F147" s="135" t="s">
+      <c r="F148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="G147" s="135" t="s">
+      <c r="G148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="H147" s="135" t="s">
+      <c r="H148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="I147" s="135" t="s">
+      <c r="I148" s="135" t="s">
         <v>53</v>
       </c>
-      <c r="J147" s="135"/>
-      <c r="K147" s="135"/>
-      <c r="L147" s="135"/>
-      <c r="M147" s="135"/>
-      <c r="N147" s="135"/>
-      <c r="O147" s="135"/>
-      <c r="P147" s="136"/>
-      <c r="Q147" s="144"/>
-      <c r="R147" s="137"/>
+      <c r="J148" s="135"/>
+      <c r="K148" s="135"/>
+      <c r="L148" s="135"/>
+      <c r="M148" s="135"/>
+      <c r="N148" s="135"/>
+      <c r="O148" s="135"/>
+      <c r="P148" s="136"/>
+      <c r="Q148" s="144"/>
+      <c r="R148" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="102">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:M1"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H6:H10"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="K6:K10"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A3:A38"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="H95:H98"/>
-    <mergeCell ref="F95:F98"/>
-    <mergeCell ref="C6:C10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="F6:F10"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="E6:E10"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I6:I10"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="J100:J103"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="C91:C94"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C75:C82"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="F100:F103"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="E100:E103"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="D96:D99"/>
+    <mergeCell ref="E96:E99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="D100:D103"/>
+    <mergeCell ref="A119:A148"/>
+    <mergeCell ref="B139:B143"/>
+    <mergeCell ref="B144:B148"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B124:B128"/>
+    <mergeCell ref="B119:B123"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="A96:A118"/>
+    <mergeCell ref="B96:B105"/>
+    <mergeCell ref="A40:A95"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L12:L16"/>
+    <mergeCell ref="L6:L10"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B40:B73"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J12:J16"/>
+    <mergeCell ref="J6:J10"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H100:H103"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="P1:P2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
-    <mergeCell ref="M99:M102"/>
-    <mergeCell ref="H106:H107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J106:J107"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="I106:I107"/>
-    <mergeCell ref="M95:M98"/>
-    <mergeCell ref="A39:A94"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L6:L10"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="B39:B72"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="D106:D107"/>
-    <mergeCell ref="F106:F107"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="J6:J10"/>
-    <mergeCell ref="G99:G102"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="G95:G98"/>
-    <mergeCell ref="H99:H102"/>
-    <mergeCell ref="A118:A147"/>
-    <mergeCell ref="B138:B142"/>
-    <mergeCell ref="B143:B147"/>
-    <mergeCell ref="B133:B137"/>
-    <mergeCell ref="B123:B127"/>
-    <mergeCell ref="B118:B122"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="A95:A117"/>
-    <mergeCell ref="B95:B104"/>
-    <mergeCell ref="P13:P14"/>
-    <mergeCell ref="C40:C71"/>
-    <mergeCell ref="P47:P48"/>
-    <mergeCell ref="P52:P53"/>
-    <mergeCell ref="F99:F102"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="G106:G107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B105:B109"/>
-    <mergeCell ref="E99:E102"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="D95:D98"/>
-    <mergeCell ref="E95:E98"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="D99:D102"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="C84:C87"/>
-    <mergeCell ref="C74:C81"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="M100:M103"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="J96:J99"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="M96:M99"/>
+    <mergeCell ref="P48:P49"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="F96:F99"/>
+    <mergeCell ref="C6:C10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="F6:F10"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="E6:E10"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C41:C72"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H6:H10"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="K12:K16"/>
+    <mergeCell ref="K6:K10"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="A3:A39"/>
+    <mergeCell ref="B3:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="I6:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17592,88 +17616,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" s="333" t="s">
+      <c r="A1" s="300" t="s">
         <v>1344</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="330" t="s">
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="297" t="s">
         <v>1345</v>
       </c>
-      <c r="E1" s="331"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="328" t="s">
+      <c r="E1" s="298"/>
+      <c r="F1" s="299"/>
+      <c r="G1" s="295" t="s">
         <v>1346</v>
       </c>
-      <c r="H1" s="329"/>
-      <c r="I1" s="329"/>
-      <c r="J1" s="309" t="s">
+      <c r="H1" s="296"/>
+      <c r="I1" s="296"/>
+      <c r="J1" s="315" t="s">
         <v>1377</v>
       </c>
-      <c r="K1" s="307"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="325" t="s">
+      <c r="K1" s="316"/>
+      <c r="L1" s="317"/>
+      <c r="M1" s="292" t="s">
         <v>1378</v>
       </c>
-      <c r="N1" s="326"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="349" t="s">
+      <c r="N1" s="293"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="322" t="s">
         <v>1408</v>
       </c>
-      <c r="Q1" s="350"/>
-      <c r="R1" s="351"/>
-      <c r="S1" s="335" t="s">
+      <c r="Q1" s="323"/>
+      <c r="R1" s="324"/>
+      <c r="S1" s="302" t="s">
         <v>1417</v>
       </c>
-      <c r="T1" s="336"/>
-      <c r="U1" s="337"/>
-      <c r="V1" s="325" t="s">
+      <c r="T1" s="303"/>
+      <c r="U1" s="304"/>
+      <c r="V1" s="292" t="s">
         <v>766</v>
       </c>
-      <c r="W1" s="326"/>
-      <c r="X1" s="327"/>
+      <c r="W1" s="293"/>
+      <c r="X1" s="294"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="279" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="343" t="s">
+      <c r="B2" s="313"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="310" t="s">
         <v>474</v>
       </c>
-      <c r="E2" s="344"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="340" t="s">
+      <c r="E2" s="311"/>
+      <c r="F2" s="312"/>
+      <c r="G2" s="307" t="s">
         <v>324</v>
       </c>
-      <c r="H2" s="341"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="292" t="s">
+      <c r="H2" s="308"/>
+      <c r="I2" s="309"/>
+      <c r="J2" s="318" t="s">
         <v>1352</v>
       </c>
-      <c r="K2" s="290"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="259" t="s">
+      <c r="K2" s="319"/>
+      <c r="L2" s="320"/>
+      <c r="M2" s="274" t="s">
         <v>610</v>
       </c>
-      <c r="N2" s="338"/>
-      <c r="O2" s="339"/>
-      <c r="P2" s="348" t="s">
+      <c r="N2" s="305"/>
+      <c r="O2" s="306"/>
+      <c r="P2" s="321" t="s">
         <v>1407</v>
       </c>
-      <c r="Q2" s="344"/>
-      <c r="R2" s="345"/>
-      <c r="S2" s="322" t="s">
+      <c r="Q2" s="311"/>
+      <c r="R2" s="312"/>
+      <c r="S2" s="289" t="s">
         <v>765</v>
       </c>
-      <c r="T2" s="323"/>
-      <c r="U2" s="324"/>
-      <c r="V2" s="259" t="s">
+      <c r="T2" s="290"/>
+      <c r="U2" s="291"/>
+      <c r="V2" s="274" t="s">
         <v>776</v>
       </c>
-      <c r="W2" s="338"/>
-      <c r="X2" s="339"/>
+      <c r="W2" s="305"/>
+      <c r="X2" s="306"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
@@ -21816,7 +21840,7 @@
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="243" t="s">
+      <c r="A102" s="281" t="s">
         <v>1132</v>
       </c>
       <c r="B102" s="74" t="s">
@@ -21824,7 +21848,7 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="244"/>
+      <c r="A103" s="282"/>
       <c r="B103" s="75" t="s">
         <v>1134</v>
       </c>
@@ -21845,58 +21869,58 @@
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="300" t="s">
+      <c r="A107" s="329" t="s">
         <v>808</v>
       </c>
-      <c r="B107" s="301"/>
-      <c r="C107" s="320"/>
-      <c r="D107" s="282" t="s">
+      <c r="B107" s="325"/>
+      <c r="C107" s="330"/>
+      <c r="D107" s="254" t="s">
         <v>810</v>
       </c>
-      <c r="E107" s="301"/>
-      <c r="F107" s="320"/>
-      <c r="G107" s="282" t="s">
+      <c r="E107" s="325"/>
+      <c r="F107" s="330"/>
+      <c r="G107" s="254" t="s">
         <v>1076</v>
       </c>
-      <c r="H107" s="301"/>
-      <c r="I107" s="302"/>
-      <c r="J107" s="300" t="s">
+      <c r="H107" s="325"/>
+      <c r="I107" s="326"/>
+      <c r="J107" s="329" t="s">
         <v>1092</v>
       </c>
-      <c r="K107" s="301"/>
-      <c r="L107" s="302"/>
-      <c r="M107" s="282" t="s">
+      <c r="K107" s="325"/>
+      <c r="L107" s="326"/>
+      <c r="M107" s="254" t="s">
         <v>1124</v>
       </c>
-      <c r="N107" s="301"/>
-      <c r="O107" s="302"/>
+      <c r="N107" s="325"/>
+      <c r="O107" s="326"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="303" t="s">
+      <c r="A108" s="331" t="s">
         <v>809</v>
       </c>
-      <c r="B108" s="304"/>
-      <c r="C108" s="321"/>
-      <c r="D108" s="283" t="s">
+      <c r="B108" s="327"/>
+      <c r="C108" s="332"/>
+      <c r="D108" s="255" t="s">
         <v>811</v>
       </c>
-      <c r="E108" s="304"/>
-      <c r="F108" s="321"/>
-      <c r="G108" s="283" t="s">
+      <c r="E108" s="327"/>
+      <c r="F108" s="332"/>
+      <c r="G108" s="255" t="s">
         <v>1075</v>
       </c>
-      <c r="H108" s="304"/>
-      <c r="I108" s="305"/>
-      <c r="J108" s="303" t="s">
+      <c r="H108" s="327"/>
+      <c r="I108" s="328"/>
+      <c r="J108" s="331" t="s">
         <v>1093</v>
       </c>
-      <c r="K108" s="304"/>
-      <c r="L108" s="305"/>
-      <c r="M108" s="283" t="s">
+      <c r="K108" s="327"/>
+      <c r="L108" s="328"/>
+      <c r="M108" s="255" t="s">
         <v>1125</v>
       </c>
-      <c r="N108" s="304"/>
-      <c r="O108" s="305"/>
+      <c r="N108" s="327"/>
+      <c r="O108" s="328"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="46" t="s">
@@ -23871,58 +23895,58 @@
       </c>
     </row>
     <row r="192" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="312" t="s">
+      <c r="A192" s="336" t="s">
         <v>808</v>
       </c>
-      <c r="B192" s="313"/>
-      <c r="C192" s="314"/>
-      <c r="D192" s="315" t="s">
+      <c r="B192" s="337"/>
+      <c r="C192" s="338"/>
+      <c r="D192" s="339" t="s">
         <v>810</v>
       </c>
-      <c r="E192" s="313"/>
-      <c r="F192" s="314"/>
-      <c r="G192" s="315" t="s">
+      <c r="E192" s="337"/>
+      <c r="F192" s="338"/>
+      <c r="G192" s="339" t="s">
         <v>1076</v>
       </c>
-      <c r="H192" s="313"/>
-      <c r="I192" s="314"/>
-      <c r="J192" s="316" t="s">
+      <c r="H192" s="337"/>
+      <c r="I192" s="338"/>
+      <c r="J192" s="340" t="s">
         <v>1245</v>
       </c>
-      <c r="K192" s="317"/>
-      <c r="L192" s="318"/>
-      <c r="M192" s="316" t="s">
+      <c r="K192" s="341"/>
+      <c r="L192" s="342"/>
+      <c r="M192" s="340" t="s">
         <v>1338</v>
       </c>
-      <c r="N192" s="317"/>
-      <c r="O192" s="319"/>
+      <c r="N192" s="341"/>
+      <c r="O192" s="343"/>
     </row>
     <row r="193" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="294" t="s">
+      <c r="A193" s="348" t="s">
         <v>809</v>
       </c>
       <c r="B193" s="285"/>
-      <c r="C193" s="295"/>
-      <c r="D193" s="296" t="s">
+      <c r="C193" s="349"/>
+      <c r="D193" s="350" t="s">
         <v>811</v>
       </c>
       <c r="E193" s="285"/>
-      <c r="F193" s="295"/>
-      <c r="G193" s="296" t="s">
+      <c r="F193" s="349"/>
+      <c r="G193" s="350" t="s">
         <v>1075</v>
       </c>
       <c r="H193" s="285"/>
-      <c r="I193" s="295"/>
-      <c r="J193" s="297" t="s">
+      <c r="I193" s="349"/>
+      <c r="J193" s="333" t="s">
         <v>1246</v>
       </c>
-      <c r="K193" s="298"/>
-      <c r="L193" s="299"/>
-      <c r="M193" s="297" t="s">
+      <c r="K193" s="334"/>
+      <c r="L193" s="351"/>
+      <c r="M193" s="333" t="s">
         <v>1342</v>
       </c>
-      <c r="N193" s="298"/>
-      <c r="O193" s="311"/>
+      <c r="N193" s="334"/>
+      <c r="O193" s="335"/>
     </row>
     <row r="194" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="46" t="s">
@@ -26594,58 +26618,58 @@
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A278" s="306" t="s">
+      <c r="A278" s="345" t="s">
         <v>808</v>
       </c>
-      <c r="B278" s="307"/>
-      <c r="C278" s="308"/>
-      <c r="D278" s="309" t="s">
+      <c r="B278" s="316"/>
+      <c r="C278" s="317"/>
+      <c r="D278" s="315" t="s">
         <v>810</v>
       </c>
-      <c r="E278" s="307"/>
-      <c r="F278" s="308"/>
-      <c r="G278" s="309" t="s">
+      <c r="E278" s="316"/>
+      <c r="F278" s="317"/>
+      <c r="G278" s="315" t="s">
         <v>1076</v>
       </c>
-      <c r="H278" s="307"/>
-      <c r="I278" s="310"/>
-      <c r="J278" s="306" t="s">
+      <c r="H278" s="316"/>
+      <c r="I278" s="346"/>
+      <c r="J278" s="345" t="s">
         <v>1092</v>
       </c>
-      <c r="K278" s="307"/>
-      <c r="L278" s="310"/>
-      <c r="M278" s="309" t="s">
+      <c r="K278" s="316"/>
+      <c r="L278" s="346"/>
+      <c r="M278" s="315" t="s">
         <v>1124</v>
       </c>
-      <c r="N278" s="307"/>
-      <c r="O278" s="310"/>
+      <c r="N278" s="316"/>
+      <c r="O278" s="346"/>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A279" s="289" t="s">
+      <c r="A279" s="347" t="s">
         <v>809</v>
       </c>
-      <c r="B279" s="290"/>
-      <c r="C279" s="291"/>
-      <c r="D279" s="292" t="s">
+      <c r="B279" s="319"/>
+      <c r="C279" s="320"/>
+      <c r="D279" s="318" t="s">
         <v>811</v>
       </c>
-      <c r="E279" s="290"/>
-      <c r="F279" s="291"/>
-      <c r="G279" s="292" t="s">
+      <c r="E279" s="319"/>
+      <c r="F279" s="320"/>
+      <c r="G279" s="318" t="s">
         <v>1075</v>
       </c>
-      <c r="H279" s="290"/>
-      <c r="I279" s="293"/>
-      <c r="J279" s="289" t="s">
+      <c r="H279" s="319"/>
+      <c r="I279" s="344"/>
+      <c r="J279" s="347" t="s">
         <v>1093</v>
       </c>
-      <c r="K279" s="290"/>
-      <c r="L279" s="293"/>
-      <c r="M279" s="292" t="s">
+      <c r="K279" s="319"/>
+      <c r="L279" s="344"/>
+      <c r="M279" s="318" t="s">
         <v>1125</v>
       </c>
-      <c r="N279" s="290"/>
-      <c r="O279" s="293"/>
+      <c r="N279" s="319"/>
+      <c r="O279" s="344"/>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A280" s="46" t="s">
@@ -28610,6 +28634,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="A279:C279"/>
+    <mergeCell ref="D279:F279"/>
+    <mergeCell ref="G279:I279"/>
+    <mergeCell ref="J279:L279"/>
+    <mergeCell ref="A193:C193"/>
+    <mergeCell ref="D193:F193"/>
+    <mergeCell ref="G193:I193"/>
+    <mergeCell ref="J193:L193"/>
+    <mergeCell ref="J107:L107"/>
+    <mergeCell ref="J108:L108"/>
+    <mergeCell ref="M279:O279"/>
+    <mergeCell ref="A278:C278"/>
+    <mergeCell ref="D278:F278"/>
+    <mergeCell ref="G278:I278"/>
+    <mergeCell ref="J278:L278"/>
+    <mergeCell ref="M278:O278"/>
+    <mergeCell ref="M193:O193"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="J192:L192"/>
+    <mergeCell ref="M192:O192"/>
+    <mergeCell ref="M107:O107"/>
+    <mergeCell ref="M108:O108"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D107:F107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="G107:I107"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="G1:I1"/>
@@ -28626,37 +28681,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="P1:R1"/>
-    <mergeCell ref="M107:O107"/>
-    <mergeCell ref="M108:O108"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D107:F107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="M193:O193"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="J192:L192"/>
-    <mergeCell ref="M192:O192"/>
-    <mergeCell ref="M279:O279"/>
-    <mergeCell ref="A278:C278"/>
-    <mergeCell ref="D278:F278"/>
-    <mergeCell ref="G278:I278"/>
-    <mergeCell ref="J278:L278"/>
-    <mergeCell ref="M278:O278"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A279:C279"/>
-    <mergeCell ref="D279:F279"/>
-    <mergeCell ref="G279:I279"/>
-    <mergeCell ref="J279:L279"/>
-    <mergeCell ref="A193:C193"/>
-    <mergeCell ref="D193:F193"/>
-    <mergeCell ref="G193:I193"/>
-    <mergeCell ref="J193:L193"/>
-    <mergeCell ref="J107:L107"/>
-    <mergeCell ref="J108:L108"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28684,48 +28708,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="273" t="s">
         <v>2061</v>
       </c>
-      <c r="B1" s="366"/>
-      <c r="C1" s="367"/>
-      <c r="D1" s="368" t="s">
+      <c r="B1" s="352"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="354" t="s">
         <v>2062</v>
       </c>
-      <c r="E1" s="369"/>
-      <c r="F1" s="370"/>
-      <c r="G1" s="349" t="s">
+      <c r="E1" s="355"/>
+      <c r="F1" s="356"/>
+      <c r="G1" s="322" t="s">
         <v>2066</v>
       </c>
-      <c r="H1" s="350"/>
-      <c r="I1" s="351"/>
-      <c r="J1" s="262" t="s">
+      <c r="H1" s="323"/>
+      <c r="I1" s="324"/>
+      <c r="J1" s="278" t="s">
         <v>2065</v>
       </c>
-      <c r="K1" s="352"/>
-      <c r="L1" s="353"/>
+      <c r="K1" s="366"/>
+      <c r="L1" s="367"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="259" t="s">
+      <c r="A2" s="274" t="s">
         <v>2058</v>
       </c>
-      <c r="B2" s="338"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="374" t="s">
+      <c r="B2" s="305"/>
+      <c r="C2" s="306"/>
+      <c r="D2" s="364" t="s">
         <v>1075</v>
       </c>
       <c r="E2" s="286"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="348" t="s">
+      <c r="F2" s="365"/>
+      <c r="G2" s="321" t="s">
         <v>1093</v>
       </c>
-      <c r="H2" s="344"/>
-      <c r="I2" s="345"/>
-      <c r="J2" s="263" t="s">
+      <c r="H2" s="311"/>
+      <c r="I2" s="312"/>
+      <c r="J2" s="279" t="s">
         <v>1984</v>
       </c>
-      <c r="K2" s="346"/>
-      <c r="L2" s="354"/>
+      <c r="K2" s="313"/>
+      <c r="L2" s="368"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="201"/>
@@ -29136,10 +29160,10 @@
       <c r="F14" s="134" t="s">
         <v>970</v>
       </c>
-      <c r="J14" s="358" t="s">
+      <c r="J14" s="360" t="s">
         <v>1535</v>
       </c>
-      <c r="K14" s="248" t="s">
+      <c r="K14" s="283" t="s">
         <v>1456</v>
       </c>
       <c r="L14" s="134" t="s">
@@ -29165,8 +29189,8 @@
       <c r="F15" s="134" t="s">
         <v>972</v>
       </c>
-      <c r="J15" s="359"/>
-      <c r="K15" s="361"/>
+      <c r="J15" s="361"/>
+      <c r="K15" s="363"/>
       <c r="L15" s="134" t="s">
         <v>1993</v>
       </c>
@@ -29190,13 +29214,13 @@
       <c r="F16" s="134" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="371" t="s">
+      <c r="G16" s="357" t="s">
         <v>2064</v>
       </c>
-      <c r="H16" s="372"/>
-      <c r="I16" s="373"/>
-      <c r="J16" s="359"/>
-      <c r="K16" s="361"/>
+      <c r="H16" s="358"/>
+      <c r="I16" s="359"/>
+      <c r="J16" s="361"/>
+      <c r="K16" s="363"/>
       <c r="L16" s="134" t="s">
         <v>1994</v>
       </c>
@@ -29220,13 +29244,13 @@
       <c r="F17" s="134" t="s">
         <v>974</v>
       </c>
-      <c r="G17" s="355" t="s">
+      <c r="G17" s="369" t="s">
         <v>2057</v>
       </c>
-      <c r="H17" s="356"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="359"/>
-      <c r="K17" s="361"/>
+      <c r="H17" s="370"/>
+      <c r="I17" s="371"/>
+      <c r="J17" s="361"/>
+      <c r="K17" s="363"/>
       <c r="L17" s="134" t="s">
         <v>1995</v>
       </c>
@@ -29253,8 +29277,8 @@
       <c r="G18" s="197"/>
       <c r="H18" s="190"/>
       <c r="I18" s="195"/>
-      <c r="J18" s="359"/>
-      <c r="K18" s="361"/>
+      <c r="J18" s="361"/>
+      <c r="K18" s="363"/>
       <c r="L18" s="134" t="s">
         <v>1996</v>
       </c>
@@ -29287,8 +29311,8 @@
       <c r="I19" s="134" t="s">
         <v>1916</v>
       </c>
-      <c r="J19" s="359"/>
-      <c r="K19" s="361"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="363"/>
       <c r="L19" s="134" t="s">
         <v>1997</v>
       </c>
@@ -29321,8 +29345,8 @@
       <c r="I20" s="179" t="s">
         <v>121</v>
       </c>
-      <c r="J20" s="359"/>
-      <c r="K20" s="361"/>
+      <c r="J20" s="361"/>
+      <c r="K20" s="363"/>
       <c r="L20" s="134" t="s">
         <v>1998</v>
       </c>
@@ -29346,17 +29370,17 @@
       <c r="F21" s="134" t="s">
         <v>979</v>
       </c>
-      <c r="G21" s="364" t="s">
+      <c r="G21" s="374" t="s">
         <v>1917</v>
       </c>
-      <c r="H21" s="362" t="s">
+      <c r="H21" s="372" t="s">
         <v>1456</v>
       </c>
       <c r="I21" s="157" t="s">
         <v>1918</v>
       </c>
-      <c r="J21" s="359"/>
-      <c r="K21" s="361"/>
+      <c r="J21" s="361"/>
+      <c r="K21" s="363"/>
       <c r="L21" s="134" t="s">
         <v>1999</v>
       </c>
@@ -29380,13 +29404,13 @@
       <c r="F22" s="134" t="s">
         <v>981</v>
       </c>
-      <c r="G22" s="365"/>
-      <c r="H22" s="363"/>
+      <c r="G22" s="375"/>
+      <c r="H22" s="373"/>
       <c r="I22" s="157" t="s">
         <v>2059</v>
       </c>
-      <c r="J22" s="359"/>
-      <c r="K22" s="361"/>
+      <c r="J22" s="361"/>
+      <c r="K22" s="363"/>
       <c r="L22" s="134" t="s">
         <v>2000</v>
       </c>
@@ -29419,8 +29443,8 @@
       <c r="I23" s="212" t="s">
         <v>1919</v>
       </c>
-      <c r="J23" s="359"/>
-      <c r="K23" s="361"/>
+      <c r="J23" s="361"/>
+      <c r="K23" s="363"/>
       <c r="L23" s="134" t="s">
         <v>2001</v>
       </c>
@@ -29453,8 +29477,8 @@
       <c r="I24" s="215" t="s">
         <v>915</v>
       </c>
-      <c r="J24" s="359"/>
-      <c r="K24" s="361"/>
+      <c r="J24" s="361"/>
+      <c r="K24" s="363"/>
       <c r="L24" s="134" t="s">
         <v>2002</v>
       </c>
@@ -29487,8 +29511,8 @@
       <c r="I25" s="134" t="s">
         <v>968</v>
       </c>
-      <c r="J25" s="359"/>
-      <c r="K25" s="361"/>
+      <c r="J25" s="361"/>
+      <c r="K25" s="363"/>
       <c r="L25" s="134" t="s">
         <v>2003</v>
       </c>
@@ -29521,8 +29545,8 @@
       <c r="I26" s="134" t="s">
         <v>972</v>
       </c>
-      <c r="J26" s="360"/>
-      <c r="K26" s="249"/>
+      <c r="J26" s="362"/>
+      <c r="K26" s="284"/>
       <c r="L26" s="134" t="s">
         <v>1466</v>
       </c>
@@ -29825,10 +29849,10 @@
       <c r="C36" s="134" t="s">
         <v>1913</v>
       </c>
-      <c r="D36" s="358" t="s">
+      <c r="D36" s="360" t="s">
         <v>1004</v>
       </c>
-      <c r="E36" s="248" t="s">
+      <c r="E36" s="283" t="s">
         <v>1456</v>
       </c>
       <c r="F36" s="134" t="s">
@@ -29854,8 +29878,8 @@
       <c r="C37" s="205" t="s">
         <v>2069</v>
       </c>
-      <c r="D37" s="359"/>
-      <c r="E37" s="361"/>
+      <c r="D37" s="361"/>
+      <c r="E37" s="363"/>
       <c r="F37" s="134" t="s">
         <v>1463</v>
       </c>
@@ -29870,8 +29894,8 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D38" s="359"/>
-      <c r="E38" s="361"/>
+      <c r="D38" s="361"/>
+      <c r="E38" s="363"/>
       <c r="F38" s="134" t="s">
         <v>2060</v>
       </c>
@@ -29886,8 +29910,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="360"/>
-      <c r="E39" s="249"/>
+      <c r="D39" s="362"/>
+      <c r="E39" s="284"/>
       <c r="F39" s="134" t="s">
         <v>1466</v>
       </c>
@@ -29982,10 +30006,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D44" s="358" t="s">
+      <c r="D44" s="360" t="s">
         <v>1010</v>
       </c>
-      <c r="E44" s="248" t="s">
+      <c r="E44" s="283" t="s">
         <v>1456</v>
       </c>
       <c r="F44" s="134" t="s">
@@ -30002,8 +30026,8 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="359"/>
-      <c r="E45" s="361"/>
+      <c r="D45" s="361"/>
+      <c r="E45" s="363"/>
       <c r="F45" s="134" t="s">
         <v>1463</v>
       </c>
@@ -30018,8 +30042,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D46" s="359"/>
-      <c r="E46" s="361"/>
+      <c r="D46" s="361"/>
+      <c r="E46" s="363"/>
       <c r="F46" s="134" t="s">
         <v>1514</v>
       </c>
@@ -30034,8 +30058,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D47" s="360"/>
-      <c r="E47" s="249"/>
+      <c r="D47" s="362"/>
+      <c r="E47" s="284"/>
       <c r="F47" s="134" t="s">
         <v>1466</v>
       </c>
@@ -30756,18 +30780,18 @@
     <row r="95" spans="10:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="96" spans="10:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="97" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="258" t="s">
+      <c r="A97" s="273" t="s">
         <v>2061</v>
       </c>
-      <c r="B97" s="366"/>
-      <c r="C97" s="367"/>
+      <c r="B97" s="352"/>
+      <c r="C97" s="353"/>
     </row>
     <row r="98" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="259" t="s">
+      <c r="A98" s="274" t="s">
         <v>2058</v>
       </c>
-      <c r="B98" s="338"/>
-      <c r="C98" s="339"/>
+      <c r="B98" s="305"/>
+      <c r="C98" s="306"/>
     </row>
     <row r="99" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="100" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -32387,6 +32411,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J14:J26"/>
+    <mergeCell ref="K14:K26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G21:G22"/>
     <mergeCell ref="A97:C97"/>
     <mergeCell ref="A98:C98"/>
     <mergeCell ref="A1:C1"/>
@@ -32399,14 +32431,6 @@
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J14:J26"/>
-    <mergeCell ref="K14:K26"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32445,11 +32469,11 @@
       </c>
       <c r="H1" s="377"/>
       <c r="I1" s="378"/>
-      <c r="J1" s="336" t="s">
+      <c r="J1" s="303" t="s">
         <v>1417</v>
       </c>
-      <c r="K1" s="336"/>
-      <c r="L1" s="337"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="304"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="382" t="s">
@@ -32465,8 +32489,8 @@
       <c r="J2" s="388" t="s">
         <v>765</v>
       </c>
-      <c r="K2" s="323"/>
-      <c r="L2" s="324"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="291"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="154"/>
